--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$251</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="428">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -110,13 +113,6 @@
   </si>
   <si>
     <t>RECOVERED PROPERTY MUST FIRST BE REPORTED AS STOLEN</t>
-  </si>
-  <si>
-    <t>Segment Level 3 (Property Segment) must first be submitted with Data Element 14 (Type Property Loss/Etc.) as 7=Stolen/Etc. before it can be submitted as 5=Recovered for the same property in Data Element 15 (Property Description). Any property being reported as recovered must first be reported as stolen.
-There are three exceptions to this rule:
-1) When recovered property information is submitted as Segment Action Type A=Add and Data Element 2 (Incident Number) is not on file in the national UCR database. This condition may indicate recovered property is being reported for a pre-NIBRS incident; therefore, the stolen property information will not be on file in the national database.
-2) When Data Element 6 (UCR Offense Code) contains an offense that allows property to be recovered without first being stolen in that same incident (i.e., 250=Counterfeiting/Forgery and 280=Stolen Property Offenses)
-3) When a vehicle was stolen and the recovered property in Data Element 15 (Property Description) is 38=Vehicle Parts/Accessories</t>
   </si>
   <si>
     <t>NUMBER OF RECOVERED VEHICLES CANNOT BE GREATER THAN THE NUMBER STOLEN</t>
@@ -358,9 +354,6 @@
     <t>THIS ADMINISTRATIVE SEGMENT HAS A CONFLICTING LENGTH</t>
   </si>
   <si>
-    <t>Segment Length for the Administrative Segment (Level 1) must be 87 characters (not reporting Cargo Theft) or 88 characters (reporting Cargo Theft). All Administrative Segments in a submission must be formatted in only one of these two lengths.</t>
-  </si>
-  <si>
     <t>CONTAINS NONNUMERIC ENTRY</t>
   </si>
   <si>
@@ -405,9 +398,6 @@
     <t>ERROR - MUTUALLY EXCLUSIVE VALUE=[value]</t>
   </si>
   <si>
-    <t>The data element in error can have multiple data values and was entered with multiple values. However, the entry shown cannot be entered with any other data value. Value N=None/Unknown is mutually exclusive with any other information codes.</t>
-  </si>
-  <si>
     <t>CANNOT CONTAIN EMBEDDED BLANKS BETWEEN FIRST AND LAST NON-BLANK CHARACTERS</t>
   </si>
   <si>
@@ -427,23 +417,7 @@
     <t>DATA CAN ONLY BE ENTERED FOR SPECIFIC OFFENSES</t>
   </si>
   <si>
-    <t>Data Element 12 (Type Criminal Activity/Gang Information) Type criminal activity codes of “B”, “C”, “D”, “E”, “O”, “P”, “T”, or “U” can only be entered when the UCR Offense Code is:
-250=Counterfeiting/Forgery 280=Stolen Property Offenses 35A=Drug/Narcotic Violations 35B=Drug Equipment Violations 39C=Gambling Equipment Violations 370=Pornography/Obscene Material 520=Weapon Law Violations
-(Type Criminal Activity/Gang Information) Gang information codes of “J”, “G”, and “N” can only be entered when the UCR Offense Code is:09A=Murder and Non-negligent Manslaughter
-09B=Negligent Manslaughter 100=Kidnapping/Abduction 11A=Rape
-11B=Sodomy
-11C=Sexual Assault With An Object 11D=Fondling
-120=Robbery
-13A=Aggravated Assault 13B=Simple Assault 13C=Intimidation
-(Type Criminal Activity/Gang Information) Criminal Activity codes of “A”, “F”, “I”, and “S” can only be entered when the UCR Offense Code is:
-720=Animal Cruelty</t>
-  </si>
-  <si>
     <t>DATA MUST BE ENTERED FOR SPECIFIC OFFENSES</t>
-  </si>
-  <si>
-    <t>Data Element 12 (Type Criminal Activity/Gang Information) Must be populated with a valid data value and cannot be blank when Data Element 6 (UCR Offense Code) is:
-250=Counterfeiting/Forgery 280=Stolen Property Offenses 35A=Drug/Narcotic Violations 35B=Drug Equipment Violations 39C=Gambling Equipment Violations 370=Pornography/Obscene Material 520=Weapon Law Violations 720=Animal Cruelty</t>
   </si>
   <si>
     <t>Data Element 13 (Type Weapon/Force Involved) must be populated with a valid data value and cannot be blank when Data Element 6 (UCR Offense Code) is:
@@ -566,9 +540,6 @@
   </si>
   <si>
     <t>THIS OFFENSE SEGMENT HAS A CONFLICTING LENGTH</t>
-  </si>
-  <si>
-    <t>Segment Length for the Offense Segment (Level 2) must be 63 characters (reporting only Bias Motivation #1) or 71 characters (reporting Bias Motivations #2–#5). All Offense Segments in a submission must be formatted in only one of these two lengths.</t>
   </si>
   <si>
     <t>Must be numeric entry with zero left-fill. If Data Element 21 (Estimated Quantity) has the error, note that any decimal fractional quantity must be expressed in thousandths as three numeric digits. If no fractional quantity was involved, then all zeros should be entered.</t>
@@ -1087,9 +1058,6 @@
     <t>THIS VICTIM SEGMENT HAS A CONFLICTING LENGTH</t>
   </si>
   <si>
-    <t>Segment Length for the Victim Segment (Level 4) must be 129 characters (not reporting LEOKA) or 141 characters (reporting LEOKA). All Victim Segments in a submission must be formatted in only one of these two lengths.</t>
-  </si>
-  <si>
     <t>Data Element 36 (Offender Sequence Number) must contain numeric entry (00 through 99) with zero left-fill.</t>
   </si>
   <si>
@@ -1168,9 +1136,6 @@
     <t>OFFENDER SEQUENCE NUMBER CANNOT BE UNKNOWN IF INCIDENT CLEARED EXCEPTIONALLY</t>
   </si>
   <si>
-    <t>Data Element 36 (Offender Sequence Number) contains 00 indicating that nothing is known about the offender(s) regarding number and any identifying information. In order to exceptionally clear the incident, the value cannot be 00. The incident was submitted with Data Element 4 (Cleared Exceptionally) having a value of A through E.</t>
-  </si>
-  <si>
     <t>AT LEAST ONE OFFENDER MUST HAVE KNOWN VALUES</t>
   </si>
   <si>
@@ -1180,9 +1145,6 @@
     <t>OFFENDER DATA MUST BE PRESENT IF OFFENSE CODE IS 09C, JUSTIFIABLE HOMICIDE</t>
   </si>
   <si>
-    <t>The incident was submitted with Data Element 6 (UCR Offense Code) value of 09C=Justifiable Homicide, but unknown information was submitted for all the offender(s). At least one of the offenders must have known information for Age, Sex, and Race.</t>
-  </si>
-  <si>
     <t>VICTIM’S SEX CANNOT BE SAME FOR ALL OFFENDERS FOR OFFENSES OF RAPE</t>
   </si>
   <si>
@@ -1190,9 +1152,6 @@
   </si>
   <si>
     <t>THIS OFFENDER SEGMENT HAS A CONFLICTING LENGTH</t>
-  </si>
-  <si>
-    <t>Segment Length for the Offender Segment (Level 5) must be 45 characters (not reporting Offender Ethnicity) or 46 characters (reporting Offender Ethnicity). All Offender Segments in a submission must be formatted in only one of these two lengths.</t>
   </si>
   <si>
     <t>Data Element 40 (Arrestee Sequence Number) must be numeric entry of 01 to 99 with zero left- fill.</t>
@@ -1437,6 +1396,74 @@
   </si>
   <si>
     <t>Zero Report Segment</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Multi Segment</t>
+  </si>
+  <si>
+    <t>Multi Element</t>
+  </si>
+  <si>
+    <t>Null check</t>
+  </si>
+  <si>
+    <t>Valid value</t>
+  </si>
+  <si>
+    <t>Segment Level 3 (Property Segment) must first be submitted with Data Element 14 (Type Property Loss/Etc.) as 7=Stolen/Etc. before it can be submitted as 5=Recovered for the same property in Data Element 15 (Property Description). Any property being reported as recovered must first be reported as stolen.
+There are three exceptions to this rule:
+1) When recovered property inFormation is submitted as Segment Action Type A=Add and Data Element 2 (Incident Number) is not on file in the national UCR database. This condition may indicate recovered property is being reported for a pre-NIBRS incident; therefore, the stolen property inFormation will not be on file in the national database.
+2) When Data Element 6 (UCR Offense Code) contains an offense that allows property to be recovered without first being stolen in that same incident (i.e., 250=Counterfeiting/Forgery and 280=Stolen Property Offenses)
+3) When a vehicle was stolen and the recovered property in Data Element 15 (Property Description) is 38=Vehicle Parts/Accessories</t>
+  </si>
+  <si>
+    <t>Segment Length for the Administrative Segment (Level 1) must be 87 characters (not reporting Cargo Theft) or 88 characters (reporting Cargo Theft). All Administrative Segments in a submission must be Formatted in only one of these two lengths.</t>
+  </si>
+  <si>
+    <t>The data element in error can have multiple data values and was entered with multiple values. However, the entry shown cannot be entered with any other data value. Value N=None/Unknown is mutually exclusive with any other inFormation codes.</t>
+  </si>
+  <si>
+    <t>Data Element 12 (Type Criminal Activity/Gang InFormation) Type criminal activity codes of “B”, “C”, “D”, “E”, “O”, “P”, “T”, or “U” can only be entered when the UCR Offense Code is:
+250=Counterfeiting/Forgery 280=Stolen Property Offenses 35A=Drug/Narcotic Violations 35B=Drug Equipment Violations 39C=Gambling Equipment Violations 370=Pornography/Obscene Material 520=Weapon Law Violations
+(Type Criminal Activity/Gang InFormation) Gang inFormation codes of “J”, “G”, and “N” can only be entered when the UCR Offense Code is:09A=Murder and Non-negligent Manslaughter
+09B=Negligent Manslaughter 100=Kidnapping/Abduction 11A=Rape
+11B=Sodomy
+11C=Sexual Assault With An Object 11D=Fondling
+120=Robbery
+13A=Aggravated Assault 13B=Simple Assault 13C=Intimidation
+(Type Criminal Activity/Gang InFormation) Criminal Activity codes of “A”, “F”, “I”, and “S” can only be entered when the UCR Offense Code is:
+720=Animal Cruelty</t>
+  </si>
+  <si>
+    <t>Data Element 12 (Type Criminal Activity/Gang InFormation) Must be populated with a valid data value and cannot be blank when Data Element 6 (UCR Offense Code) is:
+250=Counterfeiting/Forgery 280=Stolen Property Offenses 35A=Drug/Narcotic Violations 35B=Drug Equipment Violations 39C=Gambling Equipment Violations 370=Pornography/Obscene Material 520=Weapon Law Violations 720=Animal Cruelty</t>
+  </si>
+  <si>
+    <t>Segment Length for the Offense Segment (Level 2) must be 63 characters (reporting only Bias Motivation #1) or 71 characters (reporting Bias Motivations #2–#5). All Offense Segments in a submission must be Formatted in only one of these two lengths.</t>
+  </si>
+  <si>
+    <t>Segment Length for the Victim Segment (Level 4) must be 129 characters (not reporting LEOKA) or 141 characters (reporting LEOKA). All Victim Segments in a submission must be Formatted in only one of these two lengths.</t>
+  </si>
+  <si>
+    <t>Data Element 36 (Offender Sequence Number) contains 00 indicating that nothing is known about the offender(s) regarding number and any identifying inFormation. In order to exceptionally clear the incident, the value cannot be 00. The incident was submitted with Data Element 4 (Cleared Exceptionally) having a value of A through E.</t>
+  </si>
+  <si>
+    <t>The incident was submitted with Data Element 6 (UCR Offense Code) value of 09C=Justifiable Homicide, but unknown inFormation was submitted for all the offender(s). At least one of the offenders must have known inFormation for Age, Sex, and Race.</t>
+  </si>
+  <si>
+    <t>Segment Length for the Offender Segment (Level 5) must be 45 characters (not reporting Offender Ethnicity) or 46 characters (reporting Offender Ethnicity). All Offender Segments in a submission must be Formatted in only one of these two lengths.</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,14 +1813,15 @@
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="152.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1801,13 +1829,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1815,13 +1846,16 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1829,13 +1863,16 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1843,13 +1880,16 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1857,13 +1897,16 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1871,13 +1914,16 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1885,13 +1931,16 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1899,13 +1948,16 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1913,13 +1965,16 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1927,13 +1982,16 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1941,13 +1999,16 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1955,13 +2016,16 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1969,13 +2033,16 @@
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1983,13 +2050,16 @@
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1997,3312 +2067,4024 @@
       <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="E16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
         <v>411</v>
       </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
         <v>411</v>
       </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
         <v>411</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>105</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
         <v>412</v>
       </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
         <v>412</v>
       </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>122</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>151</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>155</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>156</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>170</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>171</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>172</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>173</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
         <v>412</v>
       </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>175</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>178</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" t="s">
         <v>412</v>
       </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>201</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>202</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>204</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>205</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>206</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>207</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="E58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>215</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>216</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>217</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E61" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>219</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="E62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>220</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="E63" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>221</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>251</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>252</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>253</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="E67" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>254</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E68" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>255</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E69" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>256</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E70" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>257</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>258</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>262</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" t="s">
         <v>413</v>
       </c>
-      <c r="C73" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>263</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
         <v>413</v>
       </c>
-      <c r="C74" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>264</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E75" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>265</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>266</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
         <v>413</v>
       </c>
-      <c r="C77" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>267</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E78" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>268</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>269</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>270</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="E81" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>284</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="E82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>301</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>302</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E84" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>304</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>305</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E86" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>306</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>315</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E89" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>317</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E90" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>342</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>343</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" t="s">
         <v>414</v>
       </c>
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>351</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>352</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E94" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>353</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="E95" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>354</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="E96" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>355</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E97" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>356</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="E98" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>357</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" t="s">
         <v>414</v>
       </c>
-      <c r="C99" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>358</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" t="s">
         <v>414</v>
       </c>
-      <c r="C100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>359</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="E101" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>360</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E102" t="s">
         <v>414</v>
       </c>
-      <c r="C102" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>361</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E103" t="s">
         <v>414</v>
       </c>
-      <c r="C103" t="s">
-        <v>190</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>362</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C104" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="E104" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>363</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="E105" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>364</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E106" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>365</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E107" t="s">
         <v>414</v>
       </c>
-      <c r="C107" t="s">
-        <v>198</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>366</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="E108" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>367</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="E109" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>368</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="E110" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>372</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="E111" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>375</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="E112" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>376</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E113" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>382</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C114" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E114" t="s">
         <v>414</v>
       </c>
-      <c r="C114" t="s">
-        <v>212</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>383</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115" t="s">
         <v>414</v>
       </c>
-      <c r="C115" t="s">
-        <v>214</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>384</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E116" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>387</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C117" t="s">
+        <v>212</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" t="s">
         <v>414</v>
       </c>
-      <c r="C117" t="s">
-        <v>218</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>388</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E118" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>389</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="E119" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>390</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C120" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120" t="s">
         <v>414</v>
       </c>
-      <c r="C120" t="s">
-        <v>224</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>391</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C121" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="E121" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>392</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122" t="s">
         <v>414</v>
       </c>
-      <c r="C122" t="s">
-        <v>228</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>401</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>402</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>404</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E125" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>406</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E126" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>407</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="E127" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>408</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C128" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="E128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>409</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="E129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>410</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>415</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C131" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E131" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>416</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="E132" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>417</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E133" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>419</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C134" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="E134" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>422</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="E135" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>449</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C136" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="E136" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>450</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E137" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>451</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E138" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>453</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C139" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E139" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>454</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E140" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>455</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C141" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E141" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>456</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C142" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="E142" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>457</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C143" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E143" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>458</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C144" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="E144" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>459</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C145" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E145" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>460</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E146" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>461</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="E147" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>462</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C148" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E148" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>463</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C149" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="E149" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>464</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C150" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E150" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>465</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C151" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="E151" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>466</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C152" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="E152" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>467</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="E153" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>468</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C154" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E154" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>469</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C155" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="E155" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>470</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C156" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="E156" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>471</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="E157" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>472</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C158" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="E158" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>474</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C159" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E159" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>475</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C160" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="E160" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>476</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C161" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="E161" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>477</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C162" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E162" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>478</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C163" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="E163" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>479</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C164" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E164" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>480</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C165" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="E165" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>481</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C166" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="E166" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>482</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C167" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="E167" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>483</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C168" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="E168" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>484</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C169" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="E169" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>501</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" t="s">
         <v>416</v>
       </c>
-      <c r="C170" t="s">
-        <v>65</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>502</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C171" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="E171" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>504</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C172" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E172" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>508</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C173" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>509</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C174" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="E174" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>510</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="E175" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>515</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C176" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E176" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>516</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E177" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>517</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="E178" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>522</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C179" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="E179" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>549</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C180" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="E180" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>550</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="E181" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>551</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C182" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="E182" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>552</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C183" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="E183" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>553</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C184" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="E184" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>554</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C185" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="E185" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>555</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C186" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="E186" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>556</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C187" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E187" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>557</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C188" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E188" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>558</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C189" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="E189" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>559</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C190" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="E190" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>560</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C191" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E191" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>584</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C192" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="E192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>601</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C193" t="s">
+        <v>64</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>602</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C194" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="E194" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>604</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C195" t="s">
+        <v>104</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" t="s">
         <v>417</v>
       </c>
-      <c r="C195" t="s">
-        <v>106</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>605</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C196" t="s">
+        <v>335</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E196" t="s">
         <v>417</v>
       </c>
-      <c r="C196" t="s">
-        <v>345</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>606</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C197" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="E197" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>607</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C198" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E198" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>608</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C199" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>609</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C200" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="E200" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>610</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C201" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="E201" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>615</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C202" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E202" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>616</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="E203" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>617</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="E204" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>618</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E205" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>622</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C206" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>623</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C207" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="E207" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>640</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>641</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" t="s">
+        <v>351</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E209" t="s">
         <v>417</v>
       </c>
-      <c r="C209" t="s">
-        <v>361</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>652</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C210" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="E210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>653</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C211" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E211" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>654</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" t="s">
+        <v>125</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E212" t="s">
         <v>417</v>
       </c>
-      <c r="C212" t="s">
-        <v>130</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>655</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C213" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="E213" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>656</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C214" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E214" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>661</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C215" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E215" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>664</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C216" t="s">
+        <v>363</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E216" t="s">
         <v>417</v>
       </c>
-      <c r="C216" t="s">
-        <v>373</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>667</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C217" t="s">
+        <v>365</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E217" t="s">
         <v>417</v>
       </c>
-      <c r="C217" t="s">
-        <v>375</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>669</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C218" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E218" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>670</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C219" t="s">
+        <v>369</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E219" t="s">
         <v>417</v>
       </c>
-      <c r="C219" t="s">
-        <v>379</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>701</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C220" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E220" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>702</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C221" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="E221" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>704</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C222" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E222" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>705</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C223" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="E223" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>706</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C224" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="E224" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>707</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C225" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E225" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>708</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C226" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E226" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>709</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C227" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E227" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>710</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C228" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="E228" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>715</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C229" t="s">
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E229" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>716</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C230" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E230" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>717</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C231" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="E231" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>718</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C232" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="E232" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>720</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C233" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="E233" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>722</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C234" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E234" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>740</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C235" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="E235" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>741</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C236" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="E236" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>751</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C237" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="E237" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>752</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C238" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="E238" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>753</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C239" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E239" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>754</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C240" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="E240" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>755</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C241" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="E241" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>757</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C242" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="E242" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>758</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C243" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="E243" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>759</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C244" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="E244" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>760</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C245" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="E245" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>761</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C246" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E246" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>1</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C247" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E247" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>90</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C248" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="E248" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>92</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C249" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="E249" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>93</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C250" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="E250" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>94</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C251" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
+      </c>
+      <c r="E251" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E251"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="ElementEdits" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$E$251</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="987">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -1464,6 +1465,1994 @@
   </si>
   <si>
     <t>Segment Length for the Offender Segment (Level 5) must be 45 characters (not reporting Offender Ethnicity) or 46 characters (reporting Offender Ethnicity). All Offender Segments in a submission must be Formatted in only one of these two lengths.</t>
+  </si>
+  <si>
+    <t>DataElement</t>
+  </si>
+  <si>
+    <t>DataElementNumber</t>
+  </si>
+  <si>
+    <t>EditRuleText</t>
+  </si>
+  <si>
+    <t>ApplicableSegmentType</t>
+  </si>
+  <si>
+    <t>Clearance Indicator Element</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>Clearance Indicator cannot contain Y=Yes for more than one Segment Level 6 (Arrestee Segment) submitted for an incident.</t>
+  </si>
+  <si>
+    <t>Clearance Offense Code</t>
+  </si>
+  <si>
+    <t>The referenced data element in a Group A Incident Report
+must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>Data Element 10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>(Number of Premises Entered) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>(Number of Premises Entered) When Data Element 10 (Number of Premises Entered) is entered, Data Element 9 (Location Type) must be 14=Hotel/Motel/Etc. or 19=Rental Storage Facility, and Data Element 6 (UCR Offense Code) must be 220 (Burglary).</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>(Number of Premises Entered) Must be entered if offense code is
+220 (Burglary) and if Data Element 9 (Location Type) contains
+14=Hotel/Motel/Etc. or 19=Rental Storage Facility.</t>
+  </si>
+  <si>
+    <t>Data Element 14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 1=None or 8=Unknown when Data Element 6 (UCR Offense Code) contains an offense of Kidnapping/Abduction, Crimes against Property, Drug/Narcotic Offenses, or Gambling Offenses and Data Element 7 (Offense Attempted/Completed) is A=Attempted.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 1=None or 5=Recovered when Data Element 6 (UCR Offense Code) is 280=Stolen Property Offenses and Data Element 7 (Offense Attempted/Completed) is C=Completed.</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 1=None, 5=Recovered,
+7=Stolen/Etc., or 8=Unknown when Data Element 6 (UCR Offense Code) is 100=Kidnapping/Abduction, 220=Burglary/ Breaking &amp; Entering, or 510=Bribery and Data Element 7 (Offense Attempted/Completed) is C=Completed.</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 1=None or 6=Seized when Data Element 6 (UCR Offense Code) is 35A=Drug/ Narcotic Violations or 35B=Drug Equipment Violations and Data Element 7 (Offense Attempted/Completed) is C=Completed.</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 2=Burned when Data Element
+6 (UCR Offense Code) is 200=Arson and Data Element 7 (Offense
+Attempted/Completed) is C=Completed.</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 3=Counterfeited/Forged,
+5=Recovered, or 6=Seized when Data Element 6 (UCR Offense Code) is 250=Counterfeiting/Forgery and Data Element 7 (Offense Attempted/Completed) is C=Completed.</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be
+4=Destroyed/Damaged/Vandalized when Data Element 6 (UCR Offense Code) is 290=Destruction/Damage/Vandalism of Property and Data Element 7 (Offense Attempted/Completed) is C=Completed.</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) must be 5=Recovered or 7=Stolen/Etc. when Data Element 6 (UCR Offense Code) is any of the following and Data Element 7 (Offense Attempted/Completed) is C=Completed:
+120=Robbery
+210=Extortion/Blackmail
+23A=Pocket-picking
+23B=Purse Snatching
+23C=Shoplifting
+23D=Theft from Building
+23E=Theft from Coin-Operated Machine or Device
+23F=Theft from Motor Vehicle
+23G=Theft of Motor Vehicle Parts or Accessories
+23H=All other Larceny
+240=Motor Vehicle Theft
+26A=False Pretenses/Swindle/Confidence Game
+26B=Credit Card/Automated Teller Machine Fraud
+26C=Impersonation
+26D=Welfare Fraud
+26E=Wire Fraud26F=Identity Theft
+26G=Hacking/Computer Invasion
+270=Embezzlement</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>(Type Property Loss/Etc.) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Data Element 17</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>(Date Recovered) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>(Date Recovered Each component of the date must be valid; that is, months must be 01 through 12, days must be 01 through 31, and year must include the century (i.e., 19xx, 20xx). In addition, days cannot exceed maximum for the month (e.g., June cannot have 31 days). The date cannot be later than that entered within the Month of Electronic submission and Year of Electronic submission fields on the data record. For example, if Month of Electronic submission and Year of Electronic submission are
+06/1999, the recovered date cannot contain any date 07/01/1999 or later. Cannot be earlier than Data Element 3 (Incident Date/Hour).</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>(Date Recovered) cannot be earlier than the date entered in Data Element 3 (Incident Date); the date property is recovered cannot be before the date it is stolen. The exception to this rule is when recovered property is reported for a pre-NIBRS incident. In this case, Segment Level 3 (Property Segment) will contain A=Add, but the data value in Data Element 2 (Incident Number) will not match an incident already on file in the national UCR database. The segment will be processed, but used only for SRS purposes and
+will not be included in the agency’s NIBRS figures.</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>(Date Recovered) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is 8=Unknown, Data Elements 15 through 22 must be blank. If it is 1=None and offense is 35A, then Data Elements 15 through 19 and 21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data
+Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is 35A=Drug/ Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) is
+1=None; Data Element 20 (Suspected Drug Type) must be entered.</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>(Date Recovered) must be 5=Recovered for Data Element 17 (Date
+Recovered) to be entered.</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>(Date Recovered) If Data Element 14 (Type Property/Loss/Etc.) is
+2=Burned, 3=Counterfeited/ Forged,
+4=Destroyed/Damaged/Vandalized, 5=Recovered, 6=Seized, or
+7=Stolen/Etc., Data Elements 15 through 22 must have applicable entries in the segment.</t>
+  </si>
+  <si>
+    <t>Data Element 21</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>(Estimated Drug Quantity) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Estimated Drug Quantity) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is 8=Unknown, Data
+Elements 15 through 22 must be blank. If it is 1=None and offense is
+35A, then Data Elements 15 through 19 and 21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is 35A=Drug/ Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) is 1=None; Data Element 20 (Suspected Drug Type) must be entered.</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>(Estimated Drug Quantity) Since Data Element 20 (Suspected Drug Type) contains X=Over 3 Drug Types, Data Element 21 (Estimated Quantity) and 22 (Type Measurement) must be blank</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>(Estimated Drug Quantity) When Data Element 6 (UCR Offense Code) is 35A=Drug/Narcotic Violations, 14 (Type Property Loss/Etc.) is 6=Seized, 15 (Type Property Loss/Etc.) is 10=Drugs, and Data Element 20 (Suspected Drug Type) is entered, both Data Element
+21 (Estimated Quantity) and 22 (Type Measurement) must also be entered.</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>(Estimated Drug Quantity) Data Element 21 (Estimated Drug
+Quantity) must be 000000001000=None (i.e., 1) when Data Element
+22 (Type Drug Measurement) is XX=Not Reported indicating the drugs were sent to a laboratory for analysis. When the drug analysis is received by the LEA, Data Element 21 and Data Element 22 should be updated with the correct data values.</t>
+  </si>
+  <si>
+    <t>Data Element 22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>(Type Drug Measurement) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Type Drug Measurement) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is 8=Unknown, Data
+Elements 15 through 22 must be blank. If it is 1=None and offense is
+35A, then Data Elements 15 through 19 and 21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is 35A=Drug/ Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) is 1=None; Data Element 20 (Suspected Drug Type) must be entered.</t>
+  </si>
+  <si>
+    <t>(Type Drug Measurement) Since Data Element 20 (Suspected Drug Type) contains X=Over 3 Drug Types, Data Element 21 (Estimated Quantity) and 22 (Type Measurement) must be blank</t>
+  </si>
+  <si>
+    <t>(Type Drug Measurement) When Data Element 6 (UCR Offense Code) is 35A=Drug/Narcotic Violations, 14 (Type Property Loss/Etc.) is 6=Seized, 15 (Type Property Loss/Etc.) is 10=Drugs, and Data Element 20 (Suspected Drug Type) is entered, both Data Element
+21 (Estimated Quantity) and 22 (Type Measurement) must also be entered.</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>(Type Measurement) Data Element 22 (Type Measurement) was entered with NP in combination with an illogical drug type. Based upon the various ways a drug can be measured, very few edits can be done to check for illogical combinations of drug type and measurement. The only restriction will be to limit NP=Number of Plants to the following drugs:
+DRUG MEASUREMENT E=Marijuana NP G=Opium NP
+K=Other Hallucinogens NP
+All other Data Element 22 (Type Measurement) codes are applicable to any Data Element 20 (Suspected Drug Type) code.</t>
+  </si>
+  <si>
+    <t>Data Element 23</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>(Victim Sequence Number The referenced data element in a
+Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Data Element 24</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>(Victim Connected to UCR Offense Code) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>(Victim Connected to UCR Offense Code) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>(Victim Connected to UCR Offense Code) Mutually Exclusive offenses are ones that cannot occur to the same victim by UCR definitions. A Lesser Included offense is one that is an element of another offense and should not be reported as having happened to the victim along with the other offense. Lesser Included and Mutually Exclusive offenses are defined as follows:
+1) Murder-Aggravated assault, simple assault, and intimidation are all lesser included offenses of murder. Negligent manslaughter is mutually exclusive.
+2) Aggravated Assault-Simple assault and intimidation are lesser included Note: Aggravated assault is a lesser included offense of murder, forcible rape, forcible sodomy, sexual assault with an object, and robbery.
+3) Simple Assault-Intimidation is a lesser included offense of simple assault. Note: Simple assault is a lesser included offense of murder, aggravated assault, forcible rape, forcible sodomy, sexual assault with an object, forcible fondling, and robbery.
+4) Intimidation-Intimidation is a lesser included offense of murder, aggravated assault, forcible rape, forcible sodomy, sexual assault with an object, forcible fondling, and robbery.
+5) Negligent Manslaughter - Murder, aggravated assault, simple assault, and intimidation are mutually exclusive offenses. Uniform Crime Reporting Handbook, NIBRS Edition, page 17, defines negligent manslaughter as “The killing of another person through negligence.” Page 12 of the same publication shows that assault offenses are characterized by “unlawful attack[s].” offenses of aggravated assault.</t>
+  </si>
+  <si>
+    <t>Data Element 26</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>(Age of Victim) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>(Age of Victim) contains data, but is not left-justified. A single two- character age must be in positions 1 and 2 of the field.</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>(Age of Victim) contains more than two characters indicating a possible age-range was being attempted. If so, the field must contain numeric entry of four digits.</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>(Age of Victim) was entered as an age-range. Accordingly, the first age component must be less than the second age.</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>(Age of Victim) was entered as an age-range. Therefore, the first age component cannot be 00 (unknown).</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>(Age of Victim) contains a relationship of SE=Spouse. When this is so, the age of the victim cannot be less than 10 years.</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>(Age of Victim) The Data Element associated with this error must be present when Data Element 25 (Type of Victim) is I=Individual.</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>Data Element 26 (Age of Victim) should be under 18 when Data
+Element 24 (Victim Connected to UCR Offense Code) is
+36B=Statutory Rape.</t>
+  </si>
+  <si>
+    <t>Data Element 29</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>(Ethnicity of Victim) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank</t>
+  </si>
+  <si>
+    <t>(Ethnicity of Victim) The Data Element associated with this error cannot be entered when Data Element 25 (Type of Victim) is not I=Individual or L=Law Enforcement Officer when Data Element 24 (Victim Connected to UCR Offense Code) contains a Crime Against Person.</t>
+  </si>
+  <si>
+    <t>Data Element 30</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>(Resident) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank</t>
+  </si>
+  <si>
+    <t>(Resident Status of Victim) The Data Element associated with this error cannot be entered when Data Element 25 (Type of Victim) is
+not I=Individual or L=Law Enforcement Officer when Data Element 24 (Victim Connected to UCR Offense Code) contains a Crime Against Person.</t>
+  </si>
+  <si>
+    <t>Data Element 31</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances) Circumstances) can only be entered when one or more of the offenses in Data Element
+24 (Victim Connected to UCR Offense Code) are:
+09A=Murder and Non-negligent Manslaughter
+09B=Negligent Manslaughter
+09C=Justifiable Homicide
+13A=Aggravated Assault
+Data Element 33 (Type Injury) can only be entered when one or more of the offenses in Data Element 24 (Victim Connected to UCR
+Offense Code) are:
+100=Kidnapping/Abduction
+11A=Rape
+11B=Sodomy
+11C=Sexual Assault With An Object
+11D=Fondling
+120=Robbery
+13A=Aggravated Assault
+13B=Simple Assault
+210=Extortion/Blackmail
+64A=Human Trafficking, Commercial Sex Acts
+64B=Human Trafficking, Involuntary Servitude</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances) was entered with two entries, but was rejected for one of the following reasons: 1) Value
+10=Unknown Circumstances is mutually exclusive with any other value. 2) More than one category (i.e., Aggravated Assault, Negligent Manslaughter, etc.) was entered.</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances) An Offense Segment (Level 2) was submitted for 13A=Aggravated Assault. Accordingly, Data Element 31 (Aggravated Assault/Homicide Circumstances) can only have codes of 01 through 06 and 08 through 10. All other codes, including 07=Mercy Killing, are not valid because they do not relate to an aggravated assault</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances) When a Justifiable Homicide is reported, Data Element 31 (Aggravated Assault/Homicide Circumstances) can only have codes of
+20=Criminal Killed by Private Citizen or 21=Criminal Killed by Police Officer. In this case, a code other than the two mentioned was entered.</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>(Aggravated Assault/Homicide Circumstances) A victim segment was submitted with Data Element 24 (Victim Connected to UCR Offense Code) having an offense that does not have a permitted code for
+Data Element 31 (Aggravated Assault/Homicide Circumstances). Only those circumstances listed in Volume 1, section VI, are valid for the particular offense.</t>
+  </si>
+  <si>
+    <t>Data Element 34</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>(Offender Number to be Related) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Offender Number to be Related) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>(Offender Number to be Related) The Data Element associated with this error cannot be entered when Data Element 25 (Type of Victim) is not I=Individual or L=Law Enforcement Officer when Data Element
+24 (Victim Connected to UCR Offense Code) contains a Crime
+Against Person.</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>(Offender Numbers To Be Related) was entered but should only be entered if one or more of the offenses entered into Data Element 24 [Victim Connected to UCR Offense Code(s)] is a Crime Against Person or is a Robbery Offense (120). None of these types of offenses were entered.</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>(Offender Number to be Related) has relationships of VO=Victim Was Offender that point to multiple offenders, which is an impossible situation. A single victim cannot be two offenders.</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>(Offender Number to be Related) A victim can only have one spousal relationship. In this instance, the victim has a relationship of SE=Spouse to two or more offenders.</t>
+  </si>
+  <si>
+    <t>Data Element 37</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>(Age of Offender) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>(Age of Offender) contains data but is not left-justified. A single two- character age must be in positions 1 through 2 of the field.</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>(Age of Offender) contains more than two characters indicating a possible age-range is being attempted. If so, the field must contain a numeric entry of four digits.</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>(Age of Offender) was entered as an age-range. Accordingly, the first age component must be less than the second age.</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>(Age of Offender) was entered as an age-range. Therefore, the first age component cannot be 00 (unknown).</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>(Age of Offender) cannot be less than 10 years old when Data Element 35 (Relationship of Victim to Offender) contains a relationship of SE=Spouse.</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>(Age of Offender Data Element 38 (Sex of Offender), and Data Element 39 (Race of Offender) cannot be entered when Data Element 36 (Offender Sequence Number) is 00=Unknown.</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>(Age of Offender) has a relationship that is inconsistent with the offender’s age. The age of the victim and/or offender must reflect the implied relationship. For example, if the relationship of the victim to offender is PA=Parent, then the victim’s age must be greater than the offender’s age. The following relationships must be consistent with
+the victim’s age in relation to the offender’s age: Relationship Victim’s Age Is
+CH=Victim was Child Younger PA=Victim was Parent Older GP=Victim was Grandparent Older GC=Victim was Grandchild Younger</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>(Age of Offender) must contain numeric entry of 00 through 99</t>
+  </si>
+  <si>
+    <t>Data Element 40</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>(Arrestee Sequence Number) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Data Element 41</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>(Arrest Transaction Number) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>(Arrest Transaction Number) Must be blank right-fill if under 12 characters in length. Cannot have embedded blanks between the first and last characters entered.</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>(Arrest Transaction Number) Must be left-justified with blank right-fill if under 12 characters
+in length.</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>(Arrest Transaction Number) Must contain a valid character combination of the following:
+A–Z (capital letters only)
+0–9
+Hyphen
+Example: 11-123-SC is valid, but 11+123*SC is not valid..</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>Data Element 43</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>(Type of Arrest) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Data Element 44</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>(Multiple Arrestee Segments Indicator) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Data Element 45</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>(UCR Arrest Offense Code) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>(UCR Arrest Offense Code) was entered with 09C=Justifiable
+Homicide. This is not a valid arrest offense</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>(UCR Arrest Offense Code) must contain a Group “B” Offense Code in Data Element 45 (UCR Arrest Offense). The offense code submitted is not a Group “B” offense code.</t>
+  </si>
+  <si>
+    <t>Data Element 46</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>(Arrestee Was Armed With) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>(Arrestee Was Armed With) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>(Arrestee Was Armed With) can have multiple data values and was entered with multiple values. However, the entry shown between the brackets in [value] above cannot be entered with any other data value.</t>
+  </si>
+  <si>
+    <t>(Automatic Weapon Indicator) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>(Automatic Weapon Indicator) does not have A=Automatic or a blank in the third position of field.</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>(Automatic Weapon Indicator) In Data Element 46 (Arrestee Was
+Armed With), A=Automatic is the third character of code. It is valid only with codes:
+11=Firearm (Type Not Stated)
+12=Handgun
+13=Rifle
+14=Shotgun
+15=Other Firearm
+A weapon code other than those mentioned was entered with the automatic indicator. An automatic weapon is, by definition, a firearm.</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>Data Element 47</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) contains data, but is not left-justified. A single two- character age must be in positions 1 through 2 of the field.</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) contains more than two characters indicating a possible age-range is being attempted. If so, the field must contain a numeric entry of four digits.</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) was entered as an age-range. Accordingly, the first age component must be less than the second age.</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) was entered as an age-range. Therefore, the first age component cannot be 00 (unknown).</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) was entered with a value of 99 which means the arrestee is over 98 years old. The submitter should verify that
+99=Over 98 Years Old is not being confused the with 00=Unknown.</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>(Age of Arrestee) must be 01 through 17 for offense code of
+90I=Runaway on a Group “B” Arrest Report.</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>Data Element 49</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>(Race of Arrestee) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Data Element 51</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>(Resident Status of Arrestee) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Data Element 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>(ORI) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>(ORI) First two positions must be the code of the state (e.g., SC, MD) in which the incident occurred. For nonfederal participants, every record must have the same code.</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>Data Element 11</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>(Method of Entry) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>(Method of Entry) Data Element was not entered; it must be entered when UCR Offense Code of 220=Burglary has been entered.</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>(Method of Entry) Data Element only applies to UCR Offense Code of 220=Burglary. Since a burglary offense was not entered, the Method of Entry should not have been entered.</t>
+  </si>
+  <si>
+    <t>Data Element 12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>(Type Criminal Activity/Gang Information) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>(Type Criminal Activity/Gang Information) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>(Type Criminal Activity/Gang Information) The data element
+in error can have multiple data values and was entered with multiple values. However, the entry shown cannot be entered with any other data value. Value N=None/Unknown is mutually exclusive with any other information codes.</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>(Type Criminal Activity/Gang Information) Type criminal activity codes of “B”, “C”, “D”, “E”, “O”, “P”, “T”,
+or “U” can only be entered when the UCR Offense Code is:
+250=Counterfeiting/Forgery
+280=Stolen Property Offenses
+35A=Drug/Narcotic Violations
+35B=Drug Equipment Violations
+39C=Gambling Equipment Violations
+370=Pornography/Obscene Material
+520=Weapon Law Violations
+(Type Criminal Activity/Gang Information) Gang information
+codes of “J”, “G”, and “N” can only be entered
+when the UCR Offense Code is:09A=Murder and Non- negligent Manslaughter
+09B=Negligent Manslaughter
+100=Kidnapping/Abduction
+11A=Rape
+11B=Sodomy
+11C=Sexual Assault With An Object
+11D=Fondling
+120=Robbery
+13A=Aggravated Assault
+13B=Simple Assault
+13C=Intimidation
+(Type Criminal Activity/Gang Information) Criminal Activity
+codes of “A”, “F”, “I”, and “S” can only be entered when the UCR Offense Code is:
+720=Animal Cruelty</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>Data Element 12 (Type Criminal Activity/Gang Information) Must be populated with a valid data value and cannot be blank when Data Element 6 (UCR Offense Code) is:
+250=Counterfeiting/Forgery
+280=Stolen Property Offenses
+35A=Drug/Narcotic Violations
+35B=Drug Equipment Violations
+39C=Gambling Equipment Violations
+370=Pornography/Obscene Material
+520=Weapon Law Violations
+720=Animal Cruelty</t>
+  </si>
+  <si>
+    <t>Data Element 13</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) The data element in error can have multiple data values and was entered with multiple values. However, the entry shown cannot be entered with any other data value. Value N=None/Unknown is mutually exclusive with any other information codes.</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) must be populated with a valid data value and cannot be blank when Data Element 6 (UCR Offense Code) is:
+09A=Murder and Non-negligent Manslaughter
+09B=Negligent Manslaughter
+09C=Justifiable Homicide
+100=Kidnapping/Abduction
+11A=Rape
+11B=Sodomy
+11C=Sexual Assault With An Object
+11D=Fondling
+120=Robbery
+13A=Aggravated Assault
+13B=Simple Assault
+210=Extortion/Blackmail
+520=Weapon Law Violations
+64A=Human Trafficking, Commercial Sex Acts
+64B=Human Trafficking, Involuntary Servitude</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) If an Offense Segment (Level
+2) was submitted for 13B=Simple Assault, Data Element 13 (Type Weapon/Force Involved) can only have codes of
+40=Personal Weapons, 90=Other, 95=Unknown, and
+99=None. All other codes are not valid because they do not relate to a simple assault.</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) If a homicide offense is submitted, Data Element 13 (Type Weapon/Force Involved) cannot have 99=None. Some type of weapon/force must be used in a homicide offense.</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>(Type Weapon/Force Involved) If Data Element 6 (UCR Offense Code) is 13B=Simple Assault and the weapon involved is 11=Firearm, 12=Handgun, 13=Rifle, 14=Shotgun, or 15=Other Firearm, then the offense should instead be classified as 13A=Aggravated Assault.</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>(Automatic Weapon Indicator) Must be A=Automatic or blank=Not
+Automatic</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>(Automatic Weapon Indicator) In Data Element 13 (Type of Weapon/Force Involved), A=Automatic is the third character of code. It is valid only with the following codes:
+11=Firearm (Type Not Stated)
+12=Handgun
+13=Rifle
+14=Shotgun
+15=Other Firearm
+A weapon code other than those mentioned was entered with the automatic indicator. An automatic weapon is, by definition, a firearm.</t>
+  </si>
+  <si>
+    <t>Data Element 15</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>(Property Description) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Property Description) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is 8=Unknown, Data Elements 15 through 22 must be blank. If it is 1=None and offense is 35A, then Data
+Elements 15 through 19 and 21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is 35A=Drug/ Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) is
+1=None; Data Element 20 (Suspected Drug Type) must be entered.</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>(Property Description) Data Element 16 (Value of Property) contains a value, but Data Element 15 (Property Description) was not entered.</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>(Property Description) was entered, but Data Elements 15 (Property Description) and/or 16 (Property Value) were not entered.</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>(Property Description) Must be one of the following when Data Element 18 (Number of Stolen Motor Vehicles) or Data Element 19 (Number of Recovered Motor Vehicles) contain a data value other than 00=Unknown: 03=Automobiles
+05=Buses
+24=Other Motor Vehicles
+28=Recreational Vehicles
+37=Trucks</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>(Property Description) At least one Data Element 15 (Property Description) code must be entered when Data Element 14 (Type Property Loss/Etc.) contains Property Segment(s) for:
+2=Burned
+3=Counterfeited/Forged
+4=Destroyed/Damaged/Vandalized
+5=Recovered
+6=Seized
+7=Stolen/Etc.</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>(Property Description) To ensure that 35A-35B Drug/Narcotic Offenses-Drug Equipment Violations are properly reported, Data Element 15 (Property Description) of 11=Drug/Narcotic Equipment is not allowed with only a 35A Drug/Narcotic Violation. Similarly, 10=Drugs/Narcotics is not allowed with only a 35B Drug Equipment
+Violation. And Data Element 14 (Type Property Loss/Etc.) is
+6=Seized.</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>(Property Description) must contain a data value that is logical for one or more of the offenses entered in Data Element 6 (UCR Offense Code).
+Illogical combinations include:
+1)   Property descriptions for structures are illogical with
+220=Burglary/Breaking &amp; Entering or 240=Motor
+Vehicle Theft
+2)   Property descriptions for items that would not fit in a purse or pocket (aircraft, vehicles, structures, a person’s identity, watercraft, etc.) are illogical with
+23A=Pocket-picking or 23B=Purse-snatching
+3)   Property descriptions that cannot be shoplifted due to other UCR definitions (aircraft, vehicles, structures, a person’s identity, watercraft, etc.) are illogical with
+23C=Shoplifting
+4)   Property descriptions for vehicles and structures are illogical with 23D=Theft from Building, 23E=Theft from Coin-Operated Machine or Device, 23F=Theft from Motor Vehicle, and 23G=Theft of Motor Vehicle Parts or Accessories
+5)   Property descriptions for vehicles are illogical with
+23H=All Other Larceny</t>
+  </si>
+  <si>
+    <t>Data Element 16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>(Value of Property) When Data Element 14 (Type Property
+Loss/Etc.) entries are made for both 7=Stolen/Etc. and
+5=Recovered, the recovered property cannot have property value(s) greater than corresponding property value(s) reported stolen.
+Note: This edit also applies when a vehicle was stolen and the recovered property in Data Element 15 (Property Description) is
+38=Vehicle Parts/Accessories. The value of recovered parts cannot exceed the value of stolen vehicles.</t>
+  </si>
+  <si>
+    <t>(Value of Property) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>(Value of Property) When referenced data element contains a value that exceeds an FBI-assigned threshold amount, a warning message will be created. The participant is asked to check to see if the value entered was a data entry error, or if it was intended to be entered. A warning message is always produced when the value is $1,000,000 or greater. For example, if the value of a property is $12,000.99 but is inadvertently entered as $1,200,099 in the computer record sent to the FBI, a warning message will be generated. In this case, the cents were entered as whole dollars.</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>(Value of Property) cannot be zero unless Data Element 15 (Property Description) is:
+Mandatory zero
+09=Credit/Debit Cards
+22=Nonnegotiable Instruments
+48=Documents–Personal or Business
+65=Identity Documents
+66=Identity–Intangible
+Optional zero
+77=Other
+99=(blank)–this data value is not currently used by the FBI</t>
+  </si>
+  <si>
+    <t>(Value of Property) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example,
+if Data Element 14 (Type property Loss/Etc.) is 8=Unknown, Data
+Elements 15 through 22 must be blank. If it is 1=None and
+offense is 35A, then Data Elements 15 through 19 and 21 through
+22 must be blank. If it is 1=None and offense is not 35A, then Data Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is
+35A=Drug/ Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) is 1=None; Data Element 20 (Suspected Drug Type) must be entered.</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>(Value of Property) is 88=Pending Inventory, but Data Element 16 (Value of Property) is not $1. Determine which of the data elements was entered incorrectly.</t>
+  </si>
+  <si>
+    <t>(Value of Property) was entered, but Data Elements 15 (Property
+Description) and/or 16 (Property Value) were not entered.</t>
+  </si>
+  <si>
+    <t>(Value of Property is 2=Burned, 3=Counterfeited/ Forged,
+4=Destroyed/Damaged/Vandalized, 5=Recovered, 6=Seized, or
+7=Stolen/Etc., Data Elements 15 through 22 must have applicable entries in the segment.</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>(Value of Property) has a value other than zero entered. Since
+Data Element 15 (Property Description) code is
+10=Drugs/Narcotics and the only Crime Against Property offense submitted is a 35A=Drug/Narcotic Violations, Data Element 16 (Value of Property) must be blank.</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>(Value of Property) has a code that requires a zero value in Data Element 16 (Value of Property). Either the wrong property description code was entered or the property value was not entered. (This error was formerly error number 340, a warning message.) Data Element 16 (Value of Property) must be zero when Data Element 15 (Property Description) is:
+09=Credit/Debit Cards
+22=Nonnegotiable Instruments
+48=Documents–Personal or Business
+65=Identity Documents
+66=Identity–Intangible</t>
+  </si>
+  <si>
+    <t>Data Element 18</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>(Number of Stolen Motor Vehicles) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Number of Stolen Motor Vehicles) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is
+8=Unknown, Data Elements 15 through 22 must be blank. If it is
+1=None and offense is 35A, then Data Elements 15 through 19 and
+21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is
+35A=Drug/ Narcotic Violations and Data Element 14 (Type Property
+Loss/Etc.) is 1=None; Data Element 20 (Suspected Drug Type)
+must be entered.</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>(Number of Stolen Motor Vehicles) was entered. However, Data Element 14 (Type Property Loss/Etc.) 7=Stolen/Etc. was not entered, and/or Data Element 6 (UCR Offense Code) of 240=Motor Vehicle Theft was not entered, and/or Data Element 7 (Offense Attempted/Completed) was A=Attempted.</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>(Number of Stolen Motor Vehicles) Entry must be made for Data
+Element 18 (Number of Stolen Motor Vehicles) when Data Element
+6 (UCR Offense Code) is 240=Motor Vehicle Theft, Data Element 7 (Offense Attempted/Completed) is C=Completed, and Data
+Element 14 (Type Property Loss/Etc.) is 7=Stolen/Etc.</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>(Number of Stolen Motor Vehicles) More than one vehicle code was entered in Data Element 15 (Property Description), but the number stolen in Data Element 18 (Number of Stolen Motor Vehicles) is
+less than this number. For example, if vehicle codes of
+03=Automobiles and 05=Buses were entered as being stolen, then the number stolen must be at least 2, unless the number stolen
+was unknown (00).The exception to this rule is when 00=Unknown is entered in Data Element 18.</t>
+  </si>
+  <si>
+    <t>Data Element 19</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>(Number of Recovered Motor Vehicles The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Number of Recovered Motor Vehicles) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is
+8=Unknown, Data Elements 15 through 22 must be blank. If it is
+1=None and offense is 35A, then Data Elements 15 through 19 and
+21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is
+35A=Drug/ Narcotic Violations and Data Element 14 (Type Property
+Loss/Etc.) is 1=None; Data Element 20 (Suspected Drug Type)
+must be entered.</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>(Number of Recovered Motor Vehicles was entered. However, Data Element 14 (Type Property Loss/Etc.) 5=Recovered was not entered, and/or Data Element 6 (UCR Offense Code) of 240=Motor Vehicle Theft was not entered, and/or Data Element 7 (Offense Attempted/Completed) was A=Attempted. The exception to this rule is when recovered property is reported for a pre-NIBRS incident. In this case, Segment Level 3 (Property Segment) will contain A=Add, but the data value in Data Element 2 (Incident Number) will not match an incident already on file in the national UCR database.
+The segment will be processed, but used only for SRS purposes
+and will not be included in the agency’s NIBRS figures.</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>(Number of Recovered Motor Vehicles) Entry must be made when Data Element 6 (UCR Offense Code) is 240=Motor Vehicle Theft, Data Element 14 (Type Property Loss/Etc.) is 5=Recovered, and Data Element 15 (Property Description) contains a vehicle code.</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>(Number of Recovered Motor Vehicles) More than one vehicle code was entered in Data Element 15 (Property Description), but the number recovered in Data Element 19 (Number of Recovered
+Motor Vehicles) was less than this number. For example, if vehicle codes of 03=Automobiles and 05=Buses were entered as being recovered, then the number recovered must be at least 2, unless the number recovered was unknown (00).
+The exception to this rule is when 00=Unknown is entered in Data
+Element 18.</t>
+  </si>
+  <si>
+    <t>Data Element 2</t>
+  </si>
+  <si>
+    <t>(Incident Number) The referenced data element in a Group A Incident Report must be populated with a valid data value
+and cannot be blank.</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>(Incident Number) For each submitting agency, as identified in “1 ORI NUMBER,” the value must be a unique number. This means that no two incidents can have the same incident number. Some agencies ensure uniqueness by prefixing every incident number with a two-digit year followed by a number starting with 1, while others just increment the number by 1 for each new incident.</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>A Group “A” Incident Number and a Group “B” Arrest Report Arrest Transaction Number/Incident Number cannot have the same number within the same ORI.</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>(Incident Number) Zero-Reporting Segment (Level 0) must contain 12 zeros as the incident number.</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>(Incident Number) Must be left-justified with blank right-fill if under 12 characters in length.</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>(Incident Number) Must contain a valid character combination of the following:
+x A–Z (capital letters only)
+x 0–9
+x Hyphen
+Example: 11-123-SC is valid, but 11+123*SC is not valid.</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>Data Element 20</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>(Suspected Drug Type) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>(Suspected Drug Type) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.
+There are two exceptions to this rule:
+1)   When a data value is entered in both Drug Type 1 and Drug Type 2, but different measurement categories are entered in Data Element 22 (Type Drug Measurement); this is allowed.
+For example, when A=Crack Cocaine is entered in Drug Type 1 and it is also entered in Drug Type 2, Data Element 22 (Type Drug Measurement) must be two different measurement categories (i.e., grams and liters) and not grams and pounds (same weight category).
+2)   When the data value is U=Unknown; it can be entered only once.</t>
+  </si>
+  <si>
+    <t>(Suspected Drug Type) When this error occurs, data were found in one or more of the referenced data elements. These data elements must be blank based on other data element values that prohibit
+data being entered in these data elements. For example, if Data Element 14 (Type property Loss/Etc.) is 8=Unknown, Data Elements 15 through 22 must be blank. If it is 1=None and offense is 35A, then Data Elements 15 through 19 and 21 through 22 must be blank. If it is 1=None and offense is not 35A, then Data
+Elements 15 through 22 must be blank. The exception to this rule is when Data Element 6 (UCR Offense Code) is 35A=Drug/ Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) is
+1=None; Data Element 20 (Suspected Drug Type) must be entered.</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>(Suspected Drug Type Since X=Over 3 Drug Types was entered in Data Element 20 (Suspected Drug Type), two other codes must also be entered. There are less than three codes present.</t>
+  </si>
+  <si>
+    <t>(Suspected Drug Type) When Data Element 6 (UCR Offense Code)
+is 35A=Drug/Narcotic Violations, 14 (Type Property Loss/Etc.) is
+6=Seized, 15 (Type Property Loss/Etc.) is 10=Drugs, and Data
+Element 20 (Suspected Drug Type) is entered, both Data Element
+21 (Estimated Quantity) and 22 (Type Measurement) must also be entered.</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>(Suspected Drug Type) An offense of 35A Drug/Narcotic Violations and Data Element 14 (Type Property Loss/Etc.) with 1=None were entered but Data Element 20 (Suspected Drug Type) was not submitted. Since a drug seizure did not occur, the suspected drug type must also be entered. (This error was formerly error number
+341, a warning message.)</t>
+  </si>
+  <si>
+    <t>Data Element 25</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>(Type of Victim) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>(Type of Victim) cannot have a value of S=Society/Public when the offense is 220=Burglary/Breaking and Entering.</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>(Type of Victim) contains a Crime Against Person, but Data Element
+25 (Type of Victim) is not I=Individual or L=Law Enforcement Officer when Data Element 24 (Victim Connected to UCR Offense Code) contains a Crime Against Person.</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>(Type of Victim) contains a Crime Against Society, but Data Element
+25 (Type of Victim) is not S=Society.</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>(Type of Victim) contains a Crime Against Property, but Data Element 25 (Type of Victim) is S=Society. This is not an allowable code for Crime Against Property offenses.</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>(Type of Victim) cannot be L=Law Enforcement Officer unless Data Element 24 (Victim Connected to UCR Offense Code) is one of the following:
+09A=Murder &amp; Non-negligent Manslaughter
+13A=Aggravated Assault
+13B=Simple Assault
+13C=Intimidation</t>
+  </si>
+  <si>
+    <t>Data Element 25A</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>(Type of Officer Activity/Circumstance) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Type of Officer Activity/Circumstance), Data Element 25B (Officer
+Assignment Type), Data Element 26 (Age of Victim), Data Element
+27 (Sex of Victim), and Data Element 28 (Race of Victim) must be entered when Data Element 25 (Type of Victim) is L=Law Enforcement Officer.</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>(Type of Officer Activity/Circumstance) Data Element 25B (Officer Assignment Type), Data Element 25C (Officer–ORI Other Jurisdiction), Data Element 26 (Age of Victim), Data Element 27 (Sex of Victim), Data Element 28 (Race of Victim), Data Element 29 (Ethnicity of Victim), Data Element 30 (Resident Status of Victim), and Data Element 34 (Offender Number to be Related) can only be entered when Data Element 25 (Type of Victim) is I=Individual or
+L=Law Enforcement Officer.</t>
+  </si>
+  <si>
+    <t>Data Element 25B</t>
+  </si>
+  <si>
+    <t>25B</t>
+  </si>
+  <si>
+    <t>(Officer Assignment Type) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Data Element 25A (Type of Officer Activity/Circumstance), Data
+Element 25B (Officer Assignment Type), Data Element 26 (Age
+of Victim), Data Element 27 (Sex of Victim), and Data Element 28 (Race of Victim) must be entered when Data Element 25 (Type of Victim) is L=Law Enforcement Officer.</t>
+  </si>
+  <si>
+    <t>Data Element 25A (Type of Officer Activity/Circumstance), Data Element 25B (Officer Assignment Type), Data Element 25C (Officer–ORI Other Jurisdiction), Data Element 26 (Age of
+Victim), Data Element 27 (Sex of Victim), Data Element 28 (Race of Victim), Data Element 29 (Ethnicity of Victim), Data Element 30 (Resident Status of Victim), and Data Element 34 (Offender Number to be Related) can only be entered when Data Element
+25 (Type of Victim) is I=Individual or L=Law Enforcement Officer.</t>
+  </si>
+  <si>
+    <t>Data Element 25C</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>(Officer–ORI Other Jurisdiction) Must be a valid nine-character NCIC generated number, for nonfederal participants or an NCIC UCR-assigned code for federal participants.</t>
+  </si>
+  <si>
+    <t>(Officer–ORI Other Jurisdiction) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Officer–ORI Other Jurisdiction) Data Element 25A (Type of Officer Activity/Circumstance), Data Element 25B (Officer Assignment Type), Data Element 25C (Officer–ORI Other Jurisdiction), Data Element 26 (Age of Victim), Data Element 27 (Sex of Victim), Data Element 28 (Race of Victim), Data Element
+29 (Ethnicity of Victim), Data Element 30 (Resident Status of Victim), and Data Element 34 (Offender Number to be Related) can only be entered when Data Element 25 (Type of Victim) is I=Individual or L=Law Enforcement Officer.</t>
+  </si>
+  <si>
+    <t>Data Element 27</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>(Sex of Victim) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Sex of Victim) The Data Element associated with this error must be present when Data Element 25 (Type of Victim) is I=Individual.</t>
+  </si>
+  <si>
+    <t>(Sex of Victim) Data Element 25A (Type of Officer Activity/Circumstance), Data Element 25B (Officer Assignment Type), Data Element 26 (Age of Victim), Data Element 27 (Sex of Victim), and Data Element 28 (Race of Victim) must be entered when Data Element 25 (Type of Victim) is L=Law Enforcement Officer.</t>
+  </si>
+  <si>
+    <t>(Sex of Victim) The Data Element associated with this error cannot be entered when Data Element 25 (Type of Victim) is not I=Individual or L=Law Enforcement Officer when Data Element 24 (Victim Connected to UCR Offense Code) contains a Crime Against Person.</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>(Sex of Victim) Data Element 27 (Sex of Victim) must be M=Male or F=Female to be connected to offense codes of 11A=Forcible Rape and 36B=Statutory Rape.</t>
+  </si>
+  <si>
+    <t>Data Element 28</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>(Race of Victim) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Race of Victim) The Data Element associated with this error must be present when Data Element 25 (Type of Victim) is I=Individual.</t>
+  </si>
+  <si>
+    <t>(Race of Victim) The Data Element associated with this error cannot be entered when Data Element 25 (Type of Victim) is not
+I=Individual or L=Law Enforcement Officer when Data Element 24 (Victim Connected to UCR Offense Code) contains a Crime Against Person.</t>
+  </si>
+  <si>
+    <t>Data Element 2A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>(Cargo Theft) The referenced data element must contain a valid data value when it is entered.</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>(Cargo Theft) Data Element 2A (Cargo Theft) must be populated with a valid data value when Data Element 6 (UCR Offense Code) contains a Cargo Theft-related offense.</t>
+  </si>
+  <si>
+    <t>Data Element 3</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>(Incident Date) The data element in error contains a date that is not entered correctly. Each component of the date must be valid; that is, months must be 01 through 12, days must be 01 through 31, and year must include the century (i.e., 19xx, 20xx). In addition, days cannot exceed maximum for the month (e.g., June cannot have 31 days). Also, the date cannot exceed the current date.</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>(Incident Date) The UCR Program has determined that an ORI will no longer be submitting data to the FBI as of an inactive date. No data from this ORI will be accepted after this date.</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>(Incident Date) The date cannot be later than the year and month the electronic submission represents. For example, the May 1999 electronic submission cannot contain incidents happening after this date.</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>A Group “A” Incident Report was submitted with a date entered into Data Element 3 (Incident Date/Hour) that is earlier than January 1 of the previous year, using the Month of Tape and Year of Tape as a reference point, e.g., if the Month of Tape and Year of Tape contain a value of
+01/1999, but the incident date is 12/25/1997, the incident will be rejected. Volume 2, section I, provides specifications concerning the FBI’s 2-year database.
+Note: The exception is when an exceptional clearance is being submitted with a Segment Action Type of W=Time- Window Submission. The incident date may be any past date, but cannot be any earlier than January 1, 1950.</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>(Incident Date) cannot be earlier than 01/01/1991. This edit will preclude dates that are obviously incorrect since the
+FBI began accepting NIBRS data on this date.</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>A Group “A” Incident Report was submitted with Data Element 3 (Incident Date/Hour) containing a date that occurred before the agency converted over to NIBRS. Because of this, the record was rejected..</t>
+  </si>
+  <si>
+    <t>(Report Date Indicator) The referenced data element must contain a valid data value when it is entered.</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>(Report Date Indicator) This field must be blank if the incident date is known. If the incident date is unknown, then the report date would be entered instead and must be indicated with an “R” in the Report Indicator field within the Administrative Segment.</t>
+  </si>
+  <si>
+    <t>(Incident Hour) The referenced data element must contain a valid data value when it is entered.</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>(Incident Hour) If Hour is entered within Data Element 3 (Incident Date/Hour), it must be 00 through 23. If 00=Midnight is entered, be careful that the Incident Date is entered as if the time was 1 minute past midnight.
+Note: When an incident occurs exactly at midnight, Data Element 3 (Incident Date) would be entered as if the time is 1 minute past midnight. For example, when a crime occurred exactly at midnight on Thursday, Friday’s date would be entered.</t>
+  </si>
+  <si>
+    <t>Data Element 32</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>(Additional Justifiable Homicide Circumstances) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>(Additional Justifiable Homicide Circumstances) contains:
+20=Criminal Killed by Private Citizen
+Or 21=Criminal Killed by Police Officer, but Data Element 32 (Additional Justifiable Homicide Circumstances) was not entered.</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>(Additional Justifiable Homicide Circumstances) was entered, but Data Element 31 (Aggravated Assault/Homicide Circumstances) does not reflect a justifiable homicide circumstance.</t>
+  </si>
+  <si>
+    <t>Data Element 33</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>(Type Injury) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Type Injury) The referenced data element in error is one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>(Type Injury) Can have multiple data values and was entered with multiple values. However, the entry shown between the brackets in [value] above cannot be entered with any other data value.</t>
+  </si>
+  <si>
+    <t>Data Element 31 (Aggravated Assault/Homicide Circumstances) can only be entered when one or more of the offenses in Data Element 24 (Victim Connected to UCR Offense Code) are:
+09A=Murder and Non-negligent Manslaughter
+09B=Negligent Manslaughter
+09C=Justifiable Homicide
+13A=Aggravated Assault
+Data Element 33 (Type Injury) can only be entered when one or more of the offenses in Data Element 24 (Victim Connected to UCR Offense Code) are:
+100=Kidnapping/Abduction
+11A=Rape
+11B=Sodomy
+11C=Sexual Assault With An Object
+11D=Fondling
+120=Robbery
+13A=Aggravated Assault
+13B=Simple Assault
+210=Extortion/Blackmail
+64A=Human Trafficking, Commercial Sex Acts
+64B=Human Trafficking, Involuntary Servitude</t>
+  </si>
+  <si>
+    <t>(Type Injury) The Data Element associated with this error cannot be entered when Data Element 25 (Type of Victim) is not I=Individual
+or L=Law Enforcement Officer when Data Element 24 (Victim Connected to UCR Offense Code) contains a Crime Against Person.</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>(Type Injury) A Simple Assault (13B) was committed against a victim, but the victim had major injuries/trauma entered for Data Element 33 (Type Injury). Either the offense should have been classified as an Aggravated Assault (13A) or the victim’s injury should not have been entered as major.</t>
+  </si>
+  <si>
+    <t>Data Element 35</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>(Relationship of Victim to Offender) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>(Relationship of Victim to Offender) Corresponding Data Element 35 (Relationship of Victim to Offenders) data must be entered when Data Element 34 (Offender Numbers To Be Related) is entered with a value greater than 00.</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>(Relationship of Victim to Offender) cannot be entered when Data Element 34 (Offender Number to be Related) is zero. Zero means that the number of offenders is unknown; therefore, the relationship cannot be entered.</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>(Relationship of Victim to Offender) has a relationship to the offender that is not logical. In this case, the offender was entered with unknown values for age, sex, and race. Under these circumstances, the relationship must be entered as RU=Relationship Unknown.</t>
+  </si>
+  <si>
+    <t>Data Element 36</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>(Offender Sequence Number) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>(Offender Sequence Number) contains 00 indicating that nothing is known about the offender(s) regarding number and any identifying information. In order to exceptionally clear the incident, the value cannot be 00. The incident was submitted with Data Element 4 (Cleared Exceptionally) having a value of A through E.</t>
+  </si>
+  <si>
+    <t>Data Element 38</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>(Sex of Offender) The referenced data element in a Group A Incident
+Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Sex of Offender) Data Element 38 (Sex of Offender), and Data
+Element 39 (Race of Offender) cannot be entered when Data Element
+36 (Offender Sequence Number) is 00=Unknown.</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>(Sex of Offender) has a relationship that is inconsistent with the offender’s sex. The sex of the victim and/or offender must reflect the implied relationship. For example, if the relationship of the victim to offender is Homosexual Relationship, then the victim’s sex must be the same as the offender’s sex. The following relationships must reflect either the Same or Different sex codes depending upon this relationship:
+Relationship Sex Code
+BG=Victim was Boyfriend/Girlfriend Different XS=Victim was Ex-Spouse Different SE=Victim was Spouse Different
+CS=Victim was Common-Law Spouse Different
+HR=Homosexual Relationship Same</t>
+  </si>
+  <si>
+    <t>Data Element 39</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>(Race of Offender) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Race of Offender) Data Element 38 (Sex of Offender), and Data Element 39 (Race of Offender) cannot be entered when Data Element 36 (Offender Sequence Number) is 00=unknown.</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>Data Element 37 (Age of Offender) If Data Element 37 (Age of Offender) is 00=Unknown, Data Element 38 (Sex of Offender) is U=Unknown, and Data Element 39 (Race of Offender) is U=Unknown then Data Element 35 (Relationship of Victim to Offender) must be RU=Relationship Unknown.</t>
+  </si>
+  <si>
+    <t>Data Element 39A</t>
+  </si>
+  <si>
+    <t>39A</t>
+  </si>
+  <si>
+    <t>(Ethnicity of Offender) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Ethnicity of Offender) Data Element 38 (Sex of Offender), and Data Element 39 (Race of Offender) cannot be entered when Data Element 36 (Offender Sequence Number) is 00=Unknown.</t>
+  </si>
+  <si>
+    <t>Data Element 4</t>
+  </si>
+  <si>
+    <t>(Cleared Exceptionally) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>(Cleared Exceptionally) Cannot be N=Not Applicable if Data
+Element 5 (Exceptional Clearance Date) is entered.</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>(Cleared Exceptionally) must be entered when Segment Level
+1 (Administrative Segment) contains M=Modify in Segment
+Action Type.</t>
+  </si>
+  <si>
+    <t>Data Element 42</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>(Arrest Date) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>(Arrest Date):
+Each component of the date must be valid; that is, months must be
+01 through 12, days must be 01 through 31, and year must include the century (i.e., 19xx, 20xx). In addition, days cannot exceed maximum for the month (e.g., June cannot have 31 days). The date cannot exceed the current date.
+The date cannot be later than that entered within the Month of Electronic submission and Year of Electronic submission fields on the data record. For example, if Month of Electronic submission and Year of Electronic submission are 06/1999, the arrest date cannot contain any date 07/01/1999 or later.</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>(Arrest Date) cannot contain a date on or after the date a LEA is placed in Covered-by Status. When data are received for a LEA in Covered-by Status, the FBI will remove the agency from Covered-by Status, process the submission, and notify the agency.
+Additionally, adjustments to previously- submitted data from an agency now in Covered-by Status will be processed and no error will be generated.</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>(Arrest Date) cannot be earlier than Data Element 3 (Incident Date/Hour). A person cannot be arrested before the incident occurred.
+The exception to this rule is when an additional arrest is reported for a pre-NIBRS incident. In this case, Segment Level 6 (Arrestee Segment) will contain A=Add, but the data value in Data Element 2 (Incident Number) will not match an incident already on file in the national UCR database. The segment will be processed, but used only for SRS purposes and will not be included in the agency’s NIBRS figures.</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>Data Element 48</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>(Sex of Arrestee) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>(Sex of Arrestee) does not contain a valid code of M=Male or F=Female. Note: U=Unknown (if entered) is not a valid sex for an arrestee.</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>Data Element 5</t>
+  </si>
+  <si>
+    <t>(Exceptional Clearance Date) The referenced data element must contain a valid data value when it is entered.</t>
+  </si>
+  <si>
+    <t>(Exceptional Clearance Date) The data element in error
+contains a date that is not entered correctly. Each component of the date must be valid; that is, months must be 01 through
+12, days must be 01 through 31, and year must include the century (i.e., 19xx, 20xx). In addition, days cannot exceed maximum for the month (e.g., June cannot have 31 days). Also, the date cannot exceed the current date.</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>(Exceptional Clearance Date) is earlier than Data Element 3 (Incident Date/Hour).</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>(Exceptional Clearance Date) must be present if the case was cleared exceptionally. Data Element 4 (Cleared Exceptionally) has an entry of A through E; therefore, the date must also be entered.</t>
+  </si>
+  <si>
+    <t>(Exceptional Clearance Date) cannot contain a date earlier than the date the LEA began submitting data via the NIBRS.</t>
+  </si>
+  <si>
+    <t>Data Element 50</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>(Ethnicity of Arrestee The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Data Element 52</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>(Disposition of Arrestee Under 18) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>(Disposition of Arrestee Under 18) was not entered, but Data Element
+47 (Age of Arrestee) indicates an age-range for a juvenile. The low
+age is a juvenile and the high age is an adult, but the average age is a juvenile.
+Note: When an age-range is not entered and the age is a juvenile, then the disposition must be entered. These circumstances were flagged by the computer as a possible discrepancy between age and disposition and should be checked for possible correction by the participant.</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>(Disposition of Arrestee Under 18) was not entered, but Data Element
+47 (Age of Arrestee) is under 18. Whenever an arrestee’s age
+indicates a juvenile, the disposition must be entered.</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>(Disposition of Arrestee Under 18) was entered, but Data Element 47 (Age of Arrestee) is 18 or greater. Whenever an arrestee’s age indicates an adult, the juvenile disposition cannot be entered because it does not apply.</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>Data Element 6</t>
+  </si>
+  <si>
+    <t>(UCR Offense Code) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>(UCR Offense Code Data Element 6 (UCR Offense Code) must be a Group “A” UCR Offense Code, not a Group “B” Offense Code.</t>
+  </si>
+  <si>
+    <t>Data Element 7</t>
+  </si>
+  <si>
+    <t>(Offense Attempted/Completed) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>(Offense Attempted/Completed) Must be a valid code of
+A=Attempted or C=Completed.</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>(Offense Attempted/Completed) Code must be C=Completed if Data Element 6 (UCR Offense Code) is an Assault or Homicide.</t>
+  </si>
+  <si>
+    <t>Data Element 8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>(Offender Suspected of Using) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Offender Suspected of Using) The referenced data element in error is one that contains multiple data values. When more
+than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>(Offender Suspected of Using) The data element in error can have multiple data values and was entered with multiple values. However, the entry shown cannot be entered with any other data value. Value N=None/Unknown is mutually exclusive with any other information codes.</t>
+  </si>
+  <si>
+    <t>Data Element 8A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>(Bias Motivation), The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>(Bias Motivation) The referenced data element in error is
+one that contains multiple data values. When more than one code is entered, none can be duplicate codes.</t>
+  </si>
+  <si>
+    <t>(Bias Motivation) The data element in error can have multiple data values and was entered with multiple values. However, the entry shown cannot be entered with any other data value. Value N=None/Unknown is mutually exclusive with any other information codes.</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>(Bias Motivation) Must be 88=None when Data Element 6 (UCR Offense Code) is 09C=Justifiable Homicide.</t>
+  </si>
+  <si>
+    <t>Data Element 9</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>(Location Type) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>Zero Report Element (Year)</t>
+  </si>
+  <si>
+    <t>Data Element 2 (Incident Number) in the Zero Report
+Segment (Level 0) must contain 12 zeros.</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>Zero Report Element (month)</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>Zero Report Month must be a valid month, data values
+01 through 12.</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>The combined Zero Report Month and Zero Report Year cannot be on or after the date a law enforcement agency (LEA) is placed in Covered-by Status. When Zero Report data are received for a LEA in Covered-by Status, the
+FBI will remove the agency from Covered-by Status, process the submission, and notify the Agency. Additionally, adjustments to previously submitted data from an agency now in Covered-by Status will be processed and no error generated.</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +3792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6088,4 +8077,5606 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E331"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" t="s">
+        <v>479</v>
+      </c>
+      <c r="C26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" t="s">
+        <v>472</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>478</v>
+      </c>
+      <c r="B30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C30" t="s">
+        <v>486</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>488</v>
+      </c>
+      <c r="B33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C33" t="s">
+        <v>482</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>488</v>
+      </c>
+      <c r="B34" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" t="s">
+        <v>494</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" t="s">
+        <v>498</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37" t="s">
+        <v>498</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" t="s">
+        <v>506</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40" t="s">
+        <v>510</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" t="s">
+        <v>509</v>
+      </c>
+      <c r="C41" t="s">
+        <v>512</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>508</v>
+      </c>
+      <c r="B42" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" t="s">
+        <v>514</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" t="s">
+        <v>516</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>508</v>
+      </c>
+      <c r="B44" t="s">
+        <v>509</v>
+      </c>
+      <c r="C44" t="s">
+        <v>518</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>508</v>
+      </c>
+      <c r="B45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C45" t="s">
+        <v>520</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>508</v>
+      </c>
+      <c r="B46" t="s">
+        <v>509</v>
+      </c>
+      <c r="C46" t="s">
+        <v>522</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>508</v>
+      </c>
+      <c r="B47" t="s">
+        <v>509</v>
+      </c>
+      <c r="C47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>508</v>
+      </c>
+      <c r="B48" t="s">
+        <v>509</v>
+      </c>
+      <c r="C48" t="s">
+        <v>525</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>528</v>
+      </c>
+      <c r="B50" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>528</v>
+      </c>
+      <c r="B51" t="s">
+        <v>529</v>
+      </c>
+      <c r="C51" t="s">
+        <v>525</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52" t="s">
+        <v>533</v>
+      </c>
+      <c r="C52" t="s">
+        <v>510</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>532</v>
+      </c>
+      <c r="B53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C53" t="s">
+        <v>525</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>536</v>
+      </c>
+      <c r="B54" t="s">
+        <v>537</v>
+      </c>
+      <c r="C54" t="s">
+        <v>510</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E54" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>536</v>
+      </c>
+      <c r="B55" t="s">
+        <v>537</v>
+      </c>
+      <c r="C55" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>536</v>
+      </c>
+      <c r="B56" t="s">
+        <v>537</v>
+      </c>
+      <c r="C56" t="s">
+        <v>540</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>536</v>
+      </c>
+      <c r="B57" t="s">
+        <v>537</v>
+      </c>
+      <c r="C57" t="s">
+        <v>542</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>536</v>
+      </c>
+      <c r="B58" t="s">
+        <v>537</v>
+      </c>
+      <c r="C58" t="s">
+        <v>544</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>536</v>
+      </c>
+      <c r="B59" t="s">
+        <v>537</v>
+      </c>
+      <c r="C59" t="s">
+        <v>546</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>536</v>
+      </c>
+      <c r="B60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C60" t="s">
+        <v>548</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>550</v>
+      </c>
+      <c r="B61" t="s">
+        <v>551</v>
+      </c>
+      <c r="C61" t="s">
+        <v>510</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>550</v>
+      </c>
+      <c r="B62" t="s">
+        <v>551</v>
+      </c>
+      <c r="C62" t="s">
+        <v>504</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" t="s">
+        <v>551</v>
+      </c>
+      <c r="C63" t="s">
+        <v>525</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>550</v>
+      </c>
+      <c r="B64" t="s">
+        <v>551</v>
+      </c>
+      <c r="C64" t="s">
+        <v>555</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B65" t="s">
+        <v>551</v>
+      </c>
+      <c r="C65" t="s">
+        <v>557</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>550</v>
+      </c>
+      <c r="B66" t="s">
+        <v>551</v>
+      </c>
+      <c r="C66" t="s">
+        <v>559</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>561</v>
+      </c>
+      <c r="B67" t="s">
+        <v>562</v>
+      </c>
+      <c r="C67" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E67" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>561</v>
+      </c>
+      <c r="B68" t="s">
+        <v>562</v>
+      </c>
+      <c r="C68" t="s">
+        <v>566</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E68" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>561</v>
+      </c>
+      <c r="B69" t="s">
+        <v>562</v>
+      </c>
+      <c r="C69" t="s">
+        <v>568</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>561</v>
+      </c>
+      <c r="B70" t="s">
+        <v>562</v>
+      </c>
+      <c r="C70" t="s">
+        <v>570</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71" t="s">
+        <v>562</v>
+      </c>
+      <c r="C71" t="s">
+        <v>572</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>561</v>
+      </c>
+      <c r="B72" t="s">
+        <v>562</v>
+      </c>
+      <c r="C72" t="s">
+        <v>574</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E72" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>561</v>
+      </c>
+      <c r="B73" t="s">
+        <v>562</v>
+      </c>
+      <c r="C73" t="s">
+        <v>576</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>561</v>
+      </c>
+      <c r="B74" t="s">
+        <v>562</v>
+      </c>
+      <c r="C74" t="s">
+        <v>578</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E74" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>561</v>
+      </c>
+      <c r="B75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C75" t="s">
+        <v>580</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>582</v>
+      </c>
+      <c r="B76" t="s">
+        <v>583</v>
+      </c>
+      <c r="C76" t="s">
+        <v>584</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E76" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>582</v>
+      </c>
+      <c r="B77" t="s">
+        <v>583</v>
+      </c>
+      <c r="C77" t="s">
+        <v>586</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>588</v>
+      </c>
+      <c r="B78" t="s">
+        <v>589</v>
+      </c>
+      <c r="C78" t="s">
+        <v>584</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>588</v>
+      </c>
+      <c r="B79" t="s">
+        <v>589</v>
+      </c>
+      <c r="C79" t="s">
+        <v>591</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>588</v>
+      </c>
+      <c r="B80" t="s">
+        <v>589</v>
+      </c>
+      <c r="C80" t="s">
+        <v>593</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>588</v>
+      </c>
+      <c r="B81" t="s">
+        <v>589</v>
+      </c>
+      <c r="C81" t="s">
+        <v>595</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E81" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82" t="s">
+        <v>589</v>
+      </c>
+      <c r="C82" t="s">
+        <v>586</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E82" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>588</v>
+      </c>
+      <c r="B83" t="s">
+        <v>589</v>
+      </c>
+      <c r="C83" t="s">
+        <v>597</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E83" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>588</v>
+      </c>
+      <c r="B84" t="s">
+        <v>589</v>
+      </c>
+      <c r="C84" t="s">
+        <v>598</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E84" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>588</v>
+      </c>
+      <c r="B85" t="s">
+        <v>589</v>
+      </c>
+      <c r="C85" t="s">
+        <v>599</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E85" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>600</v>
+      </c>
+      <c r="B86" t="s">
+        <v>601</v>
+      </c>
+      <c r="C86" t="s">
+        <v>584</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E86" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>600</v>
+      </c>
+      <c r="B87" t="s">
+        <v>601</v>
+      </c>
+      <c r="C87" t="s">
+        <v>586</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E87" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>603</v>
+      </c>
+      <c r="B88" t="s">
+        <v>604</v>
+      </c>
+      <c r="C88" t="s">
+        <v>584</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E88" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>606</v>
+      </c>
+      <c r="B89" t="s">
+        <v>607</v>
+      </c>
+      <c r="C89" t="s">
+        <v>584</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E89" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>606</v>
+      </c>
+      <c r="B90" t="s">
+        <v>607</v>
+      </c>
+      <c r="C90" t="s">
+        <v>609</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E90" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>606</v>
+      </c>
+      <c r="B91" t="s">
+        <v>607</v>
+      </c>
+      <c r="C91" t="s">
+        <v>611</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>606</v>
+      </c>
+      <c r="B92" t="s">
+        <v>607</v>
+      </c>
+      <c r="C92" t="s">
+        <v>586</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E92" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>613</v>
+      </c>
+      <c r="B93" t="s">
+        <v>614</v>
+      </c>
+      <c r="C93" t="s">
+        <v>584</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E93" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>613</v>
+      </c>
+      <c r="B94" t="s">
+        <v>614</v>
+      </c>
+      <c r="C94" t="s">
+        <v>616</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E94" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>613</v>
+      </c>
+      <c r="B95" t="s">
+        <v>614</v>
+      </c>
+      <c r="C95" t="s">
+        <v>618</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E95" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>613</v>
+      </c>
+      <c r="B96" t="s">
+        <v>614</v>
+      </c>
+      <c r="C96" t="s">
+        <v>433</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E96" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>613</v>
+      </c>
+      <c r="B97" t="s">
+        <v>614</v>
+      </c>
+      <c r="C97" t="s">
+        <v>621</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E97" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>613</v>
+      </c>
+      <c r="B98" t="s">
+        <v>614</v>
+      </c>
+      <c r="C98" t="s">
+        <v>623</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E98" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>613</v>
+      </c>
+      <c r="B99" t="s">
+        <v>614</v>
+      </c>
+      <c r="C99" t="s">
+        <v>586</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E99" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>613</v>
+      </c>
+      <c r="B100" t="s">
+        <v>614</v>
+      </c>
+      <c r="C100" t="s">
+        <v>625</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E100" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>613</v>
+      </c>
+      <c r="B101" t="s">
+        <v>614</v>
+      </c>
+      <c r="C101" t="s">
+        <v>626</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E101" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>613</v>
+      </c>
+      <c r="B102" t="s">
+        <v>614</v>
+      </c>
+      <c r="C102" t="s">
+        <v>627</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E102" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>613</v>
+      </c>
+      <c r="B103" t="s">
+        <v>614</v>
+      </c>
+      <c r="C103" t="s">
+        <v>628</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E103" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>613</v>
+      </c>
+      <c r="B104" t="s">
+        <v>614</v>
+      </c>
+      <c r="C104" t="s">
+        <v>629</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E104" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>630</v>
+      </c>
+      <c r="B105" t="s">
+        <v>631</v>
+      </c>
+      <c r="C105" t="s">
+        <v>584</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E105" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>630</v>
+      </c>
+      <c r="B106" t="s">
+        <v>631</v>
+      </c>
+      <c r="C106" t="s">
+        <v>633</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E106" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>630</v>
+      </c>
+      <c r="B107" t="s">
+        <v>631</v>
+      </c>
+      <c r="C107" t="s">
+        <v>635</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E107" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>630</v>
+      </c>
+      <c r="B108" t="s">
+        <v>631</v>
+      </c>
+      <c r="C108" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>630</v>
+      </c>
+      <c r="B109" t="s">
+        <v>631</v>
+      </c>
+      <c r="C109" t="s">
+        <v>639</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E109" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>630</v>
+      </c>
+      <c r="B110" t="s">
+        <v>631</v>
+      </c>
+      <c r="C110" t="s">
+        <v>641</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>630</v>
+      </c>
+      <c r="B111" t="s">
+        <v>631</v>
+      </c>
+      <c r="C111" t="s">
+        <v>643</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E111" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>630</v>
+      </c>
+      <c r="B112" t="s">
+        <v>631</v>
+      </c>
+      <c r="C112" t="s">
+        <v>586</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E112" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" t="s">
+        <v>631</v>
+      </c>
+      <c r="C113" t="s">
+        <v>645</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E113" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>630</v>
+      </c>
+      <c r="B114" t="s">
+        <v>631</v>
+      </c>
+      <c r="C114" t="s">
+        <v>646</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E114" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" t="s">
+        <v>631</v>
+      </c>
+      <c r="C115" t="s">
+        <v>647</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E115" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>630</v>
+      </c>
+      <c r="B116" t="s">
+        <v>631</v>
+      </c>
+      <c r="C116" t="s">
+        <v>648</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E116" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>630</v>
+      </c>
+      <c r="B117" t="s">
+        <v>631</v>
+      </c>
+      <c r="C117" t="s">
+        <v>649</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E117" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>650</v>
+      </c>
+      <c r="B118" t="s">
+        <v>651</v>
+      </c>
+      <c r="C118" t="s">
+        <v>584</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E118" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>650</v>
+      </c>
+      <c r="B119" t="s">
+        <v>651</v>
+      </c>
+      <c r="C119" t="s">
+        <v>586</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E119" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>653</v>
+      </c>
+      <c r="B120" t="s">
+        <v>654</v>
+      </c>
+      <c r="C120" t="s">
+        <v>433</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E120" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>653</v>
+      </c>
+      <c r="B121" t="s">
+        <v>654</v>
+      </c>
+      <c r="C121" t="s">
+        <v>627</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E121" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>656</v>
+      </c>
+      <c r="B122" t="s">
+        <v>657</v>
+      </c>
+      <c r="C122" t="s">
+        <v>658</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E122" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>656</v>
+      </c>
+      <c r="B123" t="s">
+        <v>657</v>
+      </c>
+      <c r="C123" t="s">
+        <v>660</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E123" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>656</v>
+      </c>
+      <c r="B124" t="s">
+        <v>657</v>
+      </c>
+      <c r="C124" t="s">
+        <v>661</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E124" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>656</v>
+      </c>
+      <c r="B125" t="s">
+        <v>657</v>
+      </c>
+      <c r="C125" t="s">
+        <v>663</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E125" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>656</v>
+      </c>
+      <c r="B126" t="s">
+        <v>657</v>
+      </c>
+      <c r="C126" t="s">
+        <v>664</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>656</v>
+      </c>
+      <c r="B127" t="s">
+        <v>657</v>
+      </c>
+      <c r="C127" t="s">
+        <v>665</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E127" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>656</v>
+      </c>
+      <c r="B128" t="s">
+        <v>657</v>
+      </c>
+      <c r="C128" t="s">
+        <v>666</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E128" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>656</v>
+      </c>
+      <c r="B129" t="s">
+        <v>657</v>
+      </c>
+      <c r="C129" t="s">
+        <v>667</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E129" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>656</v>
+      </c>
+      <c r="B130" t="s">
+        <v>657</v>
+      </c>
+      <c r="C130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E130" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>656</v>
+      </c>
+      <c r="B131" t="s">
+        <v>657</v>
+      </c>
+      <c r="C131" t="s">
+        <v>498</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E131" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>656</v>
+      </c>
+      <c r="B132" t="s">
+        <v>657</v>
+      </c>
+      <c r="C132" t="s">
+        <v>462</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E132" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>656</v>
+      </c>
+      <c r="B133" t="s">
+        <v>657</v>
+      </c>
+      <c r="C133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E133" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>656</v>
+      </c>
+      <c r="B134" t="s">
+        <v>657</v>
+      </c>
+      <c r="C134" t="s">
+        <v>510</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>656</v>
+      </c>
+      <c r="B135" t="s">
+        <v>657</v>
+      </c>
+      <c r="C135" t="s">
+        <v>584</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E135" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>656</v>
+      </c>
+      <c r="B136" t="s">
+        <v>657</v>
+      </c>
+      <c r="C136" t="s">
+        <v>563</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E136" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>656</v>
+      </c>
+      <c r="B137" t="s">
+        <v>657</v>
+      </c>
+      <c r="C137" t="s">
+        <v>433</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E137" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>669</v>
+      </c>
+      <c r="B138" t="s">
+        <v>670</v>
+      </c>
+      <c r="C138" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E138" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>669</v>
+      </c>
+      <c r="B139" t="s">
+        <v>670</v>
+      </c>
+      <c r="C139" t="s">
+        <v>672</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E139" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>669</v>
+      </c>
+      <c r="B140" t="s">
+        <v>670</v>
+      </c>
+      <c r="C140" t="s">
+        <v>674</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E140" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>676</v>
+      </c>
+      <c r="B141" t="s">
+        <v>677</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E141" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>676</v>
+      </c>
+      <c r="B142" t="s">
+        <v>677</v>
+      </c>
+      <c r="C142" t="s">
+        <v>679</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E142" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>676</v>
+      </c>
+      <c r="B143" t="s">
+        <v>677</v>
+      </c>
+      <c r="C143" t="s">
+        <v>681</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E143" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>676</v>
+      </c>
+      <c r="B144" t="s">
+        <v>677</v>
+      </c>
+      <c r="C144" t="s">
+        <v>683</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E144" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>676</v>
+      </c>
+      <c r="B145" t="s">
+        <v>677</v>
+      </c>
+      <c r="C145" t="s">
+        <v>685</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E145" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>687</v>
+      </c>
+      <c r="B146" t="s">
+        <v>688</v>
+      </c>
+      <c r="C146" t="s">
+        <v>443</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E146" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>687</v>
+      </c>
+      <c r="B147" t="s">
+        <v>688</v>
+      </c>
+      <c r="C147" t="s">
+        <v>679</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E147" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>687</v>
+      </c>
+      <c r="B148" t="s">
+        <v>688</v>
+      </c>
+      <c r="C148" t="s">
+        <v>681</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E148" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>687</v>
+      </c>
+      <c r="B149" t="s">
+        <v>688</v>
+      </c>
+      <c r="C149" t="s">
+        <v>692</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E149" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>687</v>
+      </c>
+      <c r="B150" t="s">
+        <v>688</v>
+      </c>
+      <c r="C150" t="s">
+        <v>694</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>687</v>
+      </c>
+      <c r="B151" t="s">
+        <v>688</v>
+      </c>
+      <c r="C151" t="s">
+        <v>696</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E151" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>687</v>
+      </c>
+      <c r="B152" t="s">
+        <v>688</v>
+      </c>
+      <c r="C152" t="s">
+        <v>698</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E152" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>687</v>
+      </c>
+      <c r="B153" t="s">
+        <v>688</v>
+      </c>
+      <c r="C153" t="s">
+        <v>443</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E153" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>687</v>
+      </c>
+      <c r="B154" t="s">
+        <v>688</v>
+      </c>
+      <c r="C154" t="s">
+        <v>700</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E154" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>687</v>
+      </c>
+      <c r="B155" t="s">
+        <v>688</v>
+      </c>
+      <c r="C155" t="s">
+        <v>702</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E155" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>704</v>
+      </c>
+      <c r="B156" t="s">
+        <v>705</v>
+      </c>
+      <c r="C156" t="s">
+        <v>462</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>704</v>
+      </c>
+      <c r="B157" t="s">
+        <v>705</v>
+      </c>
+      <c r="C157" t="s">
+        <v>472</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E157" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>704</v>
+      </c>
+      <c r="B158" t="s">
+        <v>705</v>
+      </c>
+      <c r="C158" t="s">
+        <v>708</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E158" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>704</v>
+      </c>
+      <c r="B159" t="s">
+        <v>705</v>
+      </c>
+      <c r="C159" t="s">
+        <v>710</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E159" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>704</v>
+      </c>
+      <c r="B160" t="s">
+        <v>705</v>
+      </c>
+      <c r="C160" t="s">
+        <v>712</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E160" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>704</v>
+      </c>
+      <c r="B161" t="s">
+        <v>705</v>
+      </c>
+      <c r="C161" t="s">
+        <v>714</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E161" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>704</v>
+      </c>
+      <c r="B162" t="s">
+        <v>705</v>
+      </c>
+      <c r="C162" t="s">
+        <v>716</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E162" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>704</v>
+      </c>
+      <c r="B163" t="s">
+        <v>705</v>
+      </c>
+      <c r="C163" t="s">
+        <v>718</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E163" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>720</v>
+      </c>
+      <c r="B164" t="s">
+        <v>721</v>
+      </c>
+      <c r="C164" t="s">
+        <v>722</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E164" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>720</v>
+      </c>
+      <c r="B165" t="s">
+        <v>721</v>
+      </c>
+      <c r="C165" t="s">
+        <v>462</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>720</v>
+      </c>
+      <c r="B166" t="s">
+        <v>721</v>
+      </c>
+      <c r="C166" t="s">
+        <v>725</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E166" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>720</v>
+      </c>
+      <c r="B167" t="s">
+        <v>721</v>
+      </c>
+      <c r="C167" t="s">
+        <v>727</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E167" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>720</v>
+      </c>
+      <c r="B168" t="s">
+        <v>721</v>
+      </c>
+      <c r="C168" t="s">
+        <v>472</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E168" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>720</v>
+      </c>
+      <c r="B169" t="s">
+        <v>721</v>
+      </c>
+      <c r="C169" t="s">
+        <v>730</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E169" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>720</v>
+      </c>
+      <c r="B170" t="s">
+        <v>721</v>
+      </c>
+      <c r="C170" t="s">
+        <v>710</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E170" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>720</v>
+      </c>
+      <c r="B171" t="s">
+        <v>721</v>
+      </c>
+      <c r="C171" t="s">
+        <v>476</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E171" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>720</v>
+      </c>
+      <c r="B172" t="s">
+        <v>721</v>
+      </c>
+      <c r="C172" t="s">
+        <v>734</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E172" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>720</v>
+      </c>
+      <c r="B173" t="s">
+        <v>721</v>
+      </c>
+      <c r="C173" t="s">
+        <v>736</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>738</v>
+      </c>
+      <c r="B174" t="s">
+        <v>739</v>
+      </c>
+      <c r="C174" t="s">
+        <v>462</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E174" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>738</v>
+      </c>
+      <c r="B175" t="s">
+        <v>739</v>
+      </c>
+      <c r="C175" t="s">
+        <v>472</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E175" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>738</v>
+      </c>
+      <c r="B176" t="s">
+        <v>739</v>
+      </c>
+      <c r="C176" t="s">
+        <v>742</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E176" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>738</v>
+      </c>
+      <c r="B177" t="s">
+        <v>739</v>
+      </c>
+      <c r="C177" t="s">
+        <v>744</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E177" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>738</v>
+      </c>
+      <c r="B178" t="s">
+        <v>739</v>
+      </c>
+      <c r="C178" t="s">
+        <v>746</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E178" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>748</v>
+      </c>
+      <c r="B179" t="s">
+        <v>749</v>
+      </c>
+      <c r="C179" t="s">
+        <v>462</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>748</v>
+      </c>
+      <c r="B180" t="s">
+        <v>749</v>
+      </c>
+      <c r="C180" t="s">
+        <v>472</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E180" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>748</v>
+      </c>
+      <c r="B181" t="s">
+        <v>749</v>
+      </c>
+      <c r="C181" t="s">
+        <v>752</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>748</v>
+      </c>
+      <c r="B182" t="s">
+        <v>749</v>
+      </c>
+      <c r="C182" t="s">
+        <v>754</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E182" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>748</v>
+      </c>
+      <c r="B183" t="s">
+        <v>749</v>
+      </c>
+      <c r="C183" t="s">
+        <v>756</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E183" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>758</v>
+      </c>
+      <c r="B184" t="s">
+        <v>445</v>
+      </c>
+      <c r="C184" t="s">
+        <v>658</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E184" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>758</v>
+      </c>
+      <c r="B185" t="s">
+        <v>445</v>
+      </c>
+      <c r="C185" t="s">
+        <v>760</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>758</v>
+      </c>
+      <c r="B186" t="s">
+        <v>445</v>
+      </c>
+      <c r="C186" t="s">
+        <v>762</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E186" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>758</v>
+      </c>
+      <c r="B187" t="s">
+        <v>445</v>
+      </c>
+      <c r="C187" t="s">
+        <v>764</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E187" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>758</v>
+      </c>
+      <c r="B188" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" t="s">
+        <v>766</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E188" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>758</v>
+      </c>
+      <c r="B189" t="s">
+        <v>445</v>
+      </c>
+      <c r="C189" t="s">
+        <v>767</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E189" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>758</v>
+      </c>
+      <c r="B190" t="s">
+        <v>445</v>
+      </c>
+      <c r="C190" t="s">
+        <v>769</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E190" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>758</v>
+      </c>
+      <c r="B191" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" t="s">
+        <v>663</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E191" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>758</v>
+      </c>
+      <c r="B192" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" t="s">
+        <v>771</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E192" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>758</v>
+      </c>
+      <c r="B193" t="s">
+        <v>445</v>
+      </c>
+      <c r="C193" t="s">
+        <v>772</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E193" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>758</v>
+      </c>
+      <c r="B194" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" t="s">
+        <v>773</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E194" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>758</v>
+      </c>
+      <c r="B195" t="s">
+        <v>445</v>
+      </c>
+      <c r="C195" t="s">
+        <v>665</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E195" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>758</v>
+      </c>
+      <c r="B196" t="s">
+        <v>445</v>
+      </c>
+      <c r="C196" t="s">
+        <v>774</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E196" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>758</v>
+      </c>
+      <c r="B197" t="s">
+        <v>445</v>
+      </c>
+      <c r="C197" t="s">
+        <v>775</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E197" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>758</v>
+      </c>
+      <c r="B198" t="s">
+        <v>445</v>
+      </c>
+      <c r="C198" t="s">
+        <v>776</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E198" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>758</v>
+      </c>
+      <c r="B199" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" t="s">
+        <v>667</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E199" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>758</v>
+      </c>
+      <c r="B200" t="s">
+        <v>445</v>
+      </c>
+      <c r="C200" t="s">
+        <v>777</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E200" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>758</v>
+      </c>
+      <c r="B201" t="s">
+        <v>445</v>
+      </c>
+      <c r="C201" t="s">
+        <v>778</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E201" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>758</v>
+      </c>
+      <c r="B202" t="s">
+        <v>445</v>
+      </c>
+      <c r="C202" t="s">
+        <v>779</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E202" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>758</v>
+      </c>
+      <c r="B203" t="s">
+        <v>445</v>
+      </c>
+      <c r="C203" t="s">
+        <v>498</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E203" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>758</v>
+      </c>
+      <c r="B204" t="s">
+        <v>445</v>
+      </c>
+      <c r="C204" t="s">
+        <v>780</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E204" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>758</v>
+      </c>
+      <c r="B205" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" t="s">
+        <v>781</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E205" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>758</v>
+      </c>
+      <c r="B206" t="s">
+        <v>445</v>
+      </c>
+      <c r="C206" t="s">
+        <v>782</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E206" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>758</v>
+      </c>
+      <c r="B207" t="s">
+        <v>445</v>
+      </c>
+      <c r="C207" t="s">
+        <v>668</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E207" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>758</v>
+      </c>
+      <c r="B208" t="s">
+        <v>445</v>
+      </c>
+      <c r="C208" t="s">
+        <v>591</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E208" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>758</v>
+      </c>
+      <c r="B209" t="s">
+        <v>445</v>
+      </c>
+      <c r="C209" t="s">
+        <v>593</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E209" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>758</v>
+      </c>
+      <c r="B210" t="s">
+        <v>445</v>
+      </c>
+      <c r="C210" t="s">
+        <v>595</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E210" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>758</v>
+      </c>
+      <c r="B211" t="s">
+        <v>445</v>
+      </c>
+      <c r="C211" t="s">
+        <v>584</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E211" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>783</v>
+      </c>
+      <c r="B212" t="s">
+        <v>784</v>
+      </c>
+      <c r="C212" t="s">
+        <v>462</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E212" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>783</v>
+      </c>
+      <c r="B213" t="s">
+        <v>784</v>
+      </c>
+      <c r="C213" t="s">
+        <v>786</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E213" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>783</v>
+      </c>
+      <c r="B214" t="s">
+        <v>784</v>
+      </c>
+      <c r="C214" t="s">
+        <v>472</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E214" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>783</v>
+      </c>
+      <c r="B215" t="s">
+        <v>784</v>
+      </c>
+      <c r="C215" t="s">
+        <v>789</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E215" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>783</v>
+      </c>
+      <c r="B216" t="s">
+        <v>784</v>
+      </c>
+      <c r="C216" t="s">
+        <v>484</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E216" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>783</v>
+      </c>
+      <c r="B217" t="s">
+        <v>784</v>
+      </c>
+      <c r="C217" t="s">
+        <v>792</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E217" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>794</v>
+      </c>
+      <c r="B218" t="s">
+        <v>795</v>
+      </c>
+      <c r="C218" t="s">
+        <v>498</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E218" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>794</v>
+      </c>
+      <c r="B219" t="s">
+        <v>795</v>
+      </c>
+      <c r="C219" t="s">
+        <v>797</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E219" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>794</v>
+      </c>
+      <c r="B220" t="s">
+        <v>795</v>
+      </c>
+      <c r="C220" t="s">
+        <v>799</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E220" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>794</v>
+      </c>
+      <c r="B221" t="s">
+        <v>795</v>
+      </c>
+      <c r="C221" t="s">
+        <v>801</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E221" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>794</v>
+      </c>
+      <c r="B222" t="s">
+        <v>795</v>
+      </c>
+      <c r="C222" t="s">
+        <v>803</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E222" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>794</v>
+      </c>
+      <c r="B223" t="s">
+        <v>795</v>
+      </c>
+      <c r="C223" t="s">
+        <v>805</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E223" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>807</v>
+      </c>
+      <c r="B224" t="s">
+        <v>808</v>
+      </c>
+      <c r="C224" t="s">
+        <v>510</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E224" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>807</v>
+      </c>
+      <c r="B225" t="s">
+        <v>808</v>
+      </c>
+      <c r="C225" t="s">
+        <v>524</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E225" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>807</v>
+      </c>
+      <c r="B226" t="s">
+        <v>808</v>
+      </c>
+      <c r="C226" t="s">
+        <v>811</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E226" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>813</v>
+      </c>
+      <c r="B227" t="s">
+        <v>814</v>
+      </c>
+      <c r="C227" t="s">
+        <v>510</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E227" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>813</v>
+      </c>
+      <c r="B228" t="s">
+        <v>814</v>
+      </c>
+      <c r="C228" t="s">
+        <v>524</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>813</v>
+      </c>
+      <c r="B229" t="s">
+        <v>814</v>
+      </c>
+      <c r="C229" t="s">
+        <v>811</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E229" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>818</v>
+      </c>
+      <c r="B230" t="s">
+        <v>819</v>
+      </c>
+      <c r="C230" t="s">
+        <v>660</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E230" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>818</v>
+      </c>
+      <c r="B231" t="s">
+        <v>819</v>
+      </c>
+      <c r="C231" t="s">
+        <v>510</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E231" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>818</v>
+      </c>
+      <c r="B232" t="s">
+        <v>819</v>
+      </c>
+      <c r="C232" t="s">
+        <v>811</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E232" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>823</v>
+      </c>
+      <c r="B233" t="s">
+        <v>824</v>
+      </c>
+      <c r="C233" t="s">
+        <v>510</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E233" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>823</v>
+      </c>
+      <c r="B234" t="s">
+        <v>824</v>
+      </c>
+      <c r="C234" t="s">
+        <v>522</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E234" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>823</v>
+      </c>
+      <c r="B235" t="s">
+        <v>824</v>
+      </c>
+      <c r="C235" t="s">
+        <v>524</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E235" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>823</v>
+      </c>
+      <c r="B236" t="s">
+        <v>824</v>
+      </c>
+      <c r="C236" t="s">
+        <v>525</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E236" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>823</v>
+      </c>
+      <c r="B237" t="s">
+        <v>824</v>
+      </c>
+      <c r="C237" t="s">
+        <v>829</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E237" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>831</v>
+      </c>
+      <c r="B238" t="s">
+        <v>832</v>
+      </c>
+      <c r="C238" t="s">
+        <v>510</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E238" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>831</v>
+      </c>
+      <c r="B239" t="s">
+        <v>832</v>
+      </c>
+      <c r="C239" t="s">
+        <v>522</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E239" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>831</v>
+      </c>
+      <c r="B240" t="s">
+        <v>832</v>
+      </c>
+      <c r="C240" t="s">
+        <v>524</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>831</v>
+      </c>
+      <c r="B241" t="s">
+        <v>832</v>
+      </c>
+      <c r="C241" t="s">
+        <v>525</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E241" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>836</v>
+      </c>
+      <c r="B242" t="s">
+        <v>837</v>
+      </c>
+      <c r="C242" t="s">
+        <v>666</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E242" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>836</v>
+      </c>
+      <c r="B243" t="s">
+        <v>837</v>
+      </c>
+      <c r="C243" t="s">
+        <v>839</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E243" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>841</v>
+      </c>
+      <c r="B244" t="s">
+        <v>464</v>
+      </c>
+      <c r="C244" t="s">
+        <v>663</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E244" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>841</v>
+      </c>
+      <c r="B245" t="s">
+        <v>464</v>
+      </c>
+      <c r="C245" t="s">
+        <v>842</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E245" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>841</v>
+      </c>
+      <c r="B246" t="s">
+        <v>464</v>
+      </c>
+      <c r="C246" t="s">
+        <v>844</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E246" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>841</v>
+      </c>
+      <c r="B247" t="s">
+        <v>464</v>
+      </c>
+      <c r="C247" t="s">
+        <v>846</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E247" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>841</v>
+      </c>
+      <c r="B248" t="s">
+        <v>464</v>
+      </c>
+      <c r="C248" t="s">
+        <v>848</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E248" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>841</v>
+      </c>
+      <c r="B249" t="s">
+        <v>464</v>
+      </c>
+      <c r="C249" t="s">
+        <v>850</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E249" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>841</v>
+      </c>
+      <c r="B250" t="s">
+        <v>464</v>
+      </c>
+      <c r="C250" t="s">
+        <v>852</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E250" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>841</v>
+      </c>
+      <c r="B251" t="s">
+        <v>464</v>
+      </c>
+      <c r="C251" t="s">
+        <v>666</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E251" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>841</v>
+      </c>
+      <c r="B252" t="s">
+        <v>464</v>
+      </c>
+      <c r="C252" t="s">
+        <v>855</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E252" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>841</v>
+      </c>
+      <c r="B253" t="s">
+        <v>464</v>
+      </c>
+      <c r="C253" t="s">
+        <v>666</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E253" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>841</v>
+      </c>
+      <c r="B254" t="s">
+        <v>464</v>
+      </c>
+      <c r="C254" t="s">
+        <v>858</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E254" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>860</v>
+      </c>
+      <c r="B255" t="s">
+        <v>861</v>
+      </c>
+      <c r="C255" t="s">
+        <v>510</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E255" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>860</v>
+      </c>
+      <c r="B256" t="s">
+        <v>861</v>
+      </c>
+      <c r="C256" t="s">
+        <v>863</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E256" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>860</v>
+      </c>
+      <c r="B257" t="s">
+        <v>861</v>
+      </c>
+      <c r="C257" t="s">
+        <v>865</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E257" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>867</v>
+      </c>
+      <c r="B258" t="s">
+        <v>868</v>
+      </c>
+      <c r="C258" t="s">
+        <v>510</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E258" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>867</v>
+      </c>
+      <c r="B259" t="s">
+        <v>868</v>
+      </c>
+      <c r="C259" t="s">
+        <v>504</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E259" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>867</v>
+      </c>
+      <c r="B260" t="s">
+        <v>868</v>
+      </c>
+      <c r="C260" t="s">
+        <v>871</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E260" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>867</v>
+      </c>
+      <c r="B261" t="s">
+        <v>868</v>
+      </c>
+      <c r="C261" t="s">
+        <v>540</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E261" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>867</v>
+      </c>
+      <c r="B262" t="s">
+        <v>868</v>
+      </c>
+      <c r="C262" t="s">
+        <v>525</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E262" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>867</v>
+      </c>
+      <c r="B263" t="s">
+        <v>868</v>
+      </c>
+      <c r="C263" t="s">
+        <v>875</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E263" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>877</v>
+      </c>
+      <c r="B264" t="s">
+        <v>878</v>
+      </c>
+      <c r="C264" t="s">
+        <v>510</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E264" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>877</v>
+      </c>
+      <c r="B265" t="s">
+        <v>878</v>
+      </c>
+      <c r="C265" t="s">
+        <v>880</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E265" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>877</v>
+      </c>
+      <c r="B266" t="s">
+        <v>878</v>
+      </c>
+      <c r="C266" t="s">
+        <v>882</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E266" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>877</v>
+      </c>
+      <c r="B267" t="s">
+        <v>878</v>
+      </c>
+      <c r="C267" t="s">
+        <v>884</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E267" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>886</v>
+      </c>
+      <c r="B268" t="s">
+        <v>887</v>
+      </c>
+      <c r="C268" t="s">
+        <v>668</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E268" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>886</v>
+      </c>
+      <c r="B269" t="s">
+        <v>887</v>
+      </c>
+      <c r="C269" t="s">
+        <v>889</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E269" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>891</v>
+      </c>
+      <c r="B270" t="s">
+        <v>892</v>
+      </c>
+      <c r="C270" t="s">
+        <v>563</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E270" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>891</v>
+      </c>
+      <c r="B271" t="s">
+        <v>892</v>
+      </c>
+      <c r="C271" t="s">
+        <v>576</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E271" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>891</v>
+      </c>
+      <c r="B272" t="s">
+        <v>892</v>
+      </c>
+      <c r="C272" t="s">
+        <v>895</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E272" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>897</v>
+      </c>
+      <c r="B273" t="s">
+        <v>898</v>
+      </c>
+      <c r="C273" t="s">
+        <v>563</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E273" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>897</v>
+      </c>
+      <c r="B274" t="s">
+        <v>898</v>
+      </c>
+      <c r="C274" t="s">
+        <v>576</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E274" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>897</v>
+      </c>
+      <c r="B275" t="s">
+        <v>898</v>
+      </c>
+      <c r="C275" t="s">
+        <v>901</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E275" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>903</v>
+      </c>
+      <c r="B276" t="s">
+        <v>904</v>
+      </c>
+      <c r="C276" t="s">
+        <v>563</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E276" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>903</v>
+      </c>
+      <c r="B277" t="s">
+        <v>904</v>
+      </c>
+      <c r="C277" t="s">
+        <v>576</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E277" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>907</v>
+      </c>
+      <c r="B278" t="s">
+        <v>500</v>
+      </c>
+      <c r="C278" t="s">
+        <v>663</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E278" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>907</v>
+      </c>
+      <c r="B279" t="s">
+        <v>500</v>
+      </c>
+      <c r="C279" t="s">
+        <v>909</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E279" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>907</v>
+      </c>
+      <c r="B280" t="s">
+        <v>500</v>
+      </c>
+      <c r="C280" t="s">
+        <v>911</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E280" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>913</v>
+      </c>
+      <c r="B281" t="s">
+        <v>914</v>
+      </c>
+      <c r="C281" t="s">
+        <v>584</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E281" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>913</v>
+      </c>
+      <c r="B282" t="s">
+        <v>914</v>
+      </c>
+      <c r="C282" t="s">
+        <v>916</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E282" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>913</v>
+      </c>
+      <c r="B283" t="s">
+        <v>914</v>
+      </c>
+      <c r="C283" t="s">
+        <v>918</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E283" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>913</v>
+      </c>
+      <c r="B284" t="s">
+        <v>914</v>
+      </c>
+      <c r="C284" t="s">
+        <v>920</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E284" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>913</v>
+      </c>
+      <c r="B285" t="s">
+        <v>914</v>
+      </c>
+      <c r="C285" t="s">
+        <v>586</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E285" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>913</v>
+      </c>
+      <c r="B286" t="s">
+        <v>914</v>
+      </c>
+      <c r="C286" t="s">
+        <v>922</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E286" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>913</v>
+      </c>
+      <c r="B287" t="s">
+        <v>914</v>
+      </c>
+      <c r="C287" t="s">
+        <v>923</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E287" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>924</v>
+      </c>
+      <c r="B288" t="s">
+        <v>925</v>
+      </c>
+      <c r="C288" t="s">
+        <v>584</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E288" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>924</v>
+      </c>
+      <c r="B289" t="s">
+        <v>925</v>
+      </c>
+      <c r="C289" t="s">
+        <v>927</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E289" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>924</v>
+      </c>
+      <c r="B290" t="s">
+        <v>925</v>
+      </c>
+      <c r="C290" t="s">
+        <v>586</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E290" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>924</v>
+      </c>
+      <c r="B291" t="s">
+        <v>925</v>
+      </c>
+      <c r="C291" t="s">
+        <v>929</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E291" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>930</v>
+      </c>
+      <c r="B292" t="s">
+        <v>565</v>
+      </c>
+      <c r="C292" t="s">
+        <v>666</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E292" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>930</v>
+      </c>
+      <c r="B293" t="s">
+        <v>565</v>
+      </c>
+      <c r="C293" t="s">
+        <v>842</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E293" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>930</v>
+      </c>
+      <c r="B294" t="s">
+        <v>565</v>
+      </c>
+      <c r="C294" t="s">
+        <v>933</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E294" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>930</v>
+      </c>
+      <c r="B295" t="s">
+        <v>565</v>
+      </c>
+      <c r="C295" t="s">
+        <v>935</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E295" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>930</v>
+      </c>
+      <c r="B296" t="s">
+        <v>565</v>
+      </c>
+      <c r="C296" t="s">
+        <v>852</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E296" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>938</v>
+      </c>
+      <c r="B297" t="s">
+        <v>939</v>
+      </c>
+      <c r="C297" t="s">
+        <v>433</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E297" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>938</v>
+      </c>
+      <c r="B298" t="s">
+        <v>939</v>
+      </c>
+      <c r="C298" t="s">
+        <v>627</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E298" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>941</v>
+      </c>
+      <c r="B299" t="s">
+        <v>942</v>
+      </c>
+      <c r="C299" t="s">
+        <v>433</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E299" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>941</v>
+      </c>
+      <c r="B300" t="s">
+        <v>942</v>
+      </c>
+      <c r="C300" t="s">
+        <v>944</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E300" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>941</v>
+      </c>
+      <c r="B301" t="s">
+        <v>942</v>
+      </c>
+      <c r="C301" t="s">
+        <v>946</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E301" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>941</v>
+      </c>
+      <c r="B302" t="s">
+        <v>942</v>
+      </c>
+      <c r="C302" t="s">
+        <v>948</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E302" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>941</v>
+      </c>
+      <c r="B303" t="s">
+        <v>942</v>
+      </c>
+      <c r="C303" t="s">
+        <v>627</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E303" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>941</v>
+      </c>
+      <c r="B304" t="s">
+        <v>942</v>
+      </c>
+      <c r="C304" t="s">
+        <v>950</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E304" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>941</v>
+      </c>
+      <c r="B305" t="s">
+        <v>942</v>
+      </c>
+      <c r="C305" t="s">
+        <v>951</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E305" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>941</v>
+      </c>
+      <c r="B306" t="s">
+        <v>942</v>
+      </c>
+      <c r="C306" t="s">
+        <v>952</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E306" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>953</v>
+      </c>
+      <c r="B307" t="s">
+        <v>434</v>
+      </c>
+      <c r="C307" t="s">
+        <v>665</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E307" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>953</v>
+      </c>
+      <c r="B308" t="s">
+        <v>434</v>
+      </c>
+      <c r="C308" t="s">
+        <v>955</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="E308" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>957</v>
+      </c>
+      <c r="B309" t="s">
+        <v>587</v>
+      </c>
+      <c r="C309" t="s">
+        <v>665</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E309" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>957</v>
+      </c>
+      <c r="B310" t="s">
+        <v>587</v>
+      </c>
+      <c r="C310" t="s">
+        <v>959</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E310" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>957</v>
+      </c>
+      <c r="B311" t="s">
+        <v>587</v>
+      </c>
+      <c r="C311" t="s">
+        <v>961</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E311" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>963</v>
+      </c>
+      <c r="B312" t="s">
+        <v>964</v>
+      </c>
+      <c r="C312" t="s">
+        <v>665</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E312" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>963</v>
+      </c>
+      <c r="B313" t="s">
+        <v>964</v>
+      </c>
+      <c r="C313" t="s">
+        <v>679</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E313" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>963</v>
+      </c>
+      <c r="B314" t="s">
+        <v>964</v>
+      </c>
+      <c r="C314" t="s">
+        <v>681</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E314" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>968</v>
+      </c>
+      <c r="B315" t="s">
+        <v>969</v>
+      </c>
+      <c r="C315" t="s">
+        <v>665</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E315" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>968</v>
+      </c>
+      <c r="B316" t="s">
+        <v>969</v>
+      </c>
+      <c r="C316" t="s">
+        <v>443</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E316" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>968</v>
+      </c>
+      <c r="B317" t="s">
+        <v>969</v>
+      </c>
+      <c r="C317" t="s">
+        <v>679</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E317" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>968</v>
+      </c>
+      <c r="B318" t="s">
+        <v>969</v>
+      </c>
+      <c r="C318" t="s">
+        <v>681</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E318" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>968</v>
+      </c>
+      <c r="B319" t="s">
+        <v>969</v>
+      </c>
+      <c r="C319" t="s">
+        <v>973</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E319" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>975</v>
+      </c>
+      <c r="B320" t="s">
+        <v>976</v>
+      </c>
+      <c r="C320" t="s">
+        <v>665</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E320" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>975</v>
+      </c>
+      <c r="B321" t="s">
+        <v>976</v>
+      </c>
+      <c r="C321" t="s">
+        <v>443</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E321" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>978</v>
+      </c>
+      <c r="C322" t="s">
+        <v>658</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E322" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>978</v>
+      </c>
+      <c r="C323" t="s">
+        <v>764</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E323" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>978</v>
+      </c>
+      <c r="C324" t="s">
+        <v>980</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E324" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>978</v>
+      </c>
+      <c r="C325" t="s">
+        <v>981</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E325" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>982</v>
+      </c>
+      <c r="C326" t="s">
+        <v>658</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E326" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>982</v>
+      </c>
+      <c r="C327" t="s">
+        <v>983</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E327" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>982</v>
+      </c>
+      <c r="C328" t="s">
+        <v>764</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E328" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>982</v>
+      </c>
+      <c r="C329" t="s">
+        <v>980</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E329" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>982</v>
+      </c>
+      <c r="C330" t="s">
+        <v>981</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E330" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>982</v>
+      </c>
+      <c r="C331" t="s">
+        <v>985</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E331" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -9,8 +9,10 @@
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
     <sheet name="ElementEdits" sheetId="2" r:id="rId2"/>
+    <sheet name="SegmentEdits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElementEdits!$A$1:$G$345</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$E$251</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1056">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -3425,9 +3427,6 @@
     <t>(Location Type) The referenced data element in a Group A Incident Report must be populated with a valid data value and cannot be blank.</t>
   </si>
   <si>
-    <t>Zero Report Element (Year)</t>
-  </si>
-  <si>
     <t>Data Element 2 (Incident Number) in the Zero Report
 Segment (Level 0) must contain 12 zeros.</t>
   </si>
@@ -3438,21 +3437,1383 @@
     <t>094</t>
   </si>
   <si>
-    <t>Zero Report Element (month)</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>Zero Report Month must be a valid month, data values
-01 through 12.</t>
-  </si>
-  <si>
     <t>096</t>
   </si>
   <si>
     <t>The combined Zero Report Month and Zero Report Year cannot be on or after the date a law enforcement agency (LEA) is placed in Covered-by Status. When Zero Report data are received for a LEA in Covered-by Status, the
 FBI will remove the agency from Covered-by Status, process the submission, and notify the Agency. Additionally, adjustments to previously submitted data from an agency now in Covered-by Status will be processed and no error generated.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>23aaf0e</t>
+  </si>
+  <si>
+    <t>Group A Header Element (Year)</t>
+  </si>
+  <si>
+    <t>Group A Header Element (Month)</t>
+  </si>
+  <si>
+    <t>Group A Header Element (City Indicator)</t>
+  </si>
+  <si>
+    <t>Zero Report Element (Incident Number)</t>
+  </si>
+  <si>
+    <t>Zero Report Header Element (Year)</t>
+  </si>
+  <si>
+    <t>Zero Report Header Element (Month)</t>
+  </si>
+  <si>
+    <t>Zero Report Header Element (City Indicator)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 1 (Administrative Segment) with Segment Action Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">I=Incident Report must be the first segment submitted for each Group A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Incident Report.</t>
+    </r>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 2 (Offense Segment) must have at least one Segment Level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">4 (Victim Segment) connected to it by entering the offense code identified in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 6 (UCR Offense Code) in Data Element 24 (Victim Connected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>to UCR Offense Code).</t>
+    </r>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 34 (Offender Numbers To Be Related) has a value that does </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">not have a corresponding Offender Segment. For example, if the field value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">shown in Data Element 34 is 15, an Offender Segment does not exist with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>value of 15 in Data Element 36 (Offender Sequence Number).</t>
+    </r>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 6 (Arrestee Segment) with Segment Action Type I=Incident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Report cannot be submitted with Data Element 42 (Arrest Date) containing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">an arrest date on or earlier than the date entered in Data Element 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Exceptional Clearance Date) when Data Element 4 (Cleared Exceptionally) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">contains a data value other than N=Not Applicable (indicating the incident is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>cleared exceptionally).</t>
+    </r>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 3 (Property Segment) must first be submitted with Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 14 (Type Property Loss/Etc.) as 7=Stolen/Etc. before it can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">submitted as 5=Recovered for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">same property </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">in Data Element 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Property Description). Any property being reported as recovered must first </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">be reported as stolen. There are three exceptions to this rule:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">When Data Element 6 (UCR Offense Code) contains an offense </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">that allows property to be recovered without first being stolen in that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">same incident (i.e., 250=Counterfeiting/Forgery and 280=Stolen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Property Offenses).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">When a vehicle was stolen and the recovered property in Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Element 15 (Property Description) is 38=Vehicle Parts/Accessories.</t>
+    </r>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 3 (Property Segment) with Segment Action Type I=Incident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Report must contain a data value in Data Element 18 (Number of Stolen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Motor Vehicles) greater than or equal to the data value entered in Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 19 (Number of Recovered Motor Vehicles) within the same </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>incident.</t>
+    </r>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 3 (Property Segment) with Segment Action Type I=Incident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Report must be submitted when Data Element 6 (UCR Offense Code) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">contains an offense of Kidnapping/Abduction, Crimes Against Property, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Drug/Narcotic Offenses, or Gambling Offenses.</t>
+    </r>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Levels 1, 2, 4, and 5 (Administrative Segment, Offense Segment, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Victim Segment, and Offender Segment) with Segment Action Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">I=Incident Report must be submitted for each Group A Incident Report; they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>are mandatory.</t>
+    </r>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 3 (Property Segment) with Segment Action Type I=Incident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Report cannot be submitted unless Data Element 6 (UCR Offense Code) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">contains an offense of Kidnapping/Abduction, Crimes Against Property, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Drug/Narcotic Offenses, or Gambling Offenses.</t>
+    </r>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 4 (Victim Segment) can be submitted only once and Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 25 (Type of Victim) must be S=Society/Public when Data Element </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>6 (UCR Offense Code) contains only a Crime Against Society.</t>
+    </r>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 4 (Victim Segment) with a data value in Data Element 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Connected to UCR Offense Code) of a Crime Against Person or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Robbery must contain at least two offender sequence numbers in Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 34 (Offender Number to be Related) when there are three or more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Segment Level 5 (Offender Segment) records submitted for the incident.</t>
+    </r>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 6 (Arrestee Segment) and Segment Level 7 (Group B Arrest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Report Segment) cannot have the same data values entered in Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 2 (Incident Number) and Data Element 41 (Arrest Transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Number), respectively, for the same ORI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offense Segment) When a Group "A" Incident Report is submitted, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">individual segments comprising the incident cannot contain duplicates. In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">this case, two Offense Segments were submitted having the same offense </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>in Data Element 6 (UCR Offense Code).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offense Segment) Can be submitted only 10 times for each Group A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Incident Report; 10 offense codes are allowed for each incident.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">When a Justifiable Homicide is reported, no other offense may be reported </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">in the Group "A" Incident Report. These should be submitted on another </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Group "A" Incident Report.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offense Segment) Cannot be submitted with a data value for a motor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">vehicle in Data Element 15 (Property Description) when Data Element 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(UCR Offense Code) contains an offense of (23A-23H)=Larceny/Theft </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Offenses; stolen vehicles cannot be reported for a larceny</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">This is a warning message only.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Property Segment) This warning is generated when a 280 Stolen Property </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Offense and a 240 Motor Vehicle Theft are submitted that contain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">questionable property reporting. When the incident contains a recovered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">vehicle but does not also have a stolen vehicle, this warning message is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">created. The incident should be reviewed and if there was indeed a stolen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">vehicle, the incident should be resubmitted reflecting both stolen and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>recovered vehicles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Property Segment) When a Group "A" Incident Report is submitted, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">individual segments comprising the incident cannot contain duplicates. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Example, two property segments cannot be submitted having the same </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>entry in Data Element 14 (Type Property Loss/Etc.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Property Segment) Cannot be submitted with 10=Drugs/Narcotics in Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 15 (Property Description) and blanks in Data Element 16 (Value of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Property) unless Data Element 6 (UCR Offense Code) is
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>35A=Drug/Narcotic Violations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Segment) When a Group "A" Incident Report is submitted, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">individual segments comprising the incident cannot contain duplicates. In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">this case, two victim segments were submitted having the same entry in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Data Element 23 (Victim Sequence Number).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Segment) Each UCR Offense Code entered into Data Element 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Connected to UCR Offense Codes) must have the Offense Segment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">for the value. In this case, the victim was connected to offenses that were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">not submitted as Offense Segments. A victim cannot be connected to an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>offense when the offense itself is not present.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Segment) Data Element 35 (Relationship of Victim to Offenders) has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">a relationship of VO=Victim Was Offender. When this code is entered, a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">minimum of two victim and two offender segments must be submitted. In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">this case, only one victim and/or one offender segment was submitted. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">entry of VO on one or more of the victims indicates situations such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">brawls and domestic disputes. In the vast majority of cases, each victim is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">also the offender; therefore, every victim record would contain a VO code. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">However, there may be some situations where only one of the victims is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>also the offender, but where the other victim(s) is not also the offender(s).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Segment) Cannot be submitted multiple times with VO=Victim Was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Offender in Data Element 35 (Relationship of Victim to Offender) when Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Element 34 (Offender Number to be Related) contains the same data value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(indicating the same offender).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Victim Segment) An offender can only have one spousal relationship. In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">this instance, two or more victims have a relationship of SE=Spouse to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>same offender.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 31 (Aggravated Assault/Homicide Circumstances) has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">08=Other Felony Involved but the incident has only one offense. For this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">code to be used there must be an Other Felony. Either multiple entries for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 6 (UCR Offense Code) should have been submitted, or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">multiple individual victims should have been submitted for the incident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>report.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offender Segment) When a Group "A" Incident Report is submitted, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">individual segments comprising the incident cannot contain duplicates. In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">this case, two Offender Segments were submitted having the same entry in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Data Element 36 (Offender Sequence Number).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offender Segment) When multiple Offender Segments are submitted, none </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">can contain a 00=Unknown value because the presence of 00 indicates that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">the number of offenders is unknown. In this case, multiple offenders were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>submitted, but one of the segments contains the 00=Unknown value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offender Segment) None of the Offender Segments contain all known </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">values for Age, Sex, and Race. When an Incident is cleared exceptionally </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Data Element 4 contains an A through E), one offender must have all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>known values.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Offender Segment) The incident was submitted with Data Element 6 (UCR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Offense Code) value of 09C=Justifiable Homicide, but unknown information </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">was submitted for all the offender(s). At least one of the offenders must </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>have known information for Age, Sex, and Race.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segment Level 5 (Offender Segment) must contain a data value for at least </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">one offender in Data Element 38 (Sex of Offender) that is not the same sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">that is entered in Data Element 27 (Sex of Victim) when Data Element 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(UCR Offense Code) is 11A=Rape.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Arrestee Segment) A Group "A" Incident Report was submitted with more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">arrestees than offenders. The number (nn) of offenders is shown within the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">message. The incident must be resubmitted with additional Offender </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Segments. This message will also occur if an arrestee was submitted and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 36 (Offender Sequence Number) was 00=Unknown...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">The exception to this rule is when an additional arrest is reported for a pre- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">NIBRS incident. In this case, Segment Level 6 (Arrestee Segment) will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">contain A=Add, but the data value in Data Element 2 (Incident Number) will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">not match an incident already on file in the national UCR database. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">segment will be processed, but used only for SRS purposes and will not be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>included in the agency's NIBRS figures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Arrestee Segment) Segment Level 6 (Arrestee Segment) cannot contain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">duplicate data values in Data Element 40 (Arrestee Sequence Number) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>when two or more Arrestee Segments are submitted for the same incident.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Arrestee Segment) Group "A" Incident Reports cannot have arrests when </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 6 (UCR Offense Code) is 09C=Justifiable Homicide. By </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">definition a justifiable homicide never involves an arrest of the offender (the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>person who committed the justifiable homicide).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Group B Arrest Report Segment) When a Group "B" Arrest Report (Level 7) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">has two or more arrestees, the individual segments comprising the report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">cannot contain duplicates. In this case, two arrestee segments were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">submitted having the same entry in Data Element 40 (Arrestee Sequence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Number).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(Group B Arrest Report Segment) The Group "B" Arrest Report (Level 7) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">submitted as an Add is currently active in the FBI's database; therefore, it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">was rejected. If multiple arrestees are involved in the incident, ensure that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Data Element 40 (Arrestee Sequence Number) is unique for each Arrestee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Segment submitted so that duplication does not occur.</t>
+    </r>
+  </si>
+  <si>
+    <t>Group A Report Month and Zero Report Year must be later than the month and year in the date the LEA converted to the NIBRS.</t>
+  </si>
+  <si>
+    <t>Group A Report Month must be a valid month, data values 01 through 12.</t>
+  </si>
+  <si>
+    <t>Group B Header Element (Year)</t>
+  </si>
+  <si>
+    <t>Group B Report Month and Zero Report Year must be later than the month and year in the date the LEA converted to the NIBRS.</t>
+  </si>
+  <si>
+    <t>Group B Header Element (Month)</t>
+  </si>
+  <si>
+    <t>Group B Report Month must be a valid month, data values 01 through 12.</t>
+  </si>
+  <si>
+    <t>Group B Header Element (City Indicator)</t>
+  </si>
+  <si>
+    <t>The referenced data element in a Group B Incident Report must be populated with a valid data value and cannot be blank.</t>
+  </si>
+  <si>
+    <t>c1ae69ab</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Group A Report Year must be between 1991 and the current year</t>
+  </si>
+  <si>
+    <t>Group B Report Year must be between 1991 and the current year</t>
+  </si>
+  <si>
+    <t>Zero Report Year must be between 1991 and the current year</t>
+  </si>
+  <si>
+    <t>ba139b7</t>
+  </si>
+  <si>
+    <t>1b0e29c2</t>
+  </si>
+  <si>
+    <t>We could consider implementing this, but it really depends on what the FBI considers "the current date"</t>
+  </si>
+  <si>
+    <t>I don't think we are handling Modify action types in the first instance.</t>
   </si>
 </sst>
 </file>
@@ -3462,13 +4823,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3488,18 +4859,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3792,7 +5176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -8081,22 +9465,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E331"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F294" sqref="F294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>428</v>
       </c>
@@ -8112,11 +9499,17 @@
       <c r="E1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>432</v>
       </c>
+      <c r="B2" t="s">
+        <v>432</v>
+      </c>
       <c r="C2" t="s">
         <v>433</v>
       </c>
@@ -8126,11 +9519,15 @@
       <c r="E2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>432</v>
       </c>
+      <c r="B3" t="s">
+        <v>432</v>
+      </c>
       <c r="C3" t="s">
         <v>435</v>
       </c>
@@ -8140,11 +9537,15 @@
       <c r="E3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>432</v>
       </c>
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
       <c r="C4" t="s">
         <v>436</v>
       </c>
@@ -8154,11 +9555,15 @@
       <c r="E4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>438</v>
       </c>
+      <c r="B5" t="s">
+        <v>438</v>
+      </c>
       <c r="C5" t="s">
         <v>433</v>
       </c>
@@ -8168,11 +9573,15 @@
       <c r="E5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>438</v>
       </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
       <c r="C6" t="s">
         <v>435</v>
       </c>
@@ -8182,11 +9591,15 @@
       <c r="E6" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>438</v>
       </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
       <c r="C7" t="s">
         <v>440</v>
       </c>
@@ -8196,8 +9609,9 @@
       <c r="E7" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -8213,8 +9627,9 @@
       <c r="E8" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -8230,8 +9645,9 @@
       <c r="E9" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -8247,8 +9663,9 @@
       <c r="E10" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -8264,8 +9681,9 @@
       <c r="E11" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>450</v>
       </c>
@@ -8281,8 +9699,9 @@
       <c r="E12" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -8298,8 +9717,9 @@
       <c r="E13" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -8315,8 +9735,9 @@
       <c r="E14" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -8332,8 +9753,9 @@
       <c r="E15" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>450</v>
       </c>
@@ -8349,8 +9771,9 @@
       <c r="E16" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>450</v>
       </c>
@@ -8367,7 +9790,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -8384,7 +9807,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -8401,7 +9824,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>465</v>
       </c>
@@ -8418,7 +9841,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -8435,7 +9858,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>465</v>
       </c>
@@ -8452,7 +9875,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>465</v>
       </c>
@@ -8469,7 +9892,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>465</v>
       </c>
@@ -8486,7 +9909,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>465</v>
       </c>
@@ -8503,7 +9926,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>478</v>
       </c>
@@ -8520,7 +9943,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>478</v>
       </c>
@@ -8537,7 +9960,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -8554,7 +9977,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>478</v>
       </c>
@@ -8571,7 +9994,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>478</v>
       </c>
@@ -8588,7 +10011,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>488</v>
       </c>
@@ -8605,7 +10028,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>488</v>
       </c>
@@ -8622,7 +10045,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>488</v>
       </c>
@@ -8639,7 +10062,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>488</v>
       </c>
@@ -8656,7 +10079,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -8673,7 +10096,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>496</v>
       </c>
@@ -8690,7 +10113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>501</v>
       </c>
@@ -8707,7 +10130,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>501</v>
       </c>
@@ -8724,7 +10147,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>501</v>
       </c>
@@ -8741,7 +10164,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -8758,7 +10181,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -8775,7 +10198,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -8792,7 +10215,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -8809,7 +10232,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -8826,7 +10249,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8843,7 +10266,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -8860,7 +10283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -8877,7 +10300,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -8894,7 +10317,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -8911,7 +10334,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>528</v>
       </c>
@@ -8928,7 +10351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>528</v>
       </c>
@@ -8945,7 +10368,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>532</v>
       </c>
@@ -8962,7 +10385,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>532</v>
       </c>
@@ -8979,7 +10402,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>536</v>
       </c>
@@ -8996,7 +10419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -9013,7 +10436,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>536</v>
       </c>
@@ -9030,7 +10453,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>536</v>
       </c>
@@ -9047,7 +10470,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>536</v>
       </c>
@@ -9064,7 +10487,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>536</v>
       </c>
@@ -9081,7 +10504,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -9098,7 +10521,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>550</v>
       </c>
@@ -9115,7 +10538,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>550</v>
       </c>
@@ -9132,7 +10555,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>550</v>
       </c>
@@ -9149,7 +10572,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>550</v>
       </c>
@@ -9166,7 +10589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>550</v>
       </c>
@@ -9183,7 +10606,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>550</v>
       </c>
@@ -9200,7 +10623,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>561</v>
       </c>
@@ -9217,7 +10640,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>561</v>
       </c>
@@ -9234,7 +10657,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>561</v>
       </c>
@@ -9251,7 +10674,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>561</v>
       </c>
@@ -9268,7 +10691,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>561</v>
       </c>
@@ -9285,7 +10708,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>561</v>
       </c>
@@ -9302,7 +10725,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>561</v>
       </c>
@@ -9319,7 +10742,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>561</v>
       </c>
@@ -9336,7 +10759,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>561</v>
       </c>
@@ -9353,7 +10776,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>582</v>
       </c>
@@ -9370,7 +10793,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>582</v>
       </c>
@@ -9387,7 +10810,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>588</v>
       </c>
@@ -9404,7 +10827,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>588</v>
       </c>
@@ -9421,7 +10844,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>588</v>
       </c>
@@ -9438,7 +10861,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>588</v>
       </c>
@@ -9455,7 +10878,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>588</v>
       </c>
@@ -9472,7 +10895,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>588</v>
       </c>
@@ -9489,7 +10912,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>588</v>
       </c>
@@ -9506,7 +10929,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>588</v>
       </c>
@@ -9523,7 +10946,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>600</v>
       </c>
@@ -9540,7 +10963,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>600</v>
       </c>
@@ -9557,7 +10980,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>603</v>
       </c>
@@ -9574,7 +10997,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>606</v>
       </c>
@@ -9591,7 +11014,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>606</v>
       </c>
@@ -9608,7 +11031,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>606</v>
       </c>
@@ -9625,7 +11048,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>606</v>
       </c>
@@ -9642,7 +11065,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>613</v>
       </c>
@@ -9659,7 +11082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>613</v>
       </c>
@@ -9676,7 +11099,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>613</v>
       </c>
@@ -9693,7 +11116,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>613</v>
       </c>
@@ -9710,7 +11133,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>613</v>
       </c>
@@ -9727,7 +11150,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>613</v>
       </c>
@@ -9744,7 +11167,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>613</v>
       </c>
@@ -9761,7 +11184,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>613</v>
       </c>
@@ -9778,7 +11201,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>613</v>
       </c>
@@ -9795,7 +11218,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>613</v>
       </c>
@@ -9812,7 +11235,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>613</v>
       </c>
@@ -9829,7 +11252,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>613</v>
       </c>
@@ -9846,7 +11269,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>630</v>
       </c>
@@ -9863,7 +11286,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>630</v>
       </c>
@@ -9880,7 +11303,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>630</v>
       </c>
@@ -9897,7 +11320,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>630</v>
       </c>
@@ -9914,7 +11337,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>630</v>
       </c>
@@ -9931,7 +11354,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>630</v>
       </c>
@@ -9948,7 +11371,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>630</v>
       </c>
@@ -9965,7 +11388,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>630</v>
       </c>
@@ -9982,7 +11405,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>630</v>
       </c>
@@ -9998,8 +11421,9 @@
       <c r="E113" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>630</v>
       </c>
@@ -10015,8 +11439,9 @@
       <c r="E114" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>630</v>
       </c>
@@ -10032,8 +11457,9 @@
       <c r="E115" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>630</v>
       </c>
@@ -10049,8 +11475,9 @@
       <c r="E116" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>630</v>
       </c>
@@ -10066,8 +11493,9 @@
       <c r="E117" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>650</v>
       </c>
@@ -10083,8 +11511,9 @@
       <c r="E118" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>650</v>
       </c>
@@ -10100,8 +11529,9 @@
       <c r="E119" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>653</v>
       </c>
@@ -10117,8 +11547,9 @@
       <c r="E120" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>653</v>
       </c>
@@ -10134,8 +11565,9 @@
       <c r="E121" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>656</v>
       </c>
@@ -10151,8 +11583,9 @@
       <c r="E122" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>656</v>
       </c>
@@ -10168,8 +11601,9 @@
       <c r="E123" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>656</v>
       </c>
@@ -10185,8 +11619,9 @@
       <c r="E124" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>656</v>
       </c>
@@ -10202,8 +11637,11 @@
       <c r="E125" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>656</v>
       </c>
@@ -10219,8 +11657,9 @@
       <c r="E126" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>656</v>
       </c>
@@ -10236,8 +11675,9 @@
       <c r="E127" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>656</v>
       </c>
@@ -10253,8 +11693,11 @@
       <c r="E128" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>656</v>
       </c>
@@ -10271,7 +11714,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>656</v>
       </c>
@@ -10288,7 +11731,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>656</v>
       </c>
@@ -10305,7 +11748,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>656</v>
       </c>
@@ -10322,7 +11765,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>656</v>
       </c>
@@ -10339,7 +11782,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>656</v>
       </c>
@@ -10356,7 +11799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>656</v>
       </c>
@@ -10373,7 +11816,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>656</v>
       </c>
@@ -10390,7 +11833,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>656</v>
       </c>
@@ -10407,7 +11850,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>669</v>
       </c>
@@ -10424,7 +11867,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>669</v>
       </c>
@@ -10441,7 +11884,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>669</v>
       </c>
@@ -10458,7 +11901,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>676</v>
       </c>
@@ -10475,7 +11918,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>676</v>
       </c>
@@ -10492,7 +11935,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>676</v>
       </c>
@@ -10509,7 +11952,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>676</v>
       </c>
@@ -10526,7 +11969,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>676</v>
       </c>
@@ -10543,7 +11986,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>687</v>
       </c>
@@ -10560,7 +12003,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>687</v>
       </c>
@@ -10577,7 +12020,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>687</v>
       </c>
@@ -10594,7 +12037,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>687</v>
       </c>
@@ -10611,7 +12054,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>687</v>
       </c>
@@ -10628,7 +12071,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>687</v>
       </c>
@@ -10645,7 +12088,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>687</v>
       </c>
@@ -10662,7 +12105,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>687</v>
       </c>
@@ -10679,7 +12122,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>687</v>
       </c>
@@ -10696,7 +12139,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>687</v>
       </c>
@@ -10713,7 +12156,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>704</v>
       </c>
@@ -10730,7 +12173,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>704</v>
       </c>
@@ -10747,7 +12190,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>704</v>
       </c>
@@ -10764,7 +12207,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>704</v>
       </c>
@@ -10781,7 +12224,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>704</v>
       </c>
@@ -10798,7 +12241,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -10815,7 +12258,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>704</v>
       </c>
@@ -10832,7 +12275,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>704</v>
       </c>
@@ -10849,7 +12292,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>720</v>
       </c>
@@ -10866,7 +12309,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>720</v>
       </c>
@@ -10883,7 +12326,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>720</v>
       </c>
@@ -10900,7 +12343,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>720</v>
       </c>
@@ -10917,7 +12360,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>720</v>
       </c>
@@ -10934,7 +12377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>720</v>
       </c>
@@ -10951,7 +12394,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>720</v>
       </c>
@@ -10968,7 +12411,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>720</v>
       </c>
@@ -10985,7 +12428,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>720</v>
       </c>
@@ -11002,7 +12445,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>720</v>
       </c>
@@ -11019,7 +12462,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>738</v>
       </c>
@@ -11036,7 +12479,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>738</v>
       </c>
@@ -11053,7 +12496,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>738</v>
       </c>
@@ -11070,7 +12513,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>738</v>
       </c>
@@ -11086,8 +12529,9 @@
       <c r="E177" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G177"/>
+    </row>
+    <row r="178" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>738</v>
       </c>
@@ -11103,8 +12547,9 @@
       <c r="E178" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G178"/>
+    </row>
+    <row r="179" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>748</v>
       </c>
@@ -11120,8 +12565,9 @@
       <c r="E179" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="G179"/>
+    </row>
+    <row r="180" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>748</v>
       </c>
@@ -11137,8 +12583,9 @@
       <c r="E180" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="G180"/>
+    </row>
+    <row r="181" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>748</v>
       </c>
@@ -11154,8 +12601,9 @@
       <c r="E181" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G181"/>
+    </row>
+    <row r="182" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>748</v>
       </c>
@@ -11171,8 +12619,9 @@
       <c r="E182" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="G182"/>
+    </row>
+    <row r="183" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>748</v>
       </c>
@@ -11188,8 +12637,9 @@
       <c r="E183" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G183"/>
+    </row>
+    <row r="184" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>758</v>
       </c>
@@ -11205,8 +12655,9 @@
       <c r="E184" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G184"/>
+    </row>
+    <row r="185" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>758</v>
       </c>
@@ -11222,8 +12673,9 @@
       <c r="E185" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G185"/>
+    </row>
+    <row r="186" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>758</v>
       </c>
@@ -11239,8 +12691,9 @@
       <c r="E186" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G186"/>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>758</v>
       </c>
@@ -11256,8 +12709,9 @@
       <c r="E187" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G187"/>
+    </row>
+    <row r="188" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>758</v>
       </c>
@@ -11273,8 +12727,11 @@
       <c r="E188" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>758</v>
       </c>
@@ -11291,7 +12748,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>758</v>
       </c>
@@ -11308,7 +12765,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>758</v>
       </c>
@@ -11324,8 +12781,11 @@
       <c r="E191" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>758</v>
       </c>
@@ -11341,8 +12801,9 @@
       <c r="E192" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G192"/>
+    </row>
+    <row r="193" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>758</v>
       </c>
@@ -11359,7 +12820,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>758</v>
       </c>
@@ -11376,7 +12837,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -11393,7 +12854,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>758</v>
       </c>
@@ -11410,7 +12871,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>758</v>
       </c>
@@ -11427,7 +12888,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>758</v>
       </c>
@@ -11444,7 +12905,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>758</v>
       </c>
@@ -11461,7 +12922,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>758</v>
       </c>
@@ -11478,7 +12939,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>758</v>
       </c>
@@ -11495,7 +12956,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>758</v>
       </c>
@@ -11512,7 +12973,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>758</v>
       </c>
@@ -11529,7 +12990,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>758</v>
       </c>
@@ -11546,7 +13007,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>758</v>
       </c>
@@ -11563,7 +13024,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>758</v>
       </c>
@@ -11580,7 +13041,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>758</v>
       </c>
@@ -11597,7 +13058,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>758</v>
       </c>
@@ -11614,7 +13075,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>758</v>
       </c>
@@ -11631,7 +13092,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>758</v>
       </c>
@@ -11648,7 +13109,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>758</v>
       </c>
@@ -11665,7 +13126,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>783</v>
       </c>
@@ -11682,7 +13143,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>783</v>
       </c>
@@ -11699,7 +13160,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>783</v>
       </c>
@@ -11716,7 +13177,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>783</v>
       </c>
@@ -11733,7 +13194,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>783</v>
       </c>
@@ -11750,7 +13211,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>783</v>
       </c>
@@ -11767,7 +13228,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>794</v>
       </c>
@@ -11784,7 +13245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>794</v>
       </c>
@@ -11801,7 +13262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>794</v>
       </c>
@@ -11818,7 +13279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>794</v>
       </c>
@@ -11835,7 +13296,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>794</v>
       </c>
@@ -11852,7 +13313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>794</v>
       </c>
@@ -11869,7 +13330,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>807</v>
       </c>
@@ -11886,7 +13347,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>807</v>
       </c>
@@ -11903,7 +13364,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>807</v>
       </c>
@@ -11920,7 +13381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>813</v>
       </c>
@@ -11937,7 +13398,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>813</v>
       </c>
@@ -11954,7 +13415,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>813</v>
       </c>
@@ -11971,7 +13432,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>818</v>
       </c>
@@ -11988,7 +13449,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>818</v>
       </c>
@@ -12005,7 +13466,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>818</v>
       </c>
@@ -12022,7 +13483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>823</v>
       </c>
@@ -12039,7 +13500,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>823</v>
       </c>
@@ -12056,7 +13517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>823</v>
       </c>
@@ -12073,7 +13534,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>823</v>
       </c>
@@ -12090,7 +13551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>823</v>
       </c>
@@ -12107,7 +13568,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>831</v>
       </c>
@@ -12124,7 +13585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>831</v>
       </c>
@@ -12141,7 +13602,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>831</v>
       </c>
@@ -12158,7 +13619,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>831</v>
       </c>
@@ -12174,8 +13635,9 @@
       <c r="E241" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G241"/>
+    </row>
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>836</v>
       </c>
@@ -12191,8 +13653,11 @@
       <c r="E242" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>836</v>
       </c>
@@ -12209,7 +13674,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>841</v>
       </c>
@@ -12225,8 +13690,11 @@
       <c r="E244" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>841</v>
       </c>
@@ -12242,8 +13710,11 @@
       <c r="E245" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>841</v>
       </c>
@@ -12259,8 +13730,11 @@
       <c r="E246" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>841</v>
       </c>
@@ -12277,7 +13751,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>841</v>
       </c>
@@ -12294,7 +13768,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>841</v>
       </c>
@@ -12311,7 +13785,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>841</v>
       </c>
@@ -12327,8 +13801,11 @@
       <c r="E250" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>841</v>
       </c>
@@ -12344,8 +13821,11 @@
       <c r="E251" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F251" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>841</v>
       </c>
@@ -12362,7 +13842,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>841</v>
       </c>
@@ -12378,8 +13858,11 @@
       <c r="E253" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>841</v>
       </c>
@@ -12395,8 +13878,11 @@
       <c r="E254" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F254" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>860</v>
       </c>
@@ -12412,8 +13898,9 @@
       <c r="E255" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G255"/>
+    </row>
+    <row r="256" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>860</v>
       </c>
@@ -12429,8 +13916,9 @@
       <c r="E256" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G256"/>
+    </row>
+    <row r="257" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>860</v>
       </c>
@@ -12447,7 +13935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>867</v>
       </c>
@@ -12464,7 +13952,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>867</v>
       </c>
@@ -12481,7 +13969,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>867</v>
       </c>
@@ -12498,7 +13986,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>867</v>
       </c>
@@ -12515,7 +14003,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>867</v>
       </c>
@@ -12532,7 +14020,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>867</v>
       </c>
@@ -12549,7 +14037,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>877</v>
       </c>
@@ -12566,7 +14054,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>877</v>
       </c>
@@ -12583,7 +14071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>877</v>
       </c>
@@ -12600,7 +14088,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>877</v>
       </c>
@@ -12617,7 +14105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>886</v>
       </c>
@@ -12634,7 +14122,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>886</v>
       </c>
@@ -12651,7 +14139,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>891</v>
       </c>
@@ -12668,7 +14156,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>891</v>
       </c>
@@ -12685,7 +14173,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>891</v>
       </c>
@@ -12702,7 +14190,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>897</v>
       </c>
@@ -12718,8 +14206,9 @@
       <c r="E273" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G273"/>
+    </row>
+    <row r="274" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>897</v>
       </c>
@@ -12735,8 +14224,9 @@
       <c r="E274" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G274"/>
+    </row>
+    <row r="275" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>897</v>
       </c>
@@ -12752,8 +14242,9 @@
       <c r="E275" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G275"/>
+    </row>
+    <row r="276" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>903</v>
       </c>
@@ -12769,8 +14260,9 @@
       <c r="E276" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G276"/>
+    </row>
+    <row r="277" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>903</v>
       </c>
@@ -12786,8 +14278,9 @@
       <c r="E277" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G277"/>
+    </row>
+    <row r="278" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>907</v>
       </c>
@@ -12803,8 +14296,11 @@
       <c r="E278" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>907</v>
       </c>
@@ -12821,7 +14317,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>907</v>
       </c>
@@ -12837,8 +14333,14 @@
       <c r="E280" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F280" t="s">
+        <v>984</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>913</v>
       </c>
@@ -12854,8 +14356,9 @@
       <c r="E281" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="G281"/>
+    </row>
+    <row r="282" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>913</v>
       </c>
@@ -12871,8 +14374,9 @@
       <c r="E282" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="G282"/>
+    </row>
+    <row r="283" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>913</v>
       </c>
@@ -12888,8 +14392,9 @@
       <c r="E283" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G283"/>
+    </row>
+    <row r="284" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>913</v>
       </c>
@@ -12905,8 +14410,9 @@
       <c r="E284" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G284"/>
+    </row>
+    <row r="285" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>913</v>
       </c>
@@ -12922,8 +14428,9 @@
       <c r="E285" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="G285"/>
+    </row>
+    <row r="286" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>913</v>
       </c>
@@ -12939,8 +14446,9 @@
       <c r="E286" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="G286"/>
+    </row>
+    <row r="287" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>913</v>
       </c>
@@ -12956,8 +14464,9 @@
       <c r="E287" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G287"/>
+    </row>
+    <row r="288" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>924</v>
       </c>
@@ -12973,8 +14482,9 @@
       <c r="E288" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G288"/>
+    </row>
+    <row r="289" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>924</v>
       </c>
@@ -12990,8 +14500,9 @@
       <c r="E289" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G289"/>
+    </row>
+    <row r="290" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>924</v>
       </c>
@@ -13007,8 +14518,9 @@
       <c r="E290" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G290"/>
+    </row>
+    <row r="291" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>924</v>
       </c>
@@ -13024,8 +14536,9 @@
       <c r="E291" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G291"/>
+    </row>
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>930</v>
       </c>
@@ -13041,8 +14554,11 @@
       <c r="E292" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F292" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>930</v>
       </c>
@@ -13058,8 +14574,14 @@
       <c r="E293" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" t="s">
+        <v>984</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>930</v>
       </c>
@@ -13076,7 +14598,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>930</v>
       </c>
@@ -13093,7 +14615,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>930</v>
       </c>
@@ -13109,8 +14631,11 @@
       <c r="E296" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F296" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>938</v>
       </c>
@@ -13126,8 +14651,9 @@
       <c r="E297" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G297"/>
+    </row>
+    <row r="298" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>938</v>
       </c>
@@ -13143,8 +14669,9 @@
       <c r="E298" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G298"/>
+    </row>
+    <row r="299" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>941</v>
       </c>
@@ -13160,8 +14687,9 @@
       <c r="E299" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G299"/>
+    </row>
+    <row r="300" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>941</v>
       </c>
@@ -13177,8 +14705,9 @@
       <c r="E300" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G300"/>
+    </row>
+    <row r="301" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>941</v>
       </c>
@@ -13194,8 +14723,9 @@
       <c r="E301" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G301"/>
+    </row>
+    <row r="302" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>941</v>
       </c>
@@ -13211,8 +14741,9 @@
       <c r="E302" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G302"/>
+    </row>
+    <row r="303" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>941</v>
       </c>
@@ -13228,8 +14759,9 @@
       <c r="E303" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G303"/>
+    </row>
+    <row r="304" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>941</v>
       </c>
@@ -13245,8 +14777,9 @@
       <c r="E304" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G304"/>
+    </row>
+    <row r="305" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>941</v>
       </c>
@@ -13263,7 +14796,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>941</v>
       </c>
@@ -13280,7 +14813,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>953</v>
       </c>
@@ -13297,7 +14830,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>953</v>
       </c>
@@ -13314,7 +14847,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>957</v>
       </c>
@@ -13331,7 +14864,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>957</v>
       </c>
@@ -13348,7 +14881,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>957</v>
       </c>
@@ -13365,7 +14898,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>963</v>
       </c>
@@ -13382,7 +14915,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>963</v>
       </c>
@@ -13399,7 +14932,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>963</v>
       </c>
@@ -13416,7 +14949,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>968</v>
       </c>
@@ -13433,7 +14966,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>968</v>
       </c>
@@ -13450,7 +14983,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>968</v>
       </c>
@@ -13467,7 +15000,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>968</v>
       </c>
@@ -13484,7 +15017,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>968</v>
       </c>
@@ -13501,7 +15034,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>975</v>
       </c>
@@ -13518,7 +15051,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>975</v>
       </c>
@@ -13534,10 +15067,14 @@
       <c r="E321" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G321"/>
+    </row>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>978</v>
+        <v>990</v>
+      </c>
+      <c r="B322" t="s">
+        <v>990</v>
       </c>
       <c r="C322" t="s">
         <v>658</v>
@@ -13548,27 +15085,35 @@
       <c r="E322" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G322"/>
+    </row>
+    <row r="323" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>978</v>
+        <v>989</v>
+      </c>
+      <c r="B323" t="s">
+        <v>989</v>
       </c>
       <c r="C323" t="s">
         <v>764</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E323" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G323"/>
+    </row>
+    <row r="324" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>978</v>
+        <v>990</v>
+      </c>
+      <c r="B324" t="s">
+        <v>990</v>
       </c>
       <c r="C324" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>396</v>
@@ -13576,13 +15121,20 @@
       <c r="E324" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" t="s">
+        <v>984</v>
+      </c>
+      <c r="G324"/>
+    </row>
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>978</v>
+        <v>990</v>
+      </c>
+      <c r="B325" t="s">
+        <v>990</v>
       </c>
       <c r="C325" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>398</v>
@@ -13590,10 +15142,14 @@
       <c r="E325" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G325"/>
+    </row>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>982</v>
+        <v>991</v>
+      </c>
+      <c r="B326" t="s">
+        <v>991</v>
       </c>
       <c r="C326" t="s">
         <v>658</v>
@@ -13604,79 +15160,684 @@
       <c r="E326" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G326"/>
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>982</v>
-      </c>
-      <c r="C327" t="s">
-        <v>983</v>
+        <v>991</v>
+      </c>
+      <c r="B327" t="s">
+        <v>991</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1048</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>984</v>
+        <v>392</v>
       </c>
       <c r="E327" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G327"/>
+    </row>
+    <row r="328" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>982</v>
+        <v>991</v>
+      </c>
+      <c r="B328" t="s">
+        <v>991</v>
       </c>
       <c r="C328" t="s">
-        <v>764</v>
+        <v>979</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>979</v>
+        <v>396</v>
       </c>
       <c r="E328" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F328" t="s">
+        <v>984</v>
+      </c>
+      <c r="G328"/>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>982</v>
+        <v>991</v>
+      </c>
+      <c r="B329" t="s">
+        <v>991</v>
       </c>
       <c r="C329" t="s">
         <v>980</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E329" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G329"/>
+    </row>
+    <row r="330" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>982</v>
+        <v>991</v>
+      </c>
+      <c r="B330" t="s">
+        <v>991</v>
       </c>
       <c r="C330" t="s">
         <v>981</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>398</v>
+        <v>982</v>
       </c>
       <c r="E330" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F330" t="s">
+        <v>984</v>
+      </c>
+      <c r="G330"/>
+    </row>
+    <row r="331" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>982</v>
-      </c>
-      <c r="C331" t="s">
-        <v>985</v>
+        <v>986</v>
+      </c>
+      <c r="B331" t="s">
+        <v>986</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="D331" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>987</v>
+      </c>
+      <c r="B332" t="s">
+        <v>987</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>988</v>
+      </c>
+      <c r="B333" t="s">
+        <v>988</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>992</v>
+      </c>
+      <c r="B334" t="s">
+        <v>992</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G334"/>
+    </row>
+    <row r="335" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>986</v>
       </c>
-      <c r="E331" t="s">
+      <c r="B335" t="s">
+        <v>986</v>
+      </c>
+      <c r="C335" t="s">
+        <v>979</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F335" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>987</v>
+      </c>
+      <c r="B336" t="s">
+        <v>987</v>
+      </c>
+      <c r="C336" t="s">
+        <v>979</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F336" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>987</v>
+      </c>
+      <c r="B337" t="s">
+        <v>987</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>988</v>
+      </c>
+      <c r="B338" t="s">
+        <v>988</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C339" t="s">
+        <v>979</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G339"/>
+    </row>
+    <row r="340" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C340" t="s">
+        <v>979</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G340"/>
+    </row>
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G341"/>
+    </row>
+    <row r="342" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G342"/>
+    </row>
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>986</v>
+      </c>
+      <c r="B343" t="s">
+        <v>986</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G344"/>
+    </row>
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>990</v>
+      </c>
+      <c r="B345" t="s">
+        <v>990</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E345" s="3" t="s">
         <v>454</v>
       </c>
+      <c r="G345"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G345">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="165.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B13" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B14" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B15" s="7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B16" s="7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B17" s="7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B18" s="7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B19" s="7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B20" s="7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B21" s="7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B22" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B23" s="7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B24" s="7">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B25" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B26" s="7">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B27" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B28" s="7">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B29" s="7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B30" s="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B31" s="7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B32" s="7">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B33" s="7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B34" s="7">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B35" s="7">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
+</worksheet>
 </file>
--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1066">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4814,6 +4814,36 @@
   </si>
   <si>
     <t>I don't think we are handling Modify action types in the first instance.</t>
+  </si>
+  <si>
+    <t>Implemented w 115</t>
+  </si>
+  <si>
+    <t>fcb8ac9</t>
+  </si>
+  <si>
+    <t>1596942</t>
+  </si>
+  <si>
+    <t>fed2201</t>
+  </si>
+  <si>
+    <t>7ef1d13</t>
+  </si>
+  <si>
+    <t>77cd90e</t>
+  </si>
+  <si>
+    <t>N/A - no way to know when to implement</t>
+  </si>
+  <si>
+    <t>2a245c1</t>
+  </si>
+  <si>
+    <t>b1b0e3c</t>
+  </si>
+  <si>
+    <t>a028242</t>
   </si>
 </sst>
 </file>
@@ -9469,7 +9499,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F294" sqref="F294"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9611,54 +9641,54 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>953</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>444</v>
+        <v>954</v>
       </c>
       <c r="E8" t="s">
         <v>445</v>
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>957</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>587</v>
       </c>
       <c r="C9" t="s">
-        <v>446</v>
+        <v>665</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>447</v>
+        <v>958</v>
       </c>
       <c r="E9" t="s">
         <v>445</v>
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>963</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>964</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>665</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>449</v>
+        <v>965</v>
       </c>
       <c r="E10" t="s">
         <v>445</v>
@@ -9773,7 +9803,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>450</v>
       </c>
@@ -9789,8 +9819,9 @@
       <c r="E17" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -9806,8 +9837,9 @@
       <c r="E18" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -9823,8 +9855,9 @@
       <c r="E19" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>465</v>
       </c>
@@ -9840,8 +9873,9 @@
       <c r="E20" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -9857,8 +9891,9 @@
       <c r="E21" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>465</v>
       </c>
@@ -9874,8 +9909,9 @@
       <c r="E22" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>465</v>
       </c>
@@ -9891,8 +9927,9 @@
       <c r="E23" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>465</v>
       </c>
@@ -9908,8 +9945,9 @@
       <c r="E24" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>465</v>
       </c>
@@ -9925,8 +9963,9 @@
       <c r="E25" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>478</v>
       </c>
@@ -9942,8 +9981,9 @@
       <c r="E26" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>478</v>
       </c>
@@ -9959,8 +9999,9 @@
       <c r="E27" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -9976,8 +10017,9 @@
       <c r="E28" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>478</v>
       </c>
@@ -9993,8 +10035,9 @@
       <c r="E29" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>478</v>
       </c>
@@ -10010,8 +10053,9 @@
       <c r="E30" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>488</v>
       </c>
@@ -10027,8 +10071,9 @@
       <c r="E31" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>488</v>
       </c>
@@ -10044,8 +10089,9 @@
       <c r="E32" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>488</v>
       </c>
@@ -10061,8 +10107,9 @@
       <c r="E33" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>488</v>
       </c>
@@ -10078,8 +10125,9 @@
       <c r="E34" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -10095,8 +10143,9 @@
       <c r="E35" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>496</v>
       </c>
@@ -10112,8 +10161,9 @@
       <c r="E36" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>501</v>
       </c>
@@ -10129,8 +10179,9 @@
       <c r="E37" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>501</v>
       </c>
@@ -10146,8 +10197,9 @@
       <c r="E38" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>501</v>
       </c>
@@ -10163,8 +10215,9 @@
       <c r="E39" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -10180,8 +10233,9 @@
       <c r="E40" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -10197,8 +10251,9 @@
       <c r="E41" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -10214,8 +10269,9 @@
       <c r="E42" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -10231,8 +10287,9 @@
       <c r="E43" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -10248,8 +10305,9 @@
       <c r="E44" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -10265,8 +10323,9 @@
       <c r="E45" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -10282,8 +10341,9 @@
       <c r="E46" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -10299,8 +10359,9 @@
       <c r="E47" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -10316,8 +10377,9 @@
       <c r="E48" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -10333,8 +10395,9 @@
       <c r="E49" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>528</v>
       </c>
@@ -10350,8 +10413,9 @@
       <c r="E50" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>528</v>
       </c>
@@ -10367,8 +10431,9 @@
       <c r="E51" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>532</v>
       </c>
@@ -10384,8 +10449,9 @@
       <c r="E52" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>532</v>
       </c>
@@ -10401,8 +10467,9 @@
       <c r="E53" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>536</v>
       </c>
@@ -10418,8 +10485,9 @@
       <c r="E54" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -10435,8 +10503,9 @@
       <c r="E55" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>536</v>
       </c>
@@ -10452,8 +10521,9 @@
       <c r="E56" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>536</v>
       </c>
@@ -10469,8 +10539,9 @@
       <c r="E57" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>536</v>
       </c>
@@ -10486,8 +10557,9 @@
       <c r="E58" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>536</v>
       </c>
@@ -10503,8 +10575,9 @@
       <c r="E59" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>536</v>
       </c>
@@ -10520,8 +10593,9 @@
       <c r="E60" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>550</v>
       </c>
@@ -10537,8 +10611,9 @@
       <c r="E61" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>550</v>
       </c>
@@ -10554,8 +10629,9 @@
       <c r="E62" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>550</v>
       </c>
@@ -10571,8 +10647,9 @@
       <c r="E63" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>550</v>
       </c>
@@ -10588,8 +10665,9 @@
       <c r="E64" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>550</v>
       </c>
@@ -10605,8 +10683,9 @@
       <c r="E65" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>550</v>
       </c>
@@ -10622,8 +10701,9 @@
       <c r="E66" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>561</v>
       </c>
@@ -10639,8 +10719,9 @@
       <c r="E67" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>561</v>
       </c>
@@ -10656,8 +10737,9 @@
       <c r="E68" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>561</v>
       </c>
@@ -10673,8 +10755,9 @@
       <c r="E69" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>561</v>
       </c>
@@ -10690,8 +10773,9 @@
       <c r="E70" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>561</v>
       </c>
@@ -10707,8 +10791,9 @@
       <c r="E71" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>561</v>
       </c>
@@ -10724,8 +10809,9 @@
       <c r="E72" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>561</v>
       </c>
@@ -10741,8 +10827,9 @@
       <c r="E73" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>561</v>
       </c>
@@ -10758,8 +10845,9 @@
       <c r="E74" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>561</v>
       </c>
@@ -10775,8 +10863,9 @@
       <c r="E75" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>582</v>
       </c>
@@ -10792,8 +10881,9 @@
       <c r="E76" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>582</v>
       </c>
@@ -10809,8 +10899,9 @@
       <c r="E77" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>588</v>
       </c>
@@ -10826,8 +10917,9 @@
       <c r="E78" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>588</v>
       </c>
@@ -10843,8 +10935,9 @@
       <c r="E79" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>588</v>
       </c>
@@ -10860,8 +10953,9 @@
       <c r="E80" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>588</v>
       </c>
@@ -10877,8 +10971,9 @@
       <c r="E81" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>588</v>
       </c>
@@ -10894,8 +10989,9 @@
       <c r="E82" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>588</v>
       </c>
@@ -10911,8 +11007,9 @@
       <c r="E83" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>588</v>
       </c>
@@ -10928,8 +11025,9 @@
       <c r="E84" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>588</v>
       </c>
@@ -10945,8 +11043,9 @@
       <c r="E85" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>600</v>
       </c>
@@ -10962,8 +11061,9 @@
       <c r="E86" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>600</v>
       </c>
@@ -10979,8 +11079,9 @@
       <c r="E87" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>603</v>
       </c>
@@ -10996,8 +11097,9 @@
       <c r="E88" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>606</v>
       </c>
@@ -11013,8 +11115,9 @@
       <c r="E89" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>606</v>
       </c>
@@ -11030,8 +11133,9 @@
       <c r="E90" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>606</v>
       </c>
@@ -11047,8 +11151,9 @@
       <c r="E91" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>606</v>
       </c>
@@ -11064,8 +11169,9 @@
       <c r="E92" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>613</v>
       </c>
@@ -11081,8 +11187,9 @@
       <c r="E93" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>613</v>
       </c>
@@ -11098,8 +11205,9 @@
       <c r="E94" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>613</v>
       </c>
@@ -11115,8 +11223,9 @@
       <c r="E95" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>613</v>
       </c>
@@ -11132,8 +11241,9 @@
       <c r="E96" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>613</v>
       </c>
@@ -11149,8 +11259,9 @@
       <c r="E97" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>613</v>
       </c>
@@ -11166,8 +11277,9 @@
       <c r="E98" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>613</v>
       </c>
@@ -11183,8 +11295,9 @@
       <c r="E99" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>613</v>
       </c>
@@ -11200,8 +11313,9 @@
       <c r="E100" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>613</v>
       </c>
@@ -11217,8 +11331,9 @@
       <c r="E101" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>613</v>
       </c>
@@ -11234,8 +11349,9 @@
       <c r="E102" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>613</v>
       </c>
@@ -11251,8 +11367,9 @@
       <c r="E103" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>613</v>
       </c>
@@ -11268,8 +11385,9 @@
       <c r="E104" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>630</v>
       </c>
@@ -11285,8 +11403,9 @@
       <c r="E105" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>630</v>
       </c>
@@ -11302,8 +11421,9 @@
       <c r="E106" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>630</v>
       </c>
@@ -11319,8 +11439,9 @@
       <c r="E107" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>630</v>
       </c>
@@ -11336,8 +11457,9 @@
       <c r="E108" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>630</v>
       </c>
@@ -11353,8 +11475,9 @@
       <c r="E109" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>630</v>
       </c>
@@ -11370,8 +11493,9 @@
       <c r="E110" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>630</v>
       </c>
@@ -11387,8 +11511,9 @@
       <c r="E111" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>630</v>
       </c>
@@ -11404,6 +11529,7 @@
       <c r="E112" t="s">
         <v>587</v>
       </c>
+      <c r="G112"/>
     </row>
     <row r="113" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -11675,6 +11801,9 @@
       <c r="E127" t="s">
         <v>445</v>
       </c>
+      <c r="F127" t="s">
+        <v>984</v>
+      </c>
       <c r="G127"/>
     </row>
     <row r="128" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -11697,7 +11826,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="129" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>656</v>
       </c>
@@ -11713,8 +11842,9 @@
       <c r="E129" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>656</v>
       </c>
@@ -11730,8 +11860,12 @@
       <c r="E130" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>984</v>
+      </c>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>656</v>
       </c>
@@ -11747,8 +11881,9 @@
       <c r="E131" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>656</v>
       </c>
@@ -11764,8 +11899,9 @@
       <c r="E132" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>656</v>
       </c>
@@ -11781,8 +11917,9 @@
       <c r="E133" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>656</v>
       </c>
@@ -11798,8 +11935,9 @@
       <c r="E134" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>656</v>
       </c>
@@ -11815,8 +11953,9 @@
       <c r="E135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>656</v>
       </c>
@@ -11832,8 +11971,9 @@
       <c r="E136" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>656</v>
       </c>
@@ -11849,76 +11989,81 @@
       <c r="E137" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>669</v>
+        <v>968</v>
       </c>
       <c r="B138" t="s">
-        <v>670</v>
+        <v>969</v>
       </c>
       <c r="C138" t="s">
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>671</v>
+        <v>970</v>
       </c>
       <c r="E138" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>669</v>
+        <v>975</v>
       </c>
       <c r="B139" t="s">
-        <v>670</v>
+        <v>976</v>
       </c>
       <c r="C139" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>673</v>
+        <v>977</v>
       </c>
       <c r="E139" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>669</v>
+        <v>441</v>
       </c>
       <c r="B140" t="s">
-        <v>670</v>
+        <v>442</v>
       </c>
       <c r="C140" t="s">
-        <v>674</v>
+        <v>443</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>675</v>
+        <v>444</v>
       </c>
       <c r="E140" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B141" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C141" t="s">
         <v>443</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E141" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>676</v>
       </c>
@@ -11926,101 +12071,107 @@
         <v>677</v>
       </c>
       <c r="C142" t="s">
-        <v>679</v>
+        <v>443</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E142" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B143" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="C143" t="s">
-        <v>681</v>
+        <v>443</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E143" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B144" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="C144" t="s">
-        <v>683</v>
+        <v>443</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>684</v>
+        <v>620</v>
       </c>
       <c r="E144" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>676</v>
+        <v>968</v>
       </c>
       <c r="B145" t="s">
-        <v>677</v>
+        <v>969</v>
       </c>
       <c r="C145" t="s">
-        <v>685</v>
+        <v>443</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>686</v>
+        <v>970</v>
       </c>
       <c r="E145" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>687</v>
+        <v>975</v>
       </c>
       <c r="B146" t="s">
-        <v>688</v>
+        <v>976</v>
       </c>
       <c r="C146" t="s">
         <v>443</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>689</v>
+        <v>977</v>
       </c>
       <c r="E146" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B147" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C147" t="s">
         <v>679</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E147" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G147"/>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>687</v>
       </c>
@@ -12028,67 +12179,71 @@
         <v>688</v>
       </c>
       <c r="C148" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E148" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G148"/>
+    </row>
+    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>687</v>
+        <v>963</v>
       </c>
       <c r="B149" t="s">
-        <v>688</v>
+        <v>964</v>
       </c>
       <c r="C149" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>693</v>
+        <v>966</v>
       </c>
       <c r="E149" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>687</v>
+        <v>968</v>
       </c>
       <c r="B150" t="s">
-        <v>688</v>
+        <v>969</v>
       </c>
       <c r="C150" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>695</v>
+        <v>971</v>
       </c>
       <c r="E150" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B151" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C151" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="E151" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>687</v>
       </c>
@@ -12096,67 +12251,71 @@
         <v>688</v>
       </c>
       <c r="C152" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="E152" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G152"/>
+    </row>
+    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>687</v>
+        <v>963</v>
       </c>
       <c r="B153" t="s">
-        <v>688</v>
+        <v>964</v>
       </c>
       <c r="C153" t="s">
-        <v>443</v>
+        <v>681</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>620</v>
+        <v>967</v>
       </c>
       <c r="E153" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>687</v>
+        <v>968</v>
       </c>
       <c r="B154" t="s">
-        <v>688</v>
+        <v>969</v>
       </c>
       <c r="C154" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>701</v>
+        <v>972</v>
       </c>
       <c r="E154" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G154"/>
+    </row>
+    <row r="155" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B155" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C155" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="E155" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G155"/>
+    </row>
+    <row r="156" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>704</v>
       </c>
@@ -12172,8 +12331,9 @@
       <c r="E156" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G156"/>
+    </row>
+    <row r="157" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>704</v>
       </c>
@@ -12189,8 +12349,9 @@
       <c r="E157" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G157"/>
+    </row>
+    <row r="158" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>704</v>
       </c>
@@ -12206,8 +12367,9 @@
       <c r="E158" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G158"/>
+    </row>
+    <row r="159" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>704</v>
       </c>
@@ -12223,8 +12385,9 @@
       <c r="E159" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G159"/>
+    </row>
+    <row r="160" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>704</v>
       </c>
@@ -12240,8 +12403,9 @@
       <c r="E160" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G160"/>
+    </row>
+    <row r="161" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -12257,8 +12421,9 @@
       <c r="E161" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G161"/>
+    </row>
+    <row r="162" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>704</v>
       </c>
@@ -12274,8 +12439,9 @@
       <c r="E162" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G162"/>
+    </row>
+    <row r="163" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>704</v>
       </c>
@@ -12291,8 +12457,9 @@
       <c r="E163" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G163"/>
+    </row>
+    <row r="164" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>720</v>
       </c>
@@ -12308,8 +12475,9 @@
       <c r="E164" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G164"/>
+    </row>
+    <row r="165" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>720</v>
       </c>
@@ -12325,8 +12493,9 @@
       <c r="E165" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G165"/>
+    </row>
+    <row r="166" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>720</v>
       </c>
@@ -12342,8 +12511,9 @@
       <c r="E166" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G166"/>
+    </row>
+    <row r="167" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>720</v>
       </c>
@@ -12359,8 +12529,9 @@
       <c r="E167" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G167"/>
+    </row>
+    <row r="168" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>720</v>
       </c>
@@ -12376,8 +12547,9 @@
       <c r="E168" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G168"/>
+    </row>
+    <row r="169" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>720</v>
       </c>
@@ -12393,8 +12565,9 @@
       <c r="E169" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G169"/>
+    </row>
+    <row r="170" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>720</v>
       </c>
@@ -12410,8 +12583,9 @@
       <c r="E170" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G170"/>
+    </row>
+    <row r="171" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>720</v>
       </c>
@@ -12427,8 +12601,9 @@
       <c r="E171" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G171"/>
+    </row>
+    <row r="172" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>720</v>
       </c>
@@ -12444,8 +12619,9 @@
       <c r="E172" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>720</v>
       </c>
@@ -12461,8 +12637,9 @@
       <c r="E173" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G173"/>
+    </row>
+    <row r="174" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>738</v>
       </c>
@@ -12478,8 +12655,9 @@
       <c r="E174" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G174"/>
+    </row>
+    <row r="175" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>738</v>
       </c>
@@ -12495,8 +12673,9 @@
       <c r="E175" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G175"/>
+    </row>
+    <row r="176" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>738</v>
       </c>
@@ -12512,6 +12691,7 @@
       <c r="E176" t="s">
         <v>464</v>
       </c>
+      <c r="G176"/>
     </row>
     <row r="177" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -12731,7 +12911,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>758</v>
       </c>
@@ -12747,8 +12927,11 @@
       <c r="E189" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>758</v>
       </c>
@@ -12763,6 +12946,9 @@
       </c>
       <c r="E190" t="s">
         <v>657</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -12801,9 +12987,12 @@
       <c r="E192" t="s">
         <v>445</v>
       </c>
+      <c r="F192" t="s">
+        <v>984</v>
+      </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>758</v>
       </c>
@@ -12819,8 +13008,12 @@
       <c r="E193" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>984</v>
+      </c>
+      <c r="G193"/>
+    </row>
+    <row r="194" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>758</v>
       </c>
@@ -12836,8 +13029,12 @@
       <c r="E194" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>984</v>
+      </c>
+      <c r="G194"/>
+    </row>
+    <row r="195" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -12853,8 +13050,12 @@
       <c r="E195" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>984</v>
+      </c>
+      <c r="G195"/>
+    </row>
+    <row r="196" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>758</v>
       </c>
@@ -12870,8 +13071,9 @@
       <c r="E196" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G196"/>
+    </row>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>758</v>
       </c>
@@ -12887,8 +13089,9 @@
       <c r="E197" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G197"/>
+    </row>
+    <row r="198" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>758</v>
       </c>
@@ -12904,8 +13107,9 @@
       <c r="E198" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G198"/>
+    </row>
+    <row r="199" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>758</v>
       </c>
@@ -12921,8 +13125,9 @@
       <c r="E199" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G199"/>
+    </row>
+    <row r="200" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>758</v>
       </c>
@@ -12938,8 +13143,9 @@
       <c r="E200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G200"/>
+    </row>
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>758</v>
       </c>
@@ -12955,8 +13161,9 @@
       <c r="E201" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G201"/>
+    </row>
+    <row r="202" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>758</v>
       </c>
@@ -12972,8 +13179,9 @@
       <c r="E202" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G202"/>
+    </row>
+    <row r="203" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>758</v>
       </c>
@@ -12989,8 +13197,9 @@
       <c r="E203" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G203"/>
+    </row>
+    <row r="204" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>758</v>
       </c>
@@ -13006,8 +13215,9 @@
       <c r="E204" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G204"/>
+    </row>
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>758</v>
       </c>
@@ -13023,8 +13233,9 @@
       <c r="E205" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G205"/>
+    </row>
+    <row r="206" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>758</v>
       </c>
@@ -13040,8 +13251,9 @@
       <c r="E206" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G206"/>
+    </row>
+    <row r="207" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>758</v>
       </c>
@@ -13057,8 +13269,9 @@
       <c r="E207" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G207"/>
+    </row>
+    <row r="208" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>758</v>
       </c>
@@ -13074,8 +13287,9 @@
       <c r="E208" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G208"/>
+    </row>
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>758</v>
       </c>
@@ -13091,8 +13305,9 @@
       <c r="E209" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G209"/>
+    </row>
+    <row r="210" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>758</v>
       </c>
@@ -13108,8 +13323,9 @@
       <c r="E210" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G210"/>
+    </row>
+    <row r="211" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>758</v>
       </c>
@@ -13125,8 +13341,9 @@
       <c r="E211" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G211"/>
+    </row>
+    <row r="212" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>783</v>
       </c>
@@ -13142,8 +13359,9 @@
       <c r="E212" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G212"/>
+    </row>
+    <row r="213" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>783</v>
       </c>
@@ -13159,8 +13377,9 @@
       <c r="E213" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G213"/>
+    </row>
+    <row r="214" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>783</v>
       </c>
@@ -13176,8 +13395,9 @@
       <c r="E214" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G214"/>
+    </row>
+    <row r="215" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>783</v>
       </c>
@@ -13193,8 +13413,9 @@
       <c r="E215" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G215"/>
+    </row>
+    <row r="216" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>783</v>
       </c>
@@ -13210,8 +13431,9 @@
       <c r="E216" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G216"/>
+    </row>
+    <row r="217" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>783</v>
       </c>
@@ -13227,8 +13449,9 @@
       <c r="E217" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G217"/>
+    </row>
+    <row r="218" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>794</v>
       </c>
@@ -13244,8 +13467,9 @@
       <c r="E218" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G218"/>
+    </row>
+    <row r="219" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>794</v>
       </c>
@@ -13261,8 +13485,9 @@
       <c r="E219" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G219"/>
+    </row>
+    <row r="220" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>794</v>
       </c>
@@ -13278,8 +13503,9 @@
       <c r="E220" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G220"/>
+    </row>
+    <row r="221" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>794</v>
       </c>
@@ -13295,8 +13521,9 @@
       <c r="E221" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G221"/>
+    </row>
+    <row r="222" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>794</v>
       </c>
@@ -13312,8 +13539,9 @@
       <c r="E222" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G222"/>
+    </row>
+    <row r="223" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>794</v>
       </c>
@@ -13329,8 +13557,9 @@
       <c r="E223" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G223"/>
+    </row>
+    <row r="224" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>807</v>
       </c>
@@ -13346,8 +13575,9 @@
       <c r="E224" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G224"/>
+    </row>
+    <row r="225" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>807</v>
       </c>
@@ -13363,8 +13593,9 @@
       <c r="E225" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G225"/>
+    </row>
+    <row r="226" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>807</v>
       </c>
@@ -13380,8 +13611,9 @@
       <c r="E226" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G226"/>
+    </row>
+    <row r="227" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>813</v>
       </c>
@@ -13397,8 +13629,9 @@
       <c r="E227" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G227"/>
+    </row>
+    <row r="228" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>813</v>
       </c>
@@ -13414,8 +13647,9 @@
       <c r="E228" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G228"/>
+    </row>
+    <row r="229" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>813</v>
       </c>
@@ -13431,8 +13665,9 @@
       <c r="E229" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G229"/>
+    </row>
+    <row r="230" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>818</v>
       </c>
@@ -13448,8 +13683,9 @@
       <c r="E230" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G230"/>
+    </row>
+    <row r="231" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>818</v>
       </c>
@@ -13465,8 +13701,9 @@
       <c r="E231" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G231"/>
+    </row>
+    <row r="232" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>818</v>
       </c>
@@ -13482,8 +13719,9 @@
       <c r="E232" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G232"/>
+    </row>
+    <row r="233" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>823</v>
       </c>
@@ -13499,8 +13737,9 @@
       <c r="E233" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G233"/>
+    </row>
+    <row r="234" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>823</v>
       </c>
@@ -13516,8 +13755,9 @@
       <c r="E234" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G234"/>
+    </row>
+    <row r="235" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>823</v>
       </c>
@@ -13533,8 +13773,9 @@
       <c r="E235" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G235"/>
+    </row>
+    <row r="236" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>823</v>
       </c>
@@ -13550,8 +13791,9 @@
       <c r="E236" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G236"/>
+    </row>
+    <row r="237" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>823</v>
       </c>
@@ -13567,8 +13809,9 @@
       <c r="E237" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G237"/>
+    </row>
+    <row r="238" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>831</v>
       </c>
@@ -13584,8 +13827,9 @@
       <c r="E238" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G238"/>
+    </row>
+    <row r="239" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>831</v>
       </c>
@@ -13601,8 +13845,9 @@
       <c r="E239" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G239"/>
+    </row>
+    <row r="240" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>831</v>
       </c>
@@ -13618,6 +13863,7 @@
       <c r="E240" t="s">
         <v>500</v>
       </c>
+      <c r="G240"/>
     </row>
     <row r="241" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -13657,7 +13903,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>836</v>
       </c>
@@ -13672,6 +13918,9 @@
       </c>
       <c r="E243" t="s">
         <v>657</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -13734,7 +13983,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>841</v>
       </c>
@@ -13750,8 +13999,11 @@
       <c r="E247" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>841</v>
       </c>
@@ -13767,8 +14019,11 @@
       <c r="E248" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>841</v>
       </c>
@@ -13783,6 +14038,9 @@
       </c>
       <c r="E249" t="s">
         <v>657</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -13825,7 +14083,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>841</v>
       </c>
@@ -13840,6 +14098,9 @@
       </c>
       <c r="E252" t="s">
         <v>657</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -13918,7 +14179,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>860</v>
       </c>
@@ -13934,8 +14195,9 @@
       <c r="E257" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G257"/>
+    </row>
+    <row r="258" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>867</v>
       </c>
@@ -13951,8 +14213,9 @@
       <c r="E258" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G258"/>
+    </row>
+    <row r="259" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>867</v>
       </c>
@@ -13968,8 +14231,9 @@
       <c r="E259" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G259"/>
+    </row>
+    <row r="260" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>867</v>
       </c>
@@ -13985,8 +14249,9 @@
       <c r="E260" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G260"/>
+    </row>
+    <row r="261" spans="1:7" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>867</v>
       </c>
@@ -14002,8 +14267,9 @@
       <c r="E261" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G261"/>
+    </row>
+    <row r="262" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>867</v>
       </c>
@@ -14019,8 +14285,9 @@
       <c r="E262" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G262"/>
+    </row>
+    <row r="263" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>867</v>
       </c>
@@ -14036,8 +14303,9 @@
       <c r="E263" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G263"/>
+    </row>
+    <row r="264" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>877</v>
       </c>
@@ -14053,8 +14321,9 @@
       <c r="E264" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G264"/>
+    </row>
+    <row r="265" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>877</v>
       </c>
@@ -14070,8 +14339,9 @@
       <c r="E265" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G265"/>
+    </row>
+    <row r="266" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>877</v>
       </c>
@@ -14087,8 +14357,9 @@
       <c r="E266" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G266"/>
+    </row>
+    <row r="267" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>877</v>
       </c>
@@ -14104,8 +14375,9 @@
       <c r="E267" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G267"/>
+    </row>
+    <row r="268" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>886</v>
       </c>
@@ -14121,8 +14393,9 @@
       <c r="E268" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G268"/>
+    </row>
+    <row r="269" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>886</v>
       </c>
@@ -14138,8 +14411,9 @@
       <c r="E269" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G269"/>
+    </row>
+    <row r="270" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>891</v>
       </c>
@@ -14155,8 +14429,9 @@
       <c r="E270" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G270"/>
+    </row>
+    <row r="271" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>891</v>
       </c>
@@ -14172,8 +14447,9 @@
       <c r="E271" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G271"/>
+    </row>
+    <row r="272" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>891</v>
       </c>
@@ -14189,6 +14465,7 @@
       <c r="E272" t="s">
         <v>565</v>
       </c>
+      <c r="G272"/>
     </row>
     <row r="273" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -14300,7 +14577,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>907</v>
       </c>
@@ -14315,6 +14592,9 @@
       </c>
       <c r="E279" t="s">
         <v>657</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -14581,7 +14861,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>930</v>
       </c>
@@ -14597,8 +14877,11 @@
       <c r="E294" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F294" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>930</v>
       </c>
@@ -14613,6 +14896,9 @@
       </c>
       <c r="E295" t="s">
         <v>657</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -14779,7 +15065,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>941</v>
       </c>
@@ -14795,8 +15081,9 @@
       <c r="E305" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G305"/>
+    </row>
+    <row r="306" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>941</v>
       </c>
@@ -14812,42 +15099,45 @@
       <c r="E306" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G306"/>
+    </row>
+    <row r="307" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>953</v>
+        <v>676</v>
       </c>
       <c r="B307" t="s">
-        <v>434</v>
+        <v>677</v>
       </c>
       <c r="C307" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>954</v>
+        <v>686</v>
       </c>
       <c r="E307" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G307"/>
+    </row>
+    <row r="308" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>953</v>
+        <v>687</v>
       </c>
       <c r="B308" t="s">
-        <v>434</v>
+        <v>688</v>
       </c>
       <c r="C308" t="s">
-        <v>955</v>
+        <v>692</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>956</v>
+        <v>693</v>
       </c>
       <c r="E308" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>957</v>
       </c>
@@ -14855,214 +15145,226 @@
         <v>587</v>
       </c>
       <c r="C309" t="s">
-        <v>665</v>
+        <v>959</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E309" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G309"/>
+    </row>
+    <row r="310" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>957</v>
+        <v>441</v>
       </c>
       <c r="B310" t="s">
-        <v>587</v>
+        <v>442</v>
       </c>
       <c r="C310" t="s">
-        <v>959</v>
+        <v>446</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>960</v>
+        <v>447</v>
       </c>
       <c r="E310" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G310"/>
+    </row>
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>957</v>
+        <v>669</v>
       </c>
       <c r="B311" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="C311" t="s">
-        <v>961</v>
+        <v>672</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>962</v>
+        <v>673</v>
       </c>
       <c r="E311" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G311"/>
+    </row>
+    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>963</v>
+        <v>669</v>
       </c>
       <c r="B312" t="s">
-        <v>964</v>
+        <v>670</v>
       </c>
       <c r="C312" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>965</v>
+        <v>675</v>
       </c>
       <c r="E312" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G312"/>
+    </row>
+    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>963</v>
+        <v>687</v>
       </c>
       <c r="B313" t="s">
-        <v>964</v>
+        <v>688</v>
       </c>
       <c r="C313" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>966</v>
+        <v>701</v>
       </c>
       <c r="E313" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G313"/>
+    </row>
+    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B314" t="s">
-        <v>964</v>
+        <v>587</v>
       </c>
       <c r="C314" t="s">
-        <v>681</v>
+        <v>961</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="E314" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G314"/>
+    </row>
+    <row r="315" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>968</v>
+        <v>441</v>
       </c>
       <c r="B315" t="s">
-        <v>969</v>
+        <v>442</v>
       </c>
       <c r="C315" t="s">
-        <v>665</v>
+        <v>448</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>970</v>
+        <v>449</v>
       </c>
       <c r="E315" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G315"/>
+    </row>
+    <row r="316" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>968</v>
+        <v>687</v>
       </c>
       <c r="B316" t="s">
-        <v>969</v>
+        <v>688</v>
       </c>
       <c r="C316" t="s">
-        <v>443</v>
+        <v>702</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>970</v>
+        <v>703</v>
       </c>
       <c r="E316" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G316"/>
+    </row>
+    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="B317" t="s">
-        <v>969</v>
+        <v>434</v>
       </c>
       <c r="C317" t="s">
-        <v>679</v>
+        <v>955</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="E317" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G317"/>
+    </row>
+    <row r="318" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>968</v>
+        <v>687</v>
       </c>
       <c r="B318" t="s">
-        <v>969</v>
+        <v>688</v>
       </c>
       <c r="C318" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>972</v>
+        <v>695</v>
       </c>
       <c r="E318" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G318"/>
+    </row>
+    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>968</v>
+        <v>687</v>
       </c>
       <c r="B319" t="s">
-        <v>969</v>
+        <v>688</v>
       </c>
       <c r="C319" t="s">
-        <v>973</v>
+        <v>696</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>974</v>
+        <v>697</v>
       </c>
       <c r="E319" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G319"/>
+    </row>
+    <row r="320" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>975</v>
+        <v>687</v>
       </c>
       <c r="B320" t="s">
-        <v>976</v>
+        <v>688</v>
       </c>
       <c r="C320" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>977</v>
+        <v>699</v>
       </c>
       <c r="E320" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G320"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B321" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="C321" t="s">
-        <v>443</v>
+        <v>973</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E321" t="s">
         <v>445</v>
@@ -15530,12 +15832,15 @@
   <autoFilter ref="A1:G345">
     <filterColumn colId="4">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
+    <sortState ref="A8:G321">
+      <sortCondition ref="C8"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="1072">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4844,6 +4844,24 @@
   </si>
   <si>
     <t>a028242</t>
+  </si>
+  <si>
+    <t>a0297e6</t>
+  </si>
+  <si>
+    <t>536e382</t>
+  </si>
+  <si>
+    <t>16c5f78</t>
+  </si>
+  <si>
+    <t>1be9c8d</t>
+  </si>
+  <si>
+    <t>ae6a336</t>
+  </si>
+  <si>
+    <t>75b4591</t>
   </si>
 </sst>
 </file>
@@ -4893,7 +4911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4910,6 +4928,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9499,7 +9518,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9641,7 +9660,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>953</v>
       </c>
@@ -9657,9 +9676,12 @@
       <c r="E8" t="s">
         <v>445</v>
       </c>
+      <c r="F8" t="s">
+        <v>1066</v>
+      </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>957</v>
       </c>
@@ -9675,9 +9697,12 @@
       <c r="E9" t="s">
         <v>445</v>
       </c>
+      <c r="F9" t="s">
+        <v>1066</v>
+      </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>963</v>
       </c>
@@ -9692,6 +9717,9 @@
       </c>
       <c r="E10" t="s">
         <v>445</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1066</v>
       </c>
       <c r="G10"/>
     </row>
@@ -11991,7 +12019,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>968</v>
       </c>
@@ -12007,9 +12035,12 @@
       <c r="E138" t="s">
         <v>445</v>
       </c>
+      <c r="F138" t="s">
+        <v>1066</v>
+      </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>975</v>
       </c>
@@ -12025,9 +12056,12 @@
       <c r="E139" t="s">
         <v>445</v>
       </c>
+      <c r="F139" t="s">
+        <v>1066</v>
+      </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>441</v>
       </c>
@@ -12043,9 +12077,12 @@
       <c r="E140" t="s">
         <v>445</v>
       </c>
+      <c r="F140" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>669</v>
       </c>
@@ -12061,9 +12098,12 @@
       <c r="E141" t="s">
         <v>445</v>
       </c>
+      <c r="F141" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>676</v>
       </c>
@@ -12079,9 +12119,12 @@
       <c r="E142" t="s">
         <v>445</v>
       </c>
+      <c r="F142" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>687</v>
       </c>
@@ -12097,9 +12140,12 @@
       <c r="E143" t="s">
         <v>445</v>
       </c>
+      <c r="F143" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>687</v>
       </c>
@@ -12115,9 +12161,12 @@
       <c r="E144" t="s">
         <v>445</v>
       </c>
+      <c r="F144" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>968</v>
       </c>
@@ -12133,9 +12182,12 @@
       <c r="E145" t="s">
         <v>445</v>
       </c>
+      <c r="F145" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>975</v>
       </c>
@@ -12151,9 +12203,12 @@
       <c r="E146" t="s">
         <v>445</v>
       </c>
+      <c r="F146" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>676</v>
       </c>
@@ -12169,9 +12224,12 @@
       <c r="E147" t="s">
         <v>445</v>
       </c>
+      <c r="F147" t="s">
+        <v>1068</v>
+      </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>687</v>
       </c>
@@ -12187,9 +12245,12 @@
       <c r="E148" t="s">
         <v>445</v>
       </c>
+      <c r="F148" t="s">
+        <v>1068</v>
+      </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>963</v>
       </c>
@@ -12205,9 +12266,12 @@
       <c r="E149" t="s">
         <v>445</v>
       </c>
+      <c r="F149" t="s">
+        <v>1068</v>
+      </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>968</v>
       </c>
@@ -12223,9 +12287,12 @@
       <c r="E150" t="s">
         <v>445</v>
       </c>
+      <c r="F150" t="s">
+        <v>1068</v>
+      </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>676</v>
       </c>
@@ -12241,9 +12308,12 @@
       <c r="E151" t="s">
         <v>445</v>
       </c>
+      <c r="F151" t="s">
+        <v>1069</v>
+      </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>687</v>
       </c>
@@ -12259,9 +12329,12 @@
       <c r="E152" t="s">
         <v>445</v>
       </c>
+      <c r="F152" t="s">
+        <v>1069</v>
+      </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>963</v>
       </c>
@@ -12277,9 +12350,12 @@
       <c r="E153" t="s">
         <v>445</v>
       </c>
+      <c r="F153" t="s">
+        <v>1069</v>
+      </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>968</v>
       </c>
@@ -12295,9 +12371,12 @@
       <c r="E154" t="s">
         <v>445</v>
       </c>
+      <c r="F154" t="s">
+        <v>1069</v>
+      </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>676</v>
       </c>
@@ -12312,6 +12391,9 @@
       </c>
       <c r="E155" t="s">
         <v>445</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1070</v>
       </c>
       <c r="G155"/>
     </row>
@@ -15101,7 +15183,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>676</v>
       </c>
@@ -15116,6 +15198,9 @@
       </c>
       <c r="E307" t="s">
         <v>445</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1071</v>
       </c>
       <c r="G307"/>
     </row>
@@ -15838,7 +15923,7 @@
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="A8:G321">
+    <sortState ref="A308:G321">
       <sortCondition ref="C8"/>
     </sortState>
   </autoFilter>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1108">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4862,6 +4862,114 @@
   </si>
   <si>
     <t>75b4591</t>
+  </si>
+  <si>
+    <t>d0c7be1</t>
+  </si>
+  <si>
+    <t>20d86d5</t>
+  </si>
+  <si>
+    <t>51aec83</t>
+  </si>
+  <si>
+    <t>7725cef</t>
+  </si>
+  <si>
+    <t>7134637</t>
+  </si>
+  <si>
+    <t>f51367c</t>
+  </si>
+  <si>
+    <t>e47bf31</t>
+  </si>
+  <si>
+    <t>1267293</t>
+  </si>
+  <si>
+    <t>adf7641</t>
+  </si>
+  <si>
+    <t>ad17397</t>
+  </si>
+  <si>
+    <t>6421049</t>
+  </si>
+  <si>
+    <t>6a434ae</t>
+  </si>
+  <si>
+    <t>517b2a1</t>
+  </si>
+  <si>
+    <t>31e9d45</t>
+  </si>
+  <si>
+    <t>Can't be an invalid date</t>
+  </si>
+  <si>
+    <t>Can't be an invalid double</t>
+  </si>
+  <si>
+    <t>Can't be an invalid integer</t>
+  </si>
+  <si>
+    <t>f8055ae</t>
+  </si>
+  <si>
+    <t>8b2c7d0</t>
+  </si>
+  <si>
+    <t>7b3864b</t>
+  </si>
+  <si>
+    <t>e32e5b1</t>
+  </si>
+  <si>
+    <t>89c30cc</t>
+  </si>
+  <si>
+    <t>4336e38</t>
+  </si>
+  <si>
+    <t>a2ca2ba</t>
+  </si>
+  <si>
+    <t>29a66d6</t>
+  </si>
+  <si>
+    <t>a2f8105</t>
+  </si>
+  <si>
+    <t>non-sensical rule</t>
+  </si>
+  <si>
+    <t>c4ef31c</t>
+  </si>
+  <si>
+    <t>6fc39e6</t>
+  </si>
+  <si>
+    <t>82de551</t>
+  </si>
+  <si>
+    <t>76d2093</t>
+  </si>
+  <si>
+    <t>94a7284</t>
+  </si>
+  <si>
+    <t>ef602f1</t>
+  </si>
+  <si>
+    <t>8660c3a</t>
+  </si>
+  <si>
+    <t>6200b0d</t>
+  </si>
+  <si>
+    <t>d4e9928</t>
   </si>
 </sst>
 </file>
@@ -4911,7 +5019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4929,6 +5037,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9518,7 +9627,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9869,41 +9978,47 @@
     </row>
     <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>656</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>657</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>667</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>463</v>
+        <v>659</v>
       </c>
       <c r="E19" t="s">
         <v>464</v>
       </c>
+      <c r="F19" t="s">
+        <v>984</v>
+      </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
         <v>462</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E20" t="s">
         <v>464</v>
       </c>
+      <c r="F20" t="s">
+        <v>1089</v>
+      </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>465</v>
       </c>
@@ -9911,265 +10026,316 @@
         <v>466</v>
       </c>
       <c r="C21" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E21" t="s">
         <v>464</v>
       </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>984</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C22" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
         <v>464</v>
       </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>984</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="E23" t="s">
         <v>464</v>
       </c>
+      <c r="F23" t="s">
+        <v>1089</v>
+      </c>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>656</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>657</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>475</v>
+        <v>659</v>
       </c>
       <c r="E24" t="s">
         <v>464</v>
       </c>
+      <c r="F24" t="s">
+        <v>984</v>
+      </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>465</v>
+        <v>704</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>705</v>
       </c>
       <c r="C25" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>477</v>
+        <v>706</v>
       </c>
       <c r="E25" t="s">
         <v>464</v>
       </c>
+      <c r="F25" t="s">
+        <v>1089</v>
+      </c>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>478</v>
+        <v>720</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>721</v>
       </c>
       <c r="C26" t="s">
         <v>462</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>480</v>
+        <v>724</v>
       </c>
       <c r="E26" t="s">
         <v>464</v>
       </c>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>984</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>738</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>739</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>481</v>
+        <v>740</v>
       </c>
       <c r="E27" t="s">
         <v>464</v>
       </c>
+      <c r="F27" t="s">
+        <v>1089</v>
+      </c>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>478</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
-        <v>479</v>
+        <v>749</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>483</v>
+        <v>750</v>
       </c>
       <c r="E28" t="s">
         <v>464</v>
       </c>
+      <c r="F28" t="s">
+        <v>1089</v>
+      </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>478</v>
+        <v>783</v>
       </c>
       <c r="B29" t="s">
-        <v>479</v>
+        <v>784</v>
       </c>
       <c r="C29" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>485</v>
+        <v>785</v>
       </c>
       <c r="E29" t="s">
         <v>464</v>
       </c>
+      <c r="F29" t="s">
+        <v>1089</v>
+      </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C30" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
       </c>
+      <c r="F30" t="s">
+        <v>1090</v>
+      </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>783</v>
       </c>
       <c r="B31" t="s">
-        <v>489</v>
+        <v>784</v>
       </c>
       <c r="C31" t="s">
-        <v>462</v>
+        <v>786</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>490</v>
+        <v>787</v>
       </c>
       <c r="E31" t="s">
         <v>464</v>
       </c>
+      <c r="F31" t="s">
+        <v>1091</v>
+      </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B32" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E32" t="s">
         <v>464</v>
       </c>
+      <c r="F32" t="s">
+        <v>1092</v>
+      </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>488</v>
+        <v>720</v>
       </c>
       <c r="B33" t="s">
-        <v>489</v>
+        <v>721</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>725</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>492</v>
+        <v>726</v>
       </c>
       <c r="E33" t="s">
         <v>464</v>
       </c>
+      <c r="F33" t="s">
+        <v>1093</v>
+      </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>488</v>
+        <v>720</v>
       </c>
       <c r="B34" t="s">
-        <v>489</v>
+        <v>721</v>
       </c>
       <c r="C34" t="s">
-        <v>484</v>
+        <v>727</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>493</v>
+        <v>728</v>
       </c>
       <c r="E34" t="s">
         <v>464</v>
       </c>
+      <c r="F34" s="9" t="s">
+        <v>1094</v>
+      </c>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="E35" t="s">
         <v>464</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1095</v>
       </c>
       <c r="G35"/>
     </row>
@@ -11854,21 +12020,24 @@
         <v>984</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>656</v>
+        <v>478</v>
       </c>
       <c r="B129" t="s">
-        <v>657</v>
+        <v>479</v>
       </c>
       <c r="C129" t="s">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>659</v>
+        <v>481</v>
       </c>
       <c r="E129" t="s">
         <v>464</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1095</v>
       </c>
       <c r="G129"/>
     </row>
@@ -11911,21 +12080,24 @@
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>656</v>
+        <v>488</v>
       </c>
       <c r="B132" t="s">
-        <v>657</v>
+        <v>489</v>
       </c>
       <c r="C132" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>659</v>
+        <v>491</v>
       </c>
       <c r="E132" t="s">
         <v>464</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1095</v>
       </c>
       <c r="G132"/>
     </row>
@@ -12397,7 +12569,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>704</v>
       </c>
@@ -12405,107 +12577,125 @@
         <v>705</v>
       </c>
       <c r="C156" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E156" t="s">
         <v>464</v>
       </c>
+      <c r="F156" t="s">
+        <v>1095</v>
+      </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="B157" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="C157" t="s">
         <v>472</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="E157" t="s">
         <v>464</v>
       </c>
+      <c r="F157" t="s">
+        <v>1095</v>
+      </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="B158" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="C158" t="s">
-        <v>708</v>
+        <v>472</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="E158" t="s">
         <v>464</v>
       </c>
+      <c r="F158" t="s">
+        <v>1095</v>
+      </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="B159" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="C159" t="s">
-        <v>710</v>
+        <v>472</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="E159" t="s">
         <v>464</v>
       </c>
+      <c r="F159" t="s">
+        <v>1095</v>
+      </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>704</v>
+        <v>783</v>
       </c>
       <c r="B160" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="C160" t="s">
-        <v>712</v>
+        <v>472</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>713</v>
+        <v>788</v>
       </c>
       <c r="E160" t="s">
         <v>464</v>
       </c>
+      <c r="F160" t="s">
+        <v>1095</v>
+      </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="B161" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="C161" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="E161" t="s">
         <v>464</v>
       </c>
+      <c r="F161" t="s">
+        <v>1096</v>
+      </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>704</v>
       </c>
@@ -12513,31 +12703,37 @@
         <v>705</v>
       </c>
       <c r="C162" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="E162" t="s">
         <v>464</v>
       </c>
+      <c r="F162" t="s">
+        <v>1097</v>
+      </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>704</v>
+        <v>465</v>
       </c>
       <c r="B163" t="s">
-        <v>705</v>
+        <v>466</v>
       </c>
       <c r="C163" t="s">
-        <v>718</v>
+        <v>474</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>719</v>
+        <v>475</v>
       </c>
       <c r="E163" t="s">
         <v>464</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1099</v>
       </c>
       <c r="G163"/>
     </row>
@@ -12561,23 +12757,28 @@
     </row>
     <row r="165" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="B165" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="C165" t="s">
-        <v>462</v>
+        <v>710</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E165" t="s">
         <v>464</v>
       </c>
-      <c r="G165"/>
-    </row>
-    <row r="166" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>984</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>720</v>
       </c>
@@ -12585,316 +12786,357 @@
         <v>721</v>
       </c>
       <c r="C166" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E166" t="s">
         <v>464</v>
       </c>
-      <c r="G166"/>
-    </row>
-    <row r="167" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>984</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="B167" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="C167" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="E167" t="s">
         <v>464</v>
       </c>
+      <c r="F167" t="s">
+        <v>1100</v>
+      </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="B168" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="C168" t="s">
-        <v>472</v>
+        <v>744</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="E168" t="s">
         <v>464</v>
       </c>
+      <c r="F168" t="s">
+        <v>1101</v>
+      </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="B169" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="C169" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="E169" t="s">
         <v>464</v>
       </c>
+      <c r="F169" t="s">
+        <v>1102</v>
+      </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="B170" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="C170" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="E170" t="s">
         <v>464</v>
       </c>
+      <c r="F170" t="s">
+        <v>1103</v>
+      </c>
       <c r="G170"/>
     </row>
     <row r="171" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="B171" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="C171" t="s">
-        <v>476</v>
+        <v>754</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="E171" t="s">
         <v>464</v>
       </c>
+      <c r="F171" t="s">
+        <v>1103</v>
+      </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>720</v>
+        <v>783</v>
       </c>
       <c r="B172" t="s">
-        <v>721</v>
+        <v>784</v>
       </c>
       <c r="C172" t="s">
-        <v>734</v>
+        <v>789</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>735</v>
+        <v>790</v>
       </c>
       <c r="E172" t="s">
         <v>464</v>
       </c>
+      <c r="F172" t="s">
+        <v>1104</v>
+      </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>720</v>
+        <v>478</v>
       </c>
       <c r="B173" t="s">
-        <v>721</v>
+        <v>479</v>
       </c>
       <c r="C173" t="s">
-        <v>736</v>
+        <v>482</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>737</v>
+        <v>483</v>
       </c>
       <c r="E173" t="s">
         <v>464</v>
       </c>
+      <c r="F173" t="s">
+        <v>1105</v>
+      </c>
       <c r="G173"/>
     </row>
     <row r="174" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>738</v>
+        <v>488</v>
       </c>
       <c r="B174" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="C174" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>740</v>
+        <v>492</v>
       </c>
       <c r="E174" t="s">
         <v>464</v>
       </c>
+      <c r="F174" t="s">
+        <v>1105</v>
+      </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>738</v>
+        <v>478</v>
       </c>
       <c r="B175" t="s">
-        <v>739</v>
+        <v>479</v>
       </c>
       <c r="C175" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>741</v>
+        <v>485</v>
       </c>
       <c r="E175" t="s">
         <v>464</v>
       </c>
+      <c r="F175" t="s">
+        <v>1106</v>
+      </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>738</v>
+        <v>488</v>
       </c>
       <c r="B176" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="C176" t="s">
-        <v>742</v>
+        <v>484</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>743</v>
+        <v>493</v>
       </c>
       <c r="E176" t="s">
         <v>464</v>
       </c>
+      <c r="F176" t="s">
+        <v>1106</v>
+      </c>
       <c r="G176"/>
     </row>
     <row r="177" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c r="B177" t="s">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c r="C177" t="s">
-        <v>744</v>
+        <v>484</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="E177" t="s">
         <v>464</v>
       </c>
+      <c r="F177" t="s">
+        <v>1106</v>
+      </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>738</v>
+        <v>488</v>
       </c>
       <c r="B178" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="C178" t="s">
-        <v>746</v>
+        <v>494</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>747</v>
+        <v>495</v>
       </c>
       <c r="E178" t="s">
         <v>464</v>
       </c>
+      <c r="F178" t="s">
+        <v>1107</v>
+      </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>748</v>
+        <v>465</v>
       </c>
       <c r="B179" t="s">
-        <v>749</v>
+        <v>466</v>
       </c>
       <c r="C179" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>750</v>
+        <v>477</v>
       </c>
       <c r="E179" t="s">
         <v>464</v>
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="B180" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="C180" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="E180" t="s">
         <v>464</v>
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="B181" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="C181" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="E181" t="s">
         <v>464</v>
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="B182" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="C182" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="E182" t="s">
         <v>464</v>
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>748</v>
+        <v>478</v>
       </c>
       <c r="B183" t="s">
-        <v>749</v>
+        <v>479</v>
       </c>
       <c r="C183" t="s">
-        <v>756</v>
+        <v>486</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>757</v>
+        <v>487</v>
       </c>
       <c r="E183" t="s">
         <v>464</v>
@@ -13153,6 +13395,9 @@
       <c r="E196" t="s">
         <v>464</v>
       </c>
+      <c r="F196" t="s">
+        <v>984</v>
+      </c>
       <c r="G196"/>
     </row>
     <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -13171,6 +13416,9 @@
       <c r="E197" t="s">
         <v>464</v>
       </c>
+      <c r="F197" t="s">
+        <v>984</v>
+      </c>
       <c r="G197"/>
     </row>
     <row r="198" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -13189,6 +13437,9 @@
       <c r="E198" t="s">
         <v>464</v>
       </c>
+      <c r="F198" t="s">
+        <v>984</v>
+      </c>
       <c r="G198"/>
     </row>
     <row r="199" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -13207,6 +13458,9 @@
       <c r="E199" t="s">
         <v>464</v>
       </c>
+      <c r="F199" t="s">
+        <v>984</v>
+      </c>
       <c r="G199"/>
     </row>
     <row r="200" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -13425,97 +13679,100 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>783</v>
+        <v>704</v>
       </c>
       <c r="B212" t="s">
-        <v>784</v>
+        <v>705</v>
       </c>
       <c r="C212" t="s">
-        <v>462</v>
+        <v>716</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="E212" t="s">
         <v>464</v>
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>783</v>
+        <v>738</v>
       </c>
       <c r="B213" t="s">
-        <v>784</v>
+        <v>739</v>
       </c>
       <c r="C213" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="E213" t="s">
         <v>464</v>
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="C214" t="s">
-        <v>472</v>
+        <v>756</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="E214" t="s">
         <v>464</v>
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>783</v>
+        <v>704</v>
       </c>
       <c r="B215" t="s">
-        <v>784</v>
+        <v>705</v>
       </c>
       <c r="C215" t="s">
-        <v>789</v>
+        <v>718</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>790</v>
+        <v>719</v>
       </c>
       <c r="E215" t="s">
         <v>464</v>
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>783</v>
+        <v>720</v>
       </c>
       <c r="B216" t="s">
-        <v>784</v>
+        <v>721</v>
       </c>
       <c r="C216" t="s">
-        <v>484</v>
+        <v>736</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>791</v>
+        <v>737</v>
       </c>
       <c r="E216" t="s">
         <v>464</v>
       </c>
+      <c r="F216" s="9" t="s">
+        <v>1094</v>
+      </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>783</v>
       </c>
@@ -15204,7 +15461,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>687</v>
       </c>
@@ -15220,9 +15477,12 @@
       <c r="E308" t="s">
         <v>445</v>
       </c>
+      <c r="F308" t="s">
+        <v>1072</v>
+      </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>957</v>
       </c>
@@ -15238,9 +15498,12 @@
       <c r="E309" t="s">
         <v>445</v>
       </c>
+      <c r="F309" t="s">
+        <v>1073</v>
+      </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>441</v>
       </c>
@@ -15256,9 +15519,12 @@
       <c r="E310" t="s">
         <v>445</v>
       </c>
+      <c r="F310" t="s">
+        <v>1074</v>
+      </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>669</v>
       </c>
@@ -15274,9 +15540,12 @@
       <c r="E311" t="s">
         <v>445</v>
       </c>
+      <c r="F311" t="s">
+        <v>1075</v>
+      </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>669</v>
       </c>
@@ -15292,9 +15561,12 @@
       <c r="E312" t="s">
         <v>445</v>
       </c>
+      <c r="F312" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>687</v>
       </c>
@@ -15310,9 +15582,12 @@
       <c r="E313" t="s">
         <v>445</v>
       </c>
+      <c r="F313" t="s">
+        <v>1077</v>
+      </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>957</v>
       </c>
@@ -15328,9 +15603,12 @@
       <c r="E314" t="s">
         <v>445</v>
       </c>
+      <c r="F314" t="s">
+        <v>1078</v>
+      </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>441</v>
       </c>
@@ -15346,9 +15624,12 @@
       <c r="E315" t="s">
         <v>445</v>
       </c>
+      <c r="F315" s="3" t="s">
+        <v>1079</v>
+      </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>687</v>
       </c>
@@ -15364,9 +15645,12 @@
       <c r="E316" t="s">
         <v>445</v>
       </c>
+      <c r="F316" t="s">
+        <v>1080</v>
+      </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>953</v>
       </c>
@@ -15382,9 +15666,12 @@
       <c r="E317" t="s">
         <v>445</v>
       </c>
+      <c r="F317" t="s">
+        <v>1081</v>
+      </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>687</v>
       </c>
@@ -15400,9 +15687,12 @@
       <c r="E318" t="s">
         <v>445</v>
       </c>
+      <c r="F318" s="3" t="s">
+        <v>1082</v>
+      </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>687</v>
       </c>
@@ -15418,9 +15708,12 @@
       <c r="E319" t="s">
         <v>445</v>
       </c>
+      <c r="F319" t="s">
+        <v>1083</v>
+      </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>687</v>
       </c>
@@ -15436,9 +15729,12 @@
       <c r="E320" t="s">
         <v>445</v>
       </c>
+      <c r="F320" t="s">
+        <v>1084</v>
+      </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>968</v>
       </c>
@@ -15453,6 +15749,9 @@
       </c>
       <c r="E321" t="s">
         <v>445</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1085</v>
       </c>
       <c r="G321"/>
     </row>
@@ -15917,13 +16216,13 @@
   <autoFilter ref="A1:G345">
     <filterColumn colId="4">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
-    <sortState ref="A308:G321">
+    <sortState ref="A179:G217">
       <sortCondition ref="C8"/>
     </sortState>
   </autoFilter>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1111">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4977,7 +4977,16 @@
     <t>d4e9928</t>
   </si>
   <si>
-    <t>0a2055d</t>
+    <t>0a2055d
+factory test: 936f6d7</t>
+  </si>
+  <si>
+    <t>0a2055d
+factory test: 56069d2</t>
+  </si>
+  <si>
+    <t>0a2055d
+facbory test: 56069d2</t>
   </si>
 </sst>
 </file>
@@ -9672,20 +9681,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="F171" sqref="C167:F171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167:F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9709,7 +9719,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" t="s">
         <v>656</v>
       </c>
@@ -9727,7 +9737,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="28">
+    <row r="3" spans="1:7" ht="28" hidden="1">
       <c r="A3" t="s">
         <v>758</v>
       </c>
@@ -9745,7 +9755,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
         <v>990</v>
       </c>
@@ -9763,7 +9773,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="28">
+    <row r="5" spans="1:7" ht="28" hidden="1">
       <c r="A5" t="s">
         <v>991</v>
       </c>
@@ -9781,7 +9791,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="28">
+    <row r="6" spans="1:7" ht="28" hidden="1">
       <c r="A6" t="s">
         <v>992</v>
       </c>
@@ -9799,7 +9809,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="28">
+    <row r="7" spans="1:7" ht="28" hidden="1">
       <c r="A7" t="s">
         <v>991</v>
       </c>
@@ -9817,7 +9827,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="28">
+    <row r="8" spans="1:7" ht="28" hidden="1">
       <c r="A8" t="s">
         <v>990</v>
       </c>
@@ -9835,7 +9845,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="28">
+    <row r="9" spans="1:7" ht="28" hidden="1">
       <c r="A9" t="s">
         <v>656</v>
       </c>
@@ -9853,7 +9863,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="28">
+    <row r="10" spans="1:7" ht="28" hidden="1">
       <c r="A10" t="s">
         <v>818</v>
       </c>
@@ -9871,7 +9881,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="42">
+    <row r="11" spans="1:7" ht="42" hidden="1">
       <c r="A11" t="s">
         <v>758</v>
       </c>
@@ -9889,7 +9899,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="28">
+    <row r="12" spans="1:7" ht="28" hidden="1">
       <c r="A12" t="s">
         <v>656</v>
       </c>
@@ -9907,7 +9917,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="42">
+    <row r="13" spans="1:7" ht="42" hidden="1">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -9925,7 +9935,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="28">
+    <row r="14" spans="1:7" ht="28" hidden="1">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -9943,7 +9953,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="42">
+    <row r="15" spans="1:7" ht="42" hidden="1">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -9961,7 +9971,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="42">
+    <row r="16" spans="1:7" ht="42" hidden="1">
       <c r="A16" t="s">
         <v>450</v>
       </c>
@@ -9979,7 +9989,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="42">
+    <row r="17" spans="1:7" ht="42" hidden="1">
       <c r="A17" t="s">
         <v>450</v>
       </c>
@@ -9997,7 +10007,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="280">
+    <row r="18" spans="1:7" ht="280" hidden="1">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -10015,7 +10025,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -10033,7 +10043,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="28">
+    <row r="20" spans="1:7" ht="28" hidden="1">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -10051,7 +10061,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="28">
+    <row r="21" spans="1:7" ht="28" hidden="1">
       <c r="A21" t="s">
         <v>720</v>
       </c>
@@ -10069,7 +10079,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="28">
+    <row r="22" spans="1:7" ht="28" hidden="1">
       <c r="A22" t="s">
         <v>656</v>
       </c>
@@ -10087,7 +10097,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="28">
+    <row r="23" spans="1:7" ht="28" hidden="1">
       <c r="A23" t="s">
         <v>758</v>
       </c>
@@ -10105,7 +10115,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" t="s">
         <v>758</v>
       </c>
@@ -10123,7 +10133,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="28">
+    <row r="25" spans="1:7" ht="28" hidden="1">
       <c r="A25" t="s">
         <v>989</v>
       </c>
@@ -10141,7 +10151,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="28">
+    <row r="26" spans="1:7" ht="28" hidden="1">
       <c r="A26" t="s">
         <v>1041</v>
       </c>
@@ -10159,7 +10169,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="28">
+    <row r="27" spans="1:7" ht="28" hidden="1">
       <c r="A27" t="s">
         <v>1043</v>
       </c>
@@ -10177,7 +10187,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="28">
+    <row r="28" spans="1:7" ht="28" hidden="1">
       <c r="A28" t="s">
         <v>990</v>
       </c>
@@ -10198,7 +10208,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="28">
+    <row r="29" spans="1:7" ht="28" hidden="1">
       <c r="A29" t="s">
         <v>991</v>
       </c>
@@ -10219,7 +10229,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="84">
+    <row r="30" spans="1:7" ht="84" hidden="1">
       <c r="A30" t="s">
         <v>986</v>
       </c>
@@ -10239,7 +10249,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="126">
+    <row r="31" spans="1:7" ht="126" hidden="1">
       <c r="A31" t="s">
         <v>987</v>
       </c>
@@ -10259,7 +10269,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="70">
+    <row r="32" spans="1:7" ht="70" hidden="1">
       <c r="A32" t="s">
         <v>990</v>
       </c>
@@ -10277,7 +10287,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="70">
+    <row r="33" spans="1:7" ht="70" hidden="1">
       <c r="A33" t="s">
         <v>991</v>
       </c>
@@ -10295,7 +10305,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="140">
+    <row r="34" spans="1:7" ht="140" hidden="1">
       <c r="A34" t="s">
         <v>991</v>
       </c>
@@ -10316,7 +10326,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="98">
+    <row r="35" spans="1:7" ht="98" hidden="1">
       <c r="A35" t="s">
         <v>656</v>
       </c>
@@ -10336,7 +10346,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28">
+    <row r="36" spans="1:7" ht="28" hidden="1">
       <c r="A36" t="s">
         <v>758</v>
       </c>
@@ -10356,7 +10366,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28">
+    <row r="37" spans="1:7" ht="28" hidden="1">
       <c r="A37" t="s">
         <v>841</v>
       </c>
@@ -10376,7 +10386,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28">
+    <row r="38" spans="1:7" ht="28" hidden="1">
       <c r="A38" t="s">
         <v>1045</v>
       </c>
@@ -10394,7 +10404,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="210">
+    <row r="39" spans="1:7" ht="210" hidden="1">
       <c r="A39" t="s">
         <v>907</v>
       </c>
@@ -10414,7 +10424,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28">
+    <row r="40" spans="1:7" ht="28" hidden="1">
       <c r="A40" t="s">
         <v>986</v>
       </c>
@@ -10434,7 +10444,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
         <v>987</v>
       </c>
@@ -10454,7 +10464,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28">
+    <row r="42" spans="1:7" ht="28" hidden="1">
       <c r="A42" t="s">
         <v>988</v>
       </c>
@@ -10474,7 +10484,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
         <v>988</v>
       </c>
@@ -10494,7 +10504,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
         <v>656</v>
       </c>
@@ -10514,7 +10524,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
         <v>836</v>
       </c>
@@ -10534,7 +10544,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
         <v>841</v>
       </c>
@@ -10554,7 +10564,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42">
+    <row r="47" spans="1:7" ht="42" hidden="1">
       <c r="A47" t="s">
         <v>841</v>
       </c>
@@ -10574,7 +10584,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28">
+    <row r="48" spans="1:7" ht="28" hidden="1">
       <c r="A48" t="s">
         <v>930</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42">
+    <row r="49" spans="1:7" ht="42" hidden="1">
       <c r="A49" t="s">
         <v>987</v>
       </c>
@@ -10614,7 +10624,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28">
+    <row r="50" spans="1:7" ht="28" hidden="1">
       <c r="A50" t="s">
         <v>986</v>
       </c>
@@ -10634,7 +10644,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="42">
+    <row r="51" spans="1:7" ht="42" hidden="1">
       <c r="A51" t="s">
         <v>841</v>
       </c>
@@ -10654,7 +10664,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
         <v>930</v>
       </c>
@@ -10677,7 +10687,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="42">
+    <row r="53" spans="1:7" ht="42" hidden="1">
       <c r="A53" t="s">
         <v>758</v>
       </c>
@@ -10697,7 +10707,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28">
+    <row r="54" spans="1:7" ht="28" hidden="1">
       <c r="A54" t="s">
         <v>758</v>
       </c>
@@ -10717,7 +10727,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28">
+    <row r="55" spans="1:7" ht="28" hidden="1">
       <c r="A55" t="s">
         <v>758</v>
       </c>
@@ -10737,7 +10747,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="280">
+    <row r="56" spans="1:7" ht="280" hidden="1">
       <c r="A56" t="s">
         <v>841</v>
       </c>
@@ -10757,7 +10767,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="56">
+    <row r="57" spans="1:7" ht="56" hidden="1">
       <c r="A57" t="s">
         <v>836</v>
       </c>
@@ -10777,7 +10787,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="42">
+    <row r="58" spans="1:7" ht="42" hidden="1">
       <c r="A58" t="s">
         <v>841</v>
       </c>
@@ -10797,7 +10807,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="56">
+    <row r="59" spans="1:7" ht="56" hidden="1">
       <c r="A59" t="s">
         <v>841</v>
       </c>
@@ -10817,7 +10827,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="56">
+    <row r="60" spans="1:7" ht="56" hidden="1">
       <c r="A60" t="s">
         <v>907</v>
       </c>
@@ -10837,7 +10847,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28">
+    <row r="61" spans="1:7" ht="28" hidden="1">
       <c r="A61" t="s">
         <v>930</v>
       </c>
@@ -10857,7 +10867,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28">
+    <row r="62" spans="1:7" ht="28" hidden="1">
       <c r="A62" t="s">
         <v>930</v>
       </c>
@@ -10877,7 +10887,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="56">
+    <row r="63" spans="1:7" ht="56" hidden="1">
       <c r="A63" t="s">
         <v>907</v>
       </c>
@@ -10900,7 +10910,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="42">
+    <row r="64" spans="1:7" ht="42" hidden="1">
       <c r="A64" t="s">
         <v>841</v>
       </c>
@@ -10920,7 +10930,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28">
+    <row r="65" spans="1:7" ht="28" hidden="1">
       <c r="A65" t="s">
         <v>841</v>
       </c>
@@ -10940,7 +10950,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28">
+    <row r="66" spans="1:7" ht="28" hidden="1">
       <c r="A66" t="s">
         <v>841</v>
       </c>
@@ -10960,7 +10970,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28">
+    <row r="67" spans="1:7" ht="28" hidden="1">
       <c r="A67" t="s">
         <v>841</v>
       </c>
@@ -10980,7 +10990,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>930</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28">
+    <row r="69" spans="1:7" ht="28" hidden="1">
       <c r="A69" t="s">
         <v>953</v>
       </c>
@@ -11021,7 +11031,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" t="s">
         <v>957</v>
       </c>
@@ -11042,7 +11052,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" t="s">
         <v>963</v>
       </c>
@@ -11063,7 +11073,7 @@
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="28">
+    <row r="72" spans="1:7" ht="28" hidden="1">
       <c r="A72" t="s">
         <v>656</v>
       </c>
@@ -11084,7 +11094,7 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="28">
+    <row r="73" spans="1:7" ht="28" hidden="1">
       <c r="A73" t="s">
         <v>968</v>
       </c>
@@ -11105,7 +11115,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="70">
+    <row r="74" spans="1:7" ht="70" hidden="1">
       <c r="A74" t="s">
         <v>975</v>
       </c>
@@ -11126,7 +11136,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" t="s">
         <v>758</v>
       </c>
@@ -11147,7 +11157,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="28">
+    <row r="76" spans="1:7" ht="28" hidden="1">
       <c r="A76" t="s">
         <v>656</v>
       </c>
@@ -11168,7 +11178,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="28">
+    <row r="77" spans="1:7" ht="28" hidden="1">
       <c r="A77" t="s">
         <v>441</v>
       </c>
@@ -11189,7 +11199,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="28">
+    <row r="78" spans="1:7" ht="28" hidden="1">
       <c r="A78" t="s">
         <v>669</v>
       </c>
@@ -11210,7 +11220,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="28">
+    <row r="79" spans="1:7" ht="28" hidden="1">
       <c r="A79" t="s">
         <v>676</v>
       </c>
@@ -11231,7 +11241,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="28">
+    <row r="80" spans="1:7" ht="28" hidden="1">
       <c r="A80" t="s">
         <v>687</v>
       </c>
@@ -11252,7 +11262,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="70">
+    <row r="81" spans="1:7" ht="70" hidden="1">
       <c r="A81" t="s">
         <v>687</v>
       </c>
@@ -11273,7 +11283,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="28">
+    <row r="82" spans="1:7" ht="28" hidden="1">
       <c r="A82" t="s">
         <v>968</v>
       </c>
@@ -11294,7 +11304,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="28">
+    <row r="83" spans="1:7" ht="28" hidden="1">
       <c r="A83" t="s">
         <v>975</v>
       </c>
@@ -11315,7 +11325,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="28">
+    <row r="84" spans="1:7" ht="28" hidden="1">
       <c r="A84" t="s">
         <v>676</v>
       </c>
@@ -11336,7 +11346,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="70">
+    <row r="85" spans="1:7" ht="70" hidden="1">
       <c r="A85" t="s">
         <v>687</v>
       </c>
@@ -11357,7 +11367,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="28">
+    <row r="86" spans="1:7" ht="28" hidden="1">
       <c r="A86" t="s">
         <v>963</v>
       </c>
@@ -11378,7 +11388,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="28">
+    <row r="87" spans="1:7" ht="28" hidden="1">
       <c r="A87" t="s">
         <v>968</v>
       </c>
@@ -11399,7 +11409,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="28">
+    <row r="88" spans="1:7" ht="28" hidden="1">
       <c r="A88" t="s">
         <v>676</v>
       </c>
@@ -11420,7 +11430,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="28">
+    <row r="89" spans="1:7" ht="28" hidden="1">
       <c r="A89" t="s">
         <v>687</v>
       </c>
@@ -11441,7 +11451,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="28">
+    <row r="90" spans="1:7" ht="28" hidden="1">
       <c r="A90" t="s">
         <v>963</v>
       </c>
@@ -11462,7 +11472,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="28">
+    <row r="91" spans="1:7" ht="28" hidden="1">
       <c r="A91" t="s">
         <v>968</v>
       </c>
@@ -11483,7 +11493,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="28">
+    <row r="92" spans="1:7" ht="28" hidden="1">
       <c r="A92" t="s">
         <v>758</v>
       </c>
@@ -11504,7 +11514,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="28">
+    <row r="93" spans="1:7" ht="28" hidden="1">
       <c r="A93" t="s">
         <v>758</v>
       </c>
@@ -11525,7 +11535,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="28">
+    <row r="94" spans="1:7" ht="28" hidden="1">
       <c r="A94" t="s">
         <v>758</v>
       </c>
@@ -11546,7 +11556,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="28">
+    <row r="95" spans="1:7" ht="28" hidden="1">
       <c r="A95" t="s">
         <v>676</v>
       </c>
@@ -11567,7 +11577,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="28">
+    <row r="96" spans="1:7" ht="28" hidden="1">
       <c r="A96" t="s">
         <v>676</v>
       </c>
@@ -11588,7 +11598,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" t="s">
         <v>687</v>
       </c>
@@ -11609,7 +11619,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="126">
+    <row r="98" spans="1:7" ht="126" hidden="1">
       <c r="A98" t="s">
         <v>957</v>
       </c>
@@ -11630,7 +11640,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="28">
+    <row r="99" spans="1:7" ht="28" hidden="1">
       <c r="A99" t="s">
         <v>441</v>
       </c>
@@ -11651,7 +11661,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="28">
+    <row r="100" spans="1:7" ht="28" hidden="1">
       <c r="A100" t="s">
         <v>669</v>
       </c>
@@ -11672,7 +11682,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="28">
+    <row r="101" spans="1:7" ht="28" hidden="1">
       <c r="A101" t="s">
         <v>669</v>
       </c>
@@ -11693,7 +11703,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="28">
+    <row r="102" spans="1:7" ht="28" hidden="1">
       <c r="A102" t="s">
         <v>687</v>
       </c>
@@ -11714,7 +11724,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" t="s">
         <v>957</v>
       </c>
@@ -11735,7 +11745,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="126">
+    <row r="104" spans="1:7" ht="126" hidden="1">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -11756,7 +11766,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="28">
+    <row r="105" spans="1:7" ht="28" hidden="1">
       <c r="A105" t="s">
         <v>687</v>
       </c>
@@ -11777,7 +11787,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" t="s">
         <v>953</v>
       </c>
@@ -11798,7 +11808,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="28">
+    <row r="107" spans="1:7" ht="28" hidden="1">
       <c r="A107" t="s">
         <v>687</v>
       </c>
@@ -11819,7 +11829,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>687</v>
       </c>
@@ -11840,7 +11850,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>687</v>
       </c>
@@ -11861,7 +11871,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="28">
+    <row r="110" spans="1:7" ht="28" hidden="1">
       <c r="A110" t="s">
         <v>968</v>
       </c>
@@ -11882,7 +11892,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="28">
+    <row r="111" spans="1:7" ht="28" hidden="1">
       <c r="A111" t="s">
         <v>656</v>
       </c>
@@ -11903,7 +11913,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="28">
+    <row r="112" spans="1:7" ht="28" hidden="1">
       <c r="A112" t="s">
         <v>758</v>
       </c>
@@ -11924,7 +11934,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" t="s">
         <v>450</v>
       </c>
@@ -11945,7 +11955,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" ht="28">
+    <row r="114" spans="1:7" ht="28" hidden="1">
       <c r="A114" t="s">
         <v>465</v>
       </c>
@@ -11968,7 +11978,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" t="s">
         <v>478</v>
       </c>
@@ -11991,7 +12001,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -12012,7 +12022,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" ht="28">
+    <row r="117" spans="1:7" ht="28" hidden="1">
       <c r="A117" t="s">
         <v>656</v>
       </c>
@@ -12033,7 +12043,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" ht="28">
+    <row r="118" spans="1:7" ht="28" hidden="1">
       <c r="A118" t="s">
         <v>704</v>
       </c>
@@ -12054,7 +12064,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" ht="28">
+    <row r="119" spans="1:7" ht="28" hidden="1">
       <c r="A119" t="s">
         <v>720</v>
       </c>
@@ -12077,7 +12087,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28">
+    <row r="120" spans="1:7" ht="28" hidden="1">
       <c r="A120" t="s">
         <v>738</v>
       </c>
@@ -12098,7 +12108,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" ht="28">
+    <row r="121" spans="1:7" ht="28" hidden="1">
       <c r="A121" t="s">
         <v>748</v>
       </c>
@@ -12119,7 +12129,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" t="s">
         <v>783</v>
       </c>
@@ -12140,7 +12150,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" t="s">
         <v>465</v>
       </c>
@@ -12161,7 +12171,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" ht="28">
+    <row r="124" spans="1:7" ht="28" hidden="1">
       <c r="A124" t="s">
         <v>783</v>
       </c>
@@ -12182,7 +12192,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" t="s">
         <v>758</v>
       </c>
@@ -12203,7 +12213,7 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" t="s">
         <v>758</v>
       </c>
@@ -12224,7 +12234,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" t="s">
         <v>758</v>
       </c>
@@ -12245,7 +12255,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" t="s">
         <v>465</v>
       </c>
@@ -12266,7 +12276,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" ht="98">
+    <row r="129" spans="1:7" ht="98" hidden="1">
       <c r="A129" t="s">
         <v>720</v>
       </c>
@@ -12287,7 +12297,7 @@
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" t="s">
         <v>720</v>
       </c>
@@ -12308,7 +12318,7 @@
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" t="s">
         <v>465</v>
       </c>
@@ -12329,7 +12339,7 @@
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" ht="98">
+    <row r="132" spans="1:7" ht="98" hidden="1">
       <c r="A132" t="s">
         <v>478</v>
       </c>
@@ -12350,7 +12360,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -12371,7 +12381,7 @@
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" t="s">
         <v>704</v>
       </c>
@@ -12392,7 +12402,7 @@
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" t="s">
         <v>720</v>
       </c>
@@ -12413,7 +12423,7 @@
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" t="s">
         <v>738</v>
       </c>
@@ -12434,7 +12444,7 @@
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" t="s">
         <v>748</v>
       </c>
@@ -12455,7 +12465,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="28">
+    <row r="138" spans="1:7" ht="28" hidden="1">
       <c r="A138" t="s">
         <v>783</v>
       </c>
@@ -12476,7 +12486,7 @@
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" ht="28">
+    <row r="139" spans="1:7" ht="28" hidden="1">
       <c r="A139" t="s">
         <v>720</v>
       </c>
@@ -12497,7 +12507,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" ht="28">
+    <row r="140" spans="1:7" ht="28" hidden="1">
       <c r="A140" t="s">
         <v>704</v>
       </c>
@@ -12518,7 +12528,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" ht="28">
+    <row r="141" spans="1:7" ht="28" hidden="1">
       <c r="A141" t="s">
         <v>465</v>
       </c>
@@ -12539,7 +12549,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" ht="28">
+    <row r="142" spans="1:7" ht="28" hidden="1">
       <c r="A142" t="s">
         <v>704</v>
       </c>
@@ -12562,7 +12572,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="28">
+    <row r="143" spans="1:7" ht="28" hidden="1">
       <c r="A143" t="s">
         <v>720</v>
       </c>
@@ -12585,7 +12595,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="28">
+    <row r="144" spans="1:7" ht="28" hidden="1">
       <c r="A144" t="s">
         <v>738</v>
       </c>
@@ -12606,7 +12616,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="28">
+    <row r="145" spans="1:7" ht="28" hidden="1">
       <c r="A145" t="s">
         <v>738</v>
       </c>
@@ -12627,7 +12637,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="28">
+    <row r="146" spans="1:7" ht="28" hidden="1">
       <c r="A146" t="s">
         <v>704</v>
       </c>
@@ -12648,7 +12658,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="28">
+    <row r="147" spans="1:7" ht="28" hidden="1">
       <c r="A147" t="s">
         <v>748</v>
       </c>
@@ -12669,7 +12679,7 @@
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" ht="28">
+    <row r="148" spans="1:7" ht="28" hidden="1">
       <c r="A148" t="s">
         <v>748</v>
       </c>
@@ -12690,7 +12700,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" ht="28">
+    <row r="149" spans="1:7" ht="28" hidden="1">
       <c r="A149" t="s">
         <v>783</v>
       </c>
@@ -12711,7 +12721,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" ht="28">
+    <row r="150" spans="1:7" ht="28" hidden="1">
       <c r="A150" t="s">
         <v>478</v>
       </c>
@@ -12732,7 +12742,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="42">
+    <row r="151" spans="1:7" ht="42" hidden="1">
       <c r="A151" t="s">
         <v>488</v>
       </c>
@@ -12753,7 +12763,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="42">
+    <row r="152" spans="1:7" ht="42" hidden="1">
       <c r="A152" t="s">
         <v>478</v>
       </c>
@@ -12774,7 +12784,7 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" ht="42">
+    <row r="153" spans="1:7" ht="42" hidden="1">
       <c r="A153" t="s">
         <v>488</v>
       </c>
@@ -12795,7 +12805,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="42">
+    <row r="154" spans="1:7" ht="42" hidden="1">
       <c r="A154" t="s">
         <v>783</v>
       </c>
@@ -12816,7 +12826,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="378">
+    <row r="155" spans="1:7" ht="378" hidden="1">
       <c r="A155" t="s">
         <v>488</v>
       </c>
@@ -12837,7 +12847,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="112">
+    <row r="156" spans="1:7" ht="112" hidden="1">
       <c r="A156" t="s">
         <v>465</v>
       </c>
@@ -12855,7 +12865,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="126">
+    <row r="157" spans="1:7" ht="126" hidden="1">
       <c r="A157" t="s">
         <v>720</v>
       </c>
@@ -12873,7 +12883,7 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="140">
+    <row r="158" spans="1:7" ht="140" hidden="1">
       <c r="A158" t="s">
         <v>704</v>
       </c>
@@ -12891,7 +12901,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="140">
+    <row r="159" spans="1:7" ht="140" hidden="1">
       <c r="A159" t="s">
         <v>720</v>
       </c>
@@ -12909,7 +12919,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="112">
+    <row r="160" spans="1:7" ht="112" hidden="1">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -12927,7 +12937,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="28">
+    <row r="161" spans="1:7" ht="28" hidden="1">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -12945,7 +12955,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="28">
+    <row r="162" spans="1:7" ht="28" hidden="1">
       <c r="A162" t="s">
         <v>738</v>
       </c>
@@ -12963,7 +12973,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="28">
+    <row r="163" spans="1:7" ht="28" hidden="1">
       <c r="A163" t="s">
         <v>748</v>
       </c>
@@ -12981,7 +12991,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" ht="70">
+    <row r="164" spans="1:7" ht="70" hidden="1">
       <c r="A164" t="s">
         <v>704</v>
       </c>
@@ -12999,7 +13009,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" t="s">
         <v>720</v>
       </c>
@@ -13020,7 +13030,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="28">
+    <row r="166" spans="1:7" ht="28" hidden="1">
       <c r="A166" t="s">
         <v>783</v>
       </c>
@@ -13054,7 +13064,7 @@
       <c r="E167" t="s">
         <v>500</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="G167"/>
@@ -13075,8 +13085,8 @@
       <c r="E168" t="s">
         <v>500</v>
       </c>
-      <c r="F168" t="s">
-        <v>1108</v>
+      <c r="F168" s="1" t="s">
+        <v>1110</v>
       </c>
       <c r="G168"/>
     </row>
@@ -13122,7 +13132,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" ht="28">
+    <row r="171" spans="1:7" ht="42" customHeight="1">
       <c r="A171" t="s">
         <v>794</v>
       </c>
@@ -13138,8 +13148,8 @@
       <c r="E171" t="s">
         <v>500</v>
       </c>
-      <c r="F171" t="s">
-        <v>1108</v>
+      <c r="F171" s="1" t="s">
+        <v>1109</v>
       </c>
       <c r="G171"/>
     </row>
@@ -14367,7 +14377,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" ht="42">
+    <row r="240" spans="1:7" ht="42" hidden="1">
       <c r="A240" t="s">
         <v>656</v>
       </c>
@@ -14385,7 +14395,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="42">
+    <row r="241" spans="1:7" ht="42" hidden="1">
       <c r="A241" t="s">
         <v>758</v>
       </c>
@@ -14403,7 +14413,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" t="s">
         <v>886</v>
       </c>
@@ -14421,7 +14431,7 @@
       </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" ht="28">
+    <row r="243" spans="1:7" ht="28" hidden="1">
       <c r="A243" t="s">
         <v>561</v>
       </c>
@@ -14439,7 +14449,7 @@
       </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" t="s">
         <v>656</v>
       </c>
@@ -14457,7 +14467,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="42">
+    <row r="245" spans="1:7" ht="42" hidden="1">
       <c r="A245" t="s">
         <v>891</v>
       </c>
@@ -14475,7 +14485,7 @@
       </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" ht="28">
+    <row r="246" spans="1:7" ht="28" hidden="1">
       <c r="A246" t="s">
         <v>897</v>
       </c>
@@ -14493,7 +14503,7 @@
       </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" ht="28">
+    <row r="247" spans="1:7" ht="28" hidden="1">
       <c r="A247" t="s">
         <v>903</v>
       </c>
@@ -14511,7 +14521,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" ht="98">
+    <row r="248" spans="1:7" ht="98" hidden="1">
       <c r="A248" t="s">
         <v>561</v>
       </c>
@@ -14529,7 +14539,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="28">
+    <row r="249" spans="1:7" ht="28" hidden="1">
       <c r="A249" t="s">
         <v>561</v>
       </c>
@@ -14547,7 +14557,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" ht="28">
+    <row r="250" spans="1:7" ht="28" hidden="1">
       <c r="A250" t="s">
         <v>561</v>
       </c>
@@ -14565,7 +14575,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" t="s">
         <v>758</v>
       </c>
@@ -14583,7 +14593,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" ht="28">
+    <row r="252" spans="1:7" ht="28" hidden="1">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -14601,7 +14611,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253" t="s">
         <v>758</v>
       </c>
@@ -14619,7 +14629,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" ht="56">
+    <row r="254" spans="1:7" ht="56" hidden="1">
       <c r="A254" t="s">
         <v>561</v>
       </c>
@@ -14637,7 +14647,7 @@
       </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" ht="28">
+    <row r="255" spans="1:7" ht="28" hidden="1">
       <c r="A255" t="s">
         <v>561</v>
       </c>
@@ -14655,7 +14665,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="42">
+    <row r="256" spans="1:7" ht="42" hidden="1">
       <c r="A256" t="s">
         <v>561</v>
       </c>
@@ -14673,7 +14683,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="28">
+    <row r="257" spans="1:7" ht="28" hidden="1">
       <c r="A257" t="s">
         <v>891</v>
       </c>
@@ -14691,7 +14701,7 @@
       </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" ht="28">
+    <row r="258" spans="1:7" ht="28" hidden="1">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -14709,7 +14719,7 @@
       </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" ht="28">
+    <row r="259" spans="1:7" ht="28" hidden="1">
       <c r="A259" t="s">
         <v>903</v>
       </c>
@@ -14727,7 +14737,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="28">
+    <row r="260" spans="1:7" ht="28" hidden="1">
       <c r="A260" t="s">
         <v>891</v>
       </c>
@@ -14745,7 +14755,7 @@
       </c>
       <c r="G260"/>
     </row>
-    <row r="261" spans="1:7" ht="266">
+    <row r="261" spans="1:7" ht="266" hidden="1">
       <c r="A261" t="s">
         <v>561</v>
       </c>
@@ -14763,7 +14773,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" ht="42">
+    <row r="262" spans="1:7" ht="42" hidden="1">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -14781,7 +14791,7 @@
       </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" ht="42">
+    <row r="263" spans="1:7" ht="42" hidden="1">
       <c r="A263" t="s">
         <v>886</v>
       </c>
@@ -14799,7 +14809,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="28">
+    <row r="264" spans="1:7" ht="28" hidden="1">
       <c r="A264" t="s">
         <v>897</v>
       </c>
@@ -14817,7 +14827,7 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" ht="28">
+    <row r="265" spans="1:7" ht="28" hidden="1">
       <c r="A265" t="s">
         <v>582</v>
       </c>
@@ -14835,7 +14845,7 @@
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" ht="28">
+    <row r="266" spans="1:7" ht="28" hidden="1">
       <c r="A266" t="s">
         <v>588</v>
       </c>
@@ -14853,7 +14863,7 @@
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" ht="28">
+    <row r="267" spans="1:7" ht="28" hidden="1">
       <c r="A267" t="s">
         <v>600</v>
       </c>
@@ -14871,7 +14881,7 @@
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" ht="28">
+    <row r="268" spans="1:7" ht="28" hidden="1">
       <c r="A268" t="s">
         <v>603</v>
       </c>
@@ -14889,7 +14899,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="42">
+    <row r="269" spans="1:7" ht="42" hidden="1">
       <c r="A269" t="s">
         <v>606</v>
       </c>
@@ -14907,7 +14917,7 @@
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" ht="28">
+    <row r="270" spans="1:7" ht="28" hidden="1">
       <c r="A270" t="s">
         <v>613</v>
       </c>
@@ -14925,7 +14935,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="42">
+    <row r="271" spans="1:7" ht="42" hidden="1">
       <c r="A271" t="s">
         <v>630</v>
       </c>
@@ -14943,7 +14953,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" ht="112">
+    <row r="272" spans="1:7" ht="112" hidden="1">
       <c r="A272" t="s">
         <v>650</v>
       </c>
@@ -14961,7 +14971,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" ht="28">
+    <row r="273" spans="1:7" ht="28" hidden="1">
       <c r="A273" t="s">
         <v>656</v>
       </c>
@@ -14979,7 +14989,7 @@
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" ht="28">
+    <row r="274" spans="1:7" ht="28" hidden="1">
       <c r="A274" t="s">
         <v>758</v>
       </c>
@@ -14997,7 +15007,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="42">
+    <row r="275" spans="1:7" ht="42" hidden="1">
       <c r="A275" t="s">
         <v>913</v>
       </c>
@@ -15015,7 +15025,7 @@
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" ht="28">
+    <row r="276" spans="1:7" ht="28" hidden="1">
       <c r="A276" t="s">
         <v>924</v>
       </c>
@@ -15033,7 +15043,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" ht="28">
+    <row r="277" spans="1:7" ht="28" hidden="1">
       <c r="A277" t="s">
         <v>432</v>
       </c>
@@ -15051,7 +15061,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" ht="28">
+    <row r="278" spans="1:7" ht="28" hidden="1">
       <c r="A278" t="s">
         <v>438</v>
       </c>
@@ -15069,7 +15079,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" ht="28">
+    <row r="279" spans="1:7" ht="28" hidden="1">
       <c r="A279" t="s">
         <v>613</v>
       </c>
@@ -15087,7 +15097,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="42">
+    <row r="280" spans="1:7" ht="42" hidden="1">
       <c r="A280" t="s">
         <v>653</v>
       </c>
@@ -15105,7 +15115,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" ht="28">
+    <row r="281" spans="1:7" ht="28" hidden="1">
       <c r="A281" t="s">
         <v>656</v>
       </c>
@@ -15123,7 +15133,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="98">
+    <row r="282" spans="1:7" ht="98" hidden="1">
       <c r="A282" t="s">
         <v>938</v>
       </c>
@@ -15141,7 +15151,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="56">
+    <row r="283" spans="1:7" ht="56" hidden="1">
       <c r="A283" t="s">
         <v>941</v>
       </c>
@@ -15159,7 +15169,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="70">
+    <row r="284" spans="1:7" ht="70" hidden="1">
       <c r="A284" t="s">
         <v>913</v>
       </c>
@@ -15177,7 +15187,7 @@
       </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" ht="28">
+    <row r="285" spans="1:7" ht="28" hidden="1">
       <c r="A285" t="s">
         <v>613</v>
       </c>
@@ -15195,7 +15205,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="98">
+    <row r="286" spans="1:7" ht="98" hidden="1">
       <c r="A286" t="s">
         <v>613</v>
       </c>
@@ -15213,7 +15223,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" ht="56">
+    <row r="287" spans="1:7" ht="56" hidden="1">
       <c r="A287" t="s">
         <v>630</v>
       </c>
@@ -15231,7 +15241,7 @@
       </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" ht="28">
+    <row r="288" spans="1:7" ht="28" hidden="1">
       <c r="A288" t="s">
         <v>630</v>
       </c>
@@ -15249,7 +15259,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" ht="28">
+    <row r="289" spans="1:7" ht="28" hidden="1">
       <c r="A289" t="s">
         <v>630</v>
       </c>
@@ -15267,7 +15277,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" ht="28">
+    <row r="290" spans="1:7" ht="28" hidden="1">
       <c r="A290" t="s">
         <v>588</v>
       </c>
@@ -15285,7 +15295,7 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" ht="28">
+    <row r="291" spans="1:7" ht="28" hidden="1">
       <c r="A291" t="s">
         <v>758</v>
       </c>
@@ -15303,7 +15313,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" t="s">
         <v>588</v>
       </c>
@@ -15321,7 +15331,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" ht="56">
+    <row r="293" spans="1:7" ht="56" hidden="1">
       <c r="A293" t="s">
         <v>758</v>
       </c>
@@ -15339,7 +15349,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" t="s">
         <v>588</v>
       </c>
@@ -15357,7 +15367,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="28">
+    <row r="295" spans="1:7" ht="28" hidden="1">
       <c r="A295" t="s">
         <v>758</v>
       </c>
@@ -15375,7 +15385,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" hidden="1">
       <c r="A296" t="s">
         <v>913</v>
       </c>
@@ -15393,7 +15403,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" ht="28">
+    <row r="297" spans="1:7" ht="28" hidden="1">
       <c r="A297" t="s">
         <v>630</v>
       </c>
@@ -15411,7 +15421,7 @@
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" ht="28">
+    <row r="298" spans="1:7" ht="28" hidden="1">
       <c r="A298" t="s">
         <v>432</v>
       </c>
@@ -15429,7 +15439,7 @@
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" ht="28">
+    <row r="299" spans="1:7" ht="28" hidden="1">
       <c r="A299" t="s">
         <v>438</v>
       </c>
@@ -15447,7 +15457,7 @@
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" ht="84">
+    <row r="300" spans="1:7" ht="84" hidden="1">
       <c r="A300" t="s">
         <v>941</v>
       </c>
@@ -15465,7 +15475,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="42">
+    <row r="301" spans="1:7" ht="42" hidden="1">
       <c r="A301" t="s">
         <v>630</v>
       </c>
@@ -15483,7 +15493,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" ht="28">
+    <row r="302" spans="1:7" ht="28" hidden="1">
       <c r="A302" t="s">
         <v>941</v>
       </c>
@@ -15501,7 +15511,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="28">
+    <row r="303" spans="1:7" ht="28" hidden="1">
       <c r="A303" t="s">
         <v>941</v>
       </c>
@@ -15519,7 +15529,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" ht="84">
+    <row r="304" spans="1:7" ht="84" hidden="1">
       <c r="A304" t="s">
         <v>613</v>
       </c>
@@ -15537,7 +15547,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="42">
+    <row r="305" spans="1:7" ht="42" hidden="1">
       <c r="A305" t="s">
         <v>613</v>
       </c>
@@ -15555,7 +15565,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" ht="28">
+    <row r="306" spans="1:7" ht="28" hidden="1">
       <c r="A306" t="s">
         <v>913</v>
       </c>
@@ -15573,7 +15583,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="154">
+    <row r="307" spans="1:7" ht="154" hidden="1">
       <c r="A307" t="s">
         <v>924</v>
       </c>
@@ -15591,7 +15601,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" ht="238">
+    <row r="308" spans="1:7" ht="238" hidden="1">
       <c r="A308" t="s">
         <v>432</v>
       </c>
@@ -15609,7 +15619,7 @@
       </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" ht="28">
+    <row r="309" spans="1:7" ht="28" hidden="1">
       <c r="A309" t="s">
         <v>606</v>
       </c>
@@ -15627,7 +15637,7 @@
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="28">
+    <row r="310" spans="1:7" ht="28" hidden="1">
       <c r="A310" t="s">
         <v>438</v>
       </c>
@@ -15645,7 +15655,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" t="s">
         <v>582</v>
       </c>
@@ -15663,7 +15673,7 @@
       </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" ht="28">
+    <row r="312" spans="1:7" ht="28" hidden="1">
       <c r="A312" t="s">
         <v>588</v>
       </c>
@@ -15681,7 +15691,7 @@
       </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" ht="28">
+    <row r="313" spans="1:7" ht="28" hidden="1">
       <c r="A313" t="s">
         <v>600</v>
       </c>
@@ -15699,7 +15709,7 @@
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" t="s">
         <v>606</v>
       </c>
@@ -15717,7 +15727,7 @@
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="42">
+    <row r="315" spans="1:7" ht="42" hidden="1">
       <c r="A315" t="s">
         <v>613</v>
       </c>
@@ -15735,7 +15745,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="126">
+    <row r="316" spans="1:7" ht="126" hidden="1">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -15753,7 +15763,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" t="s">
         <v>650</v>
       </c>
@@ -15771,7 +15781,7 @@
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="56">
+    <row r="318" spans="1:7" ht="56" hidden="1">
       <c r="A318" t="s">
         <v>913</v>
       </c>
@@ -15789,7 +15799,7 @@
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="28">
+    <row r="319" spans="1:7" ht="28" hidden="1">
       <c r="A319" t="s">
         <v>924</v>
       </c>
@@ -15807,7 +15817,7 @@
       </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" ht="28">
+    <row r="320" spans="1:7" ht="28" hidden="1">
       <c r="A320" t="s">
         <v>613</v>
       </c>
@@ -15825,7 +15835,7 @@
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" hidden="1">
       <c r="A321" t="s">
         <v>653</v>
       </c>
@@ -15843,7 +15853,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" t="s">
         <v>938</v>
       </c>
@@ -15861,7 +15871,7 @@
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" ht="28">
+    <row r="323" spans="1:7" ht="28" hidden="1">
       <c r="A323" t="s">
         <v>941</v>
       </c>
@@ -15879,7 +15889,7 @@
       </c>
       <c r="G323"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" t="s">
         <v>1043</v>
       </c>
@@ -15897,7 +15907,7 @@
       </c>
       <c r="G324"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" hidden="1">
       <c r="A325" t="s">
         <v>1041</v>
       </c>
@@ -15915,7 +15925,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" t="s">
         <v>913</v>
       </c>
@@ -15933,7 +15943,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" hidden="1">
       <c r="A327" t="s">
         <v>613</v>
       </c>
@@ -15951,7 +15961,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" hidden="1">
       <c r="A328" t="s">
         <v>613</v>
       </c>
@@ -15969,7 +15979,7 @@
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" hidden="1">
       <c r="A329" t="s">
         <v>630</v>
       </c>
@@ -15987,7 +15997,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="56">
+    <row r="330" spans="1:7" ht="56" hidden="1">
       <c r="A330" t="s">
         <v>630</v>
       </c>
@@ -16005,7 +16015,7 @@
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" hidden="1">
       <c r="A331" t="s">
         <v>630</v>
       </c>
@@ -16023,7 +16033,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" hidden="1">
       <c r="A332" t="s">
         <v>588</v>
       </c>
@@ -16041,7 +16051,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" hidden="1">
       <c r="A333" t="s">
         <v>588</v>
       </c>
@@ -16059,7 +16069,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" hidden="1">
       <c r="A334" t="s">
         <v>588</v>
       </c>
@@ -16077,7 +16087,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335" t="s">
         <v>913</v>
       </c>
@@ -16095,7 +16105,7 @@
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1">
       <c r="A336" t="s">
         <v>630</v>
       </c>
@@ -16113,7 +16123,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" hidden="1">
       <c r="A337" t="s">
         <v>941</v>
       </c>
@@ -16131,7 +16141,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338" t="s">
         <v>630</v>
       </c>
@@ -16149,7 +16159,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339" t="s">
         <v>941</v>
       </c>
@@ -16167,7 +16177,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1">
       <c r="A340" t="s">
         <v>941</v>
       </c>
@@ -16185,7 +16195,7 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1">
       <c r="A341" t="s">
         <v>613</v>
       </c>
@@ -16203,7 +16213,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1">
       <c r="A342" t="s">
         <v>613</v>
       </c>
@@ -16221,7 +16231,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1">
       <c r="A343" t="s">
         <v>924</v>
       </c>
@@ -16239,7 +16249,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1">
       <c r="A344" t="s">
         <v>606</v>
       </c>
@@ -16257,7 +16267,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1">
       <c r="A345" t="s">
         <v>630</v>
       </c>
@@ -16277,6 +16287,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G345">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G345">
       <sortCondition ref="C1:C345"/>
     </sortState>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1112">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4987,6 +4987,10 @@
   <si>
     <t>0a2055d
 facbory test: 56069d2</t>
+  </si>
+  <si>
+    <t>factory test: ba41427
+todo: account for it being optional</t>
   </si>
 </sst>
 </file>
@@ -9685,7 +9689,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167:F171"/>
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9695,7 +9699,7 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13186,6 +13190,9 @@
       </c>
       <c r="E173" t="s">
         <v>500</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>1111</v>
       </c>
       <c r="G173"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="1113">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4991,6 +4991,9 @@
   <si>
     <t>factory test: ba41427
 todo: account for it being optional</t>
+  </si>
+  <si>
+    <t>factory test: 635c756</t>
   </si>
 </sst>
 </file>
@@ -9689,7 +9692,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13211,6 +13214,9 @@
       </c>
       <c r="E174" t="s">
         <v>500</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1112</v>
       </c>
       <c r="G174"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="1114">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4994,6 +4994,9 @@
   </si>
   <si>
     <t>factory test: 635c756</t>
+  </si>
+  <si>
+    <t>factory test: d6eda9f</t>
   </si>
 </sst>
 </file>
@@ -9692,7 +9695,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+      <selection activeCell="F175" sqref="A175:F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13220,7 +13223,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="42">
+    <row r="175" spans="1:7" ht="28">
       <c r="A175" t="s">
         <v>536</v>
       </c>
@@ -13235,6 +13238,9 @@
       </c>
       <c r="E175" t="s">
         <v>500</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>1113</v>
       </c>
       <c r="G175"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1115">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -4997,6 +4997,9 @@
   </si>
   <si>
     <t>factory test: d6eda9f</t>
+  </si>
+  <si>
+    <t>factory test:  92ef219</t>
   </si>
 </sst>
 </file>
@@ -9695,7 +9698,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F175" sqref="A175:F175"/>
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9783,7 +9786,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="28" hidden="1">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
         <v>991</v>
       </c>
@@ -9801,7 +9804,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="28" hidden="1">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>992</v>
       </c>
@@ -9819,7 +9822,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="28" hidden="1">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>991</v>
       </c>
@@ -9837,7 +9840,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="28" hidden="1">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>990</v>
       </c>
@@ -9855,7 +9858,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="28" hidden="1">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
         <v>656</v>
       </c>
@@ -9981,7 +9984,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="42" hidden="1">
+    <row r="16" spans="1:7" ht="28" hidden="1">
       <c r="A16" t="s">
         <v>450</v>
       </c>
@@ -10017,7 +10020,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="280" hidden="1">
+    <row r="18" spans="1:7" ht="42" hidden="1">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -10035,7 +10038,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7" ht="42" hidden="1">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -10053,7 +10056,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="28" hidden="1">
+    <row r="20" spans="1:7" ht="280" hidden="1">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -10071,7 +10074,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="28" hidden="1">
+    <row r="21" spans="1:7" ht="70" hidden="1">
       <c r="A21" t="s">
         <v>720</v>
       </c>
@@ -10089,7 +10092,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="28" hidden="1">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
         <v>656</v>
       </c>
@@ -10161,7 +10164,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="28" hidden="1">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
         <v>1041</v>
       </c>
@@ -10179,7 +10182,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="28" hidden="1">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>1043</v>
       </c>
@@ -10197,7 +10200,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="28" hidden="1">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>990</v>
       </c>
@@ -10218,7 +10221,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="28" hidden="1">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
         <v>991</v>
       </c>
@@ -10239,7 +10242,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="84" hidden="1">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>986</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="126" hidden="1">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>987</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="70" hidden="1">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
         <v>990</v>
       </c>
@@ -10297,7 +10300,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="70" hidden="1">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
         <v>991</v>
       </c>
@@ -10315,7 +10318,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="140" hidden="1">
+    <row r="34" spans="1:7" ht="56" hidden="1">
       <c r="A34" t="s">
         <v>991</v>
       </c>
@@ -10336,7 +10339,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="98" hidden="1">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
         <v>656</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28" hidden="1">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>841</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28" hidden="1">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>1045</v>
       </c>
@@ -10414,7 +10417,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="210" hidden="1">
+    <row r="39" spans="1:7" ht="28" hidden="1">
       <c r="A39" t="s">
         <v>907</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28" hidden="1">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
         <v>986</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28" hidden="1">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>988</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42" hidden="1">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
         <v>841</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28" hidden="1">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" t="s">
         <v>930</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42" hidden="1">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
         <v>987</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28" hidden="1">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
         <v>986</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7" ht="56" hidden="1">
       <c r="A52" t="s">
         <v>930</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="42" hidden="1">
+    <row r="53" spans="1:7" ht="28" hidden="1">
       <c r="A53" t="s">
         <v>758</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28" hidden="1">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
         <v>758</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28" hidden="1">
+    <row r="55" spans="1:7" ht="70" hidden="1">
       <c r="A55" t="s">
         <v>758</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="280" hidden="1">
+    <row r="56" spans="1:7" ht="28" hidden="1">
       <c r="A56" t="s">
         <v>841</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="56" hidden="1">
+    <row r="57" spans="1:7" ht="28" hidden="1">
       <c r="A57" t="s">
         <v>836</v>
       </c>
@@ -10797,7 +10800,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="42" hidden="1">
+    <row r="58" spans="1:7" ht="28" hidden="1">
       <c r="A58" t="s">
         <v>841</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="56" hidden="1">
+    <row r="60" spans="1:7" ht="28" hidden="1">
       <c r="A60" t="s">
         <v>907</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28" hidden="1">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
         <v>930</v>
       </c>
@@ -10897,7 +10900,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="56" hidden="1">
+    <row r="63" spans="1:7" ht="42" hidden="1">
       <c r="A63" t="s">
         <v>907</v>
       </c>
@@ -10920,7 +10923,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="42" hidden="1">
+    <row r="64" spans="1:7" ht="28" hidden="1">
       <c r="A64" t="s">
         <v>841</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28" hidden="1">
+    <row r="65" spans="1:7" ht="98" hidden="1">
       <c r="A65" t="s">
         <v>841</v>
       </c>
@@ -11041,7 +11044,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7" ht="28" hidden="1">
       <c r="A70" t="s">
         <v>957</v>
       </c>
@@ -11062,7 +11065,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7" ht="28" hidden="1">
       <c r="A71" t="s">
         <v>963</v>
       </c>
@@ -11083,7 +11086,7 @@
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="28" hidden="1">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" t="s">
         <v>656</v>
       </c>
@@ -11125,7 +11128,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="70" hidden="1">
+    <row r="74" spans="1:7" ht="28" hidden="1">
       <c r="A74" t="s">
         <v>975</v>
       </c>
@@ -11146,7 +11149,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7" ht="28" hidden="1">
       <c r="A75" t="s">
         <v>758</v>
       </c>
@@ -11167,7 +11170,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="28" hidden="1">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" t="s">
         <v>656</v>
       </c>
@@ -11272,7 +11275,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="70" hidden="1">
+    <row r="81" spans="1:7" ht="28" hidden="1">
       <c r="A81" t="s">
         <v>687</v>
       </c>
@@ -11356,7 +11359,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="70" hidden="1">
+    <row r="85" spans="1:7" ht="28" hidden="1">
       <c r="A85" t="s">
         <v>687</v>
       </c>
@@ -11419,7 +11422,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="28" hidden="1">
+    <row r="88" spans="1:7" ht="42" hidden="1">
       <c r="A88" t="s">
         <v>676</v>
       </c>
@@ -11440,7 +11443,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="28" hidden="1">
+    <row r="89" spans="1:7" ht="42" hidden="1">
       <c r="A89" t="s">
         <v>687</v>
       </c>
@@ -11461,7 +11464,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="28" hidden="1">
+    <row r="90" spans="1:7" ht="42" hidden="1">
       <c r="A90" t="s">
         <v>963</v>
       </c>
@@ -11482,7 +11485,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="28" hidden="1">
+    <row r="91" spans="1:7" ht="42" hidden="1">
       <c r="A91" t="s">
         <v>968</v>
       </c>
@@ -11524,7 +11527,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="28" hidden="1">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
         <v>758</v>
       </c>
@@ -11545,7 +11548,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="28" hidden="1">
+    <row r="94" spans="1:7" ht="70" hidden="1">
       <c r="A94" t="s">
         <v>758</v>
       </c>
@@ -11566,7 +11569,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="28" hidden="1">
+    <row r="95" spans="1:7" ht="378" hidden="1">
       <c r="A95" t="s">
         <v>676</v>
       </c>
@@ -11587,7 +11590,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="28" hidden="1">
+    <row r="96" spans="1:7" ht="154" hidden="1">
       <c r="A96" t="s">
         <v>676</v>
       </c>
@@ -11608,7 +11611,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7" ht="238" hidden="1">
       <c r="A97" t="s">
         <v>687</v>
       </c>
@@ -11629,7 +11632,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="126" hidden="1">
+    <row r="98" spans="1:7" ht="28" hidden="1">
       <c r="A98" t="s">
         <v>957</v>
       </c>
@@ -11671,7 +11674,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="28" hidden="1">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" t="s">
         <v>669</v>
       </c>
@@ -11755,7 +11758,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="126" hidden="1">
+    <row r="104" spans="1:7" ht="42" hidden="1">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -11776,7 +11779,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="28" hidden="1">
+    <row r="105" spans="1:7" ht="126" hidden="1">
       <c r="A105" t="s">
         <v>687</v>
       </c>
@@ -11818,7 +11821,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="28" hidden="1">
+    <row r="107" spans="1:7" ht="56" hidden="1">
       <c r="A107" t="s">
         <v>687</v>
       </c>
@@ -11839,7 +11842,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7" ht="28" hidden="1">
       <c r="A108" t="s">
         <v>687</v>
       </c>
@@ -11860,7 +11863,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7" ht="28" hidden="1">
       <c r="A109" t="s">
         <v>687</v>
       </c>
@@ -11881,7 +11884,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="28" hidden="1">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>968</v>
       </c>
@@ -11902,7 +11905,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="28" hidden="1">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>656</v>
       </c>
@@ -11944,7 +11947,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7" ht="28" hidden="1">
       <c r="A113" t="s">
         <v>450</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7" ht="28" hidden="1">
       <c r="A115" t="s">
         <v>478</v>
       </c>
@@ -12011,7 +12014,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7" ht="28" hidden="1">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -12032,7 +12035,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" ht="28" hidden="1">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" t="s">
         <v>656</v>
       </c>
@@ -12139,7 +12142,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7" ht="28" hidden="1">
       <c r="A122" t="s">
         <v>783</v>
       </c>
@@ -12160,7 +12163,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7" ht="84" hidden="1">
       <c r="A123" t="s">
         <v>465</v>
       </c>
@@ -12181,7 +12184,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" ht="28" hidden="1">
+    <row r="124" spans="1:7" ht="126" hidden="1">
       <c r="A124" t="s">
         <v>783</v>
       </c>
@@ -12202,7 +12205,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7" ht="28" hidden="1">
       <c r="A125" t="s">
         <v>758</v>
       </c>
@@ -12244,7 +12247,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7" ht="70" hidden="1">
       <c r="A127" t="s">
         <v>758</v>
       </c>
@@ -12265,7 +12268,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7" ht="70" hidden="1">
       <c r="A128" t="s">
         <v>465</v>
       </c>
@@ -12286,7 +12289,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" ht="98" hidden="1">
+    <row r="129" spans="1:7" ht="70" hidden="1">
       <c r="A129" t="s">
         <v>720</v>
       </c>
@@ -12307,7 +12310,7 @@
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7" ht="140" hidden="1">
       <c r="A130" t="s">
         <v>720</v>
       </c>
@@ -12328,7 +12331,7 @@
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7" ht="98" hidden="1">
       <c r="A131" t="s">
         <v>465</v>
       </c>
@@ -12370,7 +12373,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7" ht="98" hidden="1">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -12391,7 +12394,7 @@
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7" ht="112" hidden="1">
       <c r="A134" t="s">
         <v>704</v>
       </c>
@@ -12412,7 +12415,7 @@
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7" ht="126" hidden="1">
       <c r="A135" t="s">
         <v>720</v>
       </c>
@@ -12433,7 +12436,7 @@
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" hidden="1">
+    <row r="136" spans="1:7" ht="140" hidden="1">
       <c r="A136" t="s">
         <v>738</v>
       </c>
@@ -12454,7 +12457,7 @@
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7" ht="140" hidden="1">
       <c r="A137" t="s">
         <v>748</v>
       </c>
@@ -12475,7 +12478,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="28" hidden="1">
+    <row r="138" spans="1:7" ht="112" hidden="1">
       <c r="A138" t="s">
         <v>783</v>
       </c>
@@ -12559,7 +12562,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" ht="28" hidden="1">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" t="s">
         <v>704</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="28" hidden="1">
+    <row r="144" spans="1:7" ht="42" hidden="1">
       <c r="A144" t="s">
         <v>738</v>
       </c>
@@ -12626,7 +12629,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="28" hidden="1">
+    <row r="145" spans="1:7" ht="56" hidden="1">
       <c r="A145" t="s">
         <v>738</v>
       </c>
@@ -12647,7 +12650,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="28" hidden="1">
+    <row r="146" spans="1:7" ht="84" hidden="1">
       <c r="A146" t="s">
         <v>704</v>
       </c>
@@ -12668,7 +12671,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="28" hidden="1">
+    <row r="147" spans="1:7" ht="98" hidden="1">
       <c r="A147" t="s">
         <v>748</v>
       </c>
@@ -12752,7 +12755,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="42" hidden="1">
+    <row r="151" spans="1:7" ht="28" hidden="1">
       <c r="A151" t="s">
         <v>488</v>
       </c>
@@ -12815,7 +12818,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="42" hidden="1">
+    <row r="154" spans="1:7" ht="70" hidden="1">
       <c r="A154" t="s">
         <v>783</v>
       </c>
@@ -12836,7 +12839,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="378" hidden="1">
+    <row r="155" spans="1:7" ht="84" hidden="1">
       <c r="A155" t="s">
         <v>488</v>
       </c>
@@ -12857,7 +12860,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="112" hidden="1">
+    <row r="156" spans="1:7" ht="56" hidden="1">
       <c r="A156" t="s">
         <v>465</v>
       </c>
@@ -12875,7 +12878,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="126" hidden="1">
+    <row r="157" spans="1:7" ht="42" hidden="1">
       <c r="A157" t="s">
         <v>720</v>
       </c>
@@ -12893,7 +12896,7 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="140" hidden="1">
+    <row r="158" spans="1:7" ht="112" hidden="1">
       <c r="A158" t="s">
         <v>704</v>
       </c>
@@ -12911,7 +12914,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="140" hidden="1">
+    <row r="159" spans="1:7" ht="56" hidden="1">
       <c r="A159" t="s">
         <v>720</v>
       </c>
@@ -12929,7 +12932,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="112" hidden="1">
+    <row r="160" spans="1:7" ht="56" hidden="1">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -12947,7 +12950,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="28" hidden="1">
+    <row r="161" spans="1:7" ht="70" hidden="1">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -12965,7 +12968,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="28" hidden="1">
+    <row r="162" spans="1:7" ht="70" hidden="1">
       <c r="A162" t="s">
         <v>738</v>
       </c>
@@ -12983,7 +12986,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="28" hidden="1">
+    <row r="163" spans="1:7" ht="84" hidden="1">
       <c r="A163" t="s">
         <v>748</v>
       </c>
@@ -13001,7 +13004,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" ht="70" hidden="1">
+    <row r="164" spans="1:7" ht="224" hidden="1">
       <c r="A164" t="s">
         <v>704</v>
       </c>
@@ -13019,7 +13022,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7" ht="112" hidden="1">
       <c r="A165" t="s">
         <v>720</v>
       </c>
@@ -13040,7 +13043,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="28" hidden="1">
+    <row r="166" spans="1:7" ht="56" hidden="1">
       <c r="A166" t="s">
         <v>783</v>
       </c>
@@ -13100,7 +13103,7 @@
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" ht="84">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>656</v>
       </c>
@@ -13121,7 +13124,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="98">
+    <row r="170" spans="1:7" ht="28">
       <c r="A170" t="s">
         <v>758</v>
       </c>
@@ -13202,7 +13205,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" ht="28">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>532</v>
       </c>
@@ -13244,7 +13247,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="42">
+    <row r="176" spans="1:7" ht="28">
       <c r="A176" t="s">
         <v>550</v>
       </c>
@@ -13260,9 +13263,12 @@
       <c r="E176" t="s">
         <v>500</v>
       </c>
+      <c r="F176" t="s">
+        <v>1114</v>
+      </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" ht="70">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>656</v>
       </c>
@@ -13280,7 +13286,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="84">
+    <row r="178" spans="1:7" ht="28">
       <c r="A178" t="s">
         <v>807</v>
       </c>
@@ -13298,7 +13304,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="56">
+    <row r="179" spans="1:7" ht="28">
       <c r="A179" t="s">
         <v>813</v>
       </c>
@@ -13316,7 +13322,7 @@
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="42">
+    <row r="180" spans="1:7" ht="28">
       <c r="A180" t="s">
         <v>818</v>
       </c>
@@ -13334,7 +13340,7 @@
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="112">
+    <row r="181" spans="1:7" ht="28">
       <c r="A181" t="s">
         <v>823</v>
       </c>
@@ -13352,7 +13358,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="56">
+    <row r="182" spans="1:7" ht="28">
       <c r="A182" t="s">
         <v>831</v>
       </c>
@@ -13370,7 +13376,7 @@
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="56">
+    <row r="183" spans="1:7" ht="28">
       <c r="A183" t="s">
         <v>860</v>
       </c>
@@ -13406,7 +13412,7 @@
       </c>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" ht="42">
+    <row r="185" spans="1:7" ht="28">
       <c r="A185" t="s">
         <v>877</v>
       </c>
@@ -13442,7 +13448,7 @@
       </c>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" ht="28">
       <c r="A187" t="s">
         <v>536</v>
       </c>
@@ -13478,7 +13484,7 @@
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="28">
       <c r="A189" t="s">
         <v>867</v>
       </c>
@@ -13496,7 +13502,7 @@
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" ht="70">
+    <row r="190" spans="1:7" ht="28">
       <c r="A190" t="s">
         <v>867</v>
       </c>
@@ -13514,7 +13520,7 @@
       </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" ht="28">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>508</v>
       </c>
@@ -13568,7 +13574,7 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" ht="70">
+    <row r="194" spans="1:7" ht="28">
       <c r="A194" t="s">
         <v>758</v>
       </c>
@@ -13586,7 +13592,7 @@
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" ht="28">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -13604,7 +13610,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" ht="28">
+    <row r="196" spans="1:7" ht="70">
       <c r="A196" t="s">
         <v>758</v>
       </c>
@@ -13622,7 +13628,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="280">
       <c r="A197" t="s">
         <v>536</v>
       </c>
@@ -13640,7 +13646,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" ht="70">
+    <row r="198" spans="1:7" ht="266">
       <c r="A198" t="s">
         <v>867</v>
       </c>
@@ -13658,7 +13664,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" ht="28">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>508</v>
       </c>
@@ -13676,7 +13682,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" ht="28">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>508</v>
       </c>
@@ -13712,7 +13718,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" ht="70">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>823</v>
       </c>
@@ -13730,7 +13736,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" ht="28">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>831</v>
       </c>
@@ -13748,7 +13754,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" ht="28">
+    <row r="204" spans="1:7" ht="42">
       <c r="A204" t="s">
         <v>508</v>
       </c>
@@ -13766,7 +13772,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" ht="56">
       <c r="A205" t="s">
         <v>807</v>
       </c>
@@ -13784,7 +13790,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" ht="70">
+    <row r="206" spans="1:7" ht="56">
       <c r="A206" t="s">
         <v>813</v>
       </c>
@@ -13802,7 +13808,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" ht="28">
+    <row r="207" spans="1:7" ht="42">
       <c r="A207" t="s">
         <v>823</v>
       </c>
@@ -13820,7 +13826,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" ht="28">
+    <row r="208" spans="1:7" ht="42">
       <c r="A208" t="s">
         <v>831</v>
       </c>
@@ -13838,7 +13844,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="42">
       <c r="A209" t="s">
         <v>860</v>
       </c>
@@ -13856,7 +13862,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" ht="70">
+    <row r="210" spans="1:7" ht="56">
       <c r="A210" t="s">
         <v>536</v>
       </c>
@@ -13892,7 +13898,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" ht="70">
+    <row r="212" spans="1:7" ht="28">
       <c r="A212" t="s">
         <v>508</v>
       </c>
@@ -13910,7 +13916,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" ht="70">
+    <row r="213" spans="1:7" ht="42">
       <c r="A213" t="s">
         <v>528</v>
       </c>
@@ -13928,7 +13934,7 @@
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" ht="84">
+    <row r="214" spans="1:7" ht="42">
       <c r="A214" t="s">
         <v>532</v>
       </c>
@@ -13946,7 +13952,7 @@
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" ht="224">
+    <row r="215" spans="1:7" ht="56">
       <c r="A215" t="s">
         <v>550</v>
       </c>
@@ -13964,7 +13970,7 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" ht="112">
+    <row r="216" spans="1:7" ht="42">
       <c r="A216" t="s">
         <v>823</v>
       </c>
@@ -13982,7 +13988,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="56">
+    <row r="217" spans="1:7" ht="42">
       <c r="A217" t="s">
         <v>831</v>
       </c>
@@ -14000,7 +14006,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" ht="28">
+    <row r="218" spans="1:7" ht="42">
       <c r="A218" t="s">
         <v>867</v>
       </c>
@@ -14018,7 +14024,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" ht="42">
       <c r="A219" t="s">
         <v>550</v>
       </c>
@@ -14036,7 +14042,7 @@
       </c>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" ht="42">
+    <row r="220" spans="1:7" ht="28">
       <c r="A220" t="s">
         <v>877</v>
       </c>
@@ -14054,7 +14060,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" ht="28">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>794</v>
       </c>
@@ -14072,7 +14078,7 @@
       </c>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" ht="28">
+    <row r="222" spans="1:7" ht="42">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -14090,7 +14096,7 @@
       </c>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" ht="84">
+    <row r="223" spans="1:7" ht="56">
       <c r="A223" t="s">
         <v>536</v>
       </c>
@@ -14108,7 +14114,7 @@
       </c>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" ht="28">
+    <row r="224" spans="1:7" ht="42">
       <c r="A224" t="s">
         <v>794</v>
       </c>
@@ -14126,7 +14132,7 @@
       </c>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" ht="56">
+    <row r="225" spans="1:7" ht="28">
       <c r="A225" t="s">
         <v>794</v>
       </c>
@@ -14144,7 +14150,7 @@
       </c>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" ht="70">
+    <row r="226" spans="1:7" ht="28">
       <c r="A226" t="s">
         <v>794</v>
       </c>
@@ -14180,7 +14186,7 @@
       </c>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" ht="56">
+    <row r="228" spans="1:7" ht="28">
       <c r="A228" t="s">
         <v>823</v>
       </c>
@@ -14198,7 +14204,7 @@
       </c>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" ht="70">
+    <row r="229" spans="1:7" ht="28">
       <c r="A229" t="s">
         <v>550</v>
       </c>
@@ -14252,7 +14258,7 @@
       </c>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" ht="70">
+    <row r="232" spans="1:7" ht="56">
       <c r="A232" t="s">
         <v>536</v>
       </c>
@@ -14270,7 +14276,7 @@
       </c>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" ht="28">
+    <row r="233" spans="1:7" ht="210">
       <c r="A233" t="s">
         <v>501</v>
       </c>
@@ -14288,7 +14294,7 @@
       </c>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" ht="42">
       <c r="A234" t="s">
         <v>867</v>
       </c>
@@ -14324,7 +14330,7 @@
       </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" ht="42">
+    <row r="236" spans="1:7" ht="84">
       <c r="A236" t="s">
         <v>794</v>
       </c>
@@ -14342,7 +14348,7 @@
       </c>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" ht="28">
+    <row r="237" spans="1:7" ht="70">
       <c r="A237" t="s">
         <v>807</v>
       </c>
@@ -14360,7 +14366,7 @@
       </c>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" ht="28">
+    <row r="238" spans="1:7" ht="70">
       <c r="A238" t="s">
         <v>813</v>
       </c>
@@ -14378,7 +14384,7 @@
       </c>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" ht="70">
       <c r="A239" t="s">
         <v>818</v>
       </c>
@@ -14396,7 +14402,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" ht="42" hidden="1">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" t="s">
         <v>656</v>
       </c>
@@ -14414,7 +14420,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="42" hidden="1">
+    <row r="241" spans="1:7" ht="28" hidden="1">
       <c r="A241" t="s">
         <v>758</v>
       </c>
@@ -14432,7 +14438,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" hidden="1">
+    <row r="242" spans="1:7" ht="28" hidden="1">
       <c r="A242" t="s">
         <v>886</v>
       </c>
@@ -14486,7 +14492,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="42" hidden="1">
+    <row r="245" spans="1:7" ht="28" hidden="1">
       <c r="A245" t="s">
         <v>891</v>
       </c>
@@ -14540,7 +14546,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" ht="98" hidden="1">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" t="s">
         <v>561</v>
       </c>
@@ -14576,7 +14582,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" ht="28" hidden="1">
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" t="s">
         <v>561</v>
       </c>
@@ -14594,7 +14600,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" hidden="1">
+    <row r="251" spans="1:7" ht="28" hidden="1">
       <c r="A251" t="s">
         <v>758</v>
       </c>
@@ -14612,7 +14618,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" ht="28" hidden="1">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -14630,7 +14636,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" hidden="1">
+    <row r="253" spans="1:7" ht="70" hidden="1">
       <c r="A253" t="s">
         <v>758</v>
       </c>
@@ -14648,7 +14654,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" ht="56" hidden="1">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" t="s">
         <v>561</v>
       </c>
@@ -14684,7 +14690,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="42" hidden="1">
+    <row r="256" spans="1:7" ht="28" hidden="1">
       <c r="A256" t="s">
         <v>561</v>
       </c>
@@ -14702,7 +14708,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="28" hidden="1">
+    <row r="257" spans="1:7" ht="42" hidden="1">
       <c r="A257" t="s">
         <v>891</v>
       </c>
@@ -14756,7 +14762,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="28" hidden="1">
+    <row r="260" spans="1:7" ht="112" hidden="1">
       <c r="A260" t="s">
         <v>891</v>
       </c>
@@ -14774,7 +14780,7 @@
       </c>
       <c r="G260"/>
     </row>
-    <row r="261" spans="1:7" ht="266" hidden="1">
+    <row r="261" spans="1:7" ht="70" hidden="1">
       <c r="A261" t="s">
         <v>561</v>
       </c>
@@ -14792,7 +14798,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" ht="42" hidden="1">
+    <row r="262" spans="1:7" hidden="1">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -14828,7 +14834,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="28" hidden="1">
+    <row r="264" spans="1:7" ht="42" hidden="1">
       <c r="A264" t="s">
         <v>897</v>
       </c>
@@ -14918,7 +14924,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="42" hidden="1">
+    <row r="269" spans="1:7" ht="28" hidden="1">
       <c r="A269" t="s">
         <v>606</v>
       </c>
@@ -14954,7 +14960,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="42" hidden="1">
+    <row r="271" spans="1:7" ht="28" hidden="1">
       <c r="A271" t="s">
         <v>630</v>
       </c>
@@ -14972,7 +14978,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" ht="112" hidden="1">
+    <row r="272" spans="1:7" ht="28" hidden="1">
       <c r="A272" t="s">
         <v>650</v>
       </c>
@@ -14990,7 +14996,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" ht="28" hidden="1">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" t="s">
         <v>656</v>
       </c>
@@ -15026,7 +15032,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="42" hidden="1">
+    <row r="275" spans="1:7" ht="28" hidden="1">
       <c r="A275" t="s">
         <v>913</v>
       </c>
@@ -15062,7 +15068,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" ht="28" hidden="1">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" t="s">
         <v>432</v>
       </c>
@@ -15116,7 +15122,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="42" hidden="1">
+    <row r="280" spans="1:7" ht="28" hidden="1">
       <c r="A280" t="s">
         <v>653</v>
       </c>
@@ -15134,7 +15140,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" ht="28" hidden="1">
+    <row r="281" spans="1:7" hidden="1">
       <c r="A281" t="s">
         <v>656</v>
       </c>
@@ -15152,7 +15158,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="98" hidden="1">
+    <row r="282" spans="1:7" ht="28" hidden="1">
       <c r="A282" t="s">
         <v>938</v>
       </c>
@@ -15170,7 +15176,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="56" hidden="1">
+    <row r="283" spans="1:7" ht="28" hidden="1">
       <c r="A283" t="s">
         <v>941</v>
       </c>
@@ -15188,7 +15194,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="70" hidden="1">
+    <row r="284" spans="1:7" ht="98" hidden="1">
       <c r="A284" t="s">
         <v>913</v>
       </c>
@@ -15224,7 +15230,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="98" hidden="1">
+    <row r="286" spans="1:7" ht="28" hidden="1">
       <c r="A286" t="s">
         <v>613</v>
       </c>
@@ -15242,7 +15248,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" ht="56" hidden="1">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" t="s">
         <v>630</v>
       </c>
@@ -15278,7 +15284,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" ht="28" hidden="1">
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289" t="s">
         <v>630</v>
       </c>
@@ -15332,7 +15338,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" hidden="1">
+    <row r="292" spans="1:7" ht="28" hidden="1">
       <c r="A292" t="s">
         <v>588</v>
       </c>
@@ -15350,7 +15356,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" ht="56" hidden="1">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" t="s">
         <v>758</v>
       </c>
@@ -15368,7 +15374,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" hidden="1">
+    <row r="294" spans="1:7" ht="70" hidden="1">
       <c r="A294" t="s">
         <v>588</v>
       </c>
@@ -15386,7 +15392,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="28" hidden="1">
+    <row r="295" spans="1:7" ht="70" hidden="1">
       <c r="A295" t="s">
         <v>758</v>
       </c>
@@ -15404,7 +15410,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" hidden="1">
+    <row r="296" spans="1:7" ht="56" hidden="1">
       <c r="A296" t="s">
         <v>913</v>
       </c>
@@ -15422,7 +15428,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" ht="28" hidden="1">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" t="s">
         <v>630</v>
       </c>
@@ -15494,7 +15500,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="42" hidden="1">
+    <row r="301" spans="1:7" ht="28" hidden="1">
       <c r="A301" t="s">
         <v>630</v>
       </c>
@@ -15512,7 +15518,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" ht="28" hidden="1">
+    <row r="302" spans="1:7" ht="42" hidden="1">
       <c r="A302" t="s">
         <v>941</v>
       </c>
@@ -15548,7 +15554,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" ht="84" hidden="1">
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304" t="s">
         <v>613</v>
       </c>
@@ -15566,7 +15572,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="42" hidden="1">
+    <row r="305" spans="1:7" ht="126" hidden="1">
       <c r="A305" t="s">
         <v>613</v>
       </c>
@@ -15584,7 +15590,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" ht="28" hidden="1">
+    <row r="306" spans="1:7" ht="70" hidden="1">
       <c r="A306" t="s">
         <v>913</v>
       </c>
@@ -15602,7 +15608,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="154" hidden="1">
+    <row r="307" spans="1:7" ht="28" hidden="1">
       <c r="A307" t="s">
         <v>924</v>
       </c>
@@ -15620,7 +15626,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" ht="238" hidden="1">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" t="s">
         <v>432</v>
       </c>
@@ -15674,7 +15680,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" hidden="1">
+    <row r="311" spans="1:7" ht="28" hidden="1">
       <c r="A311" t="s">
         <v>582</v>
       </c>
@@ -15728,7 +15734,7 @@
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" hidden="1">
+    <row r="314" spans="1:7" ht="28" hidden="1">
       <c r="A314" t="s">
         <v>606</v>
       </c>
@@ -15746,7 +15752,7 @@
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="42" hidden="1">
+    <row r="315" spans="1:7" ht="28" hidden="1">
       <c r="A315" t="s">
         <v>613</v>
       </c>
@@ -15764,7 +15770,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="126" hidden="1">
+    <row r="316" spans="1:7" ht="28" hidden="1">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -15782,7 +15788,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7" ht="28" hidden="1">
       <c r="A317" t="s">
         <v>650</v>
       </c>
@@ -15800,7 +15806,7 @@
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="56" hidden="1">
+    <row r="318" spans="1:7" ht="28" hidden="1">
       <c r="A318" t="s">
         <v>913</v>
       </c>
@@ -15854,7 +15860,7 @@
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" hidden="1">
+    <row r="321" spans="1:7" ht="28" hidden="1">
       <c r="A321" t="s">
         <v>653</v>
       </c>
@@ -15872,7 +15878,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" hidden="1">
+    <row r="322" spans="1:7" ht="28" hidden="1">
       <c r="A322" t="s">
         <v>938</v>
       </c>
@@ -15944,7 +15950,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" hidden="1">
+    <row r="326" spans="1:7" ht="98" hidden="1">
       <c r="A326" t="s">
         <v>913</v>
       </c>
@@ -15962,7 +15968,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" hidden="1">
+    <row r="327" spans="1:7" ht="28" hidden="1">
       <c r="A327" t="s">
         <v>613</v>
       </c>
@@ -15980,7 +15986,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" hidden="1">
+    <row r="328" spans="1:7" ht="28" hidden="1">
       <c r="A328" t="s">
         <v>613</v>
       </c>
@@ -16016,7 +16022,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="56" hidden="1">
+    <row r="330" spans="1:7" ht="28" hidden="1">
       <c r="A330" t="s">
         <v>630</v>
       </c>
@@ -16052,7 +16058,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" hidden="1">
+    <row r="332" spans="1:7" ht="28" hidden="1">
       <c r="A332" t="s">
         <v>588</v>
       </c>
@@ -16070,7 +16076,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" hidden="1">
+    <row r="333" spans="1:7" ht="28" hidden="1">
       <c r="A333" t="s">
         <v>588</v>
       </c>
@@ -16088,7 +16094,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" hidden="1">
+    <row r="334" spans="1:7" ht="70" hidden="1">
       <c r="A334" t="s">
         <v>588</v>
       </c>
@@ -16106,7 +16112,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" hidden="1">
+    <row r="335" spans="1:7" ht="56" hidden="1">
       <c r="A335" t="s">
         <v>913</v>
       </c>
@@ -16142,7 +16148,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" hidden="1">
+    <row r="337" spans="1:7" ht="84" hidden="1">
       <c r="A337" t="s">
         <v>941</v>
       </c>
@@ -16160,7 +16166,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" hidden="1">
+    <row r="338" spans="1:7" ht="28" hidden="1">
       <c r="A338" t="s">
         <v>630</v>
       </c>
@@ -16178,7 +16184,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" hidden="1">
+    <row r="339" spans="1:7" ht="42" hidden="1">
       <c r="A339" t="s">
         <v>941</v>
       </c>
@@ -16196,7 +16202,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" hidden="1">
+    <row r="340" spans="1:7" ht="28" hidden="1">
       <c r="A340" t="s">
         <v>941</v>
       </c>
@@ -16232,7 +16238,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" hidden="1">
+    <row r="342" spans="1:7" ht="126" hidden="1">
       <c r="A342" t="s">
         <v>613</v>
       </c>
@@ -16250,7 +16256,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" hidden="1">
+    <row r="343" spans="1:7" ht="28" hidden="1">
       <c r="A343" t="s">
         <v>924</v>
       </c>
@@ -16268,7 +16274,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" hidden="1">
+    <row r="344" spans="1:7" ht="28" hidden="1">
       <c r="A344" t="s">
         <v>606</v>
       </c>
@@ -16286,7 +16292,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" hidden="1">
+    <row r="345" spans="1:7" ht="28" hidden="1">
       <c r="A345" t="s">
         <v>630</v>
       </c>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="1116">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5000,6 +5000,9 @@
   </si>
   <si>
     <t>factory test:  92ef219</t>
+  </si>
+  <si>
+    <t>factory test:  7fc6b93</t>
   </si>
 </sst>
 </file>
@@ -9698,7 +9701,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13284,6 +13287,9 @@
       <c r="E177" t="s">
         <v>500</v>
       </c>
+      <c r="F177" s="1" t="s">
+        <v>984</v>
+      </c>
       <c r="G177"/>
     </row>
     <row r="178" spans="1:7" ht="28">
@@ -13301,6 +13307,9 @@
       </c>
       <c r="E178" t="s">
         <v>500</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1115</v>
       </c>
       <c r="G178"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1117">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5003,6 +5003,9 @@
   </si>
   <si>
     <t>factory test:  7fc6b93</t>
+  </si>
+  <si>
+    <t>factory test:  e006bfa39839e3f98510a56b2bc93d44ed2a43a9</t>
   </si>
 </sst>
 </file>
@@ -9701,7 +9704,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9711,7 +9714,7 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13328,6 +13331,9 @@
       </c>
       <c r="E179" t="s">
         <v>500</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>1116</v>
       </c>
       <c r="G179"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1118">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5006,6 +5006,9 @@
   </si>
   <si>
     <t>factory test:  e006bfa39839e3f98510a56b2bc93d44ed2a43a9</t>
+  </si>
+  <si>
+    <t>factory test:  b05a4e9f96db70f49ff236da8d6988e2f275a20e</t>
   </si>
 </sst>
 </file>
@@ -9704,7 +9707,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13352,6 +13355,9 @@
       </c>
       <c r="E180" t="s">
         <v>500</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1117</v>
       </c>
       <c r="G180"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="1119">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5005,10 +5005,13 @@
     <t>factory test:  7fc6b93</t>
   </si>
   <si>
-    <t>factory test:  e006bfa39839e3f98510a56b2bc93d44ed2a43a9</t>
-  </si>
-  <si>
-    <t>factory test:  b05a4e9f96db70f49ff236da8d6988e2f275a20e</t>
+    <t>factory test:  aa2c92c</t>
+  </si>
+  <si>
+    <t>factory test:  b05a4e9</t>
+  </si>
+  <si>
+    <t>factory test:  e006bfa</t>
   </si>
 </sst>
 </file>
@@ -9707,7 +9710,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+      <selection activeCell="F182" sqref="C182:F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13336,7 +13339,7 @@
         <v>500</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G179"/>
     </row>
@@ -13376,6 +13379,9 @@
       </c>
       <c r="E181" t="s">
         <v>500</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>1116</v>
       </c>
       <c r="G181"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1121">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5012,6 +5012,12 @@
   </si>
   <si>
     <t>factory test:  e006bfa</t>
+  </si>
+  <si>
+    <t>factory test:  d4e4f1e</t>
+  </si>
+  <si>
+    <t>factory test:  ddda579</t>
   </si>
 </sst>
 </file>
@@ -9710,7 +9716,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F182" sqref="C182:F182"/>
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13401,6 +13407,9 @@
       <c r="E182" t="s">
         <v>500</v>
       </c>
+      <c r="F182" t="s">
+        <v>1119</v>
+      </c>
       <c r="G182"/>
     </row>
     <row r="183" spans="1:7" ht="28">
@@ -13418,6 +13427,9 @@
       </c>
       <c r="E183" t="s">
         <v>500</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>1120</v>
       </c>
       <c r="G183"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1122">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5018,6 +5018,9 @@
   </si>
   <si>
     <t>factory test:  ddda579</t>
+  </si>
+  <si>
+    <t>factory test: e7915b9</t>
   </si>
 </sst>
 </file>
@@ -9716,7 +9719,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13448,6 +13451,9 @@
       </c>
       <c r="E184" t="s">
         <v>500</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1121</v>
       </c>
       <c r="G184"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1124">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5021,6 +5021,12 @@
   </si>
   <si>
     <t>factory test: e7915b9</t>
+  </si>
+  <si>
+    <t>factory test:  d6c28e2</t>
+  </si>
+  <si>
+    <t>factory test:  8b6dd95</t>
   </si>
 </sst>
 </file>
@@ -9719,7 +9725,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+      <selection activeCell="F187" sqref="C187:F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13473,6 +13479,9 @@
       <c r="E185" t="s">
         <v>500</v>
       </c>
+      <c r="F185" s="1" t="s">
+        <v>1122</v>
+      </c>
       <c r="G185"/>
     </row>
     <row r="186" spans="1:7" ht="28">
@@ -13490,6 +13499,9 @@
       </c>
       <c r="E186" t="s">
         <v>500</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1123</v>
       </c>
       <c r="G186"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1125">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5027,6 +5027,9 @@
   </si>
   <si>
     <t>factory test:  8b6dd95</t>
+  </si>
+  <si>
+    <t>factory test:  26ae22a</t>
   </si>
 </sst>
 </file>
@@ -9724,8 +9727,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F187" sqref="C187:F187"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F188" sqref="D188:F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13520,6 +13523,9 @@
       </c>
       <c r="E187" t="s">
         <v>500</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>1124</v>
       </c>
       <c r="G187"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="1127">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5030,6 +5030,12 @@
   </si>
   <si>
     <t>factory test:  26ae22a</t>
+  </si>
+  <si>
+    <t>factory test: 610f4b</t>
+  </si>
+  <si>
+    <t>factory test: d975140</t>
   </si>
 </sst>
 </file>
@@ -9728,7 +9734,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F188" sqref="D188:F188"/>
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13545,6 +13551,9 @@
       <c r="E188" t="s">
         <v>500</v>
       </c>
+      <c r="F188" t="s">
+        <v>1125</v>
+      </c>
       <c r="G188"/>
     </row>
     <row r="189" spans="1:7" ht="28">
@@ -13562,6 +13571,9 @@
       </c>
       <c r="E189" t="s">
         <v>500</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>1126</v>
       </c>
       <c r="G189"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1128">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5036,6 +5036,9 @@
   </si>
   <si>
     <t>factory test: d975140</t>
+  </si>
+  <si>
+    <t>factory test:  f53e20a</t>
   </si>
 </sst>
 </file>
@@ -9733,8 +9736,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13217,6 +13220,9 @@
       </c>
       <c r="E172" t="s">
         <v>500</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>1127</v>
       </c>
       <c r="G172"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="1131">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5039,6 +5039,15 @@
   </si>
   <si>
     <t>factory test:  f53e20a</t>
+  </si>
+  <si>
+    <t>N/A - handled by flat file importer</t>
+  </si>
+  <si>
+    <t>factory test:  38dfa33</t>
+  </si>
+  <si>
+    <t>N/A - handled by admin segment</t>
   </si>
 </sst>
 </file>
@@ -9736,17 +9745,17 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="B183" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="50.6640625" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
@@ -13617,6 +13626,9 @@
       <c r="E191" t="s">
         <v>500</v>
       </c>
+      <c r="F191" s="1" t="s">
+        <v>1128</v>
+      </c>
       <c r="G191"/>
     </row>
     <row r="192" spans="1:7" ht="28">
@@ -13635,6 +13647,9 @@
       <c r="E192" t="s">
         <v>500</v>
       </c>
+      <c r="F192" t="s">
+        <v>1128</v>
+      </c>
       <c r="G192"/>
     </row>
     <row r="193" spans="1:7">
@@ -13653,6 +13668,9 @@
       <c r="E193" t="s">
         <v>500</v>
       </c>
+      <c r="F193" s="1" t="s">
+        <v>1129</v>
+      </c>
       <c r="G193"/>
     </row>
     <row r="194" spans="1:7" ht="28">
@@ -13671,6 +13689,9 @@
       <c r="E194" t="s">
         <v>500</v>
       </c>
+      <c r="F194" t="s">
+        <v>1130</v>
+      </c>
       <c r="G194"/>
     </row>
     <row r="195" spans="1:7">
@@ -13689,6 +13710,9 @@
       <c r="E195" t="s">
         <v>500</v>
       </c>
+      <c r="F195" s="1" t="s">
+        <v>1130</v>
+      </c>
       <c r="G195"/>
     </row>
     <row r="196" spans="1:7" ht="70">
@@ -13706,6 +13730,9 @@
       </c>
       <c r="E196" t="s">
         <v>500</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1130</v>
       </c>
       <c r="G196"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1132">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5048,6 +5048,9 @@
   </si>
   <si>
     <t>N/A - handled by admin segment</t>
+  </si>
+  <si>
+    <t>testRule419ForAggravatedAssaultHomicideCircumstances</t>
   </si>
 </sst>
 </file>
@@ -9745,8 +9748,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B183" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13751,6 +13754,9 @@
       </c>
       <c r="E197" t="s">
         <v>500</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1131</v>
       </c>
       <c r="G197"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1133">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5051,6 +5051,9 @@
   </si>
   <si>
     <t>testRule419ForAggravatedAssaultHomicideCircumstances</t>
+  </si>
+  <si>
+    <t>aae8824</t>
   </si>
 </sst>
 </file>
@@ -9748,8 +9751,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9759,7 +9762,7 @@
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13793,6 +13796,9 @@
       </c>
       <c r="E199" t="s">
         <v>500</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1132</v>
       </c>
       <c r="G199"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1134">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5054,6 +5054,9 @@
   </si>
   <si>
     <t>aae8824</t>
+  </si>
+  <si>
+    <t>b439de0</t>
   </si>
 </sst>
 </file>
@@ -9751,8 +9754,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13817,6 +13820,9 @@
       </c>
       <c r="E200" t="s">
         <v>500</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1133</v>
       </c>
       <c r="G200"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1135">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5057,6 +5057,9 @@
   </si>
   <si>
     <t>b439de0</t>
+  </si>
+  <si>
+    <t>b1b8584</t>
   </si>
 </sst>
 </file>
@@ -9755,7 +9758,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+      <selection activeCell="C202" sqref="C202:E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13841,6 +13844,9 @@
       </c>
       <c r="E201" t="s">
         <v>500</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1134</v>
       </c>
       <c r="G201"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1137">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5060,6 +5060,12 @@
   </si>
   <si>
     <t>b1b8584</t>
+  </si>
+  <si>
+    <t>5bb1136</t>
+  </si>
+  <si>
+    <t>bdac265</t>
   </si>
 </sst>
 </file>
@@ -9758,7 +9764,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202:E202"/>
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13866,6 +13872,9 @@
       <c r="E202" t="s">
         <v>500</v>
       </c>
+      <c r="F202" t="s">
+        <v>1135</v>
+      </c>
       <c r="G202"/>
     </row>
     <row r="203" spans="1:7">
@@ -13883,6 +13892,9 @@
       </c>
       <c r="E203" t="s">
         <v>500</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1136</v>
       </c>
       <c r="G203"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1138">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5053,19 +5053,22 @@
     <t>testRule419ForAggravatedAssaultHomicideCircumstances</t>
   </si>
   <si>
-    <t>aae8824</t>
-  </si>
-  <si>
-    <t>b439de0</t>
-  </si>
-  <si>
-    <t>b1b8584</t>
-  </si>
-  <si>
-    <t>5bb1136</t>
-  </si>
-  <si>
-    <t>bdac265</t>
+    <t>factory test: 584fb9d</t>
+  </si>
+  <si>
+    <t>factory test: bdac265</t>
+  </si>
+  <si>
+    <t>factory test: 5bb1136</t>
+  </si>
+  <si>
+    <t>factory test:  b1b8584</t>
+  </si>
+  <si>
+    <t>factory test: b439de0</t>
+  </si>
+  <si>
+    <t>factory test:  aae8824</t>
   </si>
 </sst>
 </file>
@@ -9764,7 +9767,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13810,7 +13813,7 @@
         <v>500</v>
       </c>
       <c r="F199" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="G199"/>
     </row>
@@ -13831,7 +13834,7 @@
         <v>500</v>
       </c>
       <c r="F200" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="G200"/>
     </row>
@@ -13852,7 +13855,7 @@
         <v>500</v>
       </c>
       <c r="F201" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G201"/>
     </row>
@@ -13873,7 +13876,7 @@
         <v>500</v>
       </c>
       <c r="F202" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G202"/>
     </row>
@@ -13894,7 +13897,7 @@
         <v>500</v>
       </c>
       <c r="F203" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G203"/>
     </row>
@@ -13913,6 +13916,9 @@
       </c>
       <c r="E204" t="s">
         <v>500</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1132</v>
       </c>
       <c r="G204"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1140">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5069,6 +5069,12 @@
   </si>
   <si>
     <t>factory test:  aae8824</t>
+  </si>
+  <si>
+    <t>rule and factory test: 204afc</t>
+  </si>
+  <si>
+    <t>rule and factory test:  204afc</t>
   </si>
 </sst>
 </file>
@@ -9767,7 +9773,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+      <selection activeCell="F206" sqref="C206:F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13938,6 +13944,9 @@
       <c r="E205" t="s">
         <v>500</v>
       </c>
+      <c r="F205" t="s">
+        <v>1138</v>
+      </c>
       <c r="G205"/>
     </row>
     <row r="206" spans="1:7" ht="56">
@@ -13955,6 +13964,9 @@
       </c>
       <c r="E206" t="s">
         <v>500</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1139</v>
       </c>
       <c r="G206"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1141">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5075,6 +5075,9 @@
   </si>
   <si>
     <t>rule and factory test:  204afc</t>
+  </si>
+  <si>
+    <t>rule and factory test: 9bee565</t>
   </si>
 </sst>
 </file>
@@ -9772,8 +9775,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F206" sqref="C206:F206"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="F207" sqref="C207:F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13985,6 +13988,9 @@
       </c>
       <c r="E207" t="s">
         <v>500</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1140</v>
       </c>
       <c r="G207"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="1143">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5078,6 +5078,12 @@
   </si>
   <si>
     <t>rule and factory test: 9bee565</t>
+  </si>
+  <si>
+    <t>rule and factory test:  4721da2</t>
+  </si>
+  <si>
+    <t>rule and factory test: 87381d6</t>
   </si>
 </sst>
 </file>
@@ -9776,7 +9782,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="F207" sqref="C207:F207"/>
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14010,6 +14016,9 @@
       <c r="E208" t="s">
         <v>500</v>
       </c>
+      <c r="F208" t="s">
+        <v>1141</v>
+      </c>
       <c r="G208"/>
     </row>
     <row r="209" spans="1:7" ht="42">
@@ -14027,6 +14036,9 @@
       </c>
       <c r="E209" t="s">
         <v>500</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1142</v>
       </c>
       <c r="G209"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="1144">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5084,6 +5084,9 @@
   </si>
   <si>
     <t>rule and factory test: 87381d6</t>
+  </si>
+  <si>
+    <t>rule and factory test: bbd9604</t>
   </si>
 </sst>
 </file>
@@ -9782,7 +9785,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+      <selection activeCell="F211" sqref="C211:F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14075,6 +14078,9 @@
       </c>
       <c r="E211" t="s">
         <v>500</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1143</v>
       </c>
       <c r="G211"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1145">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5087,6 +5087,9 @@
   </si>
   <si>
     <t>rule and factory test: bbd9604</t>
+  </si>
+  <si>
+    <t>rule and factory test: 8e87630</t>
   </si>
 </sst>
 </file>
@@ -9784,8 +9787,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="F211" sqref="C211:F211"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="F212" sqref="C212:F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14099,6 +14102,9 @@
       </c>
       <c r="E212" t="s">
         <v>500</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1144</v>
       </c>
       <c r="G212"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1146">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5090,6 +5090,9 @@
   </si>
   <si>
     <t>rule and factory test: 8e87630</t>
+  </si>
+  <si>
+    <t>rule and factory test: 5142917</t>
   </si>
 </sst>
 </file>
@@ -9787,8 +9790,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="F212" sqref="C212:F212"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14123,6 +14126,9 @@
       </c>
       <c r="E213" t="s">
         <v>500</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1145</v>
       </c>
       <c r="G213"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1147">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5093,6 +5093,9 @@
   </si>
   <si>
     <t>rule and factory test: 5142917</t>
+  </si>
+  <si>
+    <t>rule update and factory tes: 68b5a58</t>
   </si>
 </sst>
 </file>
@@ -9791,7 +9794,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14147,6 +14150,9 @@
       </c>
       <c r="E214" t="s">
         <v>500</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1146</v>
       </c>
       <c r="G214"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1148">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5095,7 +5095,10 @@
     <t>rule and factory test: 5142917</t>
   </si>
   <si>
-    <t>rule update and factory tes: 68b5a58</t>
+    <t>rule update and factory test: 68b5a58</t>
+  </si>
+  <si>
+    <t>rule update and factory test: 3da18d1</t>
   </si>
 </sst>
 </file>
@@ -9794,7 +9797,7 @@
   <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14171,6 +14174,9 @@
       </c>
       <c r="E215" t="s">
         <v>500</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1147</v>
       </c>
       <c r="G215"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="1149">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5099,6 +5099,9 @@
   </si>
   <si>
     <t>rule update and factory test: 3da18d1</t>
+  </si>
+  <si>
+    <t>rule update and factory test: 811d6cb</t>
   </si>
 </sst>
 </file>
@@ -9796,8 +9799,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14195,6 +14198,9 @@
       </c>
       <c r="E216" t="s">
         <v>500</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1148</v>
       </c>
       <c r="G216"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1169">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5102,6 +5102,66 @@
   </si>
   <si>
     <t>rule update and factory test: 811d6cb</t>
+  </si>
+  <si>
+    <t>474a582</t>
+  </si>
+  <si>
+    <t>0163ecc</t>
+  </si>
+  <si>
+    <t>d98e644</t>
+  </si>
+  <si>
+    <t>4a6e145</t>
+  </si>
+  <si>
+    <t>fbcf66d</t>
+  </si>
+  <si>
+    <t>92a88b1</t>
+  </si>
+  <si>
+    <t>8a18a0a</t>
+  </si>
+  <si>
+    <t>bbcd271</t>
+  </si>
+  <si>
+    <t>2381853</t>
+  </si>
+  <si>
+    <t>a5dbd93</t>
+  </si>
+  <si>
+    <t>7093b79</t>
+  </si>
+  <si>
+    <t>9405f0b</t>
+  </si>
+  <si>
+    <t>5644a8f</t>
+  </si>
+  <si>
+    <t>ebb22ec</t>
+  </si>
+  <si>
+    <t>d5a09d3</t>
+  </si>
+  <si>
+    <t>6542e3b</t>
+  </si>
+  <si>
+    <t>331d27e</t>
+  </si>
+  <si>
+    <t>1abd3ab</t>
+  </si>
+  <si>
+    <t>fc404c5</t>
+  </si>
+  <si>
+    <t>8ce0016</t>
   </si>
 </sst>
 </file>
@@ -5506,16 +5566,16 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="152.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="152.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5592,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -5549,7 +5609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -5566,7 +5626,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>17</v>
       </c>
@@ -5583,7 +5643,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -5600,7 +5660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>51</v>
       </c>
@@ -5617,7 +5677,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>52</v>
       </c>
@@ -5634,7 +5694,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>55</v>
       </c>
@@ -5651,7 +5711,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>56</v>
       </c>
@@ -5668,7 +5728,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>58</v>
       </c>
@@ -5685,7 +5745,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>59</v>
       </c>
@@ -5702,7 +5762,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>60</v>
       </c>
@@ -5719,7 +5779,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>65</v>
       </c>
@@ -5736,7 +5796,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>70</v>
       </c>
@@ -5753,7 +5813,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="70">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>71</v>
       </c>
@@ -5770,7 +5830,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="196">
+    <row r="16" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>72</v>
       </c>
@@ -5787,7 +5847,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="56">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>73</v>
       </c>
@@ -5804,7 +5864,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="56">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>74</v>
       </c>
@@ -5821,7 +5881,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="42">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>75</v>
       </c>
@@ -5838,7 +5898,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="42">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>76</v>
       </c>
@@ -5855,7 +5915,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>77</v>
       </c>
@@ -5872,7 +5932,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="56">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>78</v>
       </c>
@@ -5889,7 +5949,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="42">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>80</v>
       </c>
@@ -5906,7 +5966,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409">
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>81</v>
       </c>
@@ -5923,7 +5983,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="98">
+    <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>84</v>
       </c>
@@ -5940,7 +6000,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="56">
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>85</v>
       </c>
@@ -5957,7 +6017,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="42">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>88</v>
       </c>
@@ -5974,7 +6034,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>90</v>
       </c>
@@ -5991,7 +6051,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>91</v>
       </c>
@@ -6008,7 +6068,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>92</v>
       </c>
@@ -6025,7 +6085,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>93</v>
       </c>
@@ -6042,7 +6102,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="56">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>94</v>
       </c>
@@ -6059,7 +6119,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>101</v>
       </c>
@@ -6076,7 +6136,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>104</v>
       </c>
@@ -6093,7 +6153,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>105</v>
       </c>
@@ -6110,7 +6170,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>115</v>
       </c>
@@ -6127,7 +6187,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>116</v>
       </c>
@@ -6144,7 +6204,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>117</v>
       </c>
@@ -6161,7 +6221,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>118</v>
       </c>
@@ -6178,7 +6238,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>119</v>
       </c>
@@ -6195,7 +6255,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="154">
+    <row r="41" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>122</v>
       </c>
@@ -6212,7 +6272,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="42">
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>151</v>
       </c>
@@ -6229,7 +6289,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="70">
+    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>152</v>
       </c>
@@ -6246,7 +6306,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>153</v>
       </c>
@@ -6263,7 +6323,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>155</v>
       </c>
@@ -6280,7 +6340,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="42">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>156</v>
       </c>
@@ -6297,7 +6357,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="42">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>170</v>
       </c>
@@ -6314,7 +6374,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="112">
+    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>171</v>
       </c>
@@ -6331,7 +6391,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>172</v>
       </c>
@@ -6348,7 +6408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="238">
+    <row r="50" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>173</v>
       </c>
@@ -6365,7 +6425,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>175</v>
       </c>
@@ -6382,7 +6442,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="42">
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>178</v>
       </c>
@@ -6399,7 +6459,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>201</v>
       </c>
@@ -6416,7 +6476,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>202</v>
       </c>
@@ -6433,7 +6493,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>204</v>
       </c>
@@ -6450,7 +6510,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="308">
+    <row r="56" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>205</v>
       </c>
@@ -6467,7 +6527,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>206</v>
       </c>
@@ -6484,7 +6544,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="42">
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>207</v>
       </c>
@@ -6501,7 +6561,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>215</v>
       </c>
@@ -6518,7 +6578,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>216</v>
       </c>
@@ -6535,7 +6595,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="70">
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>217</v>
       </c>
@@ -6552,7 +6612,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="210">
+    <row r="62" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>219</v>
       </c>
@@ -6569,7 +6629,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="70">
+    <row r="63" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>220</v>
       </c>
@@ -6586,7 +6646,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="154">
+    <row r="64" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>221</v>
       </c>
@@ -6603,7 +6663,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>251</v>
       </c>
@@ -6620,7 +6680,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="42">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>252</v>
       </c>
@@ -6637,7 +6697,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>253</v>
       </c>
@@ -6654,7 +6714,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>254</v>
       </c>
@@ -6671,7 +6731,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>255</v>
       </c>
@@ -6688,7 +6748,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>256</v>
       </c>
@@ -6705,7 +6765,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>257</v>
       </c>
@@ -6722,7 +6782,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="112">
+    <row r="72" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>258</v>
       </c>
@@ -6739,7 +6799,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="42">
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>262</v>
       </c>
@@ -6756,7 +6816,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>263</v>
       </c>
@@ -6773,7 +6833,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>264</v>
       </c>
@@ -6790,7 +6850,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="56">
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>265</v>
       </c>
@@ -6807,7 +6867,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>266</v>
       </c>
@@ -6824,7 +6884,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>267</v>
       </c>
@@ -6841,7 +6901,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="42">
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>268</v>
       </c>
@@ -6858,7 +6918,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="42">
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>269</v>
       </c>
@@ -6875,7 +6935,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>270</v>
       </c>
@@ -6892,7 +6952,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="42">
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>284</v>
       </c>
@@ -6909,7 +6969,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>301</v>
       </c>
@@ -6926,7 +6986,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="42">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>302</v>
       </c>
@@ -6943,7 +7003,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>304</v>
       </c>
@@ -6960,7 +7020,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="98">
+    <row r="86" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>305</v>
       </c>
@@ -6977,7 +7037,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="140">
+    <row r="87" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>306</v>
       </c>
@@ -6994,7 +7054,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>315</v>
       </c>
@@ -7011,7 +7071,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>316</v>
       </c>
@@ -7028,7 +7088,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>317</v>
       </c>
@@ -7045,7 +7105,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="84">
+    <row r="91" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>342</v>
       </c>
@@ -7062,7 +7122,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="84">
+    <row r="92" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>343</v>
       </c>
@@ -7079,7 +7139,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="112">
+    <row r="93" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>351</v>
       </c>
@@ -7096,7 +7156,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="112">
+    <row r="94" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>352</v>
       </c>
@@ -7113,7 +7173,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>353</v>
       </c>
@@ -7130,7 +7190,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>354</v>
       </c>
@@ -7147,7 +7207,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>355</v>
       </c>
@@ -7164,7 +7224,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>356</v>
       </c>
@@ -7181,7 +7241,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="56">
+    <row r="99" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>357</v>
       </c>
@@ -7198,7 +7258,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="70">
+    <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>358</v>
       </c>
@@ -7215,7 +7275,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="70">
+    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>359</v>
       </c>
@@ -7232,7 +7292,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="126">
+    <row r="102" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>360</v>
       </c>
@@ -7249,7 +7309,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="42">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>361</v>
       </c>
@@ -7266,7 +7326,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="28">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>362</v>
       </c>
@@ -7283,7 +7343,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="28">
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>363</v>
       </c>
@@ -7300,7 +7360,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="56">
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>364</v>
       </c>
@@ -7317,7 +7377,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="112">
+    <row r="107" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>365</v>
       </c>
@@ -7334,7 +7394,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>366</v>
       </c>
@@ -7351,7 +7411,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="126">
+    <row r="109" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>367</v>
       </c>
@@ -7368,7 +7428,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="28">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>368</v>
       </c>
@@ -7385,7 +7445,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="42">
+    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>372</v>
       </c>
@@ -7402,7 +7462,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="84">
+    <row r="112" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>375</v>
       </c>
@@ -7419,7 +7479,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="42">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>376</v>
       </c>
@@ -7436,7 +7496,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="42">
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>382</v>
       </c>
@@ -7453,7 +7513,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="56">
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>383</v>
       </c>
@@ -7470,7 +7530,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="70">
+    <row r="116" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>384</v>
       </c>
@@ -7487,7 +7547,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="70">
+    <row r="117" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>387</v>
       </c>
@@ -7504,7 +7564,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="70">
+    <row r="118" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>388</v>
       </c>
@@ -7521,7 +7581,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="84">
+    <row r="119" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>389</v>
       </c>
@@ -7538,7 +7598,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="196">
+    <row r="120" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>390</v>
       </c>
@@ -7555,7 +7615,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="98">
+    <row r="121" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>391</v>
       </c>
@@ -7572,7 +7632,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="42">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>392</v>
       </c>
@@ -7589,7 +7649,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="28">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>401</v>
       </c>
@@ -7606,7 +7666,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>402</v>
       </c>
@@ -7623,7 +7683,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="28">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>404</v>
       </c>
@@ -7640,7 +7700,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="28">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>406</v>
       </c>
@@ -7657,7 +7717,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="42">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>407</v>
       </c>
@@ -7674,7 +7734,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="28">
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>408</v>
       </c>
@@ -7691,7 +7751,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="28">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>409</v>
       </c>
@@ -7708,7 +7768,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="28">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>410</v>
       </c>
@@ -7725,7 +7785,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>415</v>
       </c>
@@ -7742,7 +7802,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="28">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>416</v>
       </c>
@@ -7759,7 +7819,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="56">
+    <row r="133" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>417</v>
       </c>
@@ -7776,7 +7836,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="168">
+    <row r="134" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>419</v>
       </c>
@@ -7793,7 +7853,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="28">
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>422</v>
       </c>
@@ -7810,7 +7870,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="28">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>449</v>
       </c>
@@ -7827,7 +7887,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="28">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>450</v>
       </c>
@@ -7844,7 +7904,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="42">
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>451</v>
       </c>
@@ -7861,7 +7921,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28">
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>453</v>
       </c>
@@ -7878,7 +7938,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="56">
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>454</v>
       </c>
@@ -7895,7 +7955,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="42">
+    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>455</v>
       </c>
@@ -7912,7 +7972,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="56">
+    <row r="142" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>456</v>
       </c>
@@ -7929,7 +7989,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="42">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>457</v>
       </c>
@@ -7946,7 +8006,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="42">
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>458</v>
       </c>
@@ -7963,7 +8023,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="56">
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>459</v>
       </c>
@@ -7980,7 +8040,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="42">
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>460</v>
       </c>
@@ -7997,7 +8057,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="28">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>461</v>
       </c>
@@ -8014,7 +8074,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="56">
+    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>462</v>
       </c>
@@ -8031,7 +8091,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="42">
+    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>463</v>
       </c>
@@ -8048,7 +8108,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="42">
+    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>464</v>
       </c>
@@ -8065,7 +8125,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="28">
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>465</v>
       </c>
@@ -8082,7 +8142,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="56">
+    <row r="152" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>466</v>
       </c>
@@ -8099,7 +8159,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="42">
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>467</v>
       </c>
@@ -8116,7 +8176,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="42">
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>468</v>
       </c>
@@ -8133,7 +8193,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="28">
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>469</v>
       </c>
@@ -8150,7 +8210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="98">
+    <row r="156" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>470</v>
       </c>
@@ -8167,7 +8227,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="42">
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>471</v>
       </c>
@@ -8184,7 +8244,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="42">
+    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>472</v>
       </c>
@@ -8201,7 +8261,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="42">
+    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>474</v>
       </c>
@@ -8218,7 +8278,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="28">
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>475</v>
       </c>
@@ -8235,7 +8295,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="28">
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>476</v>
       </c>
@@ -8252,7 +8312,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="56">
+    <row r="162" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>477</v>
       </c>
@@ -8269,7 +8329,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="409">
+    <row r="163" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>478</v>
       </c>
@@ -8286,7 +8346,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="56">
+    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>479</v>
       </c>
@@ -8303,7 +8363,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="56">
+    <row r="165" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>480</v>
       </c>
@@ -8320,7 +8380,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="28">
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>481</v>
       </c>
@@ -8337,7 +8397,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="56">
+    <row r="167" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>482</v>
       </c>
@@ -8354,7 +8414,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="84">
+    <row r="168" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>483</v>
       </c>
@@ -8371,7 +8431,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="42">
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>484</v>
       </c>
@@ -8388,7 +8448,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="28">
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>501</v>
       </c>
@@ -8405,7 +8465,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="28">
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>502</v>
       </c>
@@ -8422,7 +8482,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="28">
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>504</v>
       </c>
@@ -8439,7 +8499,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="28">
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>508</v>
       </c>
@@ -8456,7 +8516,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="28">
+    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>509</v>
       </c>
@@ -8473,7 +8533,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="28">
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>510</v>
       </c>
@@ -8490,7 +8550,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="28">
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>515</v>
       </c>
@@ -8507,7 +8567,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>516</v>
       </c>
@@ -8524,7 +8584,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="56">
+    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>517</v>
       </c>
@@ -8541,7 +8601,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="28">
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>522</v>
       </c>
@@ -8558,7 +8618,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="28">
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>549</v>
       </c>
@@ -8575,7 +8635,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="28">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>550</v>
       </c>
@@ -8592,7 +8652,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="42">
+    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>551</v>
       </c>
@@ -8609,7 +8669,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="28">
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>552</v>
       </c>
@@ -8626,7 +8686,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="154">
+    <row r="184" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>553</v>
       </c>
@@ -8643,7 +8703,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="112">
+    <row r="185" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>554</v>
       </c>
@@ -8660,7 +8720,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="42">
+    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>555</v>
       </c>
@@ -8677,7 +8737,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>556</v>
       </c>
@@ -8694,7 +8754,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="56">
+    <row r="188" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>557</v>
       </c>
@@ -8711,7 +8771,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="42">
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>558</v>
       </c>
@@ -8728,7 +8788,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="42">
+    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>559</v>
       </c>
@@ -8745,7 +8805,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="42">
+    <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>560</v>
       </c>
@@ -8762,7 +8822,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="42">
+    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>584</v>
       </c>
@@ -8779,7 +8839,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="28">
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>601</v>
       </c>
@@ -8796,7 +8856,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="28">
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>602</v>
       </c>
@@ -8813,7 +8873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="28">
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>604</v>
       </c>
@@ -8830,7 +8890,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="112">
+    <row r="196" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>605</v>
       </c>
@@ -8847,7 +8907,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="42">
+    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>606</v>
       </c>
@@ -8864,7 +8924,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="42">
+    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>607</v>
       </c>
@@ -8881,7 +8941,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="28">
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>608</v>
       </c>
@@ -8898,7 +8958,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="28">
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>609</v>
       </c>
@@ -8915,7 +8975,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="28">
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>610</v>
       </c>
@@ -8932,7 +8992,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="28">
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>615</v>
       </c>
@@ -8949,7 +9009,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="28">
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>616</v>
       </c>
@@ -8966,7 +9026,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="42">
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>617</v>
       </c>
@@ -8983,7 +9043,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="70">
+    <row r="205" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>618</v>
       </c>
@@ -9000,7 +9060,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="28">
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>622</v>
       </c>
@@ -9017,7 +9077,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="28">
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>623</v>
       </c>
@@ -9034,7 +9094,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="84">
+    <row r="208" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>640</v>
       </c>
@@ -9051,7 +9111,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="42">
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>641</v>
       </c>
@@ -9068,7 +9128,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="42">
+    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>652</v>
       </c>
@@ -9085,7 +9145,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="42">
+    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>653</v>
       </c>
@@ -9102,7 +9162,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="28">
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>654</v>
       </c>
@@ -9119,7 +9179,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="112">
+    <row r="213" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>655</v>
       </c>
@@ -9136,7 +9196,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="126">
+    <row r="214" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>656</v>
       </c>
@@ -9153,7 +9213,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="42">
+    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>661</v>
       </c>
@@ -9170,7 +9230,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="28">
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>664</v>
       </c>
@@ -9187,7 +9247,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="28">
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>667</v>
       </c>
@@ -9204,7 +9264,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="42">
+    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>669</v>
       </c>
@@ -9221,7 +9281,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="28">
+    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>670</v>
       </c>
@@ -9238,7 +9298,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="28">
+    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>701</v>
       </c>
@@ -9255,7 +9315,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="28">
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>702</v>
       </c>
@@ -9272,7 +9332,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="28">
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>704</v>
       </c>
@@ -9289,7 +9349,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="112">
+    <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>705</v>
       </c>
@@ -9306,7 +9366,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="28">
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>706</v>
       </c>
@@ -9323,7 +9383,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="42">
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>707</v>
       </c>
@@ -9340,7 +9400,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="28">
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>708</v>
       </c>
@@ -9357,7 +9417,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="28">
+    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>709</v>
       </c>
@@ -9374,7 +9434,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="28">
+    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>710</v>
       </c>
@@ -9391,7 +9451,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="28">
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>715</v>
       </c>
@@ -9408,7 +9468,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>716</v>
       </c>
@@ -9425,7 +9485,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="56">
+    <row r="231" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>717</v>
       </c>
@@ -9442,7 +9502,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="70">
+    <row r="232" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>718</v>
       </c>
@@ -9459,7 +9519,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="28">
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>720</v>
       </c>
@@ -9476,7 +9536,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="28">
+    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>722</v>
       </c>
@@ -9493,7 +9553,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="84">
+    <row r="235" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>740</v>
       </c>
@@ -9510,7 +9570,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="42">
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>741</v>
       </c>
@@ -9527,7 +9587,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="42">
+    <row r="237" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>751</v>
       </c>
@@ -9544,7 +9604,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="42">
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>752</v>
       </c>
@@ -9561,7 +9621,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="42">
+    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>753</v>
       </c>
@@ -9578,7 +9638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="28">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>754</v>
       </c>
@@ -9595,7 +9655,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="112">
+    <row r="241" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>755</v>
       </c>
@@ -9612,7 +9672,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="28">
+    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>757</v>
       </c>
@@ -9629,7 +9689,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="28">
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>758</v>
       </c>
@@ -9646,7 +9706,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="56">
+    <row r="244" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>759</v>
       </c>
@@ -9663,7 +9723,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="28">
+    <row r="245" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>760</v>
       </c>
@@ -9680,7 +9740,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="28">
+    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>761</v>
       </c>
@@ -9697,7 +9757,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="28">
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>1</v>
       </c>
@@ -9714,7 +9774,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>90</v>
       </c>
@@ -9731,7 +9791,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>92</v>
       </c>
@@ -9748,7 +9808,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="28">
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>93</v>
       </c>
@@ -9765,7 +9825,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="28">
+    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>94</v>
       </c>
@@ -9799,22 +9859,22 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>428</v>
       </c>
@@ -9834,7 +9894,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>656</v>
       </c>
@@ -9852,7 +9912,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="28" hidden="1">
+    <row r="3" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>758</v>
       </c>
@@ -9870,7 +9930,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>990</v>
       </c>
@@ -9888,7 +9948,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>991</v>
       </c>
@@ -9906,7 +9966,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>992</v>
       </c>
@@ -9924,7 +9984,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>991</v>
       </c>
@@ -9942,7 +10002,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>990</v>
       </c>
@@ -9960,7 +10020,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>656</v>
       </c>
@@ -9978,7 +10038,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="28" hidden="1">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>818</v>
       </c>
@@ -9996,7 +10056,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="42" hidden="1">
+    <row r="11" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>758</v>
       </c>
@@ -10014,7 +10074,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="28" hidden="1">
+    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>656</v>
       </c>
@@ -10032,7 +10092,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="42" hidden="1">
+    <row r="13" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -10050,7 +10110,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="28" hidden="1">
+    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -10068,7 +10128,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="42" hidden="1">
+    <row r="15" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -10086,7 +10146,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="28" hidden="1">
+    <row r="16" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>450</v>
       </c>
@@ -10104,7 +10164,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="42" hidden="1">
+    <row r="17" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>450</v>
       </c>
@@ -10122,7 +10182,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="42" hidden="1">
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -10140,7 +10200,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="42" hidden="1">
+    <row r="19" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>450</v>
       </c>
@@ -10158,7 +10218,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="280" hidden="1">
+    <row r="20" spans="1:7" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -10176,7 +10236,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="70" hidden="1">
+    <row r="21" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>720</v>
       </c>
@@ -10194,7 +10254,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>656</v>
       </c>
@@ -10212,7 +10272,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="28" hidden="1">
+    <row r="23" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>758</v>
       </c>
@@ -10230,7 +10290,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>758</v>
       </c>
@@ -10248,7 +10308,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="28" hidden="1">
+    <row r="25" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>989</v>
       </c>
@@ -10266,7 +10326,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1041</v>
       </c>
@@ -10284,7 +10344,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1043</v>
       </c>
@@ -10302,7 +10362,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>990</v>
       </c>
@@ -10323,7 +10383,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>991</v>
       </c>
@@ -10344,7 +10404,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>986</v>
       </c>
@@ -10364,7 +10424,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>987</v>
       </c>
@@ -10384,7 +10444,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>990</v>
       </c>
@@ -10402,7 +10462,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>991</v>
       </c>
@@ -10420,7 +10480,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="56" hidden="1">
+    <row r="34" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>991</v>
       </c>
@@ -10441,7 +10501,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>656</v>
       </c>
@@ -10461,7 +10521,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28" hidden="1">
+    <row r="36" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>758</v>
       </c>
@@ -10481,7 +10541,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>841</v>
       </c>
@@ -10501,7 +10561,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1045</v>
       </c>
@@ -10519,7 +10579,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="28" hidden="1">
+    <row r="39" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>907</v>
       </c>
@@ -10539,7 +10599,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>986</v>
       </c>
@@ -10559,7 +10619,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>987</v>
       </c>
@@ -10579,7 +10639,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>988</v>
       </c>
@@ -10599,7 +10659,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>988</v>
       </c>
@@ -10619,7 +10679,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>656</v>
       </c>
@@ -10639,7 +10699,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>836</v>
       </c>
@@ -10659,7 +10719,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>841</v>
       </c>
@@ -10679,7 +10739,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>841</v>
       </c>
@@ -10699,7 +10759,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>930</v>
       </c>
@@ -10719,7 +10779,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>987</v>
       </c>
@@ -10739,7 +10799,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>986</v>
       </c>
@@ -10759,7 +10819,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="42" hidden="1">
+    <row r="51" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>841</v>
       </c>
@@ -10779,7 +10839,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="56" hidden="1">
+    <row r="52" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>930</v>
       </c>
@@ -10802,7 +10862,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28" hidden="1">
+    <row r="53" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>758</v>
       </c>
@@ -10822,7 +10882,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>758</v>
       </c>
@@ -10842,7 +10902,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="70" hidden="1">
+    <row r="55" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>758</v>
       </c>
@@ -10862,7 +10922,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28" hidden="1">
+    <row r="56" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>841</v>
       </c>
@@ -10882,7 +10942,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28" hidden="1">
+    <row r="57" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>836</v>
       </c>
@@ -10902,7 +10962,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28" hidden="1">
+    <row r="58" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>841</v>
       </c>
@@ -10922,7 +10982,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="56" hidden="1">
+    <row r="59" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>841</v>
       </c>
@@ -10942,7 +11002,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28" hidden="1">
+    <row r="60" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>907</v>
       </c>
@@ -10962,7 +11022,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>930</v>
       </c>
@@ -10982,7 +11042,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28" hidden="1">
+    <row r="62" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>930</v>
       </c>
@@ -11002,7 +11062,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42" hidden="1">
+    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>907</v>
       </c>
@@ -11025,7 +11085,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28" hidden="1">
+    <row r="64" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>841</v>
       </c>
@@ -11045,7 +11105,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="98" hidden="1">
+    <row r="65" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>841</v>
       </c>
@@ -11065,7 +11125,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28" hidden="1">
+    <row r="66" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>841</v>
       </c>
@@ -11085,7 +11145,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28" hidden="1">
+    <row r="67" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>841</v>
       </c>
@@ -11105,7 +11165,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>930</v>
       </c>
@@ -11125,7 +11185,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28" hidden="1">
+    <row r="69" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>953</v>
       </c>
@@ -11146,7 +11206,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="28" hidden="1">
+    <row r="70" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>957</v>
       </c>
@@ -11167,7 +11227,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="28" hidden="1">
+    <row r="71" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>963</v>
       </c>
@@ -11188,7 +11248,7 @@
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>656</v>
       </c>
@@ -11209,7 +11269,7 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="28" hidden="1">
+    <row r="73" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>968</v>
       </c>
@@ -11230,7 +11290,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="28" hidden="1">
+    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>975</v>
       </c>
@@ -11251,7 +11311,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="28" hidden="1">
+    <row r="75" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>758</v>
       </c>
@@ -11272,7 +11332,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>656</v>
       </c>
@@ -11293,7 +11353,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="28" hidden="1">
+    <row r="77" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>441</v>
       </c>
@@ -11314,7 +11374,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="28" hidden="1">
+    <row r="78" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>669</v>
       </c>
@@ -11335,7 +11395,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="28" hidden="1">
+    <row r="79" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>676</v>
       </c>
@@ -11356,7 +11416,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="28" hidden="1">
+    <row r="80" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>687</v>
       </c>
@@ -11377,7 +11437,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="28" hidden="1">
+    <row r="81" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>687</v>
       </c>
@@ -11398,7 +11458,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="28" hidden="1">
+    <row r="82" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>968</v>
       </c>
@@ -11419,7 +11479,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="28" hidden="1">
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>975</v>
       </c>
@@ -11440,7 +11500,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="28" hidden="1">
+    <row r="84" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>676</v>
       </c>
@@ -11461,7 +11521,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="28" hidden="1">
+    <row r="85" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>687</v>
       </c>
@@ -11482,7 +11542,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="28" hidden="1">
+    <row r="86" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>963</v>
       </c>
@@ -11503,7 +11563,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="28" hidden="1">
+    <row r="87" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>968</v>
       </c>
@@ -11524,7 +11584,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="42" hidden="1">
+    <row r="88" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>676</v>
       </c>
@@ -11545,7 +11605,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="42" hidden="1">
+    <row r="89" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>687</v>
       </c>
@@ -11566,7 +11626,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="42" hidden="1">
+    <row r="90" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>963</v>
       </c>
@@ -11587,7 +11647,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="42" hidden="1">
+    <row r="91" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>968</v>
       </c>
@@ -11608,7 +11668,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="28" hidden="1">
+    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>758</v>
       </c>
@@ -11629,7 +11689,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>758</v>
       </c>
@@ -11650,7 +11710,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="70" hidden="1">
+    <row r="94" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>758</v>
       </c>
@@ -11671,7 +11731,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="378" hidden="1">
+    <row r="95" spans="1:7" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>676</v>
       </c>
@@ -11692,7 +11752,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="154" hidden="1">
+    <row r="96" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>676</v>
       </c>
@@ -11713,7 +11773,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="238" hidden="1">
+    <row r="97" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>687</v>
       </c>
@@ -11734,7 +11794,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="28" hidden="1">
+    <row r="98" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>957</v>
       </c>
@@ -11755,7 +11815,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="28" hidden="1">
+    <row r="99" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>441</v>
       </c>
@@ -11776,7 +11836,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>669</v>
       </c>
@@ -11797,7 +11857,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="28" hidden="1">
+    <row r="101" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>669</v>
       </c>
@@ -11818,7 +11878,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="28" hidden="1">
+    <row r="102" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>687</v>
       </c>
@@ -11839,7 +11899,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>957</v>
       </c>
@@ -11860,7 +11920,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="42" hidden="1">
+    <row r="104" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -11881,7 +11941,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="126" hidden="1">
+    <row r="105" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>687</v>
       </c>
@@ -11902,7 +11962,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>953</v>
       </c>
@@ -11923,7 +11983,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="56" hidden="1">
+    <row r="107" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>687</v>
       </c>
@@ -11944,7 +12004,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="28" hidden="1">
+    <row r="108" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>687</v>
       </c>
@@ -11965,7 +12025,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="28" hidden="1">
+    <row r="109" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>687</v>
       </c>
@@ -11986,7 +12046,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>968</v>
       </c>
@@ -12007,7 +12067,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>656</v>
       </c>
@@ -12028,7 +12088,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="28" hidden="1">
+    <row r="112" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>758</v>
       </c>
@@ -12049,7 +12109,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" ht="28" hidden="1">
+    <row r="113" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>450</v>
       </c>
@@ -12070,7 +12130,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" ht="28" hidden="1">
+    <row r="114" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>465</v>
       </c>
@@ -12093,7 +12153,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="28" hidden="1">
+    <row r="115" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>478</v>
       </c>
@@ -12116,7 +12176,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="28" hidden="1">
+    <row r="116" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -12137,7 +12197,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>656</v>
       </c>
@@ -12158,7 +12218,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" ht="28" hidden="1">
+    <row r="118" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>704</v>
       </c>
@@ -12179,7 +12239,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" ht="28" hidden="1">
+    <row r="119" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>720</v>
       </c>
@@ -12202,7 +12262,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28" hidden="1">
+    <row r="120" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>738</v>
       </c>
@@ -12223,7 +12283,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" ht="28" hidden="1">
+    <row r="121" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>748</v>
       </c>
@@ -12244,7 +12304,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" ht="28" hidden="1">
+    <row r="122" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>783</v>
       </c>
@@ -12265,7 +12325,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" ht="84" hidden="1">
+    <row r="123" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>465</v>
       </c>
@@ -12286,7 +12346,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" ht="126" hidden="1">
+    <row r="124" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>783</v>
       </c>
@@ -12307,7 +12367,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" ht="28" hidden="1">
+    <row r="125" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>758</v>
       </c>
@@ -12328,7 +12388,7 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>758</v>
       </c>
@@ -12349,7 +12409,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" ht="70" hidden="1">
+    <row r="127" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>758</v>
       </c>
@@ -12370,7 +12430,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" ht="70" hidden="1">
+    <row r="128" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>465</v>
       </c>
@@ -12391,7 +12451,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" ht="70" hidden="1">
+    <row r="129" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>720</v>
       </c>
@@ -12412,7 +12472,7 @@
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" ht="140" hidden="1">
+    <row r="130" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>720</v>
       </c>
@@ -12433,7 +12493,7 @@
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" ht="98" hidden="1">
+    <row r="131" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>465</v>
       </c>
@@ -12454,7 +12514,7 @@
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" ht="98" hidden="1">
+    <row r="132" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>478</v>
       </c>
@@ -12475,7 +12535,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" ht="98" hidden="1">
+    <row r="133" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>488</v>
       </c>
@@ -12496,7 +12556,7 @@
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" ht="112" hidden="1">
+    <row r="134" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>704</v>
       </c>
@@ -12517,7 +12577,7 @@
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" ht="126" hidden="1">
+    <row r="135" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>720</v>
       </c>
@@ -12538,7 +12598,7 @@
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" ht="140" hidden="1">
+    <row r="136" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>738</v>
       </c>
@@ -12559,7 +12619,7 @@
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" ht="140" hidden="1">
+    <row r="137" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>748</v>
       </c>
@@ -12580,7 +12640,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="112" hidden="1">
+    <row r="138" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>783</v>
       </c>
@@ -12601,7 +12661,7 @@
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" ht="28" hidden="1">
+    <row r="139" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>720</v>
       </c>
@@ -12622,7 +12682,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" ht="28" hidden="1">
+    <row r="140" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>704</v>
       </c>
@@ -12643,7 +12703,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" ht="28" hidden="1">
+    <row r="141" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>465</v>
       </c>
@@ -12664,7 +12724,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>704</v>
       </c>
@@ -12687,7 +12747,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="28" hidden="1">
+    <row r="143" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>720</v>
       </c>
@@ -12710,7 +12770,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="42" hidden="1">
+    <row r="144" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>738</v>
       </c>
@@ -12731,7 +12791,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="56" hidden="1">
+    <row r="145" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>738</v>
       </c>
@@ -12752,7 +12812,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="84" hidden="1">
+    <row r="146" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>704</v>
       </c>
@@ -12773,7 +12833,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="98" hidden="1">
+    <row r="147" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>748</v>
       </c>
@@ -12794,7 +12854,7 @@
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" ht="28" hidden="1">
+    <row r="148" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>748</v>
       </c>
@@ -12815,7 +12875,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" ht="28" hidden="1">
+    <row r="149" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>783</v>
       </c>
@@ -12836,7 +12896,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" ht="28" hidden="1">
+    <row r="150" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>478</v>
       </c>
@@ -12857,7 +12917,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="28" hidden="1">
+    <row r="151" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>488</v>
       </c>
@@ -12878,7 +12938,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="42" hidden="1">
+    <row r="152" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>478</v>
       </c>
@@ -12899,7 +12959,7 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" ht="42" hidden="1">
+    <row r="153" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>488</v>
       </c>
@@ -12920,7 +12980,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="70" hidden="1">
+    <row r="154" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>783</v>
       </c>
@@ -12941,7 +13001,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="84" hidden="1">
+    <row r="155" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>488</v>
       </c>
@@ -12962,7 +13022,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="56" hidden="1">
+    <row r="156" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>465</v>
       </c>
@@ -12980,7 +13040,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="42" hidden="1">
+    <row r="157" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>720</v>
       </c>
@@ -12998,7 +13058,7 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="112" hidden="1">
+    <row r="158" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>704</v>
       </c>
@@ -13016,7 +13076,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="56" hidden="1">
+    <row r="159" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>720</v>
       </c>
@@ -13034,7 +13094,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="56" hidden="1">
+    <row r="160" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -13052,7 +13112,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="70" hidden="1">
+    <row r="161" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -13070,7 +13130,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="70" hidden="1">
+    <row r="162" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>738</v>
       </c>
@@ -13088,7 +13148,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="84" hidden="1">
+    <row r="163" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>748</v>
       </c>
@@ -13106,7 +13166,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" ht="224" hidden="1">
+    <row r="164" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>704</v>
       </c>
@@ -13124,7 +13184,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" ht="112" hidden="1">
+    <row r="165" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>720</v>
       </c>
@@ -13145,7 +13205,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="56" hidden="1">
+    <row r="166" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>783</v>
       </c>
@@ -13163,7 +13223,7 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" ht="28">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>496</v>
       </c>
@@ -13184,7 +13244,7 @@
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" ht="28">
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>501</v>
       </c>
@@ -13205,7 +13265,7 @@
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>656</v>
       </c>
@@ -13226,7 +13286,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="28">
+    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>758</v>
       </c>
@@ -13247,7 +13307,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" ht="42" customHeight="1">
+    <row r="171" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>794</v>
       </c>
@@ -13268,7 +13328,7 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="28">
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>508</v>
       </c>
@@ -13289,7 +13349,7 @@
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" ht="28">
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>528</v>
       </c>
@@ -13310,7 +13370,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>532</v>
       </c>
@@ -13331,7 +13391,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="28">
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>536</v>
       </c>
@@ -13352,7 +13412,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="28">
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>550</v>
       </c>
@@ -13373,7 +13433,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>656</v>
       </c>
@@ -13394,7 +13454,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="28">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>807</v>
       </c>
@@ -13415,7 +13475,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="28">
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>813</v>
       </c>
@@ -13436,7 +13496,7 @@
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="28">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>818</v>
       </c>
@@ -13457,7 +13517,7 @@
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="28">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>823</v>
       </c>
@@ -13478,7 +13538,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="28">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>831</v>
       </c>
@@ -13499,7 +13559,7 @@
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="28">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>860</v>
       </c>
@@ -13520,7 +13580,7 @@
       </c>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" ht="28">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>867</v>
       </c>
@@ -13541,7 +13601,7 @@
       </c>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" ht="28">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>877</v>
       </c>
@@ -13562,7 +13622,7 @@
       </c>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" ht="28">
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>501</v>
       </c>
@@ -13583,7 +13643,7 @@
       </c>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" ht="28">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>536</v>
       </c>
@@ -13604,7 +13664,7 @@
       </c>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" ht="28">
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>550</v>
       </c>
@@ -13625,7 +13685,7 @@
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" ht="28">
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>867</v>
       </c>
@@ -13646,7 +13706,7 @@
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" ht="28">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>867</v>
       </c>
@@ -13662,9 +13722,12 @@
       <c r="E190" t="s">
         <v>500</v>
       </c>
+      <c r="F190" t="s">
+        <v>1168</v>
+      </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>508</v>
       </c>
@@ -13685,7 +13748,7 @@
       </c>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="28">
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>508</v>
       </c>
@@ -13706,7 +13769,7 @@
       </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>508</v>
       </c>
@@ -13727,7 +13790,7 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" ht="28">
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>758</v>
       </c>
@@ -13748,7 +13811,7 @@
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -13769,7 +13832,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" ht="70">
+    <row r="196" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>758</v>
       </c>
@@ -13790,7 +13853,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" ht="280">
+    <row r="197" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>536</v>
       </c>
@@ -13811,7 +13874,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" ht="266">
+    <row r="198" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>867</v>
       </c>
@@ -13829,7 +13892,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>508</v>
       </c>
@@ -13850,7 +13913,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>508</v>
       </c>
@@ -13871,7 +13934,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>508</v>
       </c>
@@ -13892,7 +13955,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>823</v>
       </c>
@@ -13913,7 +13976,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>831</v>
       </c>
@@ -13934,7 +13997,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" ht="42">
+    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>508</v>
       </c>
@@ -13955,7 +14018,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" ht="56">
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>807</v>
       </c>
@@ -13976,7 +14039,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" ht="56">
+    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>813</v>
       </c>
@@ -13997,7 +14060,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" ht="42">
+    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>823</v>
       </c>
@@ -14018,7 +14081,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" ht="42">
+    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>831</v>
       </c>
@@ -14039,7 +14102,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" ht="42">
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>860</v>
       </c>
@@ -14060,7 +14123,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" ht="56">
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>536</v>
       </c>
@@ -14076,9 +14139,12 @@
       <c r="E210" t="s">
         <v>500</v>
       </c>
+      <c r="F210" t="s">
+        <v>1167</v>
+      </c>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" ht="28">
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>860</v>
       </c>
@@ -14099,7 +14165,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" ht="28">
+    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>508</v>
       </c>
@@ -14120,7 +14186,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" ht="42">
+    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>528</v>
       </c>
@@ -14141,7 +14207,7 @@
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" ht="42">
+    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>532</v>
       </c>
@@ -14162,7 +14228,7 @@
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" ht="56">
+    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>550</v>
       </c>
@@ -14183,7 +14249,7 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" ht="42">
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>823</v>
       </c>
@@ -14204,7 +14270,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="42">
+    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>831</v>
       </c>
@@ -14220,9 +14286,12 @@
       <c r="E217" t="s">
         <v>500</v>
       </c>
+      <c r="F217" t="s">
+        <v>1149</v>
+      </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" ht="42">
+    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>867</v>
       </c>
@@ -14238,9 +14307,12 @@
       <c r="E218" t="s">
         <v>500</v>
       </c>
+      <c r="F218" t="s">
+        <v>1149</v>
+      </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" ht="42">
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>550</v>
       </c>
@@ -14256,9 +14328,12 @@
       <c r="E219" t="s">
         <v>500</v>
       </c>
+      <c r="F219" t="s">
+        <v>1150</v>
+      </c>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" ht="28">
+    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>877</v>
       </c>
@@ -14274,9 +14349,12 @@
       <c r="E220" t="s">
         <v>500</v>
       </c>
+      <c r="F220" t="s">
+        <v>1150</v>
+      </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>794</v>
       </c>
@@ -14292,9 +14370,12 @@
       <c r="E221" t="s">
         <v>500</v>
       </c>
+      <c r="F221" t="s">
+        <v>1151</v>
+      </c>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" ht="42">
+    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -14310,9 +14391,12 @@
       <c r="E222" t="s">
         <v>500</v>
       </c>
+      <c r="F222" t="s">
+        <v>1152</v>
+      </c>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" ht="56">
+    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>536</v>
       </c>
@@ -14328,9 +14412,12 @@
       <c r="E223" t="s">
         <v>500</v>
       </c>
+      <c r="F223" t="s">
+        <v>1153</v>
+      </c>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" ht="42">
+    <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>794</v>
       </c>
@@ -14346,9 +14433,12 @@
       <c r="E224" t="s">
         <v>500</v>
       </c>
+      <c r="F224" t="s">
+        <v>1154</v>
+      </c>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" ht="28">
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>794</v>
       </c>
@@ -14364,9 +14454,12 @@
       <c r="E225" t="s">
         <v>500</v>
       </c>
+      <c r="F225" t="s">
+        <v>1155</v>
+      </c>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" ht="28">
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>794</v>
       </c>
@@ -14382,9 +14475,12 @@
       <c r="E226" t="s">
         <v>500</v>
       </c>
+      <c r="F226" t="s">
+        <v>1155</v>
+      </c>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" ht="28">
+    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>877</v>
       </c>
@@ -14400,9 +14496,12 @@
       <c r="E227" t="s">
         <v>500</v>
       </c>
+      <c r="F227" t="s">
+        <v>1156</v>
+      </c>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" ht="28">
+    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>823</v>
       </c>
@@ -14418,9 +14517,12 @@
       <c r="E228" t="s">
         <v>500</v>
       </c>
+      <c r="F228" s="3" t="s">
+        <v>1157</v>
+      </c>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" ht="28">
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>550</v>
       </c>
@@ -14436,9 +14538,12 @@
       <c r="E229" t="s">
         <v>500</v>
       </c>
+      <c r="F229" t="s">
+        <v>1161</v>
+      </c>
       <c r="G229"/>
     </row>
-    <row r="230" spans="1:7" ht="28">
+    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>877</v>
       </c>
@@ -14454,9 +14559,12 @@
       <c r="E230" t="s">
         <v>500</v>
       </c>
+      <c r="F230" t="s">
+        <v>1162</v>
+      </c>
       <c r="G230"/>
     </row>
-    <row r="231" spans="1:7" ht="28">
+    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>550</v>
       </c>
@@ -14472,9 +14580,12 @@
       <c r="E231" t="s">
         <v>500</v>
       </c>
+      <c r="F231" t="s">
+        <v>1163</v>
+      </c>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" ht="56">
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>536</v>
       </c>
@@ -14490,9 +14601,12 @@
       <c r="E232" t="s">
         <v>500</v>
       </c>
+      <c r="F232" t="s">
+        <v>1164</v>
+      </c>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" ht="210">
+    <row r="233" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>501</v>
       </c>
@@ -14508,9 +14622,12 @@
       <c r="E233" t="s">
         <v>500</v>
       </c>
+      <c r="F233" t="s">
+        <v>1165</v>
+      </c>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7" ht="42">
+    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>867</v>
       </c>
@@ -14526,9 +14643,12 @@
       <c r="E234" t="s">
         <v>500</v>
       </c>
+      <c r="F234" t="s">
+        <v>1166</v>
+      </c>
       <c r="G234"/>
     </row>
-    <row r="235" spans="1:7" ht="42">
+    <row r="235" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>508</v>
       </c>
@@ -14544,9 +14664,12 @@
       <c r="E235" t="s">
         <v>500</v>
       </c>
+      <c r="F235" t="s">
+        <v>1158</v>
+      </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" ht="84">
+    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>794</v>
       </c>
@@ -14562,9 +14685,12 @@
       <c r="E236" t="s">
         <v>500</v>
       </c>
+      <c r="F236" t="s">
+        <v>1159</v>
+      </c>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" ht="70">
+    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>807</v>
       </c>
@@ -14580,9 +14706,12 @@
       <c r="E237" t="s">
         <v>500</v>
       </c>
+      <c r="F237" t="s">
+        <v>1160</v>
+      </c>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" ht="70">
+    <row r="238" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>813</v>
       </c>
@@ -14598,9 +14727,12 @@
       <c r="E238" t="s">
         <v>500</v>
       </c>
+      <c r="F238" t="s">
+        <v>1160</v>
+      </c>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7" ht="70">
+    <row r="239" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>818</v>
       </c>
@@ -14616,9 +14748,12 @@
       <c r="E239" t="s">
         <v>500</v>
       </c>
+      <c r="F239" t="s">
+        <v>1160</v>
+      </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>656</v>
       </c>
@@ -14636,7 +14771,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="28" hidden="1">
+    <row r="241" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>758</v>
       </c>
@@ -14654,7 +14789,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" ht="28" hidden="1">
+    <row r="242" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>886</v>
       </c>
@@ -14672,7 +14807,7 @@
       </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" ht="28" hidden="1">
+    <row r="243" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>561</v>
       </c>
@@ -14690,7 +14825,7 @@
       </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7" hidden="1">
+    <row r="244" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>656</v>
       </c>
@@ -14708,7 +14843,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="28" hidden="1">
+    <row r="245" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>891</v>
       </c>
@@ -14726,7 +14861,7 @@
       </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" ht="28" hidden="1">
+    <row r="246" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>897</v>
       </c>
@@ -14744,7 +14879,7 @@
       </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" ht="28" hidden="1">
+    <row r="247" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>903</v>
       </c>
@@ -14762,7 +14897,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" hidden="1">
+    <row r="248" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>561</v>
       </c>
@@ -14780,7 +14915,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="28" hidden="1">
+    <row r="249" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>561</v>
       </c>
@@ -14798,7 +14933,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>561</v>
       </c>
@@ -14816,7 +14951,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" ht="28" hidden="1">
+    <row r="251" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>758</v>
       </c>
@@ -14834,7 +14969,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -14852,7 +14987,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" ht="70" hidden="1">
+    <row r="253" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>758</v>
       </c>
@@ -14870,7 +15005,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" hidden="1">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>561</v>
       </c>
@@ -14888,7 +15023,7 @@
       </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" ht="28" hidden="1">
+    <row r="255" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>561</v>
       </c>
@@ -14906,7 +15041,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="28" hidden="1">
+    <row r="256" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>561</v>
       </c>
@@ -14924,7 +15059,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="42" hidden="1">
+    <row r="257" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>891</v>
       </c>
@@ -14942,7 +15077,7 @@
       </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" ht="28" hidden="1">
+    <row r="258" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -14960,7 +15095,7 @@
       </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" ht="28" hidden="1">
+    <row r="259" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>903</v>
       </c>
@@ -14978,7 +15113,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="112" hidden="1">
+    <row r="260" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>891</v>
       </c>
@@ -14996,7 +15131,7 @@
       </c>
       <c r="G260"/>
     </row>
-    <row r="261" spans="1:7" ht="70" hidden="1">
+    <row r="261" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>561</v>
       </c>
@@ -15014,7 +15149,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" hidden="1">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -15032,7 +15167,7 @@
       </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" ht="42" hidden="1">
+    <row r="263" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>886</v>
       </c>
@@ -15050,7 +15185,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="42" hidden="1">
+    <row r="264" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>897</v>
       </c>
@@ -15068,7 +15203,7 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" ht="28" hidden="1">
+    <row r="265" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>582</v>
       </c>
@@ -15086,7 +15221,7 @@
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" ht="28" hidden="1">
+    <row r="266" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>588</v>
       </c>
@@ -15104,7 +15239,7 @@
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" ht="28" hidden="1">
+    <row r="267" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>600</v>
       </c>
@@ -15122,7 +15257,7 @@
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" ht="28" hidden="1">
+    <row r="268" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>603</v>
       </c>
@@ -15140,7 +15275,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="28" hidden="1">
+    <row r="269" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>606</v>
       </c>
@@ -15158,7 +15293,7 @@
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" ht="28" hidden="1">
+    <row r="270" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>613</v>
       </c>
@@ -15176,7 +15311,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="28" hidden="1">
+    <row r="271" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>630</v>
       </c>
@@ -15194,7 +15329,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" ht="28" hidden="1">
+    <row r="272" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>650</v>
       </c>
@@ -15212,7 +15347,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" hidden="1">
+    <row r="273" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>656</v>
       </c>
@@ -15230,7 +15365,7 @@
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" ht="28" hidden="1">
+    <row r="274" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>758</v>
       </c>
@@ -15248,7 +15383,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="28" hidden="1">
+    <row r="275" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>913</v>
       </c>
@@ -15266,7 +15401,7 @@
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" ht="28" hidden="1">
+    <row r="276" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>924</v>
       </c>
@@ -15284,7 +15419,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" hidden="1">
+    <row r="277" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>432</v>
       </c>
@@ -15302,7 +15437,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" ht="28" hidden="1">
+    <row r="278" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>438</v>
       </c>
@@ -15320,7 +15455,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" ht="28" hidden="1">
+    <row r="279" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>613</v>
       </c>
@@ -15338,7 +15473,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="28" hidden="1">
+    <row r="280" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>653</v>
       </c>
@@ -15356,7 +15491,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" hidden="1">
+    <row r="281" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>656</v>
       </c>
@@ -15374,7 +15509,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="28" hidden="1">
+    <row r="282" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>938</v>
       </c>
@@ -15392,7 +15527,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="28" hidden="1">
+    <row r="283" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>941</v>
       </c>
@@ -15410,7 +15545,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="98" hidden="1">
+    <row r="284" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>913</v>
       </c>
@@ -15428,7 +15563,7 @@
       </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" ht="28" hidden="1">
+    <row r="285" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>613</v>
       </c>
@@ -15446,7 +15581,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="28" hidden="1">
+    <row r="286" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>613</v>
       </c>
@@ -15464,7 +15599,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" hidden="1">
+    <row r="287" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>630</v>
       </c>
@@ -15482,7 +15617,7 @@
       </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" ht="28" hidden="1">
+    <row r="288" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>630</v>
       </c>
@@ -15500,7 +15635,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" hidden="1">
+    <row r="289" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>630</v>
       </c>
@@ -15518,7 +15653,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" ht="28" hidden="1">
+    <row r="290" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>588</v>
       </c>
@@ -15536,7 +15671,7 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" ht="28" hidden="1">
+    <row r="291" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>758</v>
       </c>
@@ -15554,7 +15689,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" ht="28" hidden="1">
+    <row r="292" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>588</v>
       </c>
@@ -15572,7 +15707,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" hidden="1">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>758</v>
       </c>
@@ -15590,7 +15725,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" ht="70" hidden="1">
+    <row r="294" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>588</v>
       </c>
@@ -15608,7 +15743,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="70" hidden="1">
+    <row r="295" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>758</v>
       </c>
@@ -15626,7 +15761,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" ht="56" hidden="1">
+    <row r="296" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>913</v>
       </c>
@@ -15644,7 +15779,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" hidden="1">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>630</v>
       </c>
@@ -15662,7 +15797,7 @@
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" ht="28" hidden="1">
+    <row r="298" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>432</v>
       </c>
@@ -15680,7 +15815,7 @@
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" ht="28" hidden="1">
+    <row r="299" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>438</v>
       </c>
@@ -15698,7 +15833,7 @@
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" ht="84" hidden="1">
+    <row r="300" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>941</v>
       </c>
@@ -15716,7 +15851,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="28" hidden="1">
+    <row r="301" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>630</v>
       </c>
@@ -15734,7 +15869,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" ht="42" hidden="1">
+    <row r="302" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>941</v>
       </c>
@@ -15752,7 +15887,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="28" hidden="1">
+    <row r="303" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>941</v>
       </c>
@@ -15770,7 +15905,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" hidden="1">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>613</v>
       </c>
@@ -15788,7 +15923,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="126" hidden="1">
+    <row r="305" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>613</v>
       </c>
@@ -15806,7 +15941,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" ht="70" hidden="1">
+    <row r="306" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>913</v>
       </c>
@@ -15824,7 +15959,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="28" hidden="1">
+    <row r="307" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>924</v>
       </c>
@@ -15842,7 +15977,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" hidden="1">
+    <row r="308" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>432</v>
       </c>
@@ -15860,7 +15995,7 @@
       </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" ht="28" hidden="1">
+    <row r="309" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>606</v>
       </c>
@@ -15878,7 +16013,7 @@
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="28" hidden="1">
+    <row r="310" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>438</v>
       </c>
@@ -15896,7 +16031,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" ht="28" hidden="1">
+    <row r="311" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>582</v>
       </c>
@@ -15914,7 +16049,7 @@
       </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" ht="28" hidden="1">
+    <row r="312" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>588</v>
       </c>
@@ -15932,7 +16067,7 @@
       </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" ht="28" hidden="1">
+    <row r="313" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>600</v>
       </c>
@@ -15950,7 +16085,7 @@
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" ht="28" hidden="1">
+    <row r="314" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>606</v>
       </c>
@@ -15968,7 +16103,7 @@
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="28" hidden="1">
+    <row r="315" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>613</v>
       </c>
@@ -15986,7 +16121,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="28" hidden="1">
+    <row r="316" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -16004,7 +16139,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" ht="28" hidden="1">
+    <row r="317" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>650</v>
       </c>
@@ -16022,7 +16157,7 @@
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="28" hidden="1">
+    <row r="318" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>913</v>
       </c>
@@ -16040,7 +16175,7 @@
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="28" hidden="1">
+    <row r="319" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>924</v>
       </c>
@@ -16058,7 +16193,7 @@
       </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" ht="28" hidden="1">
+    <row r="320" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>613</v>
       </c>
@@ -16076,7 +16211,7 @@
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" ht="28" hidden="1">
+    <row r="321" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>653</v>
       </c>
@@ -16094,7 +16229,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" ht="28" hidden="1">
+    <row r="322" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>938</v>
       </c>
@@ -16112,7 +16247,7 @@
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" ht="28" hidden="1">
+    <row r="323" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>941</v>
       </c>
@@ -16130,7 +16265,7 @@
       </c>
       <c r="G323"/>
     </row>
-    <row r="324" spans="1:7" hidden="1">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1043</v>
       </c>
@@ -16148,7 +16283,7 @@
       </c>
       <c r="G324"/>
     </row>
-    <row r="325" spans="1:7" hidden="1">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1041</v>
       </c>
@@ -16166,7 +16301,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" ht="98" hidden="1">
+    <row r="326" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>913</v>
       </c>
@@ -16184,7 +16319,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" ht="28" hidden="1">
+    <row r="327" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>613</v>
       </c>
@@ -16202,7 +16337,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" ht="28" hidden="1">
+    <row r="328" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>613</v>
       </c>
@@ -16220,7 +16355,7 @@
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7" hidden="1">
+    <row r="329" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>630</v>
       </c>
@@ -16238,7 +16373,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="28" hidden="1">
+    <row r="330" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>630</v>
       </c>
@@ -16256,7 +16391,7 @@
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7" hidden="1">
+    <row r="331" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>630</v>
       </c>
@@ -16274,7 +16409,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" ht="28" hidden="1">
+    <row r="332" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>588</v>
       </c>
@@ -16292,7 +16427,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" ht="28" hidden="1">
+    <row r="333" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>588</v>
       </c>
@@ -16310,7 +16445,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" ht="70" hidden="1">
+    <row r="334" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>588</v>
       </c>
@@ -16328,7 +16463,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" ht="56" hidden="1">
+    <row r="335" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>913</v>
       </c>
@@ -16346,7 +16481,7 @@
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7" hidden="1">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>630</v>
       </c>
@@ -16364,7 +16499,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" ht="84" hidden="1">
+    <row r="337" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>941</v>
       </c>
@@ -16382,7 +16517,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" ht="28" hidden="1">
+    <row r="338" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>630</v>
       </c>
@@ -16400,7 +16535,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" ht="42" hidden="1">
+    <row r="339" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>941</v>
       </c>
@@ -16418,7 +16553,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" ht="28" hidden="1">
+    <row r="340" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>941</v>
       </c>
@@ -16436,7 +16571,7 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7" hidden="1">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>613</v>
       </c>
@@ -16454,7 +16589,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" ht="126" hidden="1">
+    <row r="342" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>613</v>
       </c>
@@ -16472,7 +16607,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" ht="28" hidden="1">
+    <row r="343" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>924</v>
       </c>
@@ -16490,7 +16625,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" ht="28" hidden="1">
+    <row r="344" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>606</v>
       </c>
@@ -16508,7 +16643,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" ht="28" hidden="1">
+    <row r="345" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>630</v>
       </c>
@@ -16551,18 +16686,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="165.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="165.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>993</v>
       </c>
@@ -16570,7 +16705,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>995</v>
       </c>
@@ -16578,7 +16713,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>997</v>
       </c>
@@ -16586,7 +16721,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>999</v>
       </c>
@@ -16594,7 +16729,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1001</v>
       </c>
@@ -16602,7 +16737,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1003</v>
       </c>
@@ -16610,7 +16745,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1005</v>
       </c>
@@ -16618,7 +16753,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1007</v>
       </c>
@@ -16626,7 +16761,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1009</v>
       </c>
@@ -16634,7 +16769,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1011</v>
       </c>
@@ -16642,7 +16777,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1013</v>
       </c>
@@ -16650,7 +16785,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1015</v>
       </c>
@@ -16658,7 +16793,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1016</v>
       </c>
@@ -16666,7 +16801,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1017</v>
       </c>
@@ -16674,7 +16809,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1018</v>
       </c>
@@ -16682,7 +16817,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1019</v>
       </c>
@@ -16690,7 +16825,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60">
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1020</v>
       </c>
@@ -16698,7 +16833,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1021</v>
       </c>
@@ -16706,7 +16841,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1022</v>
       </c>
@@ -16714,7 +16849,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1023</v>
       </c>
@@ -16722,7 +16857,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1024</v>
       </c>
@@ -16730,7 +16865,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>1025</v>
       </c>
@@ -16738,7 +16873,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1026</v>
       </c>
@@ -16746,7 +16881,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1027</v>
       </c>
@@ -16754,7 +16889,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1028</v>
       </c>
@@ -16762,7 +16897,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1029</v>
       </c>
@@ -16770,7 +16905,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1030</v>
       </c>
@@ -16778,7 +16913,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>1031</v>
       </c>
@@ -16786,7 +16921,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1032</v>
       </c>
@@ -16794,7 +16929,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1033</v>
       </c>
@@ -16802,7 +16937,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>1034</v>
       </c>
@@ -16810,7 +16945,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>1035</v>
       </c>
@@ -16818,7 +16953,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>1036</v>
       </c>
@@ -16826,7 +16961,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1037</v>
       </c>
@@ -16834,7 +16969,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>1038</v>
       </c>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElementEdits!$A$1:$G$345</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$E$251</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1181">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5162,6 +5162,42 @@
   </si>
   <si>
     <t>8ce0016</t>
+  </si>
+  <si>
+    <t>89bebb1</t>
+  </si>
+  <si>
+    <t>2400e66</t>
+  </si>
+  <si>
+    <t>N/A - handled in importer creation of NIBRSAge</t>
+  </si>
+  <si>
+    <t>c540d1b</t>
+  </si>
+  <si>
+    <t>14710ee</t>
+  </si>
+  <si>
+    <t>779b725</t>
+  </si>
+  <si>
+    <t>666195a</t>
+  </si>
+  <si>
+    <t>Note - this rule is being removed by FBI</t>
+  </si>
+  <si>
+    <t>5f85223</t>
+  </si>
+  <si>
+    <t>67546bd</t>
+  </si>
+  <si>
+    <t>1cd6048</t>
+  </si>
+  <si>
+    <t>0d2cd2e</t>
   </si>
 </sst>
 </file>
@@ -9859,8 +9895,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13223,7 +13259,7 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>496</v>
       </c>
@@ -13244,7 +13280,7 @@
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>501</v>
       </c>
@@ -13265,7 +13301,7 @@
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>656</v>
       </c>
@@ -13286,7 +13322,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>758</v>
       </c>
@@ -13307,7 +13343,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>794</v>
       </c>
@@ -13328,7 +13364,7 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>508</v>
       </c>
@@ -13349,7 +13385,7 @@
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>528</v>
       </c>
@@ -13370,7 +13406,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>532</v>
       </c>
@@ -13391,7 +13427,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>536</v>
       </c>
@@ -13412,7 +13448,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>550</v>
       </c>
@@ -13433,7 +13469,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>656</v>
       </c>
@@ -13454,7 +13490,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>807</v>
       </c>
@@ -13475,7 +13511,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>813</v>
       </c>
@@ -13496,7 +13532,7 @@
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>818</v>
       </c>
@@ -13517,7 +13553,7 @@
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>823</v>
       </c>
@@ -13538,7 +13574,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>831</v>
       </c>
@@ -13559,7 +13595,7 @@
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>860</v>
       </c>
@@ -13580,7 +13616,7 @@
       </c>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>867</v>
       </c>
@@ -13601,7 +13637,7 @@
       </c>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>877</v>
       </c>
@@ -13622,7 +13658,7 @@
       </c>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>501</v>
       </c>
@@ -13643,7 +13679,7 @@
       </c>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>536</v>
       </c>
@@ -13664,7 +13700,7 @@
       </c>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>550</v>
       </c>
@@ -13685,7 +13721,7 @@
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>867</v>
       </c>
@@ -13706,7 +13742,7 @@
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>867</v>
       </c>
@@ -13727,7 +13763,7 @@
       </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>508</v>
       </c>
@@ -13748,7 +13784,7 @@
       </c>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>508</v>
       </c>
@@ -13769,7 +13805,7 @@
       </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>508</v>
       </c>
@@ -13790,7 +13826,7 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>758</v>
       </c>
@@ -13811,7 +13847,7 @@
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -13832,7 +13868,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>758</v>
       </c>
@@ -13853,7 +13889,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>536</v>
       </c>
@@ -13874,7 +13910,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>867</v>
       </c>
@@ -13892,7 +13928,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>508</v>
       </c>
@@ -13913,7 +13949,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>508</v>
       </c>
@@ -13934,7 +13970,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>508</v>
       </c>
@@ -13955,7 +13991,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>823</v>
       </c>
@@ -13976,7 +14012,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>831</v>
       </c>
@@ -13997,7 +14033,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>508</v>
       </c>
@@ -14018,7 +14054,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>807</v>
       </c>
@@ -14039,7 +14075,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>813</v>
       </c>
@@ -14060,7 +14096,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>823</v>
       </c>
@@ -14081,7 +14117,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>831</v>
       </c>
@@ -14102,7 +14138,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>860</v>
       </c>
@@ -14123,7 +14159,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>536</v>
       </c>
@@ -14144,7 +14180,7 @@
       </c>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>860</v>
       </c>
@@ -14165,7 +14201,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>508</v>
       </c>
@@ -14186,7 +14222,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>528</v>
       </c>
@@ -14207,7 +14243,7 @@
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>532</v>
       </c>
@@ -14228,7 +14264,7 @@
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>550</v>
       </c>
@@ -14249,7 +14285,7 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>823</v>
       </c>
@@ -14270,7 +14306,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>831</v>
       </c>
@@ -14291,7 +14327,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>867</v>
       </c>
@@ -14312,7 +14348,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>550</v>
       </c>
@@ -14333,7 +14369,7 @@
       </c>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>877</v>
       </c>
@@ -14354,7 +14390,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>794</v>
       </c>
@@ -14375,7 +14411,7 @@
       </c>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -14396,7 +14432,7 @@
       </c>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>536</v>
       </c>
@@ -14417,7 +14453,7 @@
       </c>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>794</v>
       </c>
@@ -14438,7 +14474,7 @@
       </c>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>794</v>
       </c>
@@ -14459,7 +14495,7 @@
       </c>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>794</v>
       </c>
@@ -14480,7 +14516,7 @@
       </c>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>877</v>
       </c>
@@ -14501,7 +14537,7 @@
       </c>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>823</v>
       </c>
@@ -14522,7 +14558,7 @@
       </c>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>550</v>
       </c>
@@ -14543,7 +14579,7 @@
       </c>
       <c r="G229"/>
     </row>
-    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>877</v>
       </c>
@@ -14564,7 +14600,7 @@
       </c>
       <c r="G230"/>
     </row>
-    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>550</v>
       </c>
@@ -14585,7 +14621,7 @@
       </c>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>536</v>
       </c>
@@ -14606,7 +14642,7 @@
       </c>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>501</v>
       </c>
@@ -14627,7 +14663,7 @@
       </c>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>867</v>
       </c>
@@ -14648,7 +14684,7 @@
       </c>
       <c r="G234"/>
     </row>
-    <row r="235" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>508</v>
       </c>
@@ -14669,7 +14705,7 @@
       </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>794</v>
       </c>
@@ -14690,7 +14726,7 @@
       </c>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>807</v>
       </c>
@@ -14711,7 +14747,7 @@
       </c>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>813</v>
       </c>
@@ -14732,7 +14768,7 @@
       </c>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>818</v>
       </c>
@@ -14753,7 +14789,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>656</v>
       </c>
@@ -14769,9 +14805,12 @@
       <c r="E240" t="s">
         <v>565</v>
       </c>
+      <c r="F240" t="s">
+        <v>984</v>
+      </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>758</v>
       </c>
@@ -14787,9 +14826,12 @@
       <c r="E241" t="s">
         <v>565</v>
       </c>
+      <c r="F241" t="s">
+        <v>984</v>
+      </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>886</v>
       </c>
@@ -14805,9 +14847,12 @@
       <c r="E242" t="s">
         <v>565</v>
       </c>
+      <c r="F242" t="s">
+        <v>1169</v>
+      </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>561</v>
       </c>
@@ -14823,9 +14868,12 @@
       <c r="E243" t="s">
         <v>565</v>
       </c>
+      <c r="F243" t="s">
+        <v>1169</v>
+      </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>656</v>
       </c>
@@ -14841,9 +14889,12 @@
       <c r="E244" t="s">
         <v>565</v>
       </c>
+      <c r="F244" t="s">
+        <v>984</v>
+      </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>891</v>
       </c>
@@ -14859,9 +14910,12 @@
       <c r="E245" t="s">
         <v>565</v>
       </c>
+      <c r="F245" s="9" t="s">
+        <v>1170</v>
+      </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>897</v>
       </c>
@@ -14877,9 +14931,12 @@
       <c r="E246" t="s">
         <v>565</v>
       </c>
+      <c r="F246" s="9" t="s">
+        <v>1170</v>
+      </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>903</v>
       </c>
@@ -14895,9 +14952,12 @@
       <c r="E247" t="s">
         <v>565</v>
       </c>
+      <c r="F247" s="9" t="s">
+        <v>1170</v>
+      </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>561</v>
       </c>
@@ -14913,9 +14973,12 @@
       <c r="E248" t="s">
         <v>565</v>
       </c>
+      <c r="F248" s="8" t="s">
+        <v>1171</v>
+      </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>561</v>
       </c>
@@ -14931,9 +14994,12 @@
       <c r="E249" t="s">
         <v>565</v>
       </c>
+      <c r="F249" s="8" t="s">
+        <v>1171</v>
+      </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>561</v>
       </c>
@@ -14949,9 +15015,12 @@
       <c r="E250" t="s">
         <v>565</v>
       </c>
+      <c r="F250" s="8" t="s">
+        <v>1172</v>
+      </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>758</v>
       </c>
@@ -14967,9 +15036,12 @@
       <c r="E251" t="s">
         <v>565</v>
       </c>
+      <c r="F251" s="8" t="s">
+        <v>984</v>
+      </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -14985,9 +15057,12 @@
       <c r="E252" t="s">
         <v>565</v>
       </c>
+      <c r="F252" s="8" t="s">
+        <v>984</v>
+      </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>758</v>
       </c>
@@ -15003,9 +15078,12 @@
       <c r="E253" t="s">
         <v>565</v>
       </c>
+      <c r="F253" s="8" t="s">
+        <v>984</v>
+      </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>561</v>
       </c>
@@ -15021,9 +15099,12 @@
       <c r="E254" t="s">
         <v>565</v>
       </c>
+      <c r="F254" s="8" t="s">
+        <v>1173</v>
+      </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>561</v>
       </c>
@@ -15039,9 +15120,12 @@
       <c r="E255" t="s">
         <v>565</v>
       </c>
+      <c r="F255" s="8" t="s">
+        <v>1174</v>
+      </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>561</v>
       </c>
@@ -15057,9 +15141,12 @@
       <c r="E256" t="s">
         <v>565</v>
       </c>
+      <c r="F256" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>891</v>
       </c>
@@ -15075,9 +15162,12 @@
       <c r="E257" t="s">
         <v>565</v>
       </c>
+      <c r="F257" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -15093,9 +15183,12 @@
       <c r="E258" t="s">
         <v>565</v>
       </c>
+      <c r="F258" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>903</v>
       </c>
@@ -15111,9 +15204,12 @@
       <c r="E259" t="s">
         <v>565</v>
       </c>
+      <c r="F259" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>891</v>
       </c>
@@ -15129,9 +15225,14 @@
       <c r="E260" t="s">
         <v>565</v>
       </c>
-      <c r="G260"/>
-    </row>
-    <row r="261" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F260" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>561</v>
       </c>
@@ -15147,9 +15248,12 @@
       <c r="E261" t="s">
         <v>565</v>
       </c>
+      <c r="F261" s="8" t="s">
+        <v>1178</v>
+      </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -15165,9 +15269,12 @@
       <c r="E262" t="s">
         <v>565</v>
       </c>
+      <c r="F262" s="8" t="s">
+        <v>1179</v>
+      </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>886</v>
       </c>
@@ -15183,9 +15290,12 @@
       <c r="E263" t="s">
         <v>565</v>
       </c>
+      <c r="F263" t="s">
+        <v>1169</v>
+      </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>897</v>
       </c>
@@ -15200,6 +15310,9 @@
       </c>
       <c r="E264" t="s">
         <v>565</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>1180</v>
       </c>
       <c r="G264"/>
     </row>
@@ -16665,7 +16778,7 @@
   <autoFilter ref="A1:G345">
     <filterColumn colId="4">
       <filters>
-        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:G345">

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1190">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5198,6 +5198,33 @@
   </si>
   <si>
     <t>0d2cd2e</t>
+  </si>
+  <si>
+    <t>20d1cad</t>
+  </si>
+  <si>
+    <t>f708cdb</t>
+  </si>
+  <si>
+    <t>2ab5576</t>
+  </si>
+  <si>
+    <t>21fc526</t>
+  </si>
+  <si>
+    <t>1396678</t>
+  </si>
+  <si>
+    <t>c4425d0</t>
+  </si>
+  <si>
+    <t>fe8bb28</t>
+  </si>
+  <si>
+    <t>bc59f6b</t>
+  </si>
+  <si>
+    <t>fe86e0b</t>
   </si>
 </sst>
 </file>
@@ -9895,8 +9922,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F346" sqref="F346"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10362,39 +10389,39 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1041</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>1041</v>
+        <v>432</v>
       </c>
       <c r="C26" t="s">
-        <v>979</v>
+        <v>433</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>587</v>
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>434</v>
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1043</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>1043</v>
+        <v>432</v>
       </c>
       <c r="C27" t="s">
-        <v>979</v>
+        <v>435</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>587</v>
+        <v>348</v>
+      </c>
+      <c r="E27" t="s">
+        <v>434</v>
       </c>
       <c r="G27"/>
     </row>
@@ -10597,21 +10624,21 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1045</v>
+        <v>432</v>
       </c>
       <c r="B38" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>663</v>
+        <v>432</v>
+      </c>
+      <c r="C38" t="s">
+        <v>436</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>587</v>
+        <v>437</v>
+      </c>
+      <c r="E38" t="s">
+        <v>434</v>
       </c>
       <c r="G38"/>
     </row>
@@ -14789,7 +14816,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>656</v>
       </c>
@@ -14810,7 +14837,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>758</v>
       </c>
@@ -14831,7 +14858,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>886</v>
       </c>
@@ -14852,7 +14879,7 @@
       </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>561</v>
       </c>
@@ -14873,7 +14900,7 @@
       </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>656</v>
       </c>
@@ -14894,7 +14921,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>891</v>
       </c>
@@ -14915,7 +14942,7 @@
       </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>897</v>
       </c>
@@ -14936,7 +14963,7 @@
       </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>903</v>
       </c>
@@ -14957,7 +14984,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>561</v>
       </c>
@@ -14978,7 +15005,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>561</v>
       </c>
@@ -14999,7 +15026,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>561</v>
       </c>
@@ -15020,7 +15047,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>758</v>
       </c>
@@ -15041,7 +15068,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>758</v>
       </c>
@@ -15062,7 +15089,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>758</v>
       </c>
@@ -15083,7 +15110,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>561</v>
       </c>
@@ -15104,7 +15131,7 @@
       </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>561</v>
       </c>
@@ -15125,7 +15152,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>561</v>
       </c>
@@ -15146,7 +15173,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>891</v>
       </c>
@@ -15167,7 +15194,7 @@
       </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -15188,7 +15215,7 @@
       </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>903</v>
       </c>
@@ -15209,7 +15236,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>891</v>
       </c>
@@ -15232,7 +15259,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>561</v>
       </c>
@@ -15253,7 +15280,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -15274,7 +15301,7 @@
       </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>886</v>
       </c>
@@ -15295,7 +15322,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>897</v>
       </c>
@@ -15316,349 +15343,379 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="B265" t="s">
-        <v>583</v>
+        <v>438</v>
       </c>
       <c r="C265" t="s">
-        <v>584</v>
+        <v>433</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>585</v>
+        <v>439</v>
       </c>
       <c r="E265" t="s">
         <v>434</v>
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>588</v>
+        <v>438</v>
       </c>
       <c r="B266" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
       <c r="C266" t="s">
-        <v>584</v>
+        <v>435</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>590</v>
+        <v>348</v>
       </c>
       <c r="E266" t="s">
         <v>434</v>
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>600</v>
+        <v>438</v>
       </c>
       <c r="B267" t="s">
-        <v>601</v>
+        <v>438</v>
       </c>
       <c r="C267" t="s">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>602</v>
+        <v>439</v>
       </c>
       <c r="E267" t="s">
         <v>434</v>
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="B268" t="s">
-        <v>604</v>
+        <v>657</v>
       </c>
       <c r="C268" t="s">
         <v>584</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="E268" t="s">
         <v>434</v>
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
       <c r="B269" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
       <c r="C269" t="s">
-        <v>584</v>
+        <v>433</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="E269" t="s">
         <v>434</v>
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="B270" t="s">
-        <v>614</v>
+        <v>445</v>
       </c>
       <c r="C270" t="s">
         <v>584</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>615</v>
+        <v>759</v>
       </c>
       <c r="E270" t="s">
         <v>434</v>
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>630</v>
+        <v>758</v>
       </c>
       <c r="B271" t="s">
-        <v>631</v>
+        <v>445</v>
       </c>
       <c r="C271" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>632</v>
+        <v>70</v>
       </c>
       <c r="E271" t="s">
         <v>434</v>
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>650</v>
+        <v>758</v>
       </c>
       <c r="B272" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
       <c r="C272" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>652</v>
+        <v>768</v>
       </c>
       <c r="E272" t="s">
         <v>434</v>
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>656</v>
+        <v>758</v>
       </c>
       <c r="B273" t="s">
-        <v>657</v>
+        <v>445</v>
       </c>
       <c r="C273" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>659</v>
+        <v>770</v>
       </c>
       <c r="E273" t="s">
         <v>434</v>
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>758</v>
+        <v>582</v>
       </c>
       <c r="B274" t="s">
-        <v>445</v>
+        <v>583</v>
       </c>
       <c r="C274" t="s">
         <v>584</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>759</v>
+        <v>585</v>
       </c>
       <c r="E274" t="s">
         <v>434</v>
       </c>
+      <c r="F274" t="s">
+        <v>1181</v>
+      </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>913</v>
+        <v>582</v>
       </c>
       <c r="B275" t="s">
-        <v>914</v>
+        <v>583</v>
       </c>
       <c r="C275" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>915</v>
+        <v>585</v>
       </c>
       <c r="E275" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1181</v>
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>924</v>
+        <v>588</v>
       </c>
       <c r="B276" t="s">
-        <v>925</v>
+        <v>589</v>
       </c>
       <c r="C276" t="s">
         <v>584</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>926</v>
+        <v>590</v>
       </c>
       <c r="E276" t="s">
         <v>434</v>
       </c>
+      <c r="F276" t="s">
+        <v>1182</v>
+      </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>432</v>
+        <v>588</v>
       </c>
       <c r="B277" t="s">
-        <v>432</v>
+        <v>589</v>
       </c>
       <c r="C277" t="s">
-        <v>433</v>
+        <v>591</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>65</v>
+        <v>592</v>
       </c>
       <c r="E277" t="s">
         <v>434</v>
       </c>
+      <c r="F277" t="s">
+        <v>1182</v>
+      </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>438</v>
+        <v>588</v>
       </c>
       <c r="B278" t="s">
-        <v>438</v>
+        <v>589</v>
       </c>
       <c r="C278" t="s">
-        <v>433</v>
+        <v>593</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>439</v>
+        <v>594</v>
       </c>
       <c r="E278" t="s">
         <v>434</v>
       </c>
+      <c r="F278" t="s">
+        <v>1182</v>
+      </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="B279" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="C279" t="s">
-        <v>433</v>
+        <v>595</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E279" t="s">
         <v>434</v>
       </c>
+      <c r="F279" t="s">
+        <v>1182</v>
+      </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>653</v>
+        <v>588</v>
       </c>
       <c r="B280" t="s">
-        <v>654</v>
+        <v>589</v>
       </c>
       <c r="C280" t="s">
-        <v>433</v>
+        <v>586</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>655</v>
+        <v>590</v>
       </c>
       <c r="E280" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1182</v>
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="B281" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="C281" t="s">
-        <v>433</v>
+        <v>597</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="E281" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1182</v>
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>938</v>
+        <v>588</v>
       </c>
       <c r="B282" t="s">
-        <v>939</v>
+        <v>589</v>
       </c>
       <c r="C282" t="s">
-        <v>433</v>
+        <v>598</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>940</v>
+        <v>594</v>
       </c>
       <c r="E282" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1182</v>
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>941</v>
+        <v>588</v>
       </c>
       <c r="B283" t="s">
-        <v>942</v>
+        <v>589</v>
       </c>
       <c r="C283" t="s">
-        <v>433</v>
+        <v>599</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>943</v>
+        <v>596</v>
       </c>
       <c r="E283" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1182</v>
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>913</v>
       </c>
@@ -15666,359 +15723,401 @@
         <v>914</v>
       </c>
       <c r="C284" t="s">
-        <v>916</v>
+        <v>584</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E284" t="s">
         <v>434</v>
       </c>
+      <c r="F284" t="s">
+        <v>1183</v>
+      </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>613</v>
+        <v>913</v>
       </c>
       <c r="B285" t="s">
-        <v>614</v>
+        <v>914</v>
       </c>
       <c r="C285" t="s">
-        <v>616</v>
+        <v>916</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>617</v>
+        <v>917</v>
       </c>
       <c r="E285" t="s">
         <v>434</v>
       </c>
+      <c r="F285" t="s">
+        <v>1183</v>
+      </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>613</v>
+        <v>913</v>
       </c>
       <c r="B286" t="s">
-        <v>614</v>
+        <v>914</v>
       </c>
       <c r="C286" t="s">
-        <v>618</v>
+        <v>918</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>619</v>
+        <v>919</v>
       </c>
       <c r="E286" t="s">
         <v>434</v>
       </c>
+      <c r="F286" t="s">
+        <v>984</v>
+      </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>630</v>
+        <v>913</v>
       </c>
       <c r="B287" t="s">
-        <v>631</v>
+        <v>914</v>
       </c>
       <c r="C287" t="s">
-        <v>633</v>
+        <v>920</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>634</v>
+        <v>921</v>
       </c>
       <c r="E287" t="s">
         <v>434</v>
       </c>
+      <c r="F287" t="s">
+        <v>1184</v>
+      </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>630</v>
+        <v>913</v>
       </c>
       <c r="B288" t="s">
-        <v>631</v>
+        <v>914</v>
       </c>
       <c r="C288" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>636</v>
+        <v>915</v>
       </c>
       <c r="E288" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1183</v>
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>630</v>
+        <v>913</v>
       </c>
       <c r="B289" t="s">
-        <v>631</v>
+        <v>914</v>
       </c>
       <c r="C289" t="s">
-        <v>637</v>
+        <v>922</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>638</v>
+        <v>917</v>
       </c>
       <c r="E289" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1183</v>
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>588</v>
+        <v>913</v>
       </c>
       <c r="B290" t="s">
-        <v>589</v>
+        <v>914</v>
       </c>
       <c r="C290" t="s">
-        <v>591</v>
+        <v>923</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>592</v>
+        <v>919</v>
       </c>
       <c r="E290" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F290" t="s">
+        <v>984</v>
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>758</v>
+        <v>600</v>
       </c>
       <c r="B291" t="s">
-        <v>445</v>
+        <v>601</v>
       </c>
       <c r="C291" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>70</v>
+        <v>602</v>
       </c>
       <c r="E291" t="s">
         <v>434</v>
       </c>
+      <c r="F291" s="3" t="s">
+        <v>1185</v>
+      </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B292" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C292" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="E292" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>1185</v>
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>758</v>
+        <v>603</v>
       </c>
       <c r="B293" t="s">
-        <v>445</v>
+        <v>604</v>
       </c>
       <c r="C293" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>768</v>
+        <v>605</v>
       </c>
       <c r="E293" t="s">
         <v>434</v>
       </c>
+      <c r="F293" t="s">
+        <v>1186</v>
+      </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="B294" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C294" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E294" t="s">
         <v>434</v>
       </c>
+      <c r="F294" t="s">
+        <v>1187</v>
+      </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>758</v>
+        <v>606</v>
       </c>
       <c r="B295" t="s">
-        <v>445</v>
+        <v>607</v>
       </c>
       <c r="C295" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>770</v>
+        <v>610</v>
       </c>
       <c r="E295" t="s">
         <v>434</v>
       </c>
+      <c r="F295" t="s">
+        <v>1188</v>
+      </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>913</v>
+        <v>606</v>
       </c>
       <c r="B296" t="s">
-        <v>914</v>
+        <v>607</v>
       </c>
       <c r="C296" t="s">
-        <v>918</v>
+        <v>586</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>919</v>
+        <v>608</v>
       </c>
       <c r="E296" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1187</v>
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="B297" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="C297" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="E297" t="s">
-        <v>434</v>
+        <v>587</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1189</v>
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>432</v>
+        <v>613</v>
       </c>
       <c r="B298" t="s">
-        <v>432</v>
+        <v>614</v>
       </c>
       <c r="C298" t="s">
-        <v>435</v>
+        <v>584</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="E298" t="s">
         <v>434</v>
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>438</v>
+        <v>613</v>
       </c>
       <c r="B299" t="s">
-        <v>438</v>
+        <v>614</v>
       </c>
       <c r="C299" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>348</v>
+        <v>620</v>
       </c>
       <c r="E299" t="s">
         <v>434</v>
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>941</v>
+        <v>613</v>
       </c>
       <c r="B300" t="s">
-        <v>942</v>
+        <v>614</v>
       </c>
       <c r="C300" t="s">
-        <v>944</v>
+        <v>616</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>945</v>
+        <v>617</v>
       </c>
       <c r="E300" t="s">
         <v>434</v>
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="B301" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="C301" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="E301" t="s">
         <v>434</v>
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>941</v>
+        <v>613</v>
       </c>
       <c r="B302" t="s">
-        <v>942</v>
+        <v>614</v>
       </c>
       <c r="C302" t="s">
-        <v>946</v>
+        <v>621</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>947</v>
+        <v>622</v>
       </c>
       <c r="E302" t="s">
         <v>434</v>
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>941</v>
+        <v>613</v>
       </c>
       <c r="B303" t="s">
-        <v>942</v>
+        <v>614</v>
       </c>
       <c r="C303" t="s">
-        <v>948</v>
+        <v>623</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>949</v>
+        <v>624</v>
       </c>
       <c r="E303" t="s">
         <v>434</v>
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>613</v>
       </c>
@@ -16026,17 +16125,17 @@
         <v>614</v>
       </c>
       <c r="C304" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E304" t="s">
-        <v>434</v>
+        <v>587</v>
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>613</v>
       </c>
@@ -16044,197 +16143,197 @@
         <v>614</v>
       </c>
       <c r="C305" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D305" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E305" t="s">
+        <v>587</v>
+      </c>
+      <c r="G305"/>
+    </row>
+    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>613</v>
+      </c>
+      <c r="B306" t="s">
+        <v>614</v>
+      </c>
+      <c r="C306" t="s">
+        <v>625</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E306" t="s">
+        <v>587</v>
+      </c>
+      <c r="G306"/>
+    </row>
+    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>613</v>
+      </c>
+      <c r="B307" t="s">
+        <v>614</v>
+      </c>
+      <c r="C307" t="s">
+        <v>626</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E307" t="s">
+        <v>587</v>
+      </c>
+      <c r="G307"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>613</v>
+      </c>
+      <c r="B308" t="s">
+        <v>614</v>
+      </c>
+      <c r="C308" t="s">
+        <v>628</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E308" t="s">
+        <v>587</v>
+      </c>
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>613</v>
+      </c>
+      <c r="B309" t="s">
+        <v>614</v>
+      </c>
+      <c r="C309" t="s">
+        <v>629</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E305" t="s">
-        <v>434</v>
-      </c>
-      <c r="G305"/>
-    </row>
-    <row r="306" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>913</v>
-      </c>
-      <c r="B306" t="s">
-        <v>914</v>
-      </c>
-      <c r="C306" t="s">
-        <v>920</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="E306" t="s">
-        <v>434</v>
-      </c>
-      <c r="G306"/>
-    </row>
-    <row r="307" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>924</v>
-      </c>
-      <c r="B307" t="s">
-        <v>925</v>
-      </c>
-      <c r="C307" t="s">
-        <v>927</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="E307" t="s">
-        <v>434</v>
-      </c>
-      <c r="G307"/>
-    </row>
-    <row r="308" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>432</v>
-      </c>
-      <c r="B308" t="s">
-        <v>432</v>
-      </c>
-      <c r="C308" t="s">
-        <v>436</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E308" t="s">
-        <v>434</v>
-      </c>
-      <c r="G308"/>
-    </row>
-    <row r="309" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>606</v>
-      </c>
-      <c r="B309" t="s">
-        <v>607</v>
-      </c>
-      <c r="C309" t="s">
-        <v>609</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="E309" t="s">
-        <v>434</v>
+        <v>587</v>
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>630</v>
       </c>
       <c r="B310" t="s">
-        <v>438</v>
+        <v>631</v>
       </c>
       <c r="C310" t="s">
-        <v>440</v>
+        <v>584</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>439</v>
+        <v>632</v>
       </c>
       <c r="E310" t="s">
         <v>434</v>
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="B311" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="C311" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="E311" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="B312" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C312" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="E312" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="B313" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="C313" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="B314" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C314" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="B315" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C315" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -16252,367 +16351,367 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B317" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="C317" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E317" t="s">
         <v>587</v>
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>913</v>
+        <v>630</v>
       </c>
       <c r="B318" t="s">
-        <v>914</v>
+        <v>631</v>
       </c>
       <c r="C318" t="s">
-        <v>586</v>
+        <v>646</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>915</v>
+        <v>636</v>
       </c>
       <c r="E318" t="s">
         <v>587</v>
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>924</v>
+        <v>630</v>
       </c>
       <c r="B319" t="s">
-        <v>925</v>
+        <v>631</v>
       </c>
       <c r="C319" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>926</v>
+        <v>638</v>
       </c>
       <c r="E319" t="s">
         <v>587</v>
       </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="B320" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C320" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E320" t="s">
         <v>587</v>
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="B321" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="C321" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="E321" t="s">
         <v>587</v>
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>938</v>
+        <v>630</v>
       </c>
       <c r="B322" t="s">
-        <v>939</v>
+        <v>631</v>
       </c>
       <c r="C322" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>940</v>
+        <v>644</v>
       </c>
       <c r="E322" t="s">
         <v>587</v>
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="B323" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="C323" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="E323" t="s">
+        <v>434</v>
+      </c>
+      <c r="G323"/>
+    </row>
+    <row r="324" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>924</v>
+      </c>
+      <c r="B324" t="s">
+        <v>925</v>
+      </c>
+      <c r="C324" t="s">
+        <v>927</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E324" t="s">
+        <v>434</v>
+      </c>
+      <c r="G324"/>
+    </row>
+    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>924</v>
+      </c>
+      <c r="B325" t="s">
+        <v>925</v>
+      </c>
+      <c r="C325" t="s">
+        <v>586</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E325" t="s">
         <v>587</v>
       </c>
-      <c r="G323"/>
-    </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="G324"/>
-    </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="B326" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="C326" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="E326" t="s">
         <v>587</v>
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="B327" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="C327" t="s">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="E327" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="B328" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="C328" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="E328" t="s">
         <v>587</v>
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>630</v>
+        <v>938</v>
       </c>
       <c r="B329" t="s">
-        <v>631</v>
+        <v>939</v>
       </c>
       <c r="C329" t="s">
-        <v>645</v>
+        <v>433</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>634</v>
+        <v>940</v>
       </c>
       <c r="E329" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>630</v>
+        <v>938</v>
       </c>
       <c r="B330" t="s">
-        <v>631</v>
+        <v>939</v>
       </c>
       <c r="C330" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>636</v>
+        <v>940</v>
       </c>
       <c r="E330" t="s">
         <v>587</v>
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="B331" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="C331" t="s">
-        <v>647</v>
+        <v>433</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="E331" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
       <c r="B332" t="s">
-        <v>589</v>
+        <v>654</v>
       </c>
       <c r="C332" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>592</v>
+        <v>655</v>
       </c>
       <c r="E332" t="s">
         <v>587</v>
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>588</v>
+        <v>941</v>
       </c>
       <c r="B333" t="s">
-        <v>589</v>
+        <v>942</v>
       </c>
       <c r="C333" t="s">
-        <v>598</v>
+        <v>433</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>594</v>
+        <v>943</v>
       </c>
       <c r="E333" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>588</v>
+        <v>941</v>
       </c>
       <c r="B334" t="s">
-        <v>589</v>
+        <v>942</v>
       </c>
       <c r="C334" t="s">
-        <v>599</v>
+        <v>944</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>596</v>
+        <v>945</v>
       </c>
       <c r="E334" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="B335" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="C335" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="E335" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>630</v>
+        <v>941</v>
       </c>
       <c r="B336" t="s">
-        <v>631</v>
+        <v>942</v>
       </c>
       <c r="C336" t="s">
-        <v>648</v>
+        <v>948</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>640</v>
+        <v>949</v>
       </c>
       <c r="E336" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>941</v>
       </c>
@@ -16620,35 +16719,35 @@
         <v>942</v>
       </c>
       <c r="C337" t="s">
-        <v>950</v>
+        <v>627</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E337" t="s">
         <v>587</v>
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>630</v>
+        <v>941</v>
       </c>
       <c r="B338" t="s">
-        <v>631</v>
+        <v>942</v>
       </c>
       <c r="C338" t="s">
-        <v>649</v>
+        <v>950</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>642</v>
+        <v>945</v>
       </c>
       <c r="E338" t="s">
         <v>587</v>
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>941</v>
       </c>
@@ -16666,7 +16765,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>941</v>
       </c>
@@ -16684,92 +16783,98 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>613</v>
+        <v>1045</v>
       </c>
       <c r="B341" t="s">
-        <v>614</v>
-      </c>
-      <c r="C341" t="s">
-        <v>628</v>
+        <v>1045</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E341" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E341" s="3" t="s">
         <v>587</v>
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>613</v>
+        <v>1043</v>
       </c>
       <c r="B342" t="s">
-        <v>614</v>
+        <v>1043</v>
       </c>
       <c r="C342" t="s">
-        <v>629</v>
+        <v>979</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E342" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E342" s="3" t="s">
         <v>587</v>
       </c>
+      <c r="F342" t="s">
+        <v>984</v>
+      </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>924</v>
+        <v>1043</v>
       </c>
       <c r="B343" t="s">
-        <v>925</v>
-      </c>
-      <c r="C343" t="s">
-        <v>929</v>
+        <v>1043</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="E343" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E343" s="3" t="s">
         <v>587</v>
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>606</v>
+        <v>1041</v>
       </c>
       <c r="B344" t="s">
-        <v>607</v>
+        <v>1041</v>
       </c>
       <c r="C344" t="s">
-        <v>611</v>
+        <v>979</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E344" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E344" s="3" t="s">
         <v>587</v>
       </c>
+      <c r="F344" t="s">
+        <v>984</v>
+      </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>630</v>
+        <v>1041</v>
       </c>
       <c r="B345" t="s">
-        <v>631</v>
-      </c>
-      <c r="C345" t="s">
-        <v>643</v>
+        <v>1041</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E345" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E345" s="3" t="s">
         <v>587</v>
       </c>
       <c r="G345"/>
@@ -16778,11 +16883,12 @@
   <autoFilter ref="A1:G345">
     <filterColumn colId="4">
       <filters>
-        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:G345">
-      <sortCondition ref="C1:C345"/>
+    <sortState ref="A26:G345">
+      <sortCondition ref="A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="1194">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5225,6 +5225,18 @@
   </si>
   <si>
     <t>fe86e0b</t>
+  </si>
+  <si>
+    <t>N/A duplicate</t>
+  </si>
+  <si>
+    <t>21934ae</t>
+  </si>
+  <si>
+    <t>8b8f4b2</t>
+  </si>
+  <si>
+    <t>44eb552</t>
   </si>
 </sst>
 </file>
@@ -9922,8 +9934,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15377,6 +15389,9 @@
       <c r="E266" t="s">
         <v>434</v>
       </c>
+      <c r="F266" t="s">
+        <v>1190</v>
+      </c>
       <c r="G266"/>
     </row>
     <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15413,6 +15428,9 @@
       <c r="E268" t="s">
         <v>434</v>
       </c>
+      <c r="F268" t="s">
+        <v>984</v>
+      </c>
       <c r="G268"/>
     </row>
     <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15431,6 +15449,9 @@
       <c r="E269" t="s">
         <v>434</v>
       </c>
+      <c r="F269" t="s">
+        <v>984</v>
+      </c>
       <c r="G269"/>
     </row>
     <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -15449,6 +15470,9 @@
       <c r="E270" t="s">
         <v>434</v>
       </c>
+      <c r="F270" t="s">
+        <v>984</v>
+      </c>
       <c r="G270"/>
     </row>
     <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15467,6 +15491,9 @@
       <c r="E271" t="s">
         <v>434</v>
       </c>
+      <c r="F271" t="s">
+        <v>984</v>
+      </c>
       <c r="G271"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -15485,6 +15512,9 @@
       <c r="E272" t="s">
         <v>434</v>
       </c>
+      <c r="F272" t="s">
+        <v>984</v>
+      </c>
       <c r="G272"/>
     </row>
     <row r="273" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -15503,6 +15533,9 @@
       <c r="E273" t="s">
         <v>434</v>
       </c>
+      <c r="F273" t="s">
+        <v>984</v>
+      </c>
       <c r="G273"/>
     </row>
     <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16025,6 +16058,9 @@
       <c r="E298" t="s">
         <v>434</v>
       </c>
+      <c r="F298" t="s">
+        <v>1191</v>
+      </c>
       <c r="G298"/>
     </row>
     <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16061,6 +16097,9 @@
       <c r="E300" t="s">
         <v>434</v>
       </c>
+      <c r="F300" t="s">
+        <v>1192</v>
+      </c>
       <c r="G300"/>
     </row>
     <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16079,6 +16118,9 @@
       <c r="E301" t="s">
         <v>434</v>
       </c>
+      <c r="F301" t="s">
+        <v>1193</v>
+      </c>
       <c r="G301"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -16133,6 +16175,9 @@
       <c r="E304" t="s">
         <v>587</v>
       </c>
+      <c r="F304" t="s">
+        <v>1191</v>
+      </c>
       <c r="G304"/>
     </row>
     <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16169,6 +16214,9 @@
       <c r="E306" t="s">
         <v>587</v>
       </c>
+      <c r="F306" t="s">
+        <v>1192</v>
+      </c>
       <c r="G306"/>
     </row>
     <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16187,6 +16235,9 @@
       <c r="E307" t="s">
         <v>587</v>
       </c>
+      <c r="F307" t="s">
+        <v>1193</v>
+      </c>
       <c r="G307"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -16837,6 +16888,9 @@
       </c>
       <c r="E343" s="3" t="s">
         <v>587</v>
+      </c>
+      <c r="F343" t="s">
+        <v>984</v>
       </c>
       <c r="G343"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1205">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5237,6 +5237,39 @@
   </si>
   <si>
     <t>44eb552</t>
+  </si>
+  <si>
+    <t>unenforceable</t>
+  </si>
+  <si>
+    <t>d56e78f</t>
+  </si>
+  <si>
+    <t>7fa7dbe</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>f8854ca</t>
+  </si>
+  <si>
+    <t>05d4918</t>
+  </si>
+  <si>
+    <t>a2626e1</t>
+  </si>
+  <si>
+    <t>b9c51b4</t>
+  </si>
+  <si>
+    <t>5cd81ef</t>
+  </si>
+  <si>
+    <t>763e208</t>
+  </si>
+  <si>
+    <t>ee88a8a</t>
   </si>
 </sst>
 </file>
@@ -9934,8 +9967,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F305" sqref="F305"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F345" sqref="F345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16079,6 +16112,9 @@
       <c r="E299" t="s">
         <v>434</v>
       </c>
+      <c r="F299" t="s">
+        <v>1194</v>
+      </c>
       <c r="G299"/>
     </row>
     <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16139,6 +16175,9 @@
       <c r="E302" t="s">
         <v>434</v>
       </c>
+      <c r="F302" t="s">
+        <v>1196</v>
+      </c>
       <c r="G302"/>
     </row>
     <row r="303" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -16157,6 +16196,9 @@
       <c r="E303" t="s">
         <v>434</v>
       </c>
+      <c r="F303" t="s">
+        <v>1195</v>
+      </c>
       <c r="G303"/>
     </row>
     <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16196,6 +16238,9 @@
       <c r="E305" t="s">
         <v>587</v>
       </c>
+      <c r="F305" t="s">
+        <v>1194</v>
+      </c>
       <c r="G305"/>
     </row>
     <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16256,6 +16301,9 @@
       <c r="E308" t="s">
         <v>587</v>
       </c>
+      <c r="F308" t="s">
+        <v>1196</v>
+      </c>
       <c r="G308"/>
     </row>
     <row r="309" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -16274,6 +16322,9 @@
       <c r="E309" t="s">
         <v>587</v>
       </c>
+      <c r="F309" t="s">
+        <v>1195</v>
+      </c>
       <c r="G309"/>
     </row>
     <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16292,6 +16343,9 @@
       <c r="E310" t="s">
         <v>434</v>
       </c>
+      <c r="F310" t="s">
+        <v>1198</v>
+      </c>
       <c r="G310"/>
     </row>
     <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16310,7 +16364,10 @@
       <c r="E311" t="s">
         <v>434</v>
       </c>
-      <c r="G311"/>
+      <c r="F311" t="s">
+        <v>984</v>
+      </c>
+      <c r="G311" s="3"/>
     </row>
     <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -16328,7 +16385,10 @@
       <c r="E312" t="s">
         <v>434</v>
       </c>
-      <c r="G312"/>
+      <c r="F312" t="s">
+        <v>984</v>
+      </c>
+      <c r="G312" s="3"/>
     </row>
     <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
@@ -16346,7 +16406,10 @@
       <c r="E313" t="s">
         <v>434</v>
       </c>
-      <c r="G313"/>
+      <c r="F313" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G313" s="3"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
@@ -16364,7 +16427,10 @@
       <c r="E314" t="s">
         <v>434</v>
       </c>
-      <c r="G314"/>
+      <c r="F314" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G314" s="3"/>
     </row>
     <row r="315" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -16382,6 +16448,9 @@
       <c r="E315" t="s">
         <v>434</v>
       </c>
+      <c r="F315" t="s">
+        <v>1197</v>
+      </c>
       <c r="G315"/>
     </row>
     <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16400,6 +16469,9 @@
       <c r="E316" t="s">
         <v>587</v>
       </c>
+      <c r="F316" t="s">
+        <v>1198</v>
+      </c>
       <c r="G316"/>
     </row>
     <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16418,6 +16490,9 @@
       <c r="E317" t="s">
         <v>587</v>
       </c>
+      <c r="F317" t="s">
+        <v>984</v>
+      </c>
       <c r="G317"/>
     </row>
     <row r="318" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16436,6 +16511,9 @@
       <c r="E318" t="s">
         <v>587</v>
       </c>
+      <c r="F318" t="s">
+        <v>984</v>
+      </c>
       <c r="G318"/>
     </row>
     <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16454,7 +16532,10 @@
       <c r="E319" t="s">
         <v>587</v>
       </c>
-      <c r="G319"/>
+      <c r="F319" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G319" s="3"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
@@ -16472,7 +16553,10 @@
       <c r="E320" t="s">
         <v>587</v>
       </c>
-      <c r="G320"/>
+      <c r="F320" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G320" s="3"/>
     </row>
     <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
@@ -16490,6 +16574,9 @@
       <c r="E321" t="s">
         <v>587</v>
       </c>
+      <c r="F321" t="s">
+        <v>1197</v>
+      </c>
       <c r="G321"/>
     </row>
     <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16508,6 +16595,9 @@
       <c r="E322" t="s">
         <v>587</v>
       </c>
+      <c r="F322" t="s">
+        <v>1199</v>
+      </c>
       <c r="G322"/>
     </row>
     <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16526,6 +16616,9 @@
       <c r="E323" t="s">
         <v>434</v>
       </c>
+      <c r="F323" t="s">
+        <v>1200</v>
+      </c>
       <c r="G323"/>
     </row>
     <row r="324" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16544,6 +16637,9 @@
       <c r="E324" t="s">
         <v>434</v>
       </c>
+      <c r="F324" t="s">
+        <v>1201</v>
+      </c>
       <c r="G324"/>
     </row>
     <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16562,6 +16658,9 @@
       <c r="E325" t="s">
         <v>587</v>
       </c>
+      <c r="F325" t="s">
+        <v>1200</v>
+      </c>
       <c r="G325"/>
     </row>
     <row r="326" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16580,6 +16679,9 @@
       <c r="E326" t="s">
         <v>587</v>
       </c>
+      <c r="F326" t="s">
+        <v>1201</v>
+      </c>
       <c r="G326"/>
     </row>
     <row r="327" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16598,6 +16700,9 @@
       <c r="E327" t="s">
         <v>434</v>
       </c>
+      <c r="F327" t="s">
+        <v>1200</v>
+      </c>
       <c r="G327"/>
     </row>
     <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16616,6 +16721,9 @@
       <c r="E328" t="s">
         <v>587</v>
       </c>
+      <c r="F328" t="s">
+        <v>1200</v>
+      </c>
       <c r="G328"/>
     </row>
     <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16634,6 +16742,9 @@
       <c r="E329" t="s">
         <v>434</v>
       </c>
+      <c r="F329" t="s">
+        <v>1200</v>
+      </c>
       <c r="G329"/>
     </row>
     <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16652,6 +16763,9 @@
       <c r="E330" t="s">
         <v>587</v>
       </c>
+      <c r="F330" t="s">
+        <v>1200</v>
+      </c>
       <c r="G330"/>
     </row>
     <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16670,6 +16784,9 @@
       <c r="E331" t="s">
         <v>434</v>
       </c>
+      <c r="F331" t="s">
+        <v>1200</v>
+      </c>
       <c r="G331"/>
     </row>
     <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16688,6 +16805,9 @@
       <c r="E332" t="s">
         <v>587</v>
       </c>
+      <c r="F332" t="s">
+        <v>1200</v>
+      </c>
       <c r="G332"/>
     </row>
     <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16706,6 +16826,9 @@
       <c r="E333" t="s">
         <v>434</v>
       </c>
+      <c r="F333" t="s">
+        <v>1202</v>
+      </c>
       <c r="G333"/>
     </row>
     <row r="334" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -16724,6 +16847,9 @@
       <c r="E334" t="s">
         <v>434</v>
       </c>
+      <c r="F334" t="s">
+        <v>1197</v>
+      </c>
       <c r="G334"/>
     </row>
     <row r="335" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16742,6 +16868,9 @@
       <c r="E335" t="s">
         <v>434</v>
       </c>
+      <c r="F335" t="s">
+        <v>1202</v>
+      </c>
       <c r="G335"/>
     </row>
     <row r="336" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16760,6 +16889,9 @@
       <c r="E336" t="s">
         <v>434</v>
       </c>
+      <c r="F336" t="s">
+        <v>1202</v>
+      </c>
       <c r="G336"/>
     </row>
     <row r="337" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16778,6 +16910,9 @@
       <c r="E337" t="s">
         <v>587</v>
       </c>
+      <c r="F337" t="s">
+        <v>1202</v>
+      </c>
       <c r="G337"/>
     </row>
     <row r="338" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -16796,6 +16931,9 @@
       <c r="E338" t="s">
         <v>587</v>
       </c>
+      <c r="F338" t="s">
+        <v>1197</v>
+      </c>
       <c r="G338"/>
     </row>
     <row r="339" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16814,6 +16952,9 @@
       <c r="E339" t="s">
         <v>587</v>
       </c>
+      <c r="F339" t="s">
+        <v>1202</v>
+      </c>
       <c r="G339"/>
     </row>
     <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16832,6 +16973,9 @@
       <c r="E340" t="s">
         <v>587</v>
       </c>
+      <c r="F340" t="s">
+        <v>1202</v>
+      </c>
       <c r="G340"/>
     </row>
     <row r="341" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16850,6 +16994,9 @@
       <c r="E341" s="3" t="s">
         <v>587</v>
       </c>
+      <c r="F341" s="9" t="s">
+        <v>1203</v>
+      </c>
       <c r="G341"/>
     </row>
     <row r="342" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -16890,7 +17037,7 @@
         <v>587</v>
       </c>
       <c r="F343" t="s">
-        <v>984</v>
+        <v>1204</v>
       </c>
       <c r="G343"/>
     </row>
@@ -16930,6 +17077,9 @@
       </c>
       <c r="E345" s="3" t="s">
         <v>587</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1204</v>
       </c>
       <c r="G345"/>
     </row>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1206">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5270,6 +5270,9 @@
   </si>
   <si>
     <t>ee88a8a</t>
+  </si>
+  <si>
+    <t>2f75209</t>
   </si>
 </sst>
 </file>
@@ -9967,8 +9970,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F345" sqref="F345"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10434,7 +10437,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>432</v>
       </c>
@@ -10452,7 +10455,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -10669,7 +10672,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>432</v>
       </c>
@@ -13856,7 +13859,7 @@
       </c>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>508</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>500</v>
       </c>
       <c r="F192" t="s">
-        <v>1128</v>
+        <v>1205</v>
       </c>
       <c r="G192"/>
     </row>
@@ -15050,7 +15053,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>561</v>
       </c>
@@ -15066,8 +15069,8 @@
       <c r="E249" t="s">
         <v>565</v>
       </c>
-      <c r="F249" s="8" t="s">
-        <v>1171</v>
+      <c r="F249" t="s">
+        <v>1205</v>
       </c>
       <c r="G249"/>
     </row>
@@ -15388,7 +15391,7 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>438</v>
       </c>
@@ -15406,7 +15409,7 @@
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>438</v>
       </c>
@@ -15427,7 +15430,7 @@
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>438</v>
       </c>
@@ -15445,7 +15448,7 @@
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>656</v>
       </c>
@@ -15466,7 +15469,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>656</v>
       </c>
@@ -15487,7 +15490,7 @@
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>758</v>
       </c>
@@ -15508,7 +15511,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>758</v>
       </c>
@@ -15529,7 +15532,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>758</v>
       </c>
@@ -15550,7 +15553,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>758</v>
       </c>
@@ -15571,7 +15574,7 @@
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>582</v>
       </c>
@@ -15592,7 +15595,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>582</v>
       </c>
@@ -15613,7 +15616,7 @@
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>588</v>
       </c>
@@ -15634,7 +15637,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>588</v>
       </c>
@@ -15655,7 +15658,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>588</v>
       </c>
@@ -15676,7 +15679,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>588</v>
       </c>
@@ -15697,7 +15700,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>588</v>
       </c>
@@ -15718,7 +15721,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>588</v>
       </c>
@@ -15739,7 +15742,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>588</v>
       </c>
@@ -15760,7 +15763,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>588</v>
       </c>
@@ -15781,7 +15784,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>913</v>
       </c>
@@ -15802,7 +15805,7 @@
       </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>913</v>
       </c>
@@ -15823,7 +15826,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>913</v>
       </c>
@@ -15844,7 +15847,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>913</v>
       </c>
@@ -15865,7 +15868,7 @@
       </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>913</v>
       </c>
@@ -15886,7 +15889,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>913</v>
       </c>
@@ -15907,7 +15910,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>913</v>
       </c>
@@ -15928,7 +15931,7 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>600</v>
       </c>
@@ -15949,7 +15952,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>600</v>
       </c>
@@ -15970,7 +15973,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>603</v>
       </c>
@@ -15991,7 +15994,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>606</v>
       </c>
@@ -16012,7 +16015,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>606</v>
       </c>
@@ -16033,7 +16036,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>606</v>
       </c>
@@ -16054,7 +16057,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>606</v>
       </c>
@@ -16075,7 +16078,7 @@
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>613</v>
       </c>
@@ -16096,7 +16099,7 @@
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>613</v>
       </c>
@@ -16117,7 +16120,7 @@
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>613</v>
       </c>
@@ -16138,7 +16141,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>613</v>
       </c>
@@ -16159,7 +16162,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>613</v>
       </c>
@@ -16180,7 +16183,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>613</v>
       </c>
@@ -16201,7 +16204,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>613</v>
       </c>
@@ -16222,7 +16225,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>613</v>
       </c>
@@ -16243,7 +16246,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>613</v>
       </c>
@@ -16264,7 +16267,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>613</v>
       </c>
@@ -16285,7 +16288,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>613</v>
       </c>
@@ -16306,7 +16309,7 @@
       </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>613</v>
       </c>
@@ -16327,7 +16330,7 @@
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>630</v>
       </c>
@@ -16348,7 +16351,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>630</v>
       </c>
@@ -16386,11 +16389,11 @@
         <v>434</v>
       </c>
       <c r="F312" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>630</v>
       </c>
@@ -16411,7 +16414,7 @@
       </c>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>630</v>
       </c>
@@ -16432,7 +16435,7 @@
       </c>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>630</v>
       </c>
@@ -16453,7 +16456,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -16474,7 +16477,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -16512,11 +16515,11 @@
         <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>984</v>
+        <v>1205</v>
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>630</v>
       </c>
@@ -16537,7 +16540,7 @@
       </c>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>630</v>
       </c>
@@ -16558,7 +16561,7 @@
       </c>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>630</v>
       </c>
@@ -16579,7 +16582,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>630</v>
       </c>
@@ -16600,7 +16603,7 @@
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>924</v>
       </c>
@@ -16621,7 +16624,7 @@
       </c>
       <c r="G323"/>
     </row>
-    <row r="324" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>924</v>
       </c>
@@ -16642,7 +16645,7 @@
       </c>
       <c r="G324"/>
     </row>
-    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>924</v>
       </c>
@@ -16663,7 +16666,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>924</v>
       </c>
@@ -16684,7 +16687,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -16705,7 +16708,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>650</v>
       </c>
@@ -16726,7 +16729,7 @@
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>938</v>
       </c>
@@ -16747,7 +16750,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>938</v>
       </c>
@@ -16768,7 +16771,7 @@
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>653</v>
       </c>
@@ -16789,7 +16792,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>653</v>
       </c>
@@ -16810,7 +16813,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>941</v>
       </c>
@@ -16831,7 +16834,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>941</v>
       </c>
@@ -16852,7 +16855,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>941</v>
       </c>
@@ -16873,7 +16876,7 @@
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>941</v>
       </c>
@@ -16894,7 +16897,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>941</v>
       </c>
@@ -16915,7 +16918,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>941</v>
       </c>
@@ -16936,7 +16939,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>941</v>
       </c>
@@ -16957,7 +16960,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>941</v>
       </c>
@@ -16978,7 +16981,7 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1045</v>
       </c>
@@ -16999,7 +17002,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1043</v>
       </c>
@@ -17020,7 +17023,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1043</v>
       </c>
@@ -17041,7 +17044,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1041</v>
       </c>
@@ -17062,7 +17065,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1041</v>
       </c>
@@ -17085,15 +17088,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G345">
-    <filterColumn colId="4">
+    <filterColumn colId="2">
       <filters>
-        <filter val="6"/>
-        <filter val="7"/>
+        <filter val="409"/>
+        <filter val="509"/>
+        <filter val="609"/>
+        <filter val="709"/>
       </filters>
     </filterColumn>
-    <sortState ref="A26:G345">
-      <sortCondition ref="A26"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17109,7 +17111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElementEdits!$A$1:$G$345</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$E$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SegmentEdits!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1223">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5274,6 +5276,57 @@
   <si>
     <t>2f75209</t>
   </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>24b8bb1</t>
+  </si>
+  <si>
+    <t>fb3e36e</t>
+  </si>
+  <si>
+    <t>eda0e2c</t>
+  </si>
+  <si>
+    <t>2e1a254</t>
+  </si>
+  <si>
+    <t>71af1c0</t>
+  </si>
+  <si>
+    <t>ee0730a</t>
+  </si>
+  <si>
+    <t>3093c6e</t>
+  </si>
+  <si>
+    <t>afd9abb</t>
+  </si>
+  <si>
+    <t>dc3e4d4</t>
+  </si>
+  <si>
+    <t>9b2cb8a</t>
+  </si>
+  <si>
+    <t>3da1e81</t>
+  </si>
+  <si>
+    <t>41cbde0</t>
+  </si>
+  <si>
+    <t>9700110</t>
+  </si>
+  <si>
+    <t>4508dc7</t>
+  </si>
+  <si>
+    <t>e24904c</t>
+  </si>
 </sst>
 </file>
 
@@ -5348,7 +5401,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5367,6 +5420,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -9970,7 +10024,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
@@ -17109,300 +17163,372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="165.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="35.42578125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>262</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="7">
         <v>263</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="6" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7">
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <v>376</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="7">
         <v>451</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="6" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="7">
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24" s="7">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="7">
         <v>476</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="6" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="7">
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="7">
         <v>551</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="10" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="7">
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="7">
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="7">
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="7">
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="7">
         <v>656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="7">
         <v>661</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="C33" s="6" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B34" s="7">
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="7">
         <v>759</v>
       </c>
+      <c r="C36" s="6" t="s">
+        <v>984</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C36">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -17,7 +17,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SegmentEdits!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1224">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5326,6 +5325,9 @@
   </si>
   <si>
     <t>e24904c</t>
+  </si>
+  <si>
+    <t>e39bbfb</t>
   </si>
 </sst>
 </file>
@@ -17167,7 +17169,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17343,6 +17345,9 @@
       </c>
       <c r="B16" s="7">
         <v>266</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1234">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5329,6 +5329,36 @@
   <si>
     <t>e39bbfb</t>
   </si>
+  <si>
+    <t>a251d31</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>3d542eb</t>
+  </si>
+  <si>
+    <t>c4211cb</t>
+  </si>
+  <si>
+    <t>763aa17</t>
+  </si>
+  <si>
+    <t>09e3077</t>
+  </si>
+  <si>
+    <t>09db7da</t>
+  </si>
+  <si>
+    <t>431fb52</t>
+  </si>
+  <si>
+    <t>954bd82</t>
+  </si>
+  <si>
+    <t>97bb460</t>
+  </si>
 </sst>
 </file>
 
@@ -5403,7 +5433,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5423,6 +5453,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -17169,7 +17200,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17328,7 +17359,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1017</v>
       </c>
@@ -17339,7 +17370,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1018</v>
       </c>
@@ -17350,20 +17381,26 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1019</v>
       </c>
       <c r="B17" s="7">
         <v>268</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1020</v>
       </c>
       <c r="B18" s="7">
         <v>343</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17377,12 +17414,15 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1022</v>
       </c>
       <c r="B20" s="7">
         <v>382</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17396,28 +17436,37 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>1024</v>
       </c>
       <c r="B22" s="7">
         <v>466</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1025</v>
       </c>
       <c r="B23" s="7">
         <v>470</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1026</v>
       </c>
       <c r="B24" s="7">
         <v>474</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -17431,12 +17480,15 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1028</v>
       </c>
       <c r="B26" s="7">
         <v>480</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17450,20 +17502,26 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>1030</v>
       </c>
       <c r="B28" s="7">
         <v>555</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1031</v>
       </c>
       <c r="B29" s="7">
         <v>558</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17472,6 +17530,9 @@
       </c>
       <c r="B30" s="7">
         <v>559</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1236">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5358,6 +5358,12 @@
   </si>
   <si>
     <t>97bb460</t>
+  </si>
+  <si>
+    <t>8fa73ea</t>
+  </si>
+  <si>
+    <t>74fa820</t>
   </si>
 </sst>
 </file>
@@ -17200,7 +17206,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17524,7 +17530,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1032</v>
       </c>
@@ -17543,12 +17549,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>1034</v>
       </c>
       <c r="B32" s="7">
         <v>656</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17562,12 +17571,15 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>1036</v>
       </c>
       <c r="B34" s="7">
         <v>669</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="1237">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5364,6 +5364,9 @@
   </si>
   <si>
     <t>74fa820</t>
+  </si>
+  <si>
+    <t>782daf3</t>
   </si>
 </sst>
 </file>
@@ -17548,6 +17551,9 @@
       <c r="B31" s="7">
         <v>560</v>
       </c>
+      <c r="C31" s="6" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">

--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="20480" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElementEdits!$A$1:$G$345</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$G$269</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4990,7 +4995,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5018,6 +5023,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5050,11 +5071,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5091,9 +5114,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -5388,23 +5413,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="54" style="9" customWidth="1"/>
-    <col min="6" max="6" width="73.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="9"/>
+    <col min="6" max="6" width="73.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42">
       <c r="A1" s="8" t="s">
         <v>1087</v>
       </c>
@@ -5425,7 +5450,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42">
       <c r="A2" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5445,7 +5470,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42">
       <c r="A3" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5465,7 +5490,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="42">
       <c r="A4" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5485,9 +5510,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>1063</v>
+    <row r="5" spans="1:7" ht="42">
+      <c r="A5" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C5" s="8">
         <v>50</v>
@@ -5505,9 +5530,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1063</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C6" s="8">
         <v>51</v>
@@ -5525,7 +5550,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28">
       <c r="B7" s="9" t="s">
         <v>1080</v>
       </c>
@@ -5545,7 +5570,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28">
       <c r="A8" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5565,7 +5590,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28">
       <c r="A9" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5585,7 +5610,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="42">
       <c r="A10" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5605,7 +5630,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="42">
       <c r="A11" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5625,7 +5650,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28">
       <c r="A12" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5645,7 +5670,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42">
       <c r="A13" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5665,7 +5690,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="56">
       <c r="A14" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5685,7 +5710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="70">
       <c r="A15" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="196">
       <c r="A16" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5725,7 +5750,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56">
       <c r="A17" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5745,7 +5770,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="56">
       <c r="A18" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5765,7 +5790,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42">
       <c r="A19" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5785,7 +5810,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42">
       <c r="A20" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5805,7 +5830,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="42">
       <c r="A21" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5825,7 +5850,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="56">
       <c r="A22" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5845,7 +5870,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="42">
       <c r="A23" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5865,7 +5890,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="409">
       <c r="A24" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5885,7 +5910,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="98">
       <c r="A25" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5905,7 +5930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="56">
       <c r="A26" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5925,7 +5950,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42">
       <c r="A27" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5948,7 +5973,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28">
       <c r="A28" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5968,7 +5993,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28">
       <c r="A29" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5988,7 +6013,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28">
       <c r="A30" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6008,7 +6033,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="42">
       <c r="A31" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6028,7 +6053,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="56">
       <c r="A32" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6048,7 +6073,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28">
       <c r="A33" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6068,7 +6093,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6088,9 +6113,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>1063</v>
+    <row r="35" spans="1:7" ht="56">
+      <c r="A35" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C35" s="8">
         <v>105</v>
@@ -6108,7 +6133,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28">
       <c r="A36" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6128,7 +6153,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28">
       <c r="A37" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6148,7 +6173,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28">
       <c r="A38" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6168,7 +6193,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28">
       <c r="A39" s="10" t="s">
         <v>1074</v>
       </c>
@@ -6189,7 +6214,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28">
       <c r="A40" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6209,7 +6234,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="154">
       <c r="A41" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6229,7 +6254,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="42">
       <c r="A42" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6249,7 +6274,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="70">
       <c r="A43" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6269,7 +6294,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28">
       <c r="A44" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6289,7 +6314,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28">
       <c r="A45" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6309,7 +6334,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="42">
       <c r="A46" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6329,7 +6354,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="42">
       <c r="A47" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6349,7 +6374,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="112">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
         <v>1079</v>
@@ -6370,7 +6395,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28">
       <c r="A49" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6390,7 +6415,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="238">
       <c r="A50" s="10" t="s">
         <v>1074</v>
       </c>
@@ -6411,7 +6436,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28">
       <c r="A51" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6431,7 +6456,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="42">
       <c r="A52" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6451,7 +6476,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28">
       <c r="A53" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6468,7 +6493,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="42">
       <c r="A54" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6485,7 +6510,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="42">
       <c r="A55" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6502,7 +6527,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28">
       <c r="A56" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6522,7 +6547,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6542,7 +6567,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28">
       <c r="A58" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6562,7 +6587,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="308">
       <c r="A59" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6582,7 +6607,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28">
       <c r="A60" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6602,7 +6627,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="42">
       <c r="A61" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6622,7 +6647,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28">
       <c r="A62" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6642,7 +6667,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6662,7 +6687,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="70">
       <c r="A64" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6682,7 +6707,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="210">
       <c r="A65" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6702,7 +6727,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="70">
       <c r="A66" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6722,7 +6747,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="154">
       <c r="A67" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6742,7 +6767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="238">
       <c r="A68" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6762,7 +6787,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6782,7 +6807,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="42">
       <c r="A70" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6802,7 +6827,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28">
       <c r="A71" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6822,7 +6847,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28">
       <c r="A72" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6842,7 +6867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6862,7 +6887,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28">
       <c r="A74" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6882,7 +6907,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="28">
       <c r="A75" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6902,7 +6927,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="112">
       <c r="A76" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6922,7 +6947,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="42">
       <c r="A77" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6942,7 +6967,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="28">
       <c r="A78" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6962,7 +6987,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="28">
       <c r="A79" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6982,7 +7007,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="56">
       <c r="A80" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7002,7 +7027,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="28">
       <c r="A81" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7022,7 +7047,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="28">
       <c r="A82" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7042,7 +7067,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="42">
       <c r="A83" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7062,7 +7087,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="42">
       <c r="A84" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7082,7 +7107,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7102,7 +7127,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="42">
       <c r="A86" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7122,7 +7147,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="28">
       <c r="A87" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7142,7 +7167,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="42">
       <c r="A88" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7162,7 +7187,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="28">
       <c r="A89" t="s">
         <v>1078</v>
       </c>
@@ -7182,7 +7207,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="98">
       <c r="A90" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7202,7 +7227,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="140">
       <c r="A91" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7222,7 +7247,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="28">
       <c r="A92" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7242,7 +7267,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="28">
       <c r="A93" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7262,7 +7287,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="28">
       <c r="A94" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7282,7 +7307,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="84">
       <c r="B95" s="9" t="s">
         <v>1079</v>
       </c>
@@ -7302,7 +7327,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="84">
       <c r="B96" s="9" t="s">
         <v>1079</v>
       </c>
@@ -7322,7 +7347,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="112">
       <c r="A97" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7342,7 +7367,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="112">
       <c r="A98" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7362,7 +7387,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="28">
       <c r="A99" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7382,7 +7407,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="28">
       <c r="A100" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7402,7 +7427,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="28">
       <c r="A101" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7422,7 +7447,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="28">
       <c r="A102" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7442,7 +7467,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="56">
       <c r="A103" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7462,7 +7487,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="70">
       <c r="A104" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7482,7 +7507,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="70">
       <c r="A105" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7502,7 +7527,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="126">
       <c r="A106" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7522,7 +7547,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="42">
       <c r="A107" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7542,7 +7567,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="28">
       <c r="A108" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7562,7 +7587,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="28">
       <c r="A109" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7582,7 +7607,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="56">
       <c r="A110" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7602,7 +7627,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="112">
       <c r="A111" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7622,7 +7647,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="28">
       <c r="A112" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7642,7 +7667,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="126">
       <c r="A113" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7662,7 +7687,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="28">
       <c r="A114" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7682,7 +7707,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="42">
       <c r="A115" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7702,7 +7727,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="84">
       <c r="A116" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7722,7 +7747,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="42">
       <c r="A117" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7742,7 +7767,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="42">
       <c r="A118" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7762,7 +7787,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="56">
       <c r="A119" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7782,7 +7807,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="70">
       <c r="A120" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7802,7 +7827,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="70">
       <c r="A121" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7822,7 +7847,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="70">
       <c r="A122" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7842,7 +7867,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="84">
       <c r="A123" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7862,7 +7887,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="196">
       <c r="A124" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7882,7 +7907,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="98">
       <c r="A125" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7902,7 +7927,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="42">
       <c r="A126" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7922,7 +7947,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="28">
       <c r="A127" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7942,7 +7967,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7962,7 +7987,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="28">
       <c r="A129" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7982,7 +8007,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="28">
       <c r="A130" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8002,7 +8027,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="42">
       <c r="A131" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8022,7 +8047,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="28">
       <c r="A132" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8042,7 +8067,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="28">
       <c r="A133" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8062,7 +8087,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="28">
       <c r="A134" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8082,7 +8107,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="28">
       <c r="A135" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8102,7 +8127,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="28">
       <c r="A136" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8122,7 +8147,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="56">
       <c r="A137" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8142,7 +8167,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="168">
       <c r="A138" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8162,7 +8187,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="28">
       <c r="A139" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8182,7 +8207,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="28">
       <c r="A140" s="9" t="s">
         <v>1063</v>
       </c>
@@ -8205,7 +8230,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="28">
       <c r="A141" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8225,7 +8250,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="42">
       <c r="A142" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8245,7 +8270,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="28">
       <c r="A143" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8265,7 +8290,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="56">
       <c r="A144" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8285,7 +8310,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="42">
       <c r="A145" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8305,7 +8330,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="56">
       <c r="A146" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8325,7 +8350,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="42">
       <c r="A147" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8345,7 +8370,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="42">
       <c r="A148" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8365,7 +8390,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="56">
       <c r="A149" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8385,7 +8410,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="42">
       <c r="A150" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8405,7 +8430,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="28">
       <c r="B151" s="9" t="s">
         <v>1079</v>
       </c>
@@ -8425,7 +8450,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="56">
       <c r="A152" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8445,7 +8470,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="42">
       <c r="A153" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8465,7 +8490,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="42">
       <c r="A154" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8485,7 +8510,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="28">
       <c r="A155" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8505,7 +8530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="56">
       <c r="A156" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8525,7 +8550,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="42">
       <c r="A157" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8545,7 +8570,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="42">
       <c r="A158" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8565,7 +8590,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="28">
       <c r="A159" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8585,7 +8610,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="98">
       <c r="A160" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8605,7 +8630,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="42">
       <c r="A161" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8625,7 +8650,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="42">
       <c r="A162" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8645,7 +8670,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="42">
       <c r="A163" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8665,7 +8690,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="28">
       <c r="A164" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8685,7 +8710,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="28">
       <c r="A165" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8705,7 +8730,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="56">
       <c r="A166" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8725,7 +8750,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="409">
       <c r="A167" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8745,7 +8770,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="56">
       <c r="A168" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8765,7 +8790,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="56">
       <c r="A169" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8785,7 +8810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="28">
       <c r="A170" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8805,7 +8830,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="56">
       <c r="A171" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8825,7 +8850,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="84">
       <c r="A172" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8845,7 +8870,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="42">
       <c r="A173" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8865,7 +8890,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="112">
       <c r="A174" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8882,7 +8907,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="28">
       <c r="A175" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8902,7 +8927,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="28">
       <c r="A176" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8922,7 +8947,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="28">
       <c r="A177" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8942,7 +8967,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="28">
       <c r="A178" s="12" t="s">
         <v>1063</v>
       </c>
@@ -8962,7 +8987,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="28">
       <c r="A179" s="9" t="s">
         <v>1078</v>
       </c>
@@ -8982,7 +9007,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="28">
       <c r="A180" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9002,7 +9027,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="28">
       <c r="A181" s="12" t="s">
         <v>1063</v>
       </c>
@@ -9022,7 +9047,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="12" t="s">
         <v>1063</v>
       </c>
@@ -9042,7 +9067,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="56">
       <c r="A183" s="12" t="s">
         <v>1063</v>
       </c>
@@ -9062,7 +9087,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="28">
       <c r="A184" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9082,7 +9107,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="28">
       <c r="A185" s="12" t="s">
         <v>1063</v>
       </c>
@@ -9105,7 +9130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="28">
       <c r="A186" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9125,7 +9150,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="42">
       <c r="A187" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9145,7 +9170,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="28">
       <c r="A188" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9165,7 +9190,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="154">
       <c r="A189" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9188,7 +9213,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="112">
       <c r="A190" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9208,7 +9233,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="42">
       <c r="A191" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9228,7 +9253,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9248,7 +9273,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="56">
       <c r="A193" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9268,7 +9293,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="42">
       <c r="A194" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9288,7 +9313,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="42">
       <c r="A195" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9308,7 +9333,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="42">
       <c r="A196" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9328,7 +9353,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="42">
       <c r="A197" s="9" t="s">
         <v>1063</v>
       </c>
@@ -9348,7 +9373,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="28">
       <c r="A198" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9368,7 +9393,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="28">
       <c r="A199" s="9" t="s">
         <v>1063</v>
       </c>
@@ -9388,7 +9413,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="28">
       <c r="A200" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9408,7 +9433,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="112">
       <c r="A201" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9428,7 +9453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="42">
       <c r="A202" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9448,7 +9473,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="42">
       <c r="A203" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9468,7 +9493,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="28">
       <c r="A204" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9488,7 +9513,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="28">
       <c r="A205" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9508,7 +9533,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="28">
       <c r="A206" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9528,7 +9553,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="28">
       <c r="A207" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9548,7 +9573,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="28">
       <c r="A208" s="9" t="s">
         <v>1063</v>
       </c>
@@ -9568,7 +9593,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="42">
       <c r="A209" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9588,7 +9613,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="42">
       <c r="A210" s="10" t="s">
         <v>1074</v>
       </c>
@@ -9609,7 +9634,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="28">
       <c r="A211" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9629,7 +9654,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="28">
       <c r="B212" s="9" t="s">
         <v>1091</v>
       </c>
@@ -9649,7 +9674,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="84">
       <c r="B213" s="9" t="s">
         <v>1091</v>
       </c>
@@ -9669,7 +9694,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="42">
       <c r="A214" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9689,7 +9714,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="42">
       <c r="A215" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9709,7 +9734,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="42">
       <c r="A216" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9729,7 +9754,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="28">
       <c r="A217" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9749,7 +9774,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="112">
       <c r="A218" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9769,7 +9794,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="126">
       <c r="A219" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9789,7 +9814,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="42">
       <c r="A220" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9809,7 +9834,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="28">
       <c r="A221" s="9" t="s">
         <v>1063</v>
       </c>
@@ -9829,7 +9854,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="84">
       <c r="A222" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9846,7 +9871,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="28">
       <c r="A223" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9866,7 +9891,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="42">
       <c r="A224" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9886,7 +9911,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="28">
       <c r="A225" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9906,7 +9931,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="28">
       <c r="A226" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9926,7 +9951,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="28">
       <c r="A227" s="9" t="s">
         <v>1063</v>
       </c>
@@ -9946,7 +9971,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="28">
       <c r="A228" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9966,7 +9991,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="112">
       <c r="A229" s="9" t="s">
         <v>1078</v>
       </c>
@@ -9986,7 +10011,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="28">
       <c r="A230" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10006,7 +10031,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="42">
       <c r="A231" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10026,7 +10051,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="28">
       <c r="A232" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10046,7 +10071,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="28">
       <c r="A233" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10066,7 +10091,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="28">
       <c r="A234" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10086,7 +10111,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="28">
       <c r="A235" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10106,7 +10131,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10126,7 +10151,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="56">
       <c r="A237" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10146,7 +10171,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="42">
       <c r="A238" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10167,7 +10192,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="28">
       <c r="A239" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10187,7 +10212,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="28">
       <c r="A240" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10207,7 +10232,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="84">
       <c r="B241" s="9" t="s">
         <v>1091</v>
       </c>
@@ -10227,7 +10252,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="42">
       <c r="A242" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10247,7 +10272,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="42">
       <c r="A243" s="12" t="s">
         <v>1063</v>
       </c>
@@ -10267,7 +10292,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="42">
       <c r="A244" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10287,7 +10312,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="42">
       <c r="A245" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10307,7 +10332,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="28">
       <c r="A246" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10327,7 +10352,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="112">
       <c r="A247" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10347,7 +10372,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="28">
       <c r="A248" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10367,7 +10392,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="28">
       <c r="A249" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10387,7 +10412,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="56">
       <c r="A250" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10408,7 +10433,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="28">
       <c r="A251" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10428,7 +10453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="28">
       <c r="B252" s="9" t="s">
         <v>1091</v>
       </c>
@@ -10448,7 +10473,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="28">
       <c r="A253" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10468,7 +10493,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="42">
       <c r="A254" s="9" t="s">
         <v>1074</v>
       </c>
@@ -10488,7 +10513,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="42">
       <c r="A255" s="9" t="s">
         <v>1074</v>
       </c>
@@ -10508,7 +10533,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="28">
       <c r="A256" s="9" t="s">
         <v>1078</v>
       </c>
@@ -10528,7 +10553,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="28">
       <c r="A257" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10542,7 +10567,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="28">
       <c r="A258" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10556,7 +10581,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10576,7 +10601,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10596,7 +10621,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="28">
       <c r="A261" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10617,7 +10642,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="28">
       <c r="A262" s="9" t="s">
         <v>1063</v>
       </c>
@@ -10637,7 +10662,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="70">
       <c r="A263" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10654,7 +10679,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10669,7 +10694,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10684,7 +10709,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="28">
       <c r="A266" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10699,7 +10724,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10714,7 +10739,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10729,7 +10754,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="10" t="s">
         <v>1074</v>
       </c>
@@ -10747,7 +10772,12 @@
   </sheetData>
   <autoFilter ref="A1:G269"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10759,18 +10789,18 @@
       <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>425</v>
       </c>
@@ -10790,7 +10820,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>653</v>
       </c>
@@ -10808,7 +10838,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28">
       <c r="A3" t="s">
         <v>755</v>
       </c>
@@ -10826,7 +10856,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>987</v>
       </c>
@@ -10844,7 +10874,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>988</v>
       </c>
@@ -10862,7 +10892,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>989</v>
       </c>
@@ -10880,7 +10910,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>988</v>
       </c>
@@ -10898,7 +10928,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>987</v>
       </c>
@@ -10916,7 +10946,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>653</v>
       </c>
@@ -10934,7 +10964,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28">
       <c r="A10" t="s">
         <v>815</v>
       </c>
@@ -10952,7 +10982,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="42">
       <c r="A11" t="s">
         <v>755</v>
       </c>
@@ -10970,7 +11000,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28">
       <c r="A12" t="s">
         <v>653</v>
       </c>
@@ -10988,7 +11018,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42">
       <c r="A13" t="s">
         <v>447</v>
       </c>
@@ -11006,7 +11036,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -11024,7 +11054,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="42">
       <c r="A15" t="s">
         <v>447</v>
       </c>
@@ -11042,7 +11072,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28">
       <c r="A16" t="s">
         <v>447</v>
       </c>
@@ -11060,7 +11090,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="42">
       <c r="A17" t="s">
         <v>447</v>
       </c>
@@ -11078,7 +11108,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="42">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -11096,7 +11126,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42">
       <c r="A19" t="s">
         <v>447</v>
       </c>
@@ -11114,7 +11144,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="280">
       <c r="A20" t="s">
         <v>447</v>
       </c>
@@ -11132,7 +11162,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="70">
       <c r="A21" t="s">
         <v>717</v>
       </c>
@@ -11150,7 +11180,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>653</v>
       </c>
@@ -11168,7 +11198,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28">
       <c r="A23" t="s">
         <v>755</v>
       </c>
@@ -11186,7 +11216,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>755</v>
       </c>
@@ -11204,7 +11234,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28">
       <c r="A25" t="s">
         <v>986</v>
       </c>
@@ -11222,7 +11252,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>987</v>
       </c>
@@ -11243,7 +11273,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>988</v>
       </c>
@@ -11264,7 +11294,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>983</v>
       </c>
@@ -11284,7 +11314,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>984</v>
       </c>
@@ -11304,7 +11334,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>1038</v>
       </c>
@@ -11322,7 +11352,7 @@
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>1040</v>
       </c>
@@ -11340,7 +11370,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>987</v>
       </c>
@@ -11358,7 +11388,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>988</v>
       </c>
@@ -11376,7 +11406,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="56">
       <c r="A34" t="s">
         <v>988</v>
       </c>
@@ -11397,7 +11427,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>653</v>
       </c>
@@ -11417,7 +11447,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28">
       <c r="A36" t="s">
         <v>755</v>
       </c>
@@ -11437,7 +11467,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -11457,7 +11487,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28">
       <c r="A38" t="s">
         <v>904</v>
       </c>
@@ -11477,7 +11507,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>983</v>
       </c>
@@ -11497,7 +11527,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>984</v>
       </c>
@@ -11517,7 +11547,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>985</v>
       </c>
@@ -11537,7 +11567,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>985</v>
       </c>
@@ -11557,7 +11587,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>1042</v>
       </c>
@@ -11575,7 +11605,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -11595,7 +11625,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>833</v>
       </c>
@@ -11615,7 +11645,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>838</v>
       </c>
@@ -11635,7 +11665,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>838</v>
       </c>
@@ -11655,7 +11685,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>927</v>
       </c>
@@ -11675,7 +11705,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>984</v>
       </c>
@@ -11695,7 +11725,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>983</v>
       </c>
@@ -11715,7 +11745,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="42">
       <c r="A51" t="s">
         <v>838</v>
       </c>
@@ -11735,7 +11765,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="56">
       <c r="A52" t="s">
         <v>927</v>
       </c>
@@ -11758,7 +11788,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28">
       <c r="A53" t="s">
         <v>755</v>
       </c>
@@ -11778,7 +11808,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>755</v>
       </c>
@@ -11798,7 +11828,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="70">
       <c r="A55" t="s">
         <v>755</v>
       </c>
@@ -11818,7 +11848,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28">
       <c r="A56" t="s">
         <v>838</v>
       </c>
@@ -11838,7 +11868,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28">
       <c r="A57" t="s">
         <v>833</v>
       </c>
@@ -11858,7 +11888,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28">
       <c r="A58" t="s">
         <v>838</v>
       </c>
@@ -11878,7 +11908,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="56">
       <c r="A59" t="s">
         <v>838</v>
       </c>
@@ -11898,7 +11928,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28">
       <c r="A60" t="s">
         <v>904</v>
       </c>
@@ -11918,7 +11948,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>927</v>
       </c>
@@ -11938,7 +11968,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28">
       <c r="A62" t="s">
         <v>927</v>
       </c>
@@ -11958,7 +11988,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="42">
       <c r="A63" t="s">
         <v>904</v>
       </c>
@@ -11981,7 +12011,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="28">
       <c r="A64" t="s">
         <v>838</v>
       </c>
@@ -12001,7 +12031,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="98">
       <c r="A65" t="s">
         <v>838</v>
       </c>
@@ -12021,7 +12051,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="28">
       <c r="A66" t="s">
         <v>838</v>
       </c>
@@ -12041,7 +12071,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28">
       <c r="A67" t="s">
         <v>838</v>
       </c>
@@ -12061,7 +12091,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>927</v>
       </c>
@@ -12081,7 +12111,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28">
       <c r="A69" t="s">
         <v>950</v>
       </c>
@@ -12099,7 +12129,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="28">
       <c r="A70" t="s">
         <v>954</v>
       </c>
@@ -12117,7 +12147,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28">
       <c r="A71" t="s">
         <v>960</v>
       </c>
@@ -12135,7 +12165,7 @@
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>653</v>
       </c>
@@ -12156,7 +12186,7 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="28">
       <c r="A73" t="s">
         <v>965</v>
       </c>
@@ -12174,7 +12204,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28">
       <c r="A74" t="s">
         <v>972</v>
       </c>
@@ -12192,7 +12222,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="28">
       <c r="A75" t="s">
         <v>755</v>
       </c>
@@ -12213,7 +12243,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>653</v>
       </c>
@@ -12234,7 +12264,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="28">
       <c r="A77" t="s">
         <v>438</v>
       </c>
@@ -12252,7 +12282,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="28">
       <c r="A78" t="s">
         <v>666</v>
       </c>
@@ -12270,7 +12300,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="28">
       <c r="A79" t="s">
         <v>673</v>
       </c>
@@ -12288,7 +12318,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28">
       <c r="A80" t="s">
         <v>684</v>
       </c>
@@ -12306,7 +12336,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="28">
       <c r="A81" t="s">
         <v>684</v>
       </c>
@@ -12324,7 +12354,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="28">
       <c r="A82" t="s">
         <v>965</v>
       </c>
@@ -12342,7 +12372,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="28">
       <c r="A83" t="s">
         <v>972</v>
       </c>
@@ -12360,7 +12390,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28">
       <c r="A84" t="s">
         <v>673</v>
       </c>
@@ -12378,7 +12408,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="28">
       <c r="A85" t="s">
         <v>684</v>
       </c>
@@ -12396,7 +12426,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="28">
       <c r="A86" t="s">
         <v>960</v>
       </c>
@@ -12414,7 +12444,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="28">
       <c r="A87" t="s">
         <v>965</v>
       </c>
@@ -12432,7 +12462,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="42">
       <c r="A88" t="s">
         <v>673</v>
       </c>
@@ -12450,7 +12480,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="42">
       <c r="A89" t="s">
         <v>684</v>
       </c>
@@ -12468,7 +12498,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="42">
       <c r="A90" t="s">
         <v>960</v>
       </c>
@@ -12486,7 +12516,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="42">
       <c r="A91" t="s">
         <v>965</v>
       </c>
@@ -12504,7 +12534,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="28">
       <c r="A92" t="s">
         <v>755</v>
       </c>
@@ -12525,7 +12555,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>755</v>
       </c>
@@ -12546,7 +12576,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="70">
       <c r="A94" t="s">
         <v>755</v>
       </c>
@@ -12567,7 +12597,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="378">
       <c r="A95" t="s">
         <v>673</v>
       </c>
@@ -12585,7 +12615,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="154">
       <c r="A96" t="s">
         <v>673</v>
       </c>
@@ -12603,7 +12633,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="238">
       <c r="A97" t="s">
         <v>684</v>
       </c>
@@ -12621,7 +12651,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="28">
       <c r="A98" t="s">
         <v>954</v>
       </c>
@@ -12639,7 +12669,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="28">
       <c r="A99" t="s">
         <v>438</v>
       </c>
@@ -12657,7 +12687,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>666</v>
       </c>
@@ -12675,7 +12705,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="28">
       <c r="A101" t="s">
         <v>666</v>
       </c>
@@ -12693,7 +12723,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="28">
       <c r="A102" t="s">
         <v>684</v>
       </c>
@@ -12711,7 +12741,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>954</v>
       </c>
@@ -12729,7 +12759,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="42">
       <c r="A104" t="s">
         <v>438</v>
       </c>
@@ -12747,7 +12777,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="126">
       <c r="A105" t="s">
         <v>684</v>
       </c>
@@ -12765,7 +12795,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>950</v>
       </c>
@@ -12783,7 +12813,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="56">
       <c r="A107" t="s">
         <v>684</v>
       </c>
@@ -12801,7 +12831,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="28">
       <c r="A108" t="s">
         <v>684</v>
       </c>
@@ -12819,7 +12849,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="28">
       <c r="A109" t="s">
         <v>684</v>
       </c>
@@ -12837,7 +12867,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>965</v>
       </c>
@@ -12855,7 +12885,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>653</v>
       </c>
@@ -12873,7 +12903,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="28">
       <c r="A112" t="s">
         <v>755</v>
       </c>
@@ -12891,7 +12921,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="28">
       <c r="A113" t="s">
         <v>447</v>
       </c>
@@ -12909,7 +12939,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="28">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -12927,7 +12957,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="28">
       <c r="A115" t="s">
         <v>475</v>
       </c>
@@ -12945,7 +12975,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="28">
       <c r="A116" t="s">
         <v>485</v>
       </c>
@@ -12963,7 +12993,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>653</v>
       </c>
@@ -12981,7 +13011,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="28">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -12999,7 +13029,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="28">
       <c r="A119" t="s">
         <v>717</v>
       </c>
@@ -13017,7 +13047,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="28">
       <c r="A120" t="s">
         <v>735</v>
       </c>
@@ -13035,7 +13065,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="28">
       <c r="A121" t="s">
         <v>745</v>
       </c>
@@ -13053,7 +13083,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="28">
       <c r="A122" t="s">
         <v>780</v>
       </c>
@@ -13071,7 +13101,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="84">
       <c r="A123" t="s">
         <v>462</v>
       </c>
@@ -13089,7 +13119,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="126">
       <c r="A124" t="s">
         <v>780</v>
       </c>
@@ -13107,7 +13137,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="28">
       <c r="A125" t="s">
         <v>755</v>
       </c>
@@ -13125,7 +13155,7 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>755</v>
       </c>
@@ -13143,7 +13173,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="70">
       <c r="A127" t="s">
         <v>755</v>
       </c>
@@ -13161,7 +13191,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="70">
       <c r="A128" t="s">
         <v>462</v>
       </c>
@@ -13179,7 +13209,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="70">
       <c r="A129" t="s">
         <v>717</v>
       </c>
@@ -13197,7 +13227,7 @@
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="140">
       <c r="A130" t="s">
         <v>717</v>
       </c>
@@ -13215,7 +13245,7 @@
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="98">
       <c r="A131" t="s">
         <v>462</v>
       </c>
@@ -13233,7 +13263,7 @@
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="98">
       <c r="A132" t="s">
         <v>475</v>
       </c>
@@ -13251,7 +13281,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="98">
       <c r="A133" t="s">
         <v>485</v>
       </c>
@@ -13269,7 +13299,7 @@
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="112">
       <c r="A134" t="s">
         <v>701</v>
       </c>
@@ -13287,7 +13317,7 @@
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="126">
       <c r="A135" t="s">
         <v>717</v>
       </c>
@@ -13305,7 +13335,7 @@
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="140">
       <c r="A136" t="s">
         <v>735</v>
       </c>
@@ -13323,7 +13353,7 @@
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="140">
       <c r="A137" t="s">
         <v>745</v>
       </c>
@@ -13341,7 +13371,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="112">
       <c r="A138" t="s">
         <v>780</v>
       </c>
@@ -13359,7 +13389,7 @@
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="28">
       <c r="A139" t="s">
         <v>717</v>
       </c>
@@ -13377,7 +13407,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="28">
       <c r="A140" t="s">
         <v>701</v>
       </c>
@@ -13395,7 +13425,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="28">
       <c r="A141" t="s">
         <v>462</v>
       </c>
@@ -13413,7 +13443,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>701</v>
       </c>
@@ -13431,7 +13461,7 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="28">
       <c r="A143" t="s">
         <v>717</v>
       </c>
@@ -13449,7 +13479,7 @@
       </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="42">
       <c r="A144" t="s">
         <v>735</v>
       </c>
@@ -13467,7 +13497,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="56">
       <c r="A145" t="s">
         <v>735</v>
       </c>
@@ -13485,7 +13515,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="84">
       <c r="A146" t="s">
         <v>701</v>
       </c>
@@ -13503,7 +13533,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="98">
       <c r="A147" t="s">
         <v>745</v>
       </c>
@@ -13521,7 +13551,7 @@
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="28">
       <c r="A148" t="s">
         <v>745</v>
       </c>
@@ -13539,7 +13569,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="28">
       <c r="A149" t="s">
         <v>780</v>
       </c>
@@ -13557,7 +13587,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="28">
       <c r="A150" t="s">
         <v>475</v>
       </c>
@@ -13575,7 +13605,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="28">
       <c r="A151" t="s">
         <v>485</v>
       </c>
@@ -13593,7 +13623,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="42">
       <c r="A152" t="s">
         <v>475</v>
       </c>
@@ -13611,7 +13641,7 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="42">
       <c r="A153" t="s">
         <v>485</v>
       </c>
@@ -13629,7 +13659,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="70">
       <c r="A154" t="s">
         <v>780</v>
       </c>
@@ -13647,7 +13677,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="84">
       <c r="A155" t="s">
         <v>485</v>
       </c>
@@ -13665,7 +13695,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="56">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -13683,7 +13713,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="42">
       <c r="A157" t="s">
         <v>717</v>
       </c>
@@ -13701,7 +13731,7 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="112">
       <c r="A158" t="s">
         <v>701</v>
       </c>
@@ -13719,7 +13749,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="56">
       <c r="A159" t="s">
         <v>717</v>
       </c>
@@ -13737,7 +13767,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="56">
       <c r="A160" t="s">
         <v>475</v>
       </c>
@@ -13755,7 +13785,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="70">
       <c r="A161" t="s">
         <v>701</v>
       </c>
@@ -13773,7 +13803,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="70">
       <c r="A162" t="s">
         <v>735</v>
       </c>
@@ -13791,7 +13821,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="84">
       <c r="A163" t="s">
         <v>745</v>
       </c>
@@ -13809,7 +13839,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="224">
       <c r="A164" t="s">
         <v>701</v>
       </c>
@@ -13827,7 +13857,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="112">
       <c r="A165" t="s">
         <v>717</v>
       </c>
@@ -13845,7 +13875,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="56">
       <c r="A166" t="s">
         <v>780</v>
       </c>
@@ -13863,7 +13893,7 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="28">
       <c r="A167" t="s">
         <v>493</v>
       </c>
@@ -13881,7 +13911,7 @@
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="28">
       <c r="A168" t="s">
         <v>498</v>
       </c>
@@ -13899,7 +13929,7 @@
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>653</v>
       </c>
@@ -13917,7 +13947,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="28">
       <c r="A170" t="s">
         <v>755</v>
       </c>
@@ -13935,7 +13965,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="28">
       <c r="A171" t="s">
         <v>791</v>
       </c>
@@ -13953,7 +13983,7 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="28">
       <c r="A172" t="s">
         <v>505</v>
       </c>
@@ -13971,7 +14001,7 @@
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="28">
       <c r="A173" t="s">
         <v>525</v>
       </c>
@@ -13989,7 +14019,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>529</v>
       </c>
@@ -14007,7 +14037,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="28">
       <c r="A175" t="s">
         <v>533</v>
       </c>
@@ -14025,7 +14055,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="28">
       <c r="A176" t="s">
         <v>547</v>
       </c>
@@ -14043,7 +14073,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>653</v>
       </c>
@@ -14061,7 +14091,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="28">
       <c r="A178" t="s">
         <v>804</v>
       </c>
@@ -14079,7 +14109,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="28">
       <c r="A179" t="s">
         <v>810</v>
       </c>
@@ -14097,7 +14127,7 @@
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="28">
       <c r="A180" t="s">
         <v>815</v>
       </c>
@@ -14115,7 +14145,7 @@
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="28">
       <c r="A181" t="s">
         <v>820</v>
       </c>
@@ -14133,7 +14163,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="28">
       <c r="A182" t="s">
         <v>828</v>
       </c>
@@ -14151,7 +14181,7 @@
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="28">
       <c r="A183" t="s">
         <v>857</v>
       </c>
@@ -14169,7 +14199,7 @@
       </c>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="28">
       <c r="A184" t="s">
         <v>864</v>
       </c>
@@ -14187,7 +14217,7 @@
       </c>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="28">
       <c r="A185" t="s">
         <v>874</v>
       </c>
@@ -14205,7 +14235,7 @@
       </c>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="28">
       <c r="A186" t="s">
         <v>498</v>
       </c>
@@ -14223,7 +14253,7 @@
       </c>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="28">
       <c r="A187" t="s">
         <v>533</v>
       </c>
@@ -14241,7 +14271,7 @@
       </c>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="28">
       <c r="A188" t="s">
         <v>547</v>
       </c>
@@ -14259,7 +14289,7 @@
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="28">
       <c r="A189" t="s">
         <v>864</v>
       </c>
@@ -14277,7 +14307,7 @@
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="28">
       <c r="A190" t="s">
         <v>864</v>
       </c>
@@ -14295,7 +14325,7 @@
       </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>505</v>
       </c>
@@ -14313,7 +14343,7 @@
       </c>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="28">
       <c r="A192" t="s">
         <v>505</v>
       </c>
@@ -14331,7 +14361,7 @@
       </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>505</v>
       </c>
@@ -14349,7 +14379,7 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="28">
       <c r="A194" t="s">
         <v>755</v>
       </c>
@@ -14367,7 +14397,7 @@
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>755</v>
       </c>
@@ -14385,7 +14415,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="70">
       <c r="A196" t="s">
         <v>755</v>
       </c>
@@ -14403,7 +14433,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="280">
       <c r="A197" t="s">
         <v>533</v>
       </c>
@@ -14421,7 +14451,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="266">
       <c r="A198" t="s">
         <v>864</v>
       </c>
@@ -14439,7 +14469,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>505</v>
       </c>
@@ -14457,7 +14487,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>505</v>
       </c>
@@ -14475,7 +14505,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>505</v>
       </c>
@@ -14493,7 +14523,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>820</v>
       </c>
@@ -14511,7 +14541,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>828</v>
       </c>
@@ -14529,7 +14559,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="42">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -14547,7 +14577,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="56">
       <c r="A205" t="s">
         <v>804</v>
       </c>
@@ -14565,7 +14595,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="56">
       <c r="A206" t="s">
         <v>810</v>
       </c>
@@ -14583,7 +14613,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="42">
       <c r="A207" t="s">
         <v>820</v>
       </c>
@@ -14601,7 +14631,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="42">
       <c r="A208" t="s">
         <v>828</v>
       </c>
@@ -14619,7 +14649,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="42">
       <c r="A209" t="s">
         <v>857</v>
       </c>
@@ -14637,7 +14667,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="56">
       <c r="A210" t="s">
         <v>533</v>
       </c>
@@ -14655,7 +14685,7 @@
       </c>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="28">
       <c r="A211" t="s">
         <v>857</v>
       </c>
@@ -14673,7 +14703,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="28">
       <c r="A212" t="s">
         <v>505</v>
       </c>
@@ -14691,7 +14721,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="42">
       <c r="A213" t="s">
         <v>525</v>
       </c>
@@ -14709,7 +14739,7 @@
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="42">
       <c r="A214" t="s">
         <v>529</v>
       </c>
@@ -14727,7 +14757,7 @@
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="56">
       <c r="A215" t="s">
         <v>547</v>
       </c>
@@ -14745,7 +14775,7 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="42">
       <c r="A216" t="s">
         <v>820</v>
       </c>
@@ -14763,7 +14793,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="42">
       <c r="A217" t="s">
         <v>828</v>
       </c>
@@ -14781,7 +14811,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="42">
       <c r="A218" t="s">
         <v>864</v>
       </c>
@@ -14799,7 +14829,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="42">
       <c r="A219" t="s">
         <v>547</v>
       </c>
@@ -14817,7 +14847,7 @@
       </c>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="28">
       <c r="A220" t="s">
         <v>874</v>
       </c>
@@ -14835,7 +14865,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>791</v>
       </c>
@@ -14853,7 +14883,7 @@
       </c>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="42">
       <c r="A222" t="s">
         <v>533</v>
       </c>
@@ -14871,7 +14901,7 @@
       </c>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="56">
       <c r="A223" t="s">
         <v>533</v>
       </c>
@@ -14889,7 +14919,7 @@
       </c>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="42">
       <c r="A224" t="s">
         <v>791</v>
       </c>
@@ -14907,7 +14937,7 @@
       </c>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="28">
       <c r="A225" t="s">
         <v>791</v>
       </c>
@@ -14925,7 +14955,7 @@
       </c>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="28">
       <c r="A226" t="s">
         <v>791</v>
       </c>
@@ -14943,7 +14973,7 @@
       </c>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="28">
       <c r="A227" t="s">
         <v>874</v>
       </c>
@@ -14961,7 +14991,7 @@
       </c>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="28">
       <c r="A228" t="s">
         <v>820</v>
       </c>
@@ -14979,7 +15009,7 @@
       </c>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="28">
       <c r="A229" t="s">
         <v>547</v>
       </c>
@@ -14997,7 +15027,7 @@
       </c>
       <c r="G229"/>
     </row>
-    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="28">
       <c r="A230" t="s">
         <v>874</v>
       </c>
@@ -15015,7 +15045,7 @@
       </c>
       <c r="G230"/>
     </row>
-    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="28">
       <c r="A231" t="s">
         <v>547</v>
       </c>
@@ -15033,7 +15063,7 @@
       </c>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="56">
       <c r="A232" t="s">
         <v>533</v>
       </c>
@@ -15051,7 +15081,7 @@
       </c>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="210">
       <c r="A233" t="s">
         <v>498</v>
       </c>
@@ -15069,7 +15099,7 @@
       </c>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="42">
       <c r="A234" t="s">
         <v>864</v>
       </c>
@@ -15087,7 +15117,7 @@
       </c>
       <c r="G234"/>
     </row>
-    <row r="235" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="42">
       <c r="A235" t="s">
         <v>505</v>
       </c>
@@ -15105,7 +15135,7 @@
       </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="84">
       <c r="A236" t="s">
         <v>791</v>
       </c>
@@ -15123,7 +15153,7 @@
       </c>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="70">
       <c r="A237" t="s">
         <v>804</v>
       </c>
@@ -15141,7 +15171,7 @@
       </c>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="70">
       <c r="A238" t="s">
         <v>810</v>
       </c>
@@ -15159,7 +15189,7 @@
       </c>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="70">
       <c r="A239" t="s">
         <v>815</v>
       </c>
@@ -15177,7 +15207,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>653</v>
       </c>
@@ -15195,7 +15225,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="28">
       <c r="A241" t="s">
         <v>755</v>
       </c>
@@ -15213,7 +15243,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="28">
       <c r="A242" t="s">
         <v>883</v>
       </c>
@@ -15231,7 +15261,7 @@
       </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="28">
       <c r="A243" t="s">
         <v>558</v>
       </c>
@@ -15249,7 +15279,7 @@
       </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>653</v>
       </c>
@@ -15267,7 +15297,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="28">
       <c r="A245" t="s">
         <v>888</v>
       </c>
@@ -15285,7 +15315,7 @@
       </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="28">
       <c r="A246" t="s">
         <v>894</v>
       </c>
@@ -15303,7 +15333,7 @@
       </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="28">
       <c r="A247" t="s">
         <v>900</v>
       </c>
@@ -15321,7 +15351,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>558</v>
       </c>
@@ -15339,7 +15369,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="28">
       <c r="A249" t="s">
         <v>558</v>
       </c>
@@ -15357,7 +15387,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>558</v>
       </c>
@@ -15375,7 +15405,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="28">
       <c r="A251" t="s">
         <v>755</v>
       </c>
@@ -15393,7 +15423,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>755</v>
       </c>
@@ -15411,7 +15441,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="70">
       <c r="A253" t="s">
         <v>755</v>
       </c>
@@ -15429,7 +15459,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>558</v>
       </c>
@@ -15447,7 +15477,7 @@
       </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="28">
       <c r="A255" t="s">
         <v>558</v>
       </c>
@@ -15465,7 +15495,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="28">
       <c r="A256" t="s">
         <v>558</v>
       </c>
@@ -15483,7 +15513,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="42">
       <c r="A257" t="s">
         <v>888</v>
       </c>
@@ -15501,7 +15531,7 @@
       </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="28">
       <c r="A258" t="s">
         <v>894</v>
       </c>
@@ -15519,7 +15549,7 @@
       </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="28">
       <c r="A259" t="s">
         <v>900</v>
       </c>
@@ -15537,7 +15567,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="112">
       <c r="A260" t="s">
         <v>888</v>
       </c>
@@ -15555,7 +15585,7 @@
       </c>
       <c r="G260"/>
     </row>
-    <row r="261" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="70">
       <c r="A261" t="s">
         <v>558</v>
       </c>
@@ -15573,7 +15603,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>558</v>
       </c>
@@ -15591,7 +15621,7 @@
       </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="42">
       <c r="A263" t="s">
         <v>883</v>
       </c>
@@ -15609,7 +15639,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="42">
       <c r="A264" t="s">
         <v>894</v>
       </c>
@@ -15627,7 +15657,7 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="28">
       <c r="A265" t="s">
         <v>579</v>
       </c>
@@ -15645,7 +15675,7 @@
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="28">
       <c r="A266" t="s">
         <v>585</v>
       </c>
@@ -15663,7 +15693,7 @@
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="28">
       <c r="A267" t="s">
         <v>597</v>
       </c>
@@ -15681,7 +15711,7 @@
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="28">
       <c r="A268" t="s">
         <v>600</v>
       </c>
@@ -15699,7 +15729,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="28">
       <c r="A269" t="s">
         <v>603</v>
       </c>
@@ -15717,7 +15747,7 @@
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="28">
       <c r="A270" t="s">
         <v>610</v>
       </c>
@@ -15735,7 +15765,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="28">
       <c r="A271" t="s">
         <v>627</v>
       </c>
@@ -15753,7 +15783,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="28">
       <c r="A272" t="s">
         <v>647</v>
       </c>
@@ -15771,7 +15801,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>653</v>
       </c>
@@ -15789,7 +15819,7 @@
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="28">
       <c r="A274" t="s">
         <v>755</v>
       </c>
@@ -15807,7 +15837,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="28">
       <c r="A275" t="s">
         <v>910</v>
       </c>
@@ -15825,7 +15855,7 @@
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="28">
       <c r="A276" t="s">
         <v>921</v>
       </c>
@@ -15843,7 +15873,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>429</v>
       </c>
@@ -15861,7 +15891,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="28">
       <c r="A278" t="s">
         <v>435</v>
       </c>
@@ -15879,7 +15909,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="28">
       <c r="A279" t="s">
         <v>610</v>
       </c>
@@ -15897,7 +15927,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="28">
       <c r="A280" t="s">
         <v>650</v>
       </c>
@@ -15915,7 +15945,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>653</v>
       </c>
@@ -15933,7 +15963,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="28">
       <c r="A282" t="s">
         <v>935</v>
       </c>
@@ -15951,7 +15981,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="28">
       <c r="A283" t="s">
         <v>938</v>
       </c>
@@ -15969,7 +15999,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="98">
       <c r="A284" t="s">
         <v>910</v>
       </c>
@@ -15987,7 +16017,7 @@
       </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="28">
       <c r="A285" t="s">
         <v>610</v>
       </c>
@@ -16005,7 +16035,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="28">
       <c r="A286" t="s">
         <v>610</v>
       </c>
@@ -16023,7 +16053,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>627</v>
       </c>
@@ -16041,7 +16071,7 @@
       </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="28">
       <c r="A288" t="s">
         <v>627</v>
       </c>
@@ -16059,7 +16089,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>627</v>
       </c>
@@ -16077,7 +16107,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="28">
       <c r="A290" t="s">
         <v>585</v>
       </c>
@@ -16095,7 +16125,7 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="28">
       <c r="A291" t="s">
         <v>755</v>
       </c>
@@ -16113,7 +16143,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="28">
       <c r="A292" t="s">
         <v>585</v>
       </c>
@@ -16131,7 +16161,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>755</v>
       </c>
@@ -16149,7 +16179,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="70">
       <c r="A294" t="s">
         <v>585</v>
       </c>
@@ -16167,7 +16197,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="70">
       <c r="A295" t="s">
         <v>755</v>
       </c>
@@ -16185,7 +16215,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="56">
       <c r="A296" t="s">
         <v>910</v>
       </c>
@@ -16203,7 +16233,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>627</v>
       </c>
@@ -16221,7 +16251,7 @@
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="28">
       <c r="A298" t="s">
         <v>429</v>
       </c>
@@ -16239,7 +16269,7 @@
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="28">
       <c r="A299" t="s">
         <v>435</v>
       </c>
@@ -16257,7 +16287,7 @@
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="84">
       <c r="A300" t="s">
         <v>938</v>
       </c>
@@ -16275,7 +16305,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="28">
       <c r="A301" t="s">
         <v>627</v>
       </c>
@@ -16293,7 +16323,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="42">
       <c r="A302" t="s">
         <v>938</v>
       </c>
@@ -16311,7 +16341,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="28">
       <c r="A303" t="s">
         <v>938</v>
       </c>
@@ -16329,7 +16359,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>610</v>
       </c>
@@ -16347,7 +16377,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="126">
       <c r="A305" t="s">
         <v>610</v>
       </c>
@@ -16365,7 +16395,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="70">
       <c r="A306" t="s">
         <v>910</v>
       </c>
@@ -16383,7 +16413,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="28">
       <c r="A307" t="s">
         <v>921</v>
       </c>
@@ -16401,7 +16431,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>429</v>
       </c>
@@ -16419,7 +16449,7 @@
       </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="28">
       <c r="A309" t="s">
         <v>603</v>
       </c>
@@ -16437,7 +16467,7 @@
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="28">
       <c r="A310" t="s">
         <v>435</v>
       </c>
@@ -16455,7 +16485,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="28">
       <c r="A311" t="s">
         <v>579</v>
       </c>
@@ -16473,7 +16503,7 @@
       </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="28">
       <c r="A312" t="s">
         <v>585</v>
       </c>
@@ -16491,7 +16521,7 @@
       </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="28">
       <c r="A313" t="s">
         <v>597</v>
       </c>
@@ -16509,7 +16539,7 @@
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="28">
       <c r="A314" t="s">
         <v>603</v>
       </c>
@@ -16527,7 +16557,7 @@
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="28">
       <c r="A315" t="s">
         <v>610</v>
       </c>
@@ -16545,7 +16575,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="28">
       <c r="A316" t="s">
         <v>627</v>
       </c>
@@ -16563,7 +16593,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="28">
       <c r="A317" t="s">
         <v>647</v>
       </c>
@@ -16581,7 +16611,7 @@
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="28">
       <c r="A318" t="s">
         <v>910</v>
       </c>
@@ -16599,7 +16629,7 @@
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="28">
       <c r="A319" t="s">
         <v>921</v>
       </c>
@@ -16617,7 +16647,7 @@
       </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="28">
       <c r="A320" t="s">
         <v>610</v>
       </c>
@@ -16635,7 +16665,7 @@
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="28">
       <c r="A321" t="s">
         <v>650</v>
       </c>
@@ -16653,7 +16683,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="28">
       <c r="A322" t="s">
         <v>935</v>
       </c>
@@ -16671,7 +16701,7 @@
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="28">
       <c r="A323" t="s">
         <v>938</v>
       </c>
@@ -16689,7 +16719,7 @@
       </c>
       <c r="G323"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>1040</v>
       </c>
@@ -16707,7 +16737,7 @@
       </c>
       <c r="G324"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>1038</v>
       </c>
@@ -16725,7 +16755,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="98">
       <c r="A326" t="s">
         <v>910</v>
       </c>
@@ -16743,7 +16773,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="28">
       <c r="A327" t="s">
         <v>610</v>
       </c>
@@ -16761,7 +16791,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="28">
       <c r="A328" t="s">
         <v>610</v>
       </c>
@@ -16779,7 +16809,7 @@
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
         <v>627</v>
       </c>
@@ -16797,7 +16827,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="28">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -16815,7 +16845,7 @@
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>627</v>
       </c>
@@ -16833,7 +16863,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="28">
       <c r="A332" t="s">
         <v>585</v>
       </c>
@@ -16851,7 +16881,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="28">
       <c r="A333" t="s">
         <v>585</v>
       </c>
@@ -16869,7 +16899,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="70">
       <c r="A334" t="s">
         <v>585</v>
       </c>
@@ -16887,7 +16917,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="56">
       <c r="A335" t="s">
         <v>910</v>
       </c>
@@ -16905,7 +16935,7 @@
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>627</v>
       </c>
@@ -16923,7 +16953,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="84">
       <c r="A337" t="s">
         <v>938</v>
       </c>
@@ -16941,7 +16971,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="28">
       <c r="A338" t="s">
         <v>627</v>
       </c>
@@ -16959,7 +16989,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="42">
       <c r="A339" t="s">
         <v>938</v>
       </c>
@@ -16977,7 +17007,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="28">
       <c r="A340" t="s">
         <v>938</v>
       </c>
@@ -16995,7 +17025,7 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>610</v>
       </c>
@@ -17013,7 +17043,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="126">
       <c r="A342" t="s">
         <v>610</v>
       </c>
@@ -17031,7 +17061,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="28">
       <c r="A343" t="s">
         <v>921</v>
       </c>
@@ -17049,7 +17079,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="28">
       <c r="A344" t="s">
         <v>603</v>
       </c>
@@ -17067,7 +17097,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="28">
       <c r="A345" t="s">
         <v>627</v>
       </c>
@@ -17093,6 +17123,11 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17104,14 +17139,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="165.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="165.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="3" t="s">
         <v>990</v>
       </c>
@@ -17119,7 +17154,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="3" t="s">
         <v>992</v>
       </c>
@@ -17127,7 +17162,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="3" t="s">
         <v>994</v>
       </c>
@@ -17135,7 +17170,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="3" t="s">
         <v>996</v>
       </c>
@@ -17143,7 +17178,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="75">
       <c r="A5" s="3" t="s">
         <v>998</v>
       </c>
@@ -17151,7 +17186,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="3" t="s">
         <v>1000</v>
       </c>
@@ -17159,7 +17194,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
         <v>1002</v>
       </c>
@@ -17167,7 +17202,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
         <v>1004</v>
       </c>
@@ -17175,7 +17210,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="3" t="s">
         <v>1006</v>
       </c>
@@ -17183,7 +17218,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
         <v>1008</v>
       </c>
@@ -17191,7 +17226,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="3" t="s">
         <v>1010</v>
       </c>
@@ -17199,7 +17234,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="3" t="s">
         <v>1012</v>
       </c>
@@ -17207,7 +17242,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="3" t="s">
         <v>1013</v>
       </c>
@@ -17215,7 +17250,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="3" t="s">
         <v>1014</v>
       </c>
@@ -17223,7 +17258,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="3" t="s">
         <v>1015</v>
       </c>
@@ -17231,7 +17266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="3" t="s">
         <v>1016</v>
       </c>
@@ -17239,7 +17274,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="60">
       <c r="A17" s="3" t="s">
         <v>1017</v>
       </c>
@@ -17247,7 +17282,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" s="3" t="s">
         <v>1018</v>
       </c>
@@ -17255,7 +17290,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
         <v>1019</v>
       </c>
@@ -17263,7 +17298,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="3" t="s">
         <v>1020</v>
       </c>
@@ -17271,7 +17306,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="3" t="s">
         <v>1021</v>
       </c>
@@ -17279,7 +17314,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="60">
       <c r="A22" s="3" t="s">
         <v>1022</v>
       </c>
@@ -17287,7 +17322,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="3" t="s">
         <v>1023</v>
       </c>
@@ -17295,7 +17330,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="3" t="s">
         <v>1024</v>
       </c>
@@ -17303,7 +17338,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="3" t="s">
         <v>1025</v>
       </c>
@@ -17311,7 +17346,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="3" t="s">
         <v>1026</v>
       </c>
@@ -17319,7 +17354,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="30">
       <c r="A27" s="3" t="s">
         <v>1027</v>
       </c>
@@ -17327,7 +17362,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="3" t="s">
         <v>1028</v>
       </c>
@@ -17335,7 +17370,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="30">
       <c r="A29" s="3" t="s">
         <v>1029</v>
       </c>
@@ -17343,7 +17378,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="30">
       <c r="A30" s="3" t="s">
         <v>1030</v>
       </c>
@@ -17351,7 +17386,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="60">
       <c r="A31" s="3" t="s">
         <v>1031</v>
       </c>
@@ -17359,7 +17394,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="30">
       <c r="A32" s="3" t="s">
         <v>1032</v>
       </c>
@@ -17367,7 +17402,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" s="3" t="s">
         <v>1033</v>
       </c>
@@ -17375,7 +17410,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" s="3" t="s">
         <v>1034</v>
       </c>
@@ -17383,7 +17418,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="3" t="s">
         <v>1035</v>
       </c>
@@ -17393,6 +17428,11 @@
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17404,15 +17444,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
     <col min="2" max="2" width="51" style="7" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="34.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="55.5" customHeight="1">
       <c r="A1" s="7">
         <v>930</v>
       </c>
@@ -17423,7 +17463,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1">
       <c r="A2" s="7">
         <v>931</v>
       </c>
@@ -17431,7 +17471,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.75" customHeight="1">
       <c r="A3" s="7">
         <v>932</v>
       </c>
@@ -17442,7 +17482,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.75" customHeight="1">
       <c r="A4" s="7">
         <v>933</v>
       </c>
@@ -17453,7 +17493,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.75" customHeight="1">
       <c r="A5" s="7">
         <v>934</v>
       </c>
@@ -17464,7 +17504,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.75" customHeight="1">
       <c r="A6" s="7">
         <v>50</v>
       </c>
@@ -17472,42 +17512,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.75" customHeight="1">
       <c r="A15" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.75" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="24.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="24.75" customHeight="1">
       <c r="A18" s="7">
         <v>952</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="24.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="24.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/NIBRSEditRules.xlsx
+++ b/docs/NIBRSEditRules.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="20480" windowHeight="12400"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="20475" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ElementEdits!$A$1:$G$345</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$G$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$G$270</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1105">
   <si>
     <t>RuleNumber</t>
   </si>
@@ -5079,7 +5079,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5111,6 +5111,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5411,25 +5414,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="54" style="9" customWidth="1"/>
-    <col min="6" max="6" width="73.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="6" max="6" width="73.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1087</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>1080</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="70">
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="196">
+    <row r="16" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="56">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="56">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="409">
+    <row r="24" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="98">
+    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="56">
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>1078</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5973,7 +5976,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1063</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="42">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="56">
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28">
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>1074</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="154">
+    <row r="41" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="42">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="70">
+    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="42">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="112">
+    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
         <v>1079</v>
@@ -6395,7 +6398,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="238">
+    <row r="50" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>1074</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="42">
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="42">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="308">
+    <row r="59" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="42">
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="70">
+    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="210">
+    <row r="65" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="70">
+    <row r="66" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="154">
+    <row r="67" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="238">
+    <row r="68" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>1063</v>
       </c>
@@ -6787,7 +6790,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="42">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="112">
+    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="42">
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1078</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="28">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="56">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28">
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="42">
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="42">
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="42">
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7147,7 +7150,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="42">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1078</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="98">
+    <row r="90" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="140">
+    <row r="91" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>1078</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>1063</v>
       </c>
@@ -7307,3213 +7310,3202 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="84">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
       <c r="B95" s="9" t="s">
         <v>1079</v>
       </c>
       <c r="C95" s="8">
-        <v>342</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="84">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>1079</v>
       </c>
       <c r="C96" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="112">
-      <c r="A97" s="9" t="s">
-        <v>1078</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>1079</v>
       </c>
       <c r="C97" s="8">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="112">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C98" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="28">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C99" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="28">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C100" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="28">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C101" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="28">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C102" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="56">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C103" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="70">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C104" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="70">
+    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C105" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="126">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C106" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C107" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="28">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C108" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="28">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C109" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="56">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C110" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="112">
+    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C111" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="28">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C112" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="126">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C113" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="28">
+    <row r="114" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C114" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="42">
-      <c r="A115" s="12" t="s">
-        <v>1063</v>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C115" s="8">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="84">
-      <c r="A116" s="9" t="s">
-        <v>1078</v>
+    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C116" s="8">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="42">
+    <row r="117" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C117" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C118" s="8">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="56">
-      <c r="A119" s="12" t="s">
-        <v>1063</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C119" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="70">
-      <c r="A120" s="9" t="s">
-        <v>1078</v>
+    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C120" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="70">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C121" s="8">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="70">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C122" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="84">
-      <c r="A123" s="12" t="s">
-        <v>1063</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C123" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="196">
-      <c r="A124" s="9" t="s">
-        <v>1078</v>
+    <row r="124" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C124" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="98">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C125" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C126" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E126" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C127" s="8">
+        <v>392</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F127" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G127" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28">
-      <c r="A127" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C127" s="8">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C128" s="8">
         <v>401</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="12" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C128" s="8">
-        <v>402</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="28">
-      <c r="A129" s="9" t="s">
-        <v>1078</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C129" s="8">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="28">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C130" s="8">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C131" s="8">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28">
-      <c r="A132" s="12" t="s">
-        <v>1063</v>
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C132" s="8">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="28">
-      <c r="A133" s="9" t="s">
-        <v>1078</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C133" s="8">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28">
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C134" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28">
-      <c r="A135" s="12" t="s">
-        <v>1063</v>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C135" s="8">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>396</v>
+        <v>230</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="28">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>1063</v>
       </c>
       <c r="C136" s="8">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="56">
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>1063</v>
       </c>
       <c r="C137" s="8">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="168">
-      <c r="A138" s="9" t="s">
-        <v>1078</v>
+    <row r="138" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C138" s="8">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="28">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C139" s="8">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="28">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C140" s="8">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="28">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>1078</v>
+        <v>1063</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>1079</v>
       </c>
       <c r="C141" s="8">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="42">
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C142" s="8">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="28">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C143" s="8">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="56">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C144" s="8">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G144" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="42">
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C145" s="8">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="56">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C146" s="8">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C147" s="8">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G147" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="42">
+    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C148" s="8">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G148" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="56">
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C149" s="8">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C150" s="8">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G150" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="28">
-      <c r="B151" s="9" t="s">
-        <v>1079</v>
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C151" s="8">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G151" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="56">
-      <c r="A152" s="9" t="s">
-        <v>1078</v>
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152" s="9" t="s">
+        <v>1079</v>
       </c>
       <c r="C152" s="8">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G152" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="42">
+    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C153" s="8">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G153" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="42">
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C154" s="8">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G154" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="28">
+    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C155" s="8">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G155" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="56">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C156" s="8">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G156" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="42">
+    <row r="157" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C157" s="8">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G157" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="42">
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C158" s="8">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="28">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C159" s="8">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="98">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C160" s="8">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G160" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="42">
+    <row r="161" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C161" s="8">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C162" s="8">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C163" s="8">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="28">
+    <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C164" s="8">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="28">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C165" s="8">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="56">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C166" s="8">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G166" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="409">
+    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C167" s="8">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G167" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="56">
+    <row r="168" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C168" s="8">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G168" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="56">
+    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C169" s="8">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G169" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="28">
+    <row r="170" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C170" s="8">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="56">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C171" s="8">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="84">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C172" s="8">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="42">
-      <c r="A173" s="12" t="s">
-        <v>1063</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C173" s="8">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>421</v>
+        <v>303</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="112">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>1063</v>
       </c>
       <c r="C174" s="8">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E174" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C175" s="8">
+        <v>490</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E175" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="F174" s="9" t="s">
+      <c r="F175" s="9" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="28">
-      <c r="A175" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C175" s="8">
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C176" s="8">
         <v>501</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="28">
-      <c r="A176" s="12" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C176" s="8">
-        <v>502</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="28">
-      <c r="A177" s="9" t="s">
-        <v>1078</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C177" s="8">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="28">
-      <c r="A178" s="12" t="s">
-        <v>1063</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C178" s="8">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="28">
-      <c r="A179" s="9" t="s">
-        <v>1078</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C179" s="8">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="28">
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C180" s="8">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="28">
-      <c r="A181" s="12" t="s">
-        <v>1063</v>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C181" s="8">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>1063</v>
       </c>
       <c r="C182" s="8">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G182" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="56">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>1063</v>
       </c>
       <c r="C183" s="8">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="28">
-      <c r="A184" s="9" t="s">
-        <v>1078</v>
+    <row r="184" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C184" s="8">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="28">
-      <c r="A185" s="12" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>1091</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C185" s="8">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="28">
-      <c r="A186" s="9" t="s">
-        <v>1078</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="C186" s="8">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G186" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="42">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C187" s="8">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="28">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C188" s="8">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="154">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>1091</v>
-      </c>
       <c r="C189" s="8">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="112">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>1078</v>
       </c>
+      <c r="B190" s="9" t="s">
+        <v>1091</v>
+      </c>
       <c r="C190" s="8">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="42">
+    <row r="191" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C191" s="8">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C192" s="8">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="56">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C193" s="8">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>422</v>
+        <v>326</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C194" s="8">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>329</v>
+        <v>422</v>
       </c>
       <c r="G194" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="42">
+    <row r="195" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C195" s="8">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
       <c r="G195" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="42">
+    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C196" s="8">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>332</v>
+        <v>423</v>
       </c>
       <c r="G196" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="42">
+    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C197" s="8">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>403</v>
       </c>
       <c r="E197" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C198" s="8">
+        <v>584</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E198" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="F198" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="G197" s="9" t="s">
+      <c r="G198" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="28">
-      <c r="A198" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C198" s="8">
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C199" s="8">
         <v>601</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="28">
-      <c r="A199" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C199" s="8">
-        <v>602</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="28">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="C200" s="8">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="112">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C201" s="8">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>336</v>
+        <v>65</v>
       </c>
       <c r="G201" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="42">
+    <row r="202" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C202" s="8">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C203" s="8">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="28">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C204" s="8">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="28">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C205" s="8">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G205" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="28">
+    <row r="206" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C206" s="8">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G206" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="28">
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C207" s="8">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>111</v>
+        <v>341</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="28">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C208" s="8">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="42">
+    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="C209" s="8">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G209" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="42">
-      <c r="A210" s="10" t="s">
+    <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C210" s="8">
+        <v>617</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11">
+      <c r="B211" s="10"/>
+      <c r="C211" s="11">
         <v>618</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D211" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="E211" s="10" t="s">
         <v>1092</v>
       </c>
-      <c r="F210" s="10" t="s">
+      <c r="F211" s="10" t="s">
         <v>1093</v>
-      </c>
-      <c r="G210" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="28">
-      <c r="A211" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C211" s="8">
-        <v>622</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F211" s="9" t="s">
-        <v>344</v>
       </c>
       <c r="G211" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="28">
-      <c r="B212" s="9" t="s">
-        <v>1091</v>
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C212" s="8">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="84">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="9" t="s">
         <v>1091</v>
       </c>
       <c r="C213" s="8">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G213" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="42">
-      <c r="A214" s="9" t="s">
-        <v>1078</v>
+    <row r="214" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B214" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="C214" s="8">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C215" s="8">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C216" s="8">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G216" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="28">
+    <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C217" s="8">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="112">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C218" s="8">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="126">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C219" s="8">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C220" s="8">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="28">
+    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C221" s="8">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="84">
-      <c r="A222" s="9" t="s">
-        <v>1078</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C222" s="8">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>1094</v>
+        <v>361</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="28">
+        <v>362</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C223" s="8">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>363</v>
+        <v>1094</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G223" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="42">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C224" s="8">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="28">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C225" s="8">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>404</v>
       </c>
       <c r="E225" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C226" s="8">
+        <v>670</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E226" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F225" s="9" t="s">
+      <c r="F226" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="G225" s="9" t="s">
+      <c r="G226" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="28">
-      <c r="A226" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C226" s="8">
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C227" s="8">
         <v>701</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F226" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G226" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="28">
-      <c r="A227" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C227" s="8">
-        <v>702</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="28">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="C228" s="8">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="112">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C229" s="8">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D229" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>336</v>
+        <v>65</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="28">
+    <row r="230" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C230" s="8">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C231" s="8">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="G231" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="28">
+    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C232" s="8">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="28">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="C233" s="8">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="28">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C234" s="8">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="28">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C235" s="8">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>111</v>
+        <v>341</v>
       </c>
       <c r="G235" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C236" s="8">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G236" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="56">
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C237" s="8">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>372</v>
+        <v>71</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="G237" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="42">
-      <c r="A238" s="10" t="s">
+    <row r="238" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C238" s="8">
+        <v>717</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B238" s="10"/>
-      <c r="C238" s="11">
+      <c r="B239" s="10"/>
+      <c r="C239" s="11">
         <v>718</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D239" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="E238" s="10" t="s">
+      <c r="E239" s="10" t="s">
         <v>1092</v>
       </c>
-      <c r="F238" s="10" t="s">
+      <c r="F239" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="G238" s="9" t="s">
+      <c r="G239" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="28">
-      <c r="A239" s="9" t="s">
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="C239" s="8">
+      <c r="C240" s="8">
         <v>720</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="G239" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="28">
-      <c r="A240" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C240" s="8">
-        <v>722</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="84">
-      <c r="B241" s="9" t="s">
-        <v>1091</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C241" s="8">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="42">
-      <c r="A242" s="9" t="s">
-        <v>1078</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B242" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="C242" s="8">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="42">
-      <c r="A243" s="12" t="s">
-        <v>1063</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>1078</v>
       </c>
       <c r="C243" s="8">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="42">
-      <c r="A244" s="9" t="s">
-        <v>1078</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A244" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C244" s="8">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="42">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C245" s="8">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="28">
+    <row r="246" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C246" s="8">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="112">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="C247" s="8">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="28">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="C248" s="8">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="28">
-      <c r="A249" s="9" t="s">
-        <v>1078</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="C249" s="8">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="56">
-      <c r="A250" s="10" t="s">
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C250" s="8">
+        <v>758</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G250" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B250" s="10"/>
-      <c r="C250" s="11">
+      <c r="B251" s="10"/>
+      <c r="C251" s="11">
         <v>759</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="D251" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="E250" s="10" t="s">
+      <c r="E251" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="F250" s="10" t="s">
+      <c r="F251" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="G250" s="9" t="s">
+      <c r="G251" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="28">
-      <c r="A251" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C251" s="8">
+    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C252" s="8">
         <v>760</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E251" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="F251" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G251" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="28">
-      <c r="B252" s="9" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C252" s="8">
-        <v>761</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="28">
-      <c r="A253" s="9" t="s">
-        <v>1063</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" s="9" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="C253" s="8">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E253" s="8" t="s">
-        <v>1099</v>
+      <c r="E253" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="42">
+        <v>386</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>1096</v>
       </c>
       <c r="C254" s="8">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="42">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>1074</v>
       </c>
@@ -10521,186 +10513,191 @@
         <v>1096</v>
       </c>
       <c r="C255" s="8">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E255" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C256" s="8">
+        <v>799</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E256" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="F255" s="9" t="s">
+      <c r="F256" s="9" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="28">
-      <c r="A256" s="9" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C256" s="8">
+    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C257" s="8">
         <v>1</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E256" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F256" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G256" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="28">
-      <c r="A257" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C257" s="8">
-        <v>28</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="28">
+        <v>369</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="C258" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="9" t="s">
-        <v>1063</v>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="10" t="s">
+        <v>1074</v>
       </c>
       <c r="C259" s="8">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="F259" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="G259" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>1063</v>
       </c>
       <c r="C260" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G260" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="28">
-      <c r="A261" s="10" t="s">
+    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C261" s="8">
+        <v>92</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B261" s="10"/>
-      <c r="C261" s="11">
+      <c r="B262" s="10"/>
+      <c r="C262" s="11">
         <v>93</v>
       </c>
-      <c r="D261" s="11" t="s">
+      <c r="D262" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E261" s="10" t="s">
+      <c r="E262" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F261" s="10" t="s">
+      <c r="F262" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="G261" s="9" t="s">
+      <c r="G262" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="28">
-      <c r="A262" s="9" t="s">
+    <row r="263" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="C262" s="8">
+      <c r="C263" s="8">
         <v>94</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E262" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="F262" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G262" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="70">
-      <c r="A263" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C263" s="8">
-        <v>96</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>1077</v>
+        <v>394</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>395</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B264" s="10"/>
-      <c r="C264" s="11">
-        <v>930</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="C264" s="8">
+        <v>96</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="B265" s="10"/>
       <c r="C265" s="11">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>398</v>
@@ -10709,68 +10706,83 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="28">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="B266" s="10"/>
       <c r="C266" s="11">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="B267" s="10"/>
       <c r="C267" s="11">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="B268" s="10"/>
       <c r="C268" s="11">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>1074</v>
       </c>
       <c r="B269" s="10"/>
       <c r="C269" s="11">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="D269" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E269" s="10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B270" s="10"/>
+      <c r="C270" s="11">
+        <v>952</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E270" s="10" t="s">
         <v>1073</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G269"/>
+  <autoFilter ref="A1:G270"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -10789,18 +10801,18 @@
       <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>425</v>
       </c>
@@ -10820,7 +10832,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>653</v>
       </c>
@@ -10838,7 +10850,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="28">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>755</v>
       </c>
@@ -10856,7 +10868,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>987</v>
       </c>
@@ -10874,7 +10886,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>988</v>
       </c>
@@ -10892,7 +10904,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>989</v>
       </c>
@@ -10910,7 +10922,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>988</v>
       </c>
@@ -10928,7 +10940,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>987</v>
       </c>
@@ -10946,7 +10958,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>653</v>
       </c>
@@ -10964,7 +10976,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="28">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>815</v>
       </c>
@@ -10982,7 +10994,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="42">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>755</v>
       </c>
@@ -11000,7 +11012,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="28">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>653</v>
       </c>
@@ -11018,7 +11030,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="42">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>447</v>
       </c>
@@ -11036,7 +11048,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="28">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -11054,7 +11066,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" ht="42">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>447</v>
       </c>
@@ -11072,7 +11084,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="28">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>447</v>
       </c>
@@ -11090,7 +11102,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="42">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>447</v>
       </c>
@@ -11108,7 +11120,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="42">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -11126,7 +11138,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="42">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>447</v>
       </c>
@@ -11144,7 +11156,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="280">
+    <row r="20" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>447</v>
       </c>
@@ -11162,7 +11174,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="70">
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>717</v>
       </c>
@@ -11180,7 +11192,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>653</v>
       </c>
@@ -11198,7 +11210,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="28">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>755</v>
       </c>
@@ -11216,7 +11228,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>755</v>
       </c>
@@ -11234,7 +11246,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="28">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>986</v>
       </c>
@@ -11252,7 +11264,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>987</v>
       </c>
@@ -11273,7 +11285,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>988</v>
       </c>
@@ -11294,7 +11306,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>983</v>
       </c>
@@ -11314,7 +11326,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>984</v>
       </c>
@@ -11334,7 +11346,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1038</v>
       </c>
@@ -11352,7 +11364,7 @@
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1040</v>
       </c>
@@ -11370,7 +11382,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>987</v>
       </c>
@@ -11388,7 +11400,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>988</v>
       </c>
@@ -11406,7 +11418,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="56">
+    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>988</v>
       </c>
@@ -11427,7 +11439,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>653</v>
       </c>
@@ -11447,7 +11459,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>755</v>
       </c>
@@ -11467,7 +11479,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -11487,7 +11499,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>904</v>
       </c>
@@ -11507,7 +11519,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>983</v>
       </c>
@@ -11527,7 +11539,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>984</v>
       </c>
@@ -11547,7 +11559,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>985</v>
       </c>
@@ -11567,7 +11579,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>985</v>
       </c>
@@ -11587,7 +11599,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1042</v>
       </c>
@@ -11605,7 +11617,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -11625,7 +11637,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>833</v>
       </c>
@@ -11645,7 +11657,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>838</v>
       </c>
@@ -11665,7 +11677,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>838</v>
       </c>
@@ -11685,7 +11697,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>927</v>
       </c>
@@ -11705,7 +11717,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>984</v>
       </c>
@@ -11725,7 +11737,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>983</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="42">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>838</v>
       </c>
@@ -11765,7 +11777,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="56">
+    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>927</v>
       </c>
@@ -11788,7 +11800,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>755</v>
       </c>
@@ -11808,7 +11820,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>755</v>
       </c>
@@ -11828,7 +11840,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="70">
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>755</v>
       </c>
@@ -11848,7 +11860,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>838</v>
       </c>
@@ -11868,7 +11880,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>833</v>
       </c>
@@ -11888,7 +11900,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28">
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>838</v>
       </c>
@@ -11908,7 +11920,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="56">
+    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>838</v>
       </c>
@@ -11928,7 +11940,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>904</v>
       </c>
@@ -11948,7 +11960,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>927</v>
       </c>
@@ -11968,7 +11980,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>927</v>
       </c>
@@ -11988,7 +12000,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>904</v>
       </c>
@@ -12011,7 +12023,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>838</v>
       </c>
@@ -12031,7 +12043,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="98">
+    <row r="65" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>838</v>
       </c>
@@ -12051,7 +12063,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28">
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>838</v>
       </c>
@@ -12071,7 +12083,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>838</v>
       </c>
@@ -12091,7 +12103,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>927</v>
       </c>
@@ -12111,7 +12123,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>950</v>
       </c>
@@ -12129,7 +12141,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="28">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>954</v>
       </c>
@@ -12147,7 +12159,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="28">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>960</v>
       </c>
@@ -12165,7 +12177,7 @@
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>653</v>
       </c>
@@ -12186,7 +12198,7 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="28">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>965</v>
       </c>
@@ -12204,7 +12216,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="28">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>972</v>
       </c>
@@ -12222,7 +12234,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="28">
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>755</v>
       </c>
@@ -12243,7 +12255,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>653</v>
       </c>
@@ -12264,7 +12276,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="28">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>438</v>
       </c>
@@ -12282,7 +12294,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="28">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>666</v>
       </c>
@@ -12300,7 +12312,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="28">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>673</v>
       </c>
@@ -12318,7 +12330,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="28">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>684</v>
       </c>
@@ -12336,7 +12348,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="28">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>684</v>
       </c>
@@ -12354,7 +12366,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="28">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>965</v>
       </c>
@@ -12372,7 +12384,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="28">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>972</v>
       </c>
@@ -12390,7 +12402,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="28">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>673</v>
       </c>
@@ -12408,7 +12420,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="28">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>684</v>
       </c>
@@ -12426,7 +12438,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="28">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>960</v>
       </c>
@@ -12444,7 +12456,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="28">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>965</v>
       </c>
@@ -12462,7 +12474,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="42">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>673</v>
       </c>
@@ -12480,7 +12492,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="42">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>684</v>
       </c>
@@ -12498,7 +12510,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="42">
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>960</v>
       </c>
@@ -12516,7 +12528,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="42">
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>965</v>
       </c>
@@ -12534,7 +12546,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="28">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>755</v>
       </c>
@@ -12555,7 +12567,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>755</v>
       </c>
@@ -12576,7 +12588,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="70">
+    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>755</v>
       </c>
@@ -12597,7 +12609,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="378">
+    <row r="95" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>673</v>
       </c>
@@ -12615,7 +12627,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="154">
+    <row r="96" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>673</v>
       </c>
@@ -12633,7 +12645,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="238">
+    <row r="97" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>684</v>
       </c>
@@ -12651,7 +12663,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="28">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>954</v>
       </c>
@@ -12669,7 +12681,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="28">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>438</v>
       </c>
@@ -12687,7 +12699,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>666</v>
       </c>
@@ -12705,7 +12717,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="28">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>666</v>
       </c>
@@ -12723,7 +12735,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="28">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>684</v>
       </c>
@@ -12741,7 +12753,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>954</v>
       </c>
@@ -12759,7 +12771,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="42">
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>438</v>
       </c>
@@ -12777,7 +12789,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="126">
+    <row r="105" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>684</v>
       </c>
@@ -12795,7 +12807,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>950</v>
       </c>
@@ -12813,7 +12825,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="56">
+    <row r="107" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>684</v>
       </c>
@@ -12831,7 +12843,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="28">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>684</v>
       </c>
@@ -12849,7 +12861,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="28">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>684</v>
       </c>
@@ -12867,7 +12879,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>965</v>
       </c>
@@ -12885,7 +12897,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>653</v>
       </c>
@@ -12903,7 +12915,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="28">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>755</v>
       </c>
@@ -12921,7 +12933,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" ht="28">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>447</v>
       </c>
@@ -12939,7 +12951,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" ht="28">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -12957,7 +12969,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" ht="28">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>475</v>
       </c>
@@ -12975,7 +12987,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" ht="28">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>485</v>
       </c>
@@ -12993,7 +13005,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>653</v>
       </c>
@@ -13011,7 +13023,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" ht="28">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -13029,7 +13041,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" ht="28">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>717</v>
       </c>
@@ -13047,7 +13059,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" ht="28">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>735</v>
       </c>
@@ -13065,7 +13077,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" ht="28">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>745</v>
       </c>
@@ -13083,7 +13095,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" ht="28">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>780</v>
       </c>
@@ -13101,7 +13113,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" ht="84">
+    <row r="123" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>462</v>
       </c>
@@ -13119,7 +13131,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" ht="126">
+    <row r="124" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>780</v>
       </c>
@@ -13137,7 +13149,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" ht="28">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>755</v>
       </c>
@@ -13155,7 +13167,7 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>755</v>
       </c>
@@ -13173,7 +13185,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" ht="70">
+    <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>755</v>
       </c>
@@ -13191,7 +13203,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" ht="70">
+    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>462</v>
       </c>
@@ -13209,7 +13221,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" ht="70">
+    <row r="129" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>717</v>
       </c>
@@ -13227,7 +13239,7 @@
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" ht="140">
+    <row r="130" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>717</v>
       </c>
@@ -13245,7 +13257,7 @@
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" ht="98">
+    <row r="131" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>462</v>
       </c>
@@ -13263,7 +13275,7 @@
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" ht="98">
+    <row r="132" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>475</v>
       </c>
@@ -13281,7 +13293,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" ht="98">
+    <row r="133" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>485</v>
       </c>
@@ -13299,7 +13311,7 @@
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" ht="112">
+    <row r="134" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>701</v>
       </c>
@@ -13317,7 +13329,7 @@
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" ht="126">
+    <row r="135" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>717</v>
       </c>
@@ -13335,7 +13347,7 @@
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" ht="140">
+    <row r="136" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>735</v>
       </c>
@@ -13353,7 +13365,7 @@
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" ht="140">
+    <row r="137" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>745</v>
       </c>
@@ -13371,7 +13383,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="112">
+    <row r="138" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>780</v>
       </c>
@@ -13389,7 +13401,7 @@
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" ht="28">
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>717</v>
       </c>
@@ -13407,7 +13419,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" ht="28">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>701</v>
       </c>
@@ -13425,7 +13437,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" ht="28">
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>462</v>
       </c>
@@ -13443,7 +13455,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>701</v>
       </c>
@@ -13461,7 +13473,7 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" ht="28">
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>717</v>
       </c>
@@ -13479,7 +13491,7 @@
       </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" ht="42">
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>735</v>
       </c>
@@ -13497,7 +13509,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="56">
+    <row r="145" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>735</v>
       </c>
@@ -13515,7 +13527,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="84">
+    <row r="146" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>701</v>
       </c>
@@ -13533,7 +13545,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="98">
+    <row r="147" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>745</v>
       </c>
@@ -13551,7 +13563,7 @@
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" ht="28">
+    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>745</v>
       </c>
@@ -13569,7 +13581,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" ht="28">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>780</v>
       </c>
@@ -13587,7 +13599,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" ht="28">
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>475</v>
       </c>
@@ -13605,7 +13617,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="28">
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>485</v>
       </c>
@@ -13623,7 +13635,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="42">
+    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>475</v>
       </c>
@@ -13641,7 +13653,7 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" ht="42">
+    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>485</v>
       </c>
@@ -13659,7 +13671,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="70">
+    <row r="154" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>780</v>
       </c>
@@ -13677,7 +13689,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="84">
+    <row r="155" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>485</v>
       </c>
@@ -13695,7 +13707,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="56">
+    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -13713,7 +13725,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="42">
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>717</v>
       </c>
@@ -13731,7 +13743,7 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="112">
+    <row r="158" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>701</v>
       </c>
@@ -13749,7 +13761,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="56">
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>717</v>
       </c>
@@ -13767,7 +13779,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="56">
+    <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>475</v>
       </c>
@@ -13785,7 +13797,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="70">
+    <row r="161" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>701</v>
       </c>
@@ -13803,7 +13815,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="70">
+    <row r="162" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>735</v>
       </c>
@@ -13821,7 +13833,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="84">
+    <row r="163" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>745</v>
       </c>
@@ -13839,7 +13851,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" ht="224">
+    <row r="164" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>701</v>
       </c>
@@ -13857,7 +13869,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" ht="112">
+    <row r="165" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>717</v>
       </c>
@@ -13875,7 +13887,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="56">
+    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>780</v>
       </c>
@@ -13893,7 +13905,7 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" ht="28">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>493</v>
       </c>
@@ -13911,7 +13923,7 @@
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" ht="28">
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>498</v>
       </c>
@@ -13929,7 +13941,7 @@
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>653</v>
       </c>
@@ -13947,7 +13959,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="28">
+    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>755</v>
       </c>
@@ -13965,7 +13977,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" ht="28">
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>791</v>
       </c>
@@ -13983,7 +13995,7 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="28">
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>505</v>
       </c>
@@ -14001,7 +14013,7 @@
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" ht="28">
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>525</v>
       </c>
@@ -14019,7 +14031,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>529</v>
       </c>
@@ -14037,7 +14049,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="28">
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>533</v>
       </c>
@@ -14055,7 +14067,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="28">
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>547</v>
       </c>
@@ -14073,7 +14085,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>653</v>
       </c>
@@ -14091,7 +14103,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="28">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>804</v>
       </c>
@@ -14109,7 +14121,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="28">
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>810</v>
       </c>
@@ -14127,7 +14139,7 @@
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="28">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>815</v>
       </c>
@@ -14145,7 +14157,7 @@
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="28">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>820</v>
       </c>
@@ -14163,7 +14175,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="28">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>828</v>
       </c>
@@ -14181,7 +14193,7 @@
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="28">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>857</v>
       </c>
@@ -14199,7 +14211,7 @@
       </c>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" ht="28">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>864</v>
       </c>
@@ -14217,7 +14229,7 @@
       </c>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" ht="28">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>874</v>
       </c>
@@ -14235,7 +14247,7 @@
       </c>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" ht="28">
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>498</v>
       </c>
@@ -14253,7 +14265,7 @@
       </c>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" ht="28">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>533</v>
       </c>
@@ -14271,7 +14283,7 @@
       </c>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" ht="28">
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>547</v>
       </c>
@@ -14289,7 +14301,7 @@
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" ht="28">
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>864</v>
       </c>
@@ -14307,7 +14319,7 @@
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" ht="28">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>864</v>
       </c>
@@ -14325,7 +14337,7 @@
       </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>505</v>
       </c>
@@ -14343,7 +14355,7 @@
       </c>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="28">
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>505</v>
       </c>
@@ -14361,7 +14373,7 @@
       </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>505</v>
       </c>
@@ -14379,7 +14391,7 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" ht="28">
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>755</v>
       </c>
@@ -14397,7 +14409,7 @@
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>755</v>
       </c>
@@ -14415,7 +14427,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" ht="70">
+    <row r="196" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>755</v>
       </c>
@@ -14433,7 +14445,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" ht="280">
+    <row r="197" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>533</v>
       </c>
@@ -14451,7 +14463,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" ht="266">
+    <row r="198" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>864</v>
       </c>
@@ -14469,7 +14481,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>505</v>
       </c>
@@ -14487,7 +14499,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>505</v>
       </c>
@@ -14505,7 +14517,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>505</v>
       </c>
@@ -14523,7 +14535,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>820</v>
       </c>
@@ -14541,7 +14553,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>828</v>
       </c>
@@ -14559,7 +14571,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" ht="42">
+    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -14577,7 +14589,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" ht="56">
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>804</v>
       </c>
@@ -14595,7 +14607,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" ht="56">
+    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>810</v>
       </c>
@@ -14613,7 +14625,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" ht="42">
+    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>820</v>
       </c>
@@ -14631,7 +14643,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" ht="42">
+    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>828</v>
       </c>
@@ -14649,7 +14661,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" ht="42">
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>857</v>
       </c>
@@ -14667,7 +14679,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" ht="56">
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>533</v>
       </c>
@@ -14685,7 +14697,7 @@
       </c>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" ht="28">
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>857</v>
       </c>
@@ -14703,7 +14715,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" ht="28">
+    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>505</v>
       </c>
@@ -14721,7 +14733,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" ht="42">
+    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>525</v>
       </c>
@@ -14739,7 +14751,7 @@
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" ht="42">
+    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>529</v>
       </c>
@@ -14757,7 +14769,7 @@
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" ht="56">
+    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>547</v>
       </c>
@@ -14775,7 +14787,7 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" ht="42">
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>820</v>
       </c>
@@ -14793,7 +14805,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" ht="42">
+    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>828</v>
       </c>
@@ -14811,7 +14823,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" ht="42">
+    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>864</v>
       </c>
@@ -14829,7 +14841,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" ht="42">
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>547</v>
       </c>
@@ -14847,7 +14859,7 @@
       </c>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" ht="28">
+    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>874</v>
       </c>
@@ -14865,7 +14877,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>791</v>
       </c>
@@ -14883,7 +14895,7 @@
       </c>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" ht="42">
+    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>533</v>
       </c>
@@ -14901,7 +14913,7 @@
       </c>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" ht="56">
+    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>533</v>
       </c>
@@ -14919,7 +14931,7 @@
       </c>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" ht="42">
+    <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>791</v>
       </c>
@@ -14937,7 +14949,7 @@
       </c>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" ht="28">
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>791</v>
       </c>
@@ -14955,7 +14967,7 @@
       </c>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" ht="28">
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>791</v>
       </c>
@@ -14973,7 +14985,7 @@
       </c>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" ht="28">
+    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>874</v>
       </c>
@@ -14991,7 +15003,7 @@
       </c>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" ht="28">
+    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>820</v>
       </c>
@@ -15009,7 +15021,7 @@
       </c>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" ht="28">
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>547</v>
       </c>
@@ -15027,7 +15039,7 @@
       </c>
       <c r="G229"/>
     </row>
-    <row r="230" spans="1:7" ht="28">
+    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>874</v>
       </c>
@@ -15045,7 +15057,7 @@
       </c>
       <c r="G230"/>
     </row>
-    <row r="231" spans="1:7" ht="28">
+    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>547</v>
       </c>
@@ -15063,7 +15075,7 @@
       </c>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" ht="56">
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>533</v>
       </c>
@@ -15081,7 +15093,7 @@
       </c>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" ht="210">
+    <row r="233" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>498</v>
       </c>
@@ -15099,7 +15111,7 @@
       </c>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7" ht="42">
+    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>864</v>
       </c>
@@ -15117,7 +15129,7 @@
       </c>
       <c r="G234"/>
     </row>
-    <row r="235" spans="1:7" ht="42">
+    <row r="235" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>505</v>
       </c>
@@ -15135,7 +15147,7 @@
       </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" ht="84">
+    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>791</v>
       </c>
@@ -15153,7 +15165,7 @@
       </c>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" ht="70">
+    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>804</v>
       </c>
@@ -15171,7 +15183,7 @@
       </c>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" ht="70">
+    <row r="238" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>810</v>
       </c>
@@ -15189,7 +15201,7 @@
       </c>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7" ht="70">
+    <row r="239" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>815</v>
       </c>
@@ -15207,7 +15219,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>653</v>
       </c>
@@ -15225,7 +15237,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" ht="28">
+    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>755</v>
       </c>
@@ -15243,7 +15255,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" ht="28">
+    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>883</v>
       </c>
@@ -15261,7 +15273,7 @@
       </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" ht="28">
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>558</v>
       </c>
@@ -15279,7 +15291,7 @@
       </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>653</v>
       </c>
@@ -15297,7 +15309,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" ht="28">
+    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>888</v>
       </c>
@@ -15315,7 +15327,7 @@
       </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" ht="28">
+    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>894</v>
       </c>
@@ -15333,7 +15345,7 @@
       </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" ht="28">
+    <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>900</v>
       </c>
@@ -15351,7 +15363,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>558</v>
       </c>
@@ -15369,7 +15381,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" ht="28">
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>558</v>
       </c>
@@ -15387,7 +15399,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>558</v>
       </c>
@@ -15405,7 +15417,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" ht="28">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>755</v>
       </c>
@@ -15423,7 +15435,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>755</v>
       </c>
@@ -15441,7 +15453,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" ht="70">
+    <row r="253" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>755</v>
       </c>
@@ -15459,7 +15471,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>558</v>
       </c>
@@ -15477,7 +15489,7 @@
       </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" ht="28">
+    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>558</v>
       </c>
@@ -15495,7 +15507,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" ht="28">
+    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>558</v>
       </c>
@@ -15513,7 +15525,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" ht="42">
+    <row r="257" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>888</v>
       </c>
@@ -15531,7 +15543,7 @@
       </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" ht="28">
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>894</v>
       </c>
@@ -15549,7 +15561,7 @@
       </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" ht="28">
+    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>900</v>
       </c>
@@ -15567,7 +15579,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" ht="112">
+    <row r="260" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>888</v>
       </c>
@@ -15585,7 +15597,7 @@
       </c>
       <c r="G260"/>
     </row>
-    <row r="261" spans="1:7" ht="70">
+    <row r="261" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>558</v>
       </c>
@@ -15603,7 +15615,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>558</v>
       </c>
@@ -15621,7 +15633,7 @@
       </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" ht="42">
+    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>883</v>
       </c>
@@ -15639,7 +15651,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" ht="42">
+    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>894</v>
       </c>
@@ -15657,7 +15669,7 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" ht="28">
+    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>579</v>
       </c>
@@ -15675,7 +15687,7 @@
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" ht="28">
+    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>585</v>
       </c>
@@ -15693,7 +15705,7 @@
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" ht="28">
+    <row r="267" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>597</v>
       </c>
@@ -15711,7 +15723,7 @@
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" ht="28">
+    <row r="268" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>600</v>
       </c>
@@ -15729,7 +15741,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" ht="28">
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>603</v>
       </c>
@@ -15747,7 +15759,7 @@
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" ht="28">
+    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>610</v>
       </c>
@@ -15765,7 +15777,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" ht="28">
+    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>627</v>
       </c>
@@ -15783,7 +15795,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" ht="28">
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>647</v>
       </c>
@@ -15801,7 +15813,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>653</v>
       </c>
@@ -15819,7 +15831,7 @@
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" ht="28">
+    <row r="274" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>755</v>
       </c>
@@ -15837,7 +15849,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" ht="28">
+    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>910</v>
       </c>
@@ -15855,7 +15867,7 @@
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" ht="28">
+    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>921</v>
       </c>
@@ -15873,7 +15885,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>429</v>
       </c>
@@ -15891,7 +15903,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" ht="28">
+    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>435</v>
       </c>
@@ -15909,7 +15921,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" ht="28">
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>610</v>
       </c>
@@ -15927,7 +15939,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" ht="28">
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>650</v>
       </c>
@@ -15945,7 +15957,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>653</v>
       </c>
@@ -15963,7 +15975,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" ht="28">
+    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>935</v>
       </c>
@@ -15981,7 +15993,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" ht="28">
+    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>938</v>
       </c>
@@ -15999,7 +16011,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" ht="98">
+    <row r="284" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>910</v>
       </c>
@@ -16017,7 +16029,7 @@
       </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" ht="28">
+    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>610</v>
       </c>
@@ -16035,7 +16047,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" ht="28">
+    <row r="286" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>610</v>
       </c>
@@ -16053,7 +16065,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>627</v>
       </c>
@@ -16071,7 +16083,7 @@
       </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" ht="28">
+    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>627</v>
       </c>
@@ -16089,7 +16101,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>627</v>
       </c>
@@ -16107,7 +16119,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" ht="28">
+    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>585</v>
       </c>
@@ -16125,7 +16137,7 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" ht="28">
+    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>755</v>
       </c>
@@ -16143,7 +16155,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" ht="28">
+    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>585</v>
       </c>
@@ -16161,7 +16173,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>755</v>
       </c>
@@ -16179,7 +16191,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" ht="70">
+    <row r="294" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>585</v>
       </c>
@@ -16197,7 +16209,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" ht="70">
+    <row r="295" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>755</v>
       </c>
@@ -16215,7 +16227,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" ht="56">
+    <row r="296" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>910</v>
       </c>
@@ -16233,7 +16245,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>627</v>
       </c>
@@ -16251,7 +16263,7 @@
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" ht="28">
+    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>429</v>
       </c>
@@ -16269,7 +16281,7 @@
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" ht="28">
+    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>435</v>
       </c>
@@ -16287,7 +16299,7 @@
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" ht="84">
+    <row r="300" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>938</v>
       </c>
@@ -16305,7 +16317,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" ht="28">
+    <row r="301" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>627</v>
       </c>
@@ -16323,7 +16335,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" ht="42">
+    <row r="302" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>938</v>
       </c>
@@ -16341,7 +16353,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" ht="28">
+    <row r="303" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>938</v>
       </c>
@@ -16359,7 +16371,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>610</v>
       </c>
@@ -16377,7 +16389,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" ht="126">
+    <row r="305" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>610</v>
       </c>
@@ -16395,7 +16407,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" ht="70">
+    <row r="306" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>910</v>
       </c>
@@ -16413,7 +16425,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" ht="28">
+    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>921</v>
       </c>
@@ -16431,7 +16443,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>429</v>
       </c>
@@ -16449,7 +16461,7 @@
       </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" ht="28">
+    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>603</v>
       </c>
@@ -16467,7 +16479,7 @@
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" ht="28">
+    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>435</v>
       </c>
@@ -16485,7 +16497,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" ht="28">
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>579</v>
       </c>
@@ -16503,7 +16515,7 @@
       </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" ht="28">
+    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>585</v>
       </c>
@@ -16521,7 +16533,7 @@
       </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" ht="28">
+    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>597</v>
       </c>
@@ -16539,7 +16551,7 @@
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" ht="28">
+    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>603</v>
       </c>
@@ -16557,7 +16569,7 @@
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" ht="28">
+    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>610</v>
       </c>
@@ -16575,7 +16587,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" ht="28">
+    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>627</v>
       </c>
@@ -16593,7 +16605,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" ht="28">
+    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>647</v>
       </c>
@@ -16611,7 +16623,7 @@
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" ht="28">
+    <row r="318" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>910</v>
       </c>
@@ -16629,7 +16641,7 @@
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" ht="28">
+    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>921</v>
       </c>
@@ -16647,7 +16659,7 @@
       </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" ht="28">
+    <row r="320" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>610</v>
       </c>
@@ -16665,7 +16677,7 @@
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" ht="28">
+    <row r="321" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>650</v>
       </c>
@@ -16683,7 +16695,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" ht="28">
+    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>935</v>
       </c>
@@ -16701,7 +16713,7 @@
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" ht="28">
+    <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>938</v>
       </c>
@@ -16719,7 +16731,7 @@
       </c>
       <c r="G323"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1040</v>
       </c>
@@ -16737,7 +16749,7 @@
       </c>
       <c r="G324"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1038</v>
       </c>
@@ -16755,7 +16767,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" ht="98">
+    <row r="326" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>910</v>
       </c>
@@ -16773,7 +16785,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" ht="28">
+    <row r="327" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>610</v>
       </c>
@@ -16791,7 +16803,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" ht="28">
+    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>610</v>
       </c>
@@ -16809,7 +16821,7 @@
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>627</v>
       </c>
@@ -16827,7 +16839,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" ht="28">
+    <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>627</v>
       </c>
@@ -16845,7 +16857,7 @@
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>627</v>
       </c>
@@ -16863,7 +16875,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" ht="28">
+    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>585</v>
       </c>
@@ -16881,7 +16893,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" ht="28">
+    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>585</v>
       </c>
@@ -16899,7 +16911,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" ht="70">
+    <row r="334" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>585</v>
       </c>
@@ -16917,7 +16929,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" ht="56">
+    <row r="335" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>910</v>
       </c>
@@ -16935,7 +16947,7 @@
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>627</v>
       </c>
@@ -16953,7 +16965,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" ht="84">
+    <row r="337" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>938</v>
       </c>
@@ -16971,7 +16983,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" ht="28">
+    <row r="338" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>627</v>
       </c>
@@ -16989,7 +17001,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" ht="42">
+    <row r="339" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>938</v>
       </c>
@@ -17007,7 +17019,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" ht="28">
+    <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>938</v>
       </c>
@@ -17025,7 +17037,7 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>610</v>
       </c>
@@ -17043,7 +17055,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" ht="126">
+    <row r="342" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>610</v>
       </c>
@@ -17061,7 +17073,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" ht="28">
+    <row r="343" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>921</v>
       </c>
@@ -17079,7 +17091,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" ht="28">
+    <row r="344" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>603</v>
       </c>
@@ -17097,7 +17109,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" ht="28">
+    <row r="345" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>627</v>
       </c>
@@ -17139,14 +17151,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="165.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="165.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>990</v>
       </c>
@@ -17154,7 +17166,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>992</v>
       </c>
@@ -17162,7 +17174,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>994</v>
       </c>
@@ -17170,7 +17182,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>996</v>
       </c>
@@ -17178,7 +17190,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>998</v>
       </c>
@@ -17186,7 +17198,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1000</v>
       </c>
@@ -17194,7 +17206,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1002</v>
       </c>
@@ -17202,7 +17214,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1004</v>
       </c>
@@ -17210,7 +17222,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1006</v>
       </c>
@@ -17218,7 +17230,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1008</v>
       </c>
@@ -17226,7 +17238,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1010</v>
       </c>
@@ -17234,7 +17246,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1012</v>
       </c>
@@ -17242,7 +17254,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1013</v>
       </c>
@@ -17250,7 +17262,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1014</v>
       </c>
@@ -17258,7 +17270,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1015</v>
       </c>
@@ -17266,7 +17278,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1016</v>
       </c>
@@ -17274,7 +17286,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60">
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1017</v>
       </c>
@@ -17282,7 +17294,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1018</v>
       </c>
@@ -17290,7 +17302,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1019</v>
       </c>
@@ -17298,7 +17310,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1020</v>
       </c>
@@ -17306,7 +17318,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1021</v>
       </c>
@@ -17314,7 +17326,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1022</v>
       </c>
@@ -17322,7 +17334,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1023</v>
       </c>
@@ -17330,7 +17342,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1024</v>
       </c>
@@ -17338,7 +17350,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1025</v>
       </c>
@@ -17346,7 +17358,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1026</v>
       </c>
@@ -17354,7 +17366,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1027</v>
       </c>
@@ -17362,7 +17374,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1028</v>
       </c>
@@ -17370,7 +17382,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1029</v>
       </c>
@@ -17378,7 +17390,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1030</v>
       </c>
@@ -17386,7 +17398,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1031</v>
       </c>
@@ -17394,7 +17406,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1032</v>
       </c>
@@ -17402,7 +17414,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1033</v>
       </c>
@@ -17410,7 +17422,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1034</v>
       </c>
@@ -17418,7 +17430,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1035</v>
       </c>
@@ -17444,15 +17456,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="51" style="7" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="7"/>
+    <col min="3" max="3" width="34.85546875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="55.5" customHeight="1">
+    <row r="1" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>930</v>
       </c>
@@ -17463,7 +17475,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>931</v>
       </c>
@@ -17471,7 +17483,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1">
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>932</v>
       </c>
@@ -17482,7 +17494,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.75" customHeight="1">
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>933</v>
       </c>
@@ -17493,7 +17505,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1">
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>934</v>
       </c>
@@ -17504,7 +17516,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1">
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>50</v>
       </c>
@@ -17512,37 +17524,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1">
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1">
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.75" customHeight="1">
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="24.75" customHeight="1">
+    <row r="17" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="24.75" customHeight="1">
+    <row r="18" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>952</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="24.75" customHeight="1">
+    <row r="19" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="24.75" customHeight="1">
+    <row r="20" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
